--- a/src/test/java/com/born/xls/ProductListPage.xlsx
+++ b/src/test/java/com/born/xls/ProductListPage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6590" windowHeight="2660" tabRatio="937"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6590" windowHeight="2660" tabRatio="937" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="219">
   <si>
     <t>TCID</t>
   </si>
@@ -1181,27 +1181,14 @@
     <t>Click enter</t>
   </si>
   <si>
-    <t>Result2</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>Result1</t>
-  </si>
-  <si>
     <t>SKIP</t>
-  </si>
-  <si>
-    <t>Result3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1276,7 +1263,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1329,36 +1316,6 @@
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="55"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="55"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill>
-        <fgColor indexed="55"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
       </patternFill>
     </fill>
   </fills>
@@ -1426,7 +1383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1519,9 +1476,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1834,16 +1788,16 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="42.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="74.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="9.54296875" collapsed="true"/>
-    <col min="4" max="16384" style="2" width="9.1796875" collapsed="true"/>
+    <col min="1" max="1" width="42" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="74" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.54296875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.1796875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -2087,25 +2041,24 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:J680"/>
+  <dimension ref="A1:K680"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="32.6328125" collapsed="true"/>
-    <col min="2" max="2" style="1" width="9.1796875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="54.08984375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="22.81640625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="34.1796875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="29.7265625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="17.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="7.51171875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="7.51171875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="7.51171875" collapsed="true"/>
-    <col min="11" max="16384" style="1" width="9.1796875" collapsed="true"/>
+    <col min="1" max="1" width="32.6328125" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.1796875" style="1" collapsed="1"/>
+    <col min="3" max="3" width="54.08984375" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="34.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29.7265625" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.1796875" style="1" collapsed="1"/>
+    <col min="9" max="11" width="9.1796875" style="1"/>
+    <col min="12" max="16384" width="9.1796875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -2130,15 +2083,6 @@
       <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s" s="40">
-        <v>218</v>
-      </c>
-      <c r="I1" t="s" s="41">
-        <v>220</v>
-      </c>
-      <c r="J1" t="s" s="42">
-        <v>222</v>
-      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
@@ -2158,9 +2102,6 @@
         <v>9</v>
       </c>
       <c r="G2" s="27"/>
-      <c r="H2" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="27" t="s">
@@ -2180,9 +2121,6 @@
         <v>11</v>
       </c>
       <c r="G3" s="27"/>
-      <c r="H3" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
@@ -2202,9 +2140,6 @@
       </c>
       <c r="F4" s="27"/>
       <c r="G4" s="27"/>
-      <c r="H4" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="27" t="s">
@@ -2224,9 +2159,6 @@
       </c>
       <c r="F5" s="27"/>
       <c r="G5" s="27"/>
-      <c r="H5" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="27" t="s">
@@ -2246,9 +2178,6 @@
       </c>
       <c r="F6" s="27"/>
       <c r="G6" s="27"/>
-      <c r="H6" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="27" t="s">
@@ -2266,9 +2195,6 @@
       <c r="E7" s="27"/>
       <c r="F7" s="27"/>
       <c r="G7" s="27"/>
-      <c r="H7" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="28"/>
@@ -2297,9 +2223,6 @@
         <v>9</v>
       </c>
       <c r="G9" s="27"/>
-      <c r="H9" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="27" t="s">
@@ -2319,9 +2242,6 @@
         <v>11</v>
       </c>
       <c r="G10" s="27"/>
-      <c r="H10" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="27" t="s">
@@ -2341,9 +2261,6 @@
       </c>
       <c r="F11" s="27"/>
       <c r="G11" s="27"/>
-      <c r="H11" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="27" t="s">
@@ -2363,9 +2280,6 @@
       </c>
       <c r="F12" s="27"/>
       <c r="G12" s="27"/>
-      <c r="H12" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="27" t="s">
@@ -2385,9 +2299,6 @@
       </c>
       <c r="F13" s="27"/>
       <c r="G13" s="27"/>
-      <c r="H13" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="27" t="s">
@@ -2407,9 +2318,6 @@
       </c>
       <c r="F14" s="27"/>
       <c r="G14" s="27"/>
-      <c r="H14" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="27" t="s">
@@ -2431,9 +2339,6 @@
         <v>47</v>
       </c>
       <c r="G15" s="27"/>
-      <c r="H15" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="27" t="s">
@@ -2451,9 +2356,6 @@
       <c r="E16" s="27"/>
       <c r="F16" s="27"/>
       <c r="G16" s="27"/>
-      <c r="H16" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="28"/>
@@ -2482,12 +2384,6 @@
         <v>9</v>
       </c>
       <c r="G18" s="27"/>
-      <c r="H18" t="s">
-        <v>221</v>
-      </c>
-      <c r="I18" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="27" t="s">
@@ -2507,12 +2403,6 @@
         <v>11</v>
       </c>
       <c r="G19" s="27"/>
-      <c r="H19" t="s">
-        <v>221</v>
-      </c>
-      <c r="I19" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="27" t="s">
@@ -2532,12 +2422,6 @@
       </c>
       <c r="F20" s="27"/>
       <c r="G20" s="27"/>
-      <c r="H20" t="s">
-        <v>221</v>
-      </c>
-      <c r="I20" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="27" t="s">
@@ -2557,12 +2441,6 @@
       </c>
       <c r="F21" s="27"/>
       <c r="G21" s="27"/>
-      <c r="H21" t="s">
-        <v>221</v>
-      </c>
-      <c r="I21" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="27" t="s">
@@ -2582,12 +2460,6 @@
       </c>
       <c r="F22" s="27"/>
       <c r="G22" s="27"/>
-      <c r="H22" t="s">
-        <v>221</v>
-      </c>
-      <c r="I22" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="27" t="s">
@@ -2607,12 +2479,6 @@
       </c>
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
-      <c r="H23" t="s">
-        <v>221</v>
-      </c>
-      <c r="I23" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="27" t="s">
@@ -2632,12 +2498,6 @@
       </c>
       <c r="F24" s="27"/>
       <c r="G24" s="27"/>
-      <c r="H24" t="s">
-        <v>221</v>
-      </c>
-      <c r="I24" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="27" t="s">
@@ -2655,12 +2515,6 @@
       <c r="E25" s="27"/>
       <c r="F25" s="27"/>
       <c r="G25" s="27"/>
-      <c r="H25" t="s">
-        <v>221</v>
-      </c>
-      <c r="I25" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="28"/>
@@ -2689,9 +2543,6 @@
         <v>9</v>
       </c>
       <c r="G27" s="27"/>
-      <c r="H27" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
@@ -2711,9 +2562,6 @@
         <v>11</v>
       </c>
       <c r="G28" s="27"/>
-      <c r="H28" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
@@ -2733,9 +2581,6 @@
       </c>
       <c r="F29" s="27"/>
       <c r="G29" s="27"/>
-      <c r="H29" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
@@ -2755,9 +2600,6 @@
       </c>
       <c r="F30" s="27"/>
       <c r="G30" s="27"/>
-      <c r="H30" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
@@ -2777,9 +2619,6 @@
       </c>
       <c r="F31" s="27"/>
       <c r="G31" s="27"/>
-      <c r="H31" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
@@ -2799,9 +2638,6 @@
       </c>
       <c r="F32" s="27"/>
       <c r="G32" s="27"/>
-      <c r="H32" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
@@ -2821,9 +2657,6 @@
       </c>
       <c r="F33" s="27"/>
       <c r="G33" s="27"/>
-      <c r="H33" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
@@ -2843,9 +2676,6 @@
       </c>
       <c r="F34" s="27"/>
       <c r="G34" s="27"/>
-      <c r="H34" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
@@ -2863,9 +2693,6 @@
       <c r="E35" s="27"/>
       <c r="F35" s="27"/>
       <c r="G35" s="27"/>
-      <c r="H35" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="28"/>
@@ -2894,9 +2721,6 @@
         <v>9</v>
       </c>
       <c r="G37" s="27"/>
-      <c r="I37" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
@@ -2916,9 +2740,6 @@
         <v>11</v>
       </c>
       <c r="G38" s="27"/>
-      <c r="I38" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
@@ -2940,9 +2761,6 @@
         <v>64</v>
       </c>
       <c r="G39" s="27"/>
-      <c r="I39" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
@@ -2962,9 +2780,6 @@
       </c>
       <c r="F40" s="27"/>
       <c r="G40" s="27"/>
-      <c r="I40" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
@@ -2982,9 +2797,6 @@
       <c r="E41" s="27"/>
       <c r="F41" s="27"/>
       <c r="G41" s="27"/>
-      <c r="I41" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
@@ -3004,9 +2816,6 @@
       </c>
       <c r="F42" s="27"/>
       <c r="G42" s="27"/>
-      <c r="I42" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
@@ -3026,9 +2835,6 @@
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="27"/>
-      <c r="I43" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
@@ -3048,9 +2854,6 @@
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="27"/>
-      <c r="I44" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="6" t="s">
@@ -3070,9 +2873,6 @@
       </c>
       <c r="F45" s="27"/>
       <c r="G45" s="27"/>
-      <c r="I45" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
@@ -3090,9 +2890,6 @@
       <c r="E46" s="27"/>
       <c r="F46" s="27"/>
       <c r="G46" s="27"/>
-      <c r="I46" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="28"/>
@@ -3121,9 +2918,6 @@
         <v>9</v>
       </c>
       <c r="G48" s="27"/>
-      <c r="J48" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="49" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="19" t="s">
@@ -3143,9 +2937,6 @@
         <v>11</v>
       </c>
       <c r="G49" s="27"/>
-      <c r="J49" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="50" spans="1:7" ht="145" x14ac:dyDescent="0.35">
       <c r="A50" s="19" t="s">
@@ -3165,9 +2956,6 @@
       </c>
       <c r="F50" s="27"/>
       <c r="G50" s="27"/>
-      <c r="J50" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="51" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="19" t="s">
@@ -3185,9 +2973,6 @@
       <c r="E51" s="27"/>
       <c r="F51" s="27"/>
       <c r="G51" s="27"/>
-      <c r="J51" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="37"/>
@@ -3216,9 +3001,6 @@
         <v>9</v>
       </c>
       <c r="G53" s="27"/>
-      <c r="J53" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="54" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A54" s="19" t="s">
@@ -3238,9 +3020,6 @@
         <v>11</v>
       </c>
       <c r="G54" s="27"/>
-      <c r="J54" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="55" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A55" s="19" t="s">
@@ -3260,9 +3039,6 @@
       </c>
       <c r="F55" s="27"/>
       <c r="G55" s="27"/>
-      <c r="J55" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="56" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A56" s="19" t="s">
@@ -3282,9 +3058,6 @@
         <v>11</v>
       </c>
       <c r="G56" s="27"/>
-      <c r="J56" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="57" spans="1:7" ht="87.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="19" t="s">
@@ -3302,9 +3075,6 @@
       <c r="E57" s="27"/>
       <c r="F57" s="27"/>
       <c r="G57" s="27"/>
-      <c r="J57" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="28"/>
@@ -3333,9 +3103,6 @@
         <v>9</v>
       </c>
       <c r="G59" s="27"/>
-      <c r="J59" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="20" t="s">
@@ -3355,9 +3122,6 @@
         <v>11</v>
       </c>
       <c r="G60" s="27"/>
-      <c r="J60" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="20" t="s">
@@ -3377,9 +3141,6 @@
         <v>210</v>
       </c>
       <c r="G61" s="27"/>
-      <c r="J61" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="62" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A62" s="21" t="s">
@@ -3399,9 +3160,6 @@
       </c>
       <c r="F62" s="27"/>
       <c r="G62" s="27"/>
-      <c r="J62" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="20" t="s">
@@ -3419,9 +3177,6 @@
       <c r="E63" s="27"/>
       <c r="F63" s="27"/>
       <c r="G63" s="27"/>
-      <c r="J63" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="28"/>
@@ -3450,9 +3205,6 @@
         <v>9</v>
       </c>
       <c r="G65" s="27"/>
-      <c r="J65" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="66" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A66" s="19" t="s">
@@ -3472,9 +3224,6 @@
         <v>11</v>
       </c>
       <c r="G66" s="27"/>
-      <c r="J66" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="67" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A67" s="19" t="s">
@@ -3494,9 +3243,6 @@
       </c>
       <c r="F67" s="27"/>
       <c r="G67" s="27"/>
-      <c r="J67" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="68" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A68" s="19" t="s">
@@ -3516,9 +3262,6 @@
       </c>
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
-      <c r="J68" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="69" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A69" s="19" t="s">
@@ -3538,9 +3281,6 @@
       </c>
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
-      <c r="J69" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="70" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A70" s="19" t="s">
@@ -3560,9 +3300,6 @@
       </c>
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
-      <c r="J70" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="71" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A71" s="19" t="s">
@@ -3582,9 +3319,6 @@
       </c>
       <c r="F71" s="27"/>
       <c r="G71" s="27"/>
-      <c r="J71" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="72" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A72" s="19" t="s">
@@ -3604,9 +3338,6 @@
       </c>
       <c r="F72" s="27"/>
       <c r="G72" s="27"/>
-      <c r="J72" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="73" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A73" s="19" t="s">
@@ -3624,9 +3355,6 @@
       <c r="E73" s="29"/>
       <c r="F73" s="27"/>
       <c r="G73" s="27"/>
-      <c r="J73" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="28"/>
@@ -3655,9 +3383,6 @@
         <v>9</v>
       </c>
       <c r="G75" s="27"/>
-      <c r="J75" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="20" t="s">
@@ -3677,9 +3402,6 @@
         <v>11</v>
       </c>
       <c r="G76" s="27"/>
-      <c r="J76" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="77" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A77" s="20" t="s">
@@ -3699,9 +3421,6 @@
       </c>
       <c r="F77" s="27"/>
       <c r="G77" s="27"/>
-      <c r="J77" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="20" t="s">
@@ -3721,9 +3440,6 @@
       </c>
       <c r="F78" s="27"/>
       <c r="G78" s="27"/>
-      <c r="J78" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="20" t="s">
@@ -3743,9 +3459,6 @@
       </c>
       <c r="F79" s="27"/>
       <c r="G79" s="27"/>
-      <c r="J79" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="20" t="s">
@@ -3765,9 +3478,6 @@
       </c>
       <c r="F80" s="27"/>
       <c r="G80" s="27"/>
-      <c r="J80" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="20" t="s">
@@ -3785,9 +3495,6 @@
       <c r="E81" s="29"/>
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
-      <c r="J81" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="28"/>
@@ -3816,9 +3523,6 @@
         <v>9</v>
       </c>
       <c r="G83" s="27"/>
-      <c r="J83" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="84" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A84" s="19" t="s">
@@ -3838,9 +3542,6 @@
         <v>11</v>
       </c>
       <c r="G84" s="27"/>
-      <c r="J84" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="85" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A85" s="19" t="s">
@@ -3860,9 +3561,6 @@
       </c>
       <c r="F85" s="27"/>
       <c r="G85" s="27"/>
-      <c r="J85" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="86" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A86" s="19" t="s">
@@ -3880,9 +3578,6 @@
       <c r="E86" s="29"/>
       <c r="F86" s="26"/>
       <c r="G86" s="27"/>
-      <c r="J86" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="28"/>
@@ -3911,9 +3606,6 @@
         <v>9</v>
       </c>
       <c r="G88" s="27"/>
-      <c r="J88" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="89" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A89" s="19" t="s">
@@ -3933,9 +3625,6 @@
         <v>11</v>
       </c>
       <c r="G89" s="27"/>
-      <c r="J89" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="90" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A90" s="19" t="s">
@@ -3953,9 +3642,6 @@
       <c r="E90" s="27"/>
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
-      <c r="J90" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="91" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A91" s="19" t="s">
@@ -3975,9 +3661,6 @@
       </c>
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
-      <c r="J91" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="92" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A92" s="19" t="s">
@@ -3999,9 +3682,6 @@
         <v>124</v>
       </c>
       <c r="G92" s="27"/>
-      <c r="J92" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="93" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A93" s="19" t="s">
@@ -4021,9 +3701,6 @@
       </c>
       <c r="F93" s="27"/>
       <c r="G93" s="27"/>
-      <c r="J93" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="94" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="19" t="s">
@@ -4041,9 +3718,6 @@
       <c r="E94" s="26"/>
       <c r="F94" s="27"/>
       <c r="G94" s="27"/>
-      <c r="J94" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" s="28"/>
@@ -4074,9 +3748,6 @@
         <v>9</v>
       </c>
       <c r="G96" s="27"/>
-      <c r="I96" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="97" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="19" t="s">
@@ -4096,9 +3767,6 @@
         <v>212</v>
       </c>
       <c r="G97" s="27"/>
-      <c r="I97" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="98" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="19" t="s">
@@ -4120,9 +3788,6 @@
         <v>135</v>
       </c>
       <c r="G98" s="27"/>
-      <c r="I98" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="99" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A99" s="19" t="s">
@@ -4142,9 +3807,6 @@
       </c>
       <c r="F99" s="27"/>
       <c r="G99" s="27"/>
-      <c r="I99" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="19" t="s">
@@ -4162,9 +3824,6 @@
       <c r="E100" s="27"/>
       <c r="F100" s="27"/>
       <c r="G100" s="27"/>
-      <c r="I100" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" s="28"/>
@@ -4195,9 +3854,6 @@
         <v>9</v>
       </c>
       <c r="G102" s="27"/>
-      <c r="H102" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="103" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A103" s="19" t="s">
@@ -4217,9 +3873,6 @@
         <v>11</v>
       </c>
       <c r="G103" s="27"/>
-      <c r="H103" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="104" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A104" s="19" t="s">
@@ -4239,9 +3892,6 @@
       </c>
       <c r="F104" s="27"/>
       <c r="G104" s="27"/>
-      <c r="H104" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="105" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A105" s="19" t="s">
@@ -4261,9 +3911,6 @@
       </c>
       <c r="F105" s="27"/>
       <c r="G105" s="27"/>
-      <c r="H105" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="106" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A106" s="19" t="s">
@@ -4281,9 +3928,6 @@
       <c r="E106" s="29"/>
       <c r="F106" s="27"/>
       <c r="G106" s="27"/>
-      <c r="H106" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" s="28"/>
@@ -4314,9 +3958,6 @@
         <v>9</v>
       </c>
       <c r="G108" s="27"/>
-      <c r="H108" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="109" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A109" s="19" t="s">
@@ -4336,9 +3977,6 @@
         <v>11</v>
       </c>
       <c r="G109" s="27"/>
-      <c r="H109" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="110" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A110" s="19" t="s">
@@ -4358,9 +3996,6 @@
       </c>
       <c r="F110" s="27"/>
       <c r="G110" s="27"/>
-      <c r="H110" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="111" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A111" s="19" t="s">
@@ -4380,9 +4015,6 @@
       </c>
       <c r="F111" s="27"/>
       <c r="G111" s="27"/>
-      <c r="H111" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="112" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A112" s="19" t="s">
@@ -4402,9 +4034,6 @@
       </c>
       <c r="F112" s="27"/>
       <c r="G112" s="27"/>
-      <c r="H112" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="113" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A113" s="19" t="s">
@@ -4424,9 +4053,6 @@
       </c>
       <c r="F113" s="27"/>
       <c r="G113" s="27"/>
-      <c r="H113" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="114" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A114" s="19" t="s">
@@ -4446,9 +4072,6 @@
       </c>
       <c r="F114" s="27"/>
       <c r="G114" s="27"/>
-      <c r="H114" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="115" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A115" s="19" t="s">
@@ -4468,9 +4091,6 @@
       </c>
       <c r="F115" s="27"/>
       <c r="G115" s="27"/>
-      <c r="H115" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="116" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A116" s="19" t="s">
@@ -4490,9 +4110,6 @@
       </c>
       <c r="F116" s="27"/>
       <c r="G116" s="27"/>
-      <c r="H116" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="117" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A117" s="19" t="s">
@@ -4512,9 +4129,6 @@
       </c>
       <c r="F117" s="27"/>
       <c r="G117" s="27"/>
-      <c r="H117" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="118" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A118" s="19" t="s">
@@ -4534,9 +4148,6 @@
       </c>
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
-      <c r="H118" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="119" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A119" s="19" t="s">
@@ -4556,9 +4167,6 @@
       </c>
       <c r="F119" s="7"/>
       <c r="G119" s="27"/>
-      <c r="H119" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="120" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A120" s="19" t="s">
@@ -4578,9 +4186,6 @@
       </c>
       <c r="F120" s="7"/>
       <c r="G120" s="27"/>
-      <c r="H120" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="121" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A121" s="19" t="s">
@@ -4600,9 +4205,6 @@
       </c>
       <c r="F121" s="27"/>
       <c r="G121" s="27"/>
-      <c r="H121" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="122" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A122" s="19" t="s">
@@ -4622,9 +4224,6 @@
       </c>
       <c r="F122" s="27"/>
       <c r="G122" s="27"/>
-      <c r="H122" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="123" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A123" s="19" t="s">
@@ -4642,9 +4241,6 @@
       <c r="E123" s="27"/>
       <c r="F123" s="27"/>
       <c r="G123" s="27"/>
-      <c r="H123" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" s="28"/>
@@ -4675,9 +4271,6 @@
         <v>9</v>
       </c>
       <c r="G125" s="27"/>
-      <c r="H125" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="126" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A126" s="19" t="s">
@@ -4697,9 +4290,6 @@
         <v>11</v>
       </c>
       <c r="G126" s="27"/>
-      <c r="H126" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="127" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A127" s="19" t="s">
@@ -4719,9 +4309,6 @@
       </c>
       <c r="F127" s="7"/>
       <c r="G127" s="7"/>
-      <c r="H127" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="128" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A128" s="19" t="s">
@@ -4741,9 +4328,6 @@
       </c>
       <c r="F128" s="7"/>
       <c r="G128" s="27"/>
-      <c r="H128" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="129" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A129" s="19" t="s">
@@ -4763,9 +4347,6 @@
       </c>
       <c r="F129" s="7"/>
       <c r="G129" s="27"/>
-      <c r="H129" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="130" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A130" s="19" t="s">
@@ -4785,9 +4366,6 @@
       </c>
       <c r="F130" s="27"/>
       <c r="G130" s="27"/>
-      <c r="H130" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="131" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A131" s="19" t="s">
@@ -4807,9 +4385,6 @@
       </c>
       <c r="F131" s="27"/>
       <c r="G131" s="27"/>
-      <c r="H131" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="132" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A132" s="19" t="s">
@@ -4827,9 +4402,6 @@
       <c r="E132" s="27"/>
       <c r="F132" s="27"/>
       <c r="G132" s="27"/>
-      <c r="H132" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" s="28"/>
@@ -4860,9 +4432,6 @@
         <v>9</v>
       </c>
       <c r="G134" s="27"/>
-      <c r="H134" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="135" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A135" s="19" t="s">
@@ -4882,9 +4451,6 @@
         <v>11</v>
       </c>
       <c r="G135" s="27"/>
-      <c r="H135" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="136" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A136" s="19" t="s">
@@ -4904,9 +4470,6 @@
       </c>
       <c r="F136" s="7"/>
       <c r="G136" s="27"/>
-      <c r="H136" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="137" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A137" s="19" t="s">
@@ -4926,9 +4489,6 @@
       </c>
       <c r="F137" s="7"/>
       <c r="G137" s="27"/>
-      <c r="H137" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="138" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A138" s="19" t="s">
@@ -4948,9 +4508,6 @@
       </c>
       <c r="F138" s="27"/>
       <c r="G138" s="27"/>
-      <c r="H138" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="139" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A139" s="19" t="s">
@@ -4970,9 +4527,6 @@
       </c>
       <c r="F139" s="27"/>
       <c r="G139" s="27"/>
-      <c r="H139" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="140" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A140" s="19" t="s">
@@ -4990,9 +4544,6 @@
       <c r="E140" s="29"/>
       <c r="F140" s="27"/>
       <c r="G140" s="27"/>
-      <c r="H140" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" s="28"/>
@@ -5023,9 +4574,6 @@
         <v>9</v>
       </c>
       <c r="G142" s="7"/>
-      <c r="H142" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143" s="26" t="s">
@@ -5045,9 +4593,6 @@
         <v>11</v>
       </c>
       <c r="G143" s="7"/>
-      <c r="H143" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" s="26" t="s">
@@ -5065,9 +4610,6 @@
       <c r="E144" s="27"/>
       <c r="F144" s="7"/>
       <c r="G144" s="7"/>
-      <c r="H144" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" s="26" t="s">
@@ -5087,9 +4629,6 @@
       </c>
       <c r="F145" s="7"/>
       <c r="G145" s="7"/>
-      <c r="H145" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="146" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A146" s="26" t="s">
@@ -5109,9 +4648,6 @@
       </c>
       <c r="F146" s="7"/>
       <c r="G146" s="7"/>
-      <c r="H146" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147" s="26" t="s">
@@ -5131,9 +4667,6 @@
       </c>
       <c r="F147" s="7"/>
       <c r="G147" s="7"/>
-      <c r="H147" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148" s="26" t="s">
@@ -5151,9 +4684,6 @@
       <c r="E148" s="27"/>
       <c r="F148" s="7"/>
       <c r="G148" s="7"/>
-      <c r="H148" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="149" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="28"/>
@@ -5186,9 +4716,6 @@
         <v>9</v>
       </c>
       <c r="G150" s="7"/>
-      <c r="H150" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151" s="26" t="s">
@@ -5208,9 +4735,6 @@
         <v>11</v>
       </c>
       <c r="G151" s="7"/>
-      <c r="H151" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152" s="26" t="s">
@@ -5228,9 +4752,6 @@
       <c r="E152" s="27"/>
       <c r="F152" s="7"/>
       <c r="G152" s="7"/>
-      <c r="H152" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153" s="26" t="s">
@@ -5250,9 +4771,6 @@
       </c>
       <c r="F153" s="7"/>
       <c r="G153" s="7"/>
-      <c r="H153" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154" s="26" t="s">
@@ -5272,9 +4790,6 @@
       </c>
       <c r="F154" s="7"/>
       <c r="G154" s="7"/>
-      <c r="H154" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155" s="26" t="s">
@@ -5292,9 +4807,6 @@
       <c r="E155" s="29"/>
       <c r="F155" s="7"/>
       <c r="G155" s="7"/>
-      <c r="H155" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="156" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="8"/>
@@ -5327,9 +4839,6 @@
         <v>9</v>
       </c>
       <c r="G157" s="7"/>
-      <c r="H157" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158" s="4" t="s">
@@ -5349,9 +4858,6 @@
         <v>11</v>
       </c>
       <c r="G158" s="7"/>
-      <c r="H158" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159" s="4" t="s">
@@ -5371,9 +4877,6 @@
       </c>
       <c r="F159" s="7"/>
       <c r="G159" s="7"/>
-      <c r="H159" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160" s="4" t="s">
@@ -5393,9 +4896,6 @@
       </c>
       <c r="F160" s="7"/>
       <c r="G160" s="7"/>
-      <c r="H160" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161" s="4" t="s">
@@ -5413,9 +4913,6 @@
       <c r="E161" s="33"/>
       <c r="F161" s="7"/>
       <c r="G161" s="7"/>
-      <c r="H161" t="s">
-        <v>219</v>
-      </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162" s="11"/>
@@ -10075,9 +9572,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="38.26953125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="13.36328125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="6.61328125" collapsed="true"/>
+    <col min="1" max="1" width="38.26953125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.36328125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="6.6328125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -10098,9 +9595,7 @@
       <c r="B2" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>219</v>
-      </c>
+      <c r="C2" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10118,9 +9613,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.1796875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="10.26953125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="6.61328125" collapsed="true"/>
+    <col min="1" max="1" width="16.1796875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.26953125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="6.6328125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
@@ -10141,9 +9636,7 @@
       <c r="B2" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>219</v>
-      </c>
+      <c r="C2" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10155,13 +9648,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="6.3984375" collapsed="true"/>
+    <col min="3" max="3" width="6.36328125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -10182,9 +9675,7 @@
       <c r="B2" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>219</v>
-      </c>
+      <c r="C2" s="16"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
@@ -10194,7 +9685,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/com/born/xls/ProductListPage.xlsx
+++ b/src/test/java/com/born/xls/ProductListPage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6590" windowHeight="2660" tabRatio="937" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6590" windowHeight="2660" tabRatio="937"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="2" r:id="rId1"/>
@@ -1788,8 +1788,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9648,7 +9648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/src/test/java/com/born/xls/ProductListPage.xlsx
+++ b/src/test/java/com/born/xls/ProductListPage.xlsx
@@ -1788,8 +1788,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2041,10 +2041,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:K680"/>
+  <dimension ref="A1:L680"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:J1048576"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2056,9 +2056,9 @@
     <col min="5" max="5" width="34.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="29.7265625" style="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="17" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9.1796875" style="1" collapsed="1"/>
-    <col min="9" max="11" width="9.1796875" style="1"/>
-    <col min="12" max="16384" width="9.1796875" style="1" collapsed="1"/>
+    <col min="8" max="11" width="9.1796875" style="1" collapsed="1"/>
+    <col min="12" max="12" width="9.1796875" style="1"/>
+    <col min="13" max="16384" width="9.1796875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">

--- a/src/test/java/com/born/xls/ProductListPage.xlsx
+++ b/src/test/java/com/born/xls/ProductListPage.xlsx
@@ -1789,7 +1789,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C21"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/test/java/com/born/xls/ProductListPage.xlsx
+++ b/src/test/java/com/born/xls/ProductListPage.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="220">
   <si>
     <t>TCID</t>
   </si>
@@ -1182,6 +1182,9 @@
   </si>
   <si>
     <t>SKIP</t>
+  </si>
+  <si>
+    <t>mouseHover1</t>
   </si>
 </sst>
 </file>
@@ -1788,8 +1791,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2041,10 +2044,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:L680"/>
+  <dimension ref="A1:J680"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2056,9 +2059,8 @@
     <col min="5" max="5" width="34.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="29.7265625" style="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="17" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="11" width="9.1796875" style="1" collapsed="1"/>
-    <col min="12" max="12" width="9.1796875" style="1"/>
-    <col min="13" max="16384" width="9.1796875" style="1" collapsed="1"/>
+    <col min="8" max="10" width="9.1796875" style="1"/>
+    <col min="11" max="16384" width="9.1796875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -2631,7 +2633,7 @@
         <v>54</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E32" s="27" t="s">
         <v>57</v>
@@ -3885,7 +3887,7 @@
         <v>127</v>
       </c>
       <c r="D104" s="27" t="s">
-        <v>42</v>
+        <v>219</v>
       </c>
       <c r="E104" s="27" t="s">
         <v>131</v>
@@ -3989,7 +3991,7 @@
         <v>127</v>
       </c>
       <c r="D110" s="27" t="s">
-        <v>42</v>
+        <v>219</v>
       </c>
       <c r="E110" s="27" t="s">
         <v>131</v>
@@ -4065,7 +4067,7 @@
         <v>127</v>
       </c>
       <c r="D114" s="27" t="s">
-        <v>42</v>
+        <v>219</v>
       </c>
       <c r="E114" s="27" t="s">
         <v>131</v>
@@ -4122,7 +4124,7 @@
         <v>127</v>
       </c>
       <c r="D117" s="27" t="s">
-        <v>42</v>
+        <v>219</v>
       </c>
       <c r="E117" s="27" t="s">
         <v>131</v>

--- a/src/test/java/com/born/xls/ProductListPage.xlsx
+++ b/src/test/java/com/born/xls/ProductListPage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6590" windowHeight="2660" tabRatio="937"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6590" windowHeight="2660" tabRatio="937" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="221">
   <si>
     <t>TCID</t>
   </si>
@@ -1185,6 +1185,9 @@
   </si>
   <si>
     <t>mouseHover1</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
 </sst>
 </file>
@@ -1791,8 +1794,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2044,10 +2047,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:J680"/>
+  <dimension ref="A1:K680"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2059,8 +2062,9 @@
     <col min="5" max="5" width="34.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="29.7265625" style="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="17" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="10" width="9.1796875" style="1"/>
-    <col min="11" max="16384" width="9.1796875" style="1" collapsed="1"/>
+    <col min="8" max="8" width="9.1796875" style="1" collapsed="1"/>
+    <col min="9" max="11" width="9.1796875" style="1"/>
+    <col min="12" max="16384" width="9.1796875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -9569,7 +9573,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9597,7 +9601,9 @@
       <c r="B2" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="7"/>
+      <c r="C2" s="7" t="s">
+        <v>220</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9609,7 +9615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -9638,7 +9644,9 @@
       <c r="B2" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="7"/>
+      <c r="C2" s="7" t="s">
+        <v>220</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9677,7 +9685,9 @@
       <c r="B2" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="16"/>
+      <c r="C2" s="16" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">

--- a/src/test/java/com/born/xls/ProductListPage.xlsx
+++ b/src/test/java/com/born/xls/ProductListPage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6590" windowHeight="2660" tabRatio="937" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6585" windowHeight="2655" tabRatio="937"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="224">
   <si>
     <t>TCID</t>
   </si>
@@ -1188,6 +1188,15 @@
   </si>
   <si>
     <t>PASS</t>
+  </si>
+  <si>
+    <t>Result2</t>
+  </si>
+  <si>
+    <t>Result1</t>
+  </si>
+  <si>
+    <t>Result3</t>
   </si>
 </sst>
 </file>
@@ -1269,7 +1278,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1322,6 +1331,21 @@
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
       </patternFill>
     </fill>
   </fills>
@@ -1389,7 +1413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1482,6 +1506,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1794,19 +1821,19 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42" style="2" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="74" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.54296875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.1796875" style="2" collapsed="1"/>
+    <col min="3" max="3" width="9.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -1817,7 +1844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>36</v>
       </c>
@@ -1828,7 +1855,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>40</v>
       </c>
@@ -1839,7 +1866,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>53</v>
       </c>
@@ -1850,7 +1877,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>70</v>
       </c>
@@ -1861,7 +1888,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>81</v>
       </c>
@@ -1872,7 +1899,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>82</v>
       </c>
@@ -1883,7 +1910,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>83</v>
       </c>
@@ -1894,7 +1921,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>84</v>
       </c>
@@ -1905,7 +1932,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>85</v>
       </c>
@@ -1916,7 +1943,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>86</v>
       </c>
@@ -1927,7 +1954,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>87</v>
       </c>
@@ -1938,7 +1965,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>208</v>
       </c>
@@ -1949,7 +1976,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>88</v>
       </c>
@@ -1960,7 +1987,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>60</v>
       </c>
@@ -1971,7 +1998,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>89</v>
       </c>
@@ -1982,7 +2009,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>90</v>
       </c>
@@ -1993,7 +2020,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>91</v>
       </c>
@@ -2004,7 +2031,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>165</v>
       </c>
@@ -2015,7 +2042,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>166</v>
       </c>
@@ -2026,7 +2053,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>199</v>
       </c>
@@ -2047,27 +2074,26 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:K680"/>
+  <dimension ref="A1:J680"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.6328125" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.1796875" style="1" collapsed="1"/>
-    <col min="3" max="3" width="54.08984375" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="34.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.7265625" style="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="32.5703125" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.140625" style="1" collapsed="1"/>
+    <col min="3" max="3" width="54.140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="34.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29.7109375" style="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="17" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9.1796875" style="1" collapsed="1"/>
-    <col min="9" max="11" width="9.1796875" style="1"/>
-    <col min="12" max="16384" width="9.1796875" style="1" collapsed="1"/>
+    <col min="8" max="10" width="7.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2089,8 +2115,17 @@
       <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H1" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>222</v>
+      </c>
+      <c r="J1" s="42" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>36</v>
       </c>
@@ -2108,8 +2143,11 @@
         <v>9</v>
       </c>
       <c r="G2" s="27"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>36</v>
       </c>
@@ -2127,8 +2165,11 @@
         <v>11</v>
       </c>
       <c r="G3" s="27"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
         <v>36</v>
       </c>
@@ -2146,8 +2187,11 @@
       </c>
       <c r="F4" s="27"/>
       <c r="G4" s="27"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>36</v>
       </c>
@@ -2165,8 +2209,11 @@
       </c>
       <c r="F5" s="27"/>
       <c r="G5" s="27"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
         <v>36</v>
       </c>
@@ -2184,8 +2231,11 @@
       </c>
       <c r="F6" s="27"/>
       <c r="G6" s="27"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="27" t="s">
         <v>36</v>
       </c>
@@ -2201,8 +2251,11 @@
       <c r="E7" s="27"/>
       <c r="F7" s="27"/>
       <c r="G7" s="27"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="28"/>
       <c r="B8" s="28"/>
       <c r="C8" s="28"/>
@@ -2211,7 +2264,7 @@
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
         <v>40</v>
       </c>
@@ -2229,8 +2282,11 @@
         <v>9</v>
       </c>
       <c r="G9" s="27"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
         <v>40</v>
       </c>
@@ -2248,8 +2304,11 @@
         <v>11</v>
       </c>
       <c r="G10" s="27"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
         <v>40</v>
       </c>
@@ -2267,8 +2326,11 @@
       </c>
       <c r="F11" s="27"/>
       <c r="G11" s="27"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H11" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="27" t="s">
         <v>40</v>
       </c>
@@ -2286,8 +2348,11 @@
       </c>
       <c r="F12" s="27"/>
       <c r="G12" s="27"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
         <v>40</v>
       </c>
@@ -2305,8 +2370,11 @@
       </c>
       <c r="F13" s="27"/>
       <c r="G13" s="27"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="27" t="s">
         <v>40</v>
       </c>
@@ -2324,8 +2392,11 @@
       </c>
       <c r="F14" s="27"/>
       <c r="G14" s="27"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H14" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="27" t="s">
         <v>40</v>
       </c>
@@ -2345,8 +2416,11 @@
         <v>47</v>
       </c>
       <c r="G15" s="27"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H15" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="27" t="s">
         <v>40</v>
       </c>
@@ -2362,8 +2436,11 @@
       <c r="E16" s="27"/>
       <c r="F16" s="27"/>
       <c r="G16" s="27"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H16" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="28"/>
       <c r="B17" s="28"/>
       <c r="C17" s="28"/>
@@ -2372,7 +2449,7 @@
       <c r="F17" s="28"/>
       <c r="G17" s="28"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>70</v>
       </c>
@@ -2390,8 +2467,14 @@
         <v>9</v>
       </c>
       <c r="G18" s="27"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H18" t="s">
+        <v>218</v>
+      </c>
+      <c r="I18" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="27" t="s">
         <v>70</v>
       </c>
@@ -2409,8 +2492,14 @@
         <v>11</v>
       </c>
       <c r="G19" s="27"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H19" t="s">
+        <v>218</v>
+      </c>
+      <c r="I19" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="27" t="s">
         <v>70</v>
       </c>
@@ -2428,8 +2517,14 @@
       </c>
       <c r="F20" s="27"/>
       <c r="G20" s="27"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H20" t="s">
+        <v>218</v>
+      </c>
+      <c r="I20" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="27" t="s">
         <v>70</v>
       </c>
@@ -2447,8 +2542,14 @@
       </c>
       <c r="F21" s="27"/>
       <c r="G21" s="27"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H21" t="s">
+        <v>218</v>
+      </c>
+      <c r="I21" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="27" t="s">
         <v>70</v>
       </c>
@@ -2466,8 +2567,14 @@
       </c>
       <c r="F22" s="27"/>
       <c r="G22" s="27"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H22" t="s">
+        <v>218</v>
+      </c>
+      <c r="I22" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="27" t="s">
         <v>70</v>
       </c>
@@ -2485,8 +2592,14 @@
       </c>
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H23" t="s">
+        <v>218</v>
+      </c>
+      <c r="I23" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
         <v>70</v>
       </c>
@@ -2504,8 +2617,14 @@
       </c>
       <c r="F24" s="27"/>
       <c r="G24" s="27"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H24" t="s">
+        <v>218</v>
+      </c>
+      <c r="I24" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="27" t="s">
         <v>70</v>
       </c>
@@ -2521,8 +2640,14 @@
       <c r="E25" s="27"/>
       <c r="F25" s="27"/>
       <c r="G25" s="27"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H25" t="s">
+        <v>218</v>
+      </c>
+      <c r="I25" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="28"/>
       <c r="B26" s="28"/>
       <c r="C26" s="28"/>
@@ -2531,7 +2656,7 @@
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>53</v>
       </c>
@@ -2549,8 +2674,11 @@
         <v>9</v>
       </c>
       <c r="G27" s="27"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H27" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>53</v>
       </c>
@@ -2568,8 +2696,11 @@
         <v>11</v>
       </c>
       <c r="G28" s="27"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H28" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>53</v>
       </c>
@@ -2587,8 +2718,11 @@
       </c>
       <c r="F29" s="27"/>
       <c r="G29" s="27"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>53</v>
       </c>
@@ -2606,8 +2740,11 @@
       </c>
       <c r="F30" s="27"/>
       <c r="G30" s="27"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H30" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>53</v>
       </c>
@@ -2625,8 +2762,11 @@
       </c>
       <c r="F31" s="27"/>
       <c r="G31" s="27"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H31" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>53</v>
       </c>
@@ -2644,8 +2784,11 @@
       </c>
       <c r="F32" s="27"/>
       <c r="G32" s="27"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H32" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>53</v>
       </c>
@@ -2663,8 +2806,11 @@
       </c>
       <c r="F33" s="27"/>
       <c r="G33" s="27"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H33" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>53</v>
       </c>
@@ -2682,8 +2828,11 @@
       </c>
       <c r="F34" s="27"/>
       <c r="G34" s="27"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H34" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>53</v>
       </c>
@@ -2699,8 +2848,11 @@
       <c r="E35" s="27"/>
       <c r="F35" s="27"/>
       <c r="G35" s="27"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H35" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="28"/>
       <c r="B36" s="28"/>
       <c r="C36" s="28"/>
@@ -2709,7 +2861,7 @@
       <c r="F36" s="28"/>
       <c r="G36" s="28"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>60</v>
       </c>
@@ -2728,7 +2880,7 @@
       </c>
       <c r="G37" s="27"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>60</v>
       </c>
@@ -2747,7 +2899,7 @@
       </c>
       <c r="G38" s="27"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>60</v>
       </c>
@@ -2768,7 +2920,7 @@
       </c>
       <c r="G39" s="27"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>60</v>
       </c>
@@ -2787,7 +2939,7 @@
       <c r="F40" s="27"/>
       <c r="G40" s="27"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>60</v>
       </c>
@@ -2804,7 +2956,7 @@
       <c r="F41" s="27"/>
       <c r="G41" s="27"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>60</v>
       </c>
@@ -2823,7 +2975,7 @@
       <c r="F42" s="27"/>
       <c r="G42" s="27"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>60</v>
       </c>
@@ -2842,7 +2994,7 @@
       <c r="F43" s="7"/>
       <c r="G43" s="27"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>60</v>
       </c>
@@ -2861,7 +3013,7 @@
       <c r="F44" s="7"/>
       <c r="G44" s="27"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>60</v>
       </c>
@@ -2880,7 +3032,7 @@
       <c r="F45" s="27"/>
       <c r="G45" s="27"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>60</v>
       </c>
@@ -2897,7 +3049,7 @@
       <c r="F46" s="27"/>
       <c r="G46" s="27"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="28"/>
       <c r="B47" s="28"/>
       <c r="C47" s="28"/>
@@ -2906,7 +3058,7 @@
       <c r="F47" s="38"/>
       <c r="G47" s="39"/>
     </row>
-    <row r="48" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="19" t="s">
         <v>81</v>
       </c>
@@ -2924,8 +3076,11 @@
         <v>9</v>
       </c>
       <c r="G48" s="27"/>
-    </row>
-    <row r="49" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="J48" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="19" t="s">
         <v>81</v>
       </c>
@@ -2943,8 +3098,11 @@
         <v>11</v>
       </c>
       <c r="G49" s="27"/>
-    </row>
-    <row r="50" spans="1:7" ht="145" x14ac:dyDescent="0.35">
+      <c r="J49" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
         <v>81</v>
       </c>
@@ -2962,8 +3120,11 @@
       </c>
       <c r="F50" s="27"/>
       <c r="G50" s="27"/>
-    </row>
-    <row r="51" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="J50" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="19" t="s">
         <v>81</v>
       </c>
@@ -2979,8 +3140,11 @@
       <c r="E51" s="27"/>
       <c r="F51" s="27"/>
       <c r="G51" s="27"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J51" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="37"/>
       <c r="B52" s="38"/>
       <c r="C52" s="38"/>
@@ -2989,7 +3153,7 @@
       <c r="F52" s="28"/>
       <c r="G52" s="28"/>
     </row>
-    <row r="53" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="19" t="s">
         <v>82</v>
       </c>
@@ -3007,8 +3171,11 @@
         <v>9</v>
       </c>
       <c r="G53" s="27"/>
-    </row>
-    <row r="54" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="J53" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="19" t="s">
         <v>82</v>
       </c>
@@ -3026,8 +3193,11 @@
         <v>11</v>
       </c>
       <c r="G54" s="27"/>
-    </row>
-    <row r="55" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="J54" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="19" t="s">
         <v>82</v>
       </c>
@@ -3045,8 +3215,11 @@
       </c>
       <c r="F55" s="27"/>
       <c r="G55" s="27"/>
-    </row>
-    <row r="56" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="J55" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="19" t="s">
         <v>82</v>
       </c>
@@ -3064,8 +3237,11 @@
         <v>11</v>
       </c>
       <c r="G56" s="27"/>
-    </row>
-    <row r="57" spans="1:7" ht="87.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J56" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="19" t="s">
         <v>82</v>
       </c>
@@ -3081,8 +3257,11 @@
       <c r="E57" s="27"/>
       <c r="F57" s="27"/>
       <c r="G57" s="27"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J57" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="28"/>
       <c r="B58" s="28"/>
       <c r="C58" s="28"/>
@@ -3091,7 +3270,7 @@
       <c r="F58" s="28"/>
       <c r="G58" s="28"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="20" t="s">
         <v>83</v>
       </c>
@@ -3109,8 +3288,11 @@
         <v>9</v>
       </c>
       <c r="G59" s="27"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J59" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="20" t="s">
         <v>83</v>
       </c>
@@ -3128,8 +3310,11 @@
         <v>11</v>
       </c>
       <c r="G60" s="27"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J60" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="20" t="s">
         <v>83</v>
       </c>
@@ -3147,8 +3332,11 @@
         <v>210</v>
       </c>
       <c r="G61" s="27"/>
-    </row>
-    <row r="62" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="J61" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A62" s="21" t="s">
         <v>83</v>
       </c>
@@ -3166,8 +3354,11 @@
       </c>
       <c r="F62" s="27"/>
       <c r="G62" s="27"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J62" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="20" t="s">
         <v>83</v>
       </c>
@@ -3183,8 +3374,11 @@
       <c r="E63" s="27"/>
       <c r="F63" s="27"/>
       <c r="G63" s="27"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J63" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="28"/>
       <c r="B64" s="28"/>
       <c r="C64" s="28"/>
@@ -3193,7 +3387,7 @@
       <c r="F64" s="28"/>
       <c r="G64" s="28"/>
     </row>
-    <row r="65" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="19" t="s">
         <v>84</v>
       </c>
@@ -3212,7 +3406,7 @@
       </c>
       <c r="G65" s="27"/>
     </row>
-    <row r="66" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="19" t="s">
         <v>84</v>
       </c>
@@ -3231,7 +3425,7 @@
       </c>
       <c r="G66" s="27"/>
     </row>
-    <row r="67" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="19" t="s">
         <v>84</v>
       </c>
@@ -3250,7 +3444,7 @@
       <c r="F67" s="27"/>
       <c r="G67" s="27"/>
     </row>
-    <row r="68" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="19" t="s">
         <v>84</v>
       </c>
@@ -3269,7 +3463,7 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
     </row>
-    <row r="69" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="19" t="s">
         <v>84</v>
       </c>
@@ -3288,7 +3482,7 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
     </row>
-    <row r="70" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="19" t="s">
         <v>84</v>
       </c>
@@ -3307,7 +3501,7 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
     </row>
-    <row r="71" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="19" t="s">
         <v>84</v>
       </c>
@@ -3326,7 +3520,7 @@
       <c r="F71" s="27"/>
       <c r="G71" s="27"/>
     </row>
-    <row r="72" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="19" t="s">
         <v>84</v>
       </c>
@@ -3345,7 +3539,7 @@
       <c r="F72" s="27"/>
       <c r="G72" s="27"/>
     </row>
-    <row r="73" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="19" t="s">
         <v>84</v>
       </c>
@@ -3362,7 +3556,7 @@
       <c r="F73" s="27"/>
       <c r="G73" s="27"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="28"/>
       <c r="B74" s="28"/>
       <c r="C74" s="28"/>
@@ -3371,7 +3565,7 @@
       <c r="F74" s="28"/>
       <c r="G74" s="28"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="20" t="s">
         <v>85</v>
       </c>
@@ -3390,7 +3584,7 @@
       </c>
       <c r="G75" s="27"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="20" t="s">
         <v>85</v>
       </c>
@@ -3409,7 +3603,7 @@
       </c>
       <c r="G76" s="27"/>
     </row>
-    <row r="77" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="20" t="s">
         <v>85</v>
       </c>
@@ -3428,7 +3622,7 @@
       <c r="F77" s="27"/>
       <c r="G77" s="27"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="20" t="s">
         <v>85</v>
       </c>
@@ -3447,7 +3641,7 @@
       <c r="F78" s="27"/>
       <c r="G78" s="27"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="20" t="s">
         <v>85</v>
       </c>
@@ -3466,7 +3660,7 @@
       <c r="F79" s="27"/>
       <c r="G79" s="27"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="20" t="s">
         <v>85</v>
       </c>
@@ -3485,7 +3679,7 @@
       <c r="F80" s="27"/>
       <c r="G80" s="27"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="20" t="s">
         <v>85</v>
       </c>
@@ -3502,7 +3696,7 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="28"/>
       <c r="B82" s="28"/>
       <c r="C82" s="28"/>
@@ -3511,7 +3705,7 @@
       <c r="F82" s="28"/>
       <c r="G82" s="28"/>
     </row>
-    <row r="83" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="19" t="s">
         <v>86</v>
       </c>
@@ -3530,7 +3724,7 @@
       </c>
       <c r="G83" s="27"/>
     </row>
-    <row r="84" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="19" t="s">
         <v>86</v>
       </c>
@@ -3549,7 +3743,7 @@
       </c>
       <c r="G84" s="27"/>
     </row>
-    <row r="85" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="19" t="s">
         <v>86</v>
       </c>
@@ -3568,7 +3762,7 @@
       <c r="F85" s="27"/>
       <c r="G85" s="27"/>
     </row>
-    <row r="86" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="19" t="s">
         <v>86</v>
       </c>
@@ -3585,7 +3779,7 @@
       <c r="F86" s="26"/>
       <c r="G86" s="27"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="28"/>
       <c r="B87" s="28"/>
       <c r="C87" s="28"/>
@@ -3594,7 +3788,7 @@
       <c r="F87" s="28"/>
       <c r="G87" s="28"/>
     </row>
-    <row r="88" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A88" s="19" t="s">
         <v>87</v>
       </c>
@@ -3613,7 +3807,7 @@
       </c>
       <c r="G88" s="27"/>
     </row>
-    <row r="89" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A89" s="19" t="s">
         <v>87</v>
       </c>
@@ -3632,7 +3826,7 @@
       </c>
       <c r="G89" s="27"/>
     </row>
-    <row r="90" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A90" s="19" t="s">
         <v>87</v>
       </c>
@@ -3649,7 +3843,7 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
     </row>
-    <row r="91" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A91" s="19" t="s">
         <v>87</v>
       </c>
@@ -3668,7 +3862,7 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
     </row>
-    <row r="92" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A92" s="19" t="s">
         <v>87</v>
       </c>
@@ -3689,7 +3883,7 @@
       </c>
       <c r="G92" s="27"/>
     </row>
-    <row r="93" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A93" s="19" t="s">
         <v>87</v>
       </c>
@@ -3708,7 +3902,7 @@
       <c r="F93" s="27"/>
       <c r="G93" s="27"/>
     </row>
-    <row r="94" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="19" t="s">
         <v>87</v>
       </c>
@@ -3725,7 +3919,7 @@
       <c r="F94" s="27"/>
       <c r="G94" s="27"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="28"/>
       <c r="B95" s="28"/>
       <c r="C95" s="28"/>
@@ -3736,7 +3930,7 @@
       <c r="F95" s="28"/>
       <c r="G95" s="28"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="19" t="s">
         <v>208</v>
       </c>
@@ -3755,7 +3949,7 @@
       </c>
       <c r="G96" s="27"/>
     </row>
-    <row r="97" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="19" t="s">
         <v>208</v>
       </c>
@@ -3774,7 +3968,7 @@
       </c>
       <c r="G97" s="27"/>
     </row>
-    <row r="98" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="19" t="s">
         <v>208</v>
       </c>
@@ -3795,7 +3989,7 @@
       </c>
       <c r="G98" s="27"/>
     </row>
-    <row r="99" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="19" t="s">
         <v>208</v>
       </c>
@@ -3814,7 +4008,7 @@
       <c r="F99" s="27"/>
       <c r="G99" s="27"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="19" t="s">
         <v>208</v>
       </c>
@@ -3831,7 +4025,7 @@
       <c r="F100" s="27"/>
       <c r="G100" s="27"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="28"/>
       <c r="B101" s="28"/>
       <c r="C101" s="28"/>
@@ -3842,7 +4036,7 @@
       <c r="F101" s="28"/>
       <c r="G101" s="28"/>
     </row>
-    <row r="102" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A102" s="19" t="s">
         <v>88</v>
       </c>
@@ -3861,7 +4055,7 @@
       </c>
       <c r="G102" s="27"/>
     </row>
-    <row r="103" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="19" t="s">
         <v>88</v>
       </c>
@@ -3880,7 +4074,7 @@
       </c>
       <c r="G103" s="27"/>
     </row>
-    <row r="104" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A104" s="19" t="s">
         <v>88</v>
       </c>
@@ -3899,7 +4093,7 @@
       <c r="F104" s="27"/>
       <c r="G104" s="27"/>
     </row>
-    <row r="105" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A105" s="19" t="s">
         <v>88</v>
       </c>
@@ -3918,7 +4112,7 @@
       <c r="F105" s="27"/>
       <c r="G105" s="27"/>
     </row>
-    <row r="106" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="19" t="s">
         <v>88</v>
       </c>
@@ -3935,7 +4129,7 @@
       <c r="F106" s="27"/>
       <c r="G106" s="27"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="28"/>
       <c r="B107" s="28"/>
       <c r="C107" s="28"/>
@@ -3946,7 +4140,7 @@
       <c r="F107" s="28"/>
       <c r="G107" s="28"/>
     </row>
-    <row r="108" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" s="19" t="s">
         <v>89</v>
       </c>
@@ -3965,7 +4159,7 @@
       </c>
       <c r="G108" s="27"/>
     </row>
-    <row r="109" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A109" s="19" t="s">
         <v>89</v>
       </c>
@@ -3984,7 +4178,7 @@
       </c>
       <c r="G109" s="27"/>
     </row>
-    <row r="110" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A110" s="19" t="s">
         <v>89</v>
       </c>
@@ -4003,7 +4197,7 @@
       <c r="F110" s="27"/>
       <c r="G110" s="27"/>
     </row>
-    <row r="111" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A111" s="19" t="s">
         <v>89</v>
       </c>
@@ -4022,7 +4216,7 @@
       <c r="F111" s="27"/>
       <c r="G111" s="27"/>
     </row>
-    <row r="112" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="19" t="s">
         <v>89</v>
       </c>
@@ -4041,7 +4235,7 @@
       <c r="F112" s="27"/>
       <c r="G112" s="27"/>
     </row>
-    <row r="113" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A113" s="19" t="s">
         <v>89</v>
       </c>
@@ -4060,7 +4254,7 @@
       <c r="F113" s="27"/>
       <c r="G113" s="27"/>
     </row>
-    <row r="114" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A114" s="19" t="s">
         <v>89</v>
       </c>
@@ -4079,7 +4273,7 @@
       <c r="F114" s="27"/>
       <c r="G114" s="27"/>
     </row>
-    <row r="115" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A115" s="19" t="s">
         <v>89</v>
       </c>
@@ -4098,7 +4292,7 @@
       <c r="F115" s="27"/>
       <c r="G115" s="27"/>
     </row>
-    <row r="116" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A116" s="19" t="s">
         <v>89</v>
       </c>
@@ -4117,7 +4311,7 @@
       <c r="F116" s="27"/>
       <c r="G116" s="27"/>
     </row>
-    <row r="117" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A117" s="19" t="s">
         <v>89</v>
       </c>
@@ -4136,7 +4330,7 @@
       <c r="F117" s="27"/>
       <c r="G117" s="27"/>
     </row>
-    <row r="118" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A118" s="19" t="s">
         <v>89</v>
       </c>
@@ -4155,7 +4349,7 @@
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
     </row>
-    <row r="119" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A119" s="19" t="s">
         <v>89</v>
       </c>
@@ -4174,7 +4368,7 @@
       <c r="F119" s="7"/>
       <c r="G119" s="27"/>
     </row>
-    <row r="120" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A120" s="19" t="s">
         <v>89</v>
       </c>
@@ -4193,7 +4387,7 @@
       <c r="F120" s="7"/>
       <c r="G120" s="27"/>
     </row>
-    <row r="121" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A121" s="19" t="s">
         <v>89</v>
       </c>
@@ -4212,7 +4406,7 @@
       <c r="F121" s="27"/>
       <c r="G121" s="27"/>
     </row>
-    <row r="122" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A122" s="19" t="s">
         <v>89</v>
       </c>
@@ -4231,7 +4425,7 @@
       <c r="F122" s="27"/>
       <c r="G122" s="27"/>
     </row>
-    <row r="123" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A123" s="19" t="s">
         <v>89</v>
       </c>
@@ -4248,7 +4442,7 @@
       <c r="F123" s="27"/>
       <c r="G123" s="27"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="28"/>
       <c r="B124" s="28"/>
       <c r="C124" s="28"/>
@@ -4259,7 +4453,7 @@
       <c r="F124" s="28"/>
       <c r="G124" s="28"/>
     </row>
-    <row r="125" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A125" s="19" t="s">
         <v>90</v>
       </c>
@@ -4278,7 +4472,7 @@
       </c>
       <c r="G125" s="27"/>
     </row>
-    <row r="126" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A126" s="19" t="s">
         <v>90</v>
       </c>
@@ -4297,7 +4491,7 @@
       </c>
       <c r="G126" s="27"/>
     </row>
-    <row r="127" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A127" s="19" t="s">
         <v>90</v>
       </c>
@@ -4316,7 +4510,7 @@
       <c r="F127" s="7"/>
       <c r="G127" s="7"/>
     </row>
-    <row r="128" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A128" s="19" t="s">
         <v>90</v>
       </c>
@@ -4335,7 +4529,7 @@
       <c r="F128" s="7"/>
       <c r="G128" s="27"/>
     </row>
-    <row r="129" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A129" s="19" t="s">
         <v>90</v>
       </c>
@@ -4354,7 +4548,7 @@
       <c r="F129" s="7"/>
       <c r="G129" s="27"/>
     </row>
-    <row r="130" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A130" s="19" t="s">
         <v>90</v>
       </c>
@@ -4373,7 +4567,7 @@
       <c r="F130" s="27"/>
       <c r="G130" s="27"/>
     </row>
-    <row r="131" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A131" s="19" t="s">
         <v>90</v>
       </c>
@@ -4392,7 +4586,7 @@
       <c r="F131" s="27"/>
       <c r="G131" s="27"/>
     </row>
-    <row r="132" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A132" s="19" t="s">
         <v>90</v>
       </c>
@@ -4409,7 +4603,7 @@
       <c r="F132" s="27"/>
       <c r="G132" s="27"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="28"/>
       <c r="B133" s="28"/>
       <c r="C133" s="28"/>
@@ -4420,7 +4614,7 @@
       <c r="F133" s="28"/>
       <c r="G133" s="28"/>
     </row>
-    <row r="134" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A134" s="19" t="s">
         <v>91</v>
       </c>
@@ -4439,7 +4633,7 @@
       </c>
       <c r="G134" s="27"/>
     </row>
-    <row r="135" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A135" s="19" t="s">
         <v>91</v>
       </c>
@@ -4458,7 +4652,7 @@
       </c>
       <c r="G135" s="27"/>
     </row>
-    <row r="136" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A136" s="19" t="s">
         <v>91</v>
       </c>
@@ -4477,7 +4671,7 @@
       <c r="F136" s="7"/>
       <c r="G136" s="27"/>
     </row>
-    <row r="137" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A137" s="19" t="s">
         <v>91</v>
       </c>
@@ -4496,7 +4690,7 @@
       <c r="F137" s="7"/>
       <c r="G137" s="27"/>
     </row>
-    <row r="138" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A138" s="19" t="s">
         <v>91</v>
       </c>
@@ -4515,7 +4709,7 @@
       <c r="F138" s="27"/>
       <c r="G138" s="27"/>
     </row>
-    <row r="139" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A139" s="19" t="s">
         <v>91</v>
       </c>
@@ -4534,7 +4728,7 @@
       <c r="F139" s="27"/>
       <c r="G139" s="27"/>
     </row>
-    <row r="140" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A140" s="19" t="s">
         <v>91</v>
       </c>
@@ -4551,7 +4745,7 @@
       <c r="F140" s="27"/>
       <c r="G140" s="27"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="28"/>
       <c r="B141" s="28"/>
       <c r="C141" s="28"/>
@@ -4562,7 +4756,7 @@
       <c r="F141" s="28"/>
       <c r="G141" s="28"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="26" t="s">
         <v>165</v>
       </c>
@@ -4581,7 +4775,7 @@
       </c>
       <c r="G142" s="7"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="26" t="s">
         <v>165</v>
       </c>
@@ -4600,7 +4794,7 @@
       </c>
       <c r="G143" s="7"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="26" t="s">
         <v>165</v>
       </c>
@@ -4617,7 +4811,7 @@
       <c r="F144" s="7"/>
       <c r="G144" s="7"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="26" t="s">
         <v>165</v>
       </c>
@@ -4636,7 +4830,7 @@
       <c r="F145" s="7"/>
       <c r="G145" s="7"/>
     </row>
-    <row r="146" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="26" t="s">
         <v>165</v>
       </c>
@@ -4655,7 +4849,7 @@
       <c r="F146" s="7"/>
       <c r="G146" s="7"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="26" t="s">
         <v>165</v>
       </c>
@@ -4674,7 +4868,7 @@
       <c r="F147" s="7"/>
       <c r="G147" s="7"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="26" t="s">
         <v>165</v>
       </c>
@@ -4691,7 +4885,7 @@
       <c r="F148" s="7"/>
       <c r="G148" s="7"/>
     </row>
-    <row r="149" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="28"/>
       <c r="B149" s="28"/>
       <c r="C149" s="28"/>
@@ -4704,7 +4898,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="26" t="s">
         <v>166</v>
       </c>
@@ -4723,7 +4917,7 @@
       </c>
       <c r="G150" s="7"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="26" t="s">
         <v>166</v>
       </c>
@@ -4742,7 +4936,7 @@
       </c>
       <c r="G151" s="7"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="26" t="s">
         <v>166</v>
       </c>
@@ -4759,7 +4953,7 @@
       <c r="F152" s="7"/>
       <c r="G152" s="7"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="26" t="s">
         <v>166</v>
       </c>
@@ -4778,7 +4972,7 @@
       <c r="F153" s="7"/>
       <c r="G153" s="7"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="26" t="s">
         <v>166</v>
       </c>
@@ -4797,7 +4991,7 @@
       <c r="F154" s="7"/>
       <c r="G154" s="7"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="26" t="s">
         <v>166</v>
       </c>
@@ -4814,7 +5008,7 @@
       <c r="F155" s="7"/>
       <c r="G155" s="7"/>
     </row>
-    <row r="156" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="8"/>
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
@@ -4827,7 +5021,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
         <v>199</v>
       </c>
@@ -4846,7 +5040,7 @@
       </c>
       <c r="G157" s="7"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
         <v>199</v>
       </c>
@@ -4865,7 +5059,7 @@
       </c>
       <c r="G158" s="7"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
         <v>199</v>
       </c>
@@ -4884,7 +5078,7 @@
       <c r="F159" s="7"/>
       <c r="G159" s="7"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
         <v>199</v>
       </c>
@@ -4903,7 +5097,7 @@
       <c r="F160" s="7"/>
       <c r="G160" s="7"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
         <v>199</v>
       </c>
@@ -4920,7 +5114,7 @@
       <c r="F161" s="7"/>
       <c r="G161" s="7"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="11"/>
       <c r="B162" s="11"/>
       <c r="C162" s="11"/>
@@ -4929,7 +5123,7 @@
       <c r="F162" s="11"/>
       <c r="G162" s="11"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="11"/>
       <c r="B163" s="11"/>
       <c r="C163" s="11"/>
@@ -4938,7 +5132,7 @@
       <c r="F163" s="11"/>
       <c r="G163" s="11"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="36"/>
       <c r="B164" s="36"/>
       <c r="C164" s="36"/>
@@ -4947,7 +5141,7 @@
       <c r="F164" s="11"/>
       <c r="G164" s="11"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="11"/>
       <c r="B165" s="11"/>
       <c r="C165" s="11"/>
@@ -4956,7 +5150,7 @@
       <c r="F165" s="11"/>
       <c r="G165" s="11"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="11"/>
       <c r="B166" s="11"/>
       <c r="C166" s="11"/>
@@ -4965,7 +5159,7 @@
       <c r="F166" s="11"/>
       <c r="G166" s="11"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="11"/>
       <c r="B167" s="11"/>
       <c r="C167" s="11"/>
@@ -4974,7 +5168,7 @@
       <c r="F167" s="11"/>
       <c r="G167" s="11"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="11"/>
       <c r="B168" s="11"/>
       <c r="C168" s="11"/>
@@ -4983,7 +5177,7 @@
       <c r="F168" s="11"/>
       <c r="G168" s="11"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="11"/>
       <c r="B169" s="11"/>
       <c r="C169" s="11"/>
@@ -4992,7 +5186,7 @@
       <c r="F169" s="11"/>
       <c r="G169" s="11"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="11"/>
       <c r="B170" s="11"/>
       <c r="C170" s="11"/>
@@ -5001,7 +5195,7 @@
       <c r="F170" s="11"/>
       <c r="G170" s="11"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="11"/>
       <c r="B171" s="11"/>
       <c r="C171" s="11"/>
@@ -5010,7 +5204,7 @@
       <c r="F171" s="11"/>
       <c r="G171" s="11"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="11"/>
       <c r="B172" s="11"/>
       <c r="C172" s="11"/>
@@ -5019,7 +5213,7 @@
       <c r="F172" s="11"/>
       <c r="G172" s="11"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="11"/>
       <c r="B173" s="11"/>
       <c r="C173" s="11"/>
@@ -5028,7 +5222,7 @@
       <c r="F173" s="11"/>
       <c r="G173" s="11"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="11"/>
       <c r="B174" s="11"/>
       <c r="C174" s="11"/>
@@ -5037,7 +5231,7 @@
       <c r="F174" s="11"/>
       <c r="G174" s="11"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="11"/>
       <c r="B175" s="11"/>
       <c r="C175" s="11"/>
@@ -5046,7 +5240,7 @@
       <c r="F175" s="11"/>
       <c r="G175" s="11"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="11"/>
       <c r="B176" s="11"/>
       <c r="C176" s="11"/>
@@ -5055,7 +5249,7 @@
       <c r="F176" s="11"/>
       <c r="G176" s="11"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="11"/>
       <c r="B177" s="11"/>
       <c r="C177" s="11"/>
@@ -5064,7 +5258,7 @@
       <c r="F177" s="11"/>
       <c r="G177" s="11"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="11"/>
       <c r="B178" s="11"/>
       <c r="C178" s="11"/>
@@ -5073,7 +5267,7 @@
       <c r="F178" s="11"/>
       <c r="G178" s="11"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="11"/>
       <c r="B179" s="11"/>
       <c r="C179" s="11"/>
@@ -5082,7 +5276,7 @@
       <c r="F179" s="11"/>
       <c r="G179" s="11"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="11"/>
       <c r="B180" s="11"/>
       <c r="C180" s="11"/>
@@ -5091,7 +5285,7 @@
       <c r="F180" s="11"/>
       <c r="G180" s="11"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="11"/>
       <c r="B181" s="11"/>
       <c r="C181" s="11"/>
@@ -5100,7 +5294,7 @@
       <c r="F181" s="11"/>
       <c r="G181" s="11"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="11"/>
       <c r="B182" s="11"/>
       <c r="C182" s="11"/>
@@ -5109,7 +5303,7 @@
       <c r="F182" s="11"/>
       <c r="G182" s="11"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="11"/>
       <c r="B183" s="11"/>
       <c r="C183" s="11"/>
@@ -5118,7 +5312,7 @@
       <c r="F183" s="11"/>
       <c r="G183" s="11"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="11"/>
       <c r="B184" s="11"/>
       <c r="C184" s="11"/>
@@ -5127,7 +5321,7 @@
       <c r="F184" s="11"/>
       <c r="G184" s="11"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="11"/>
       <c r="B185" s="11"/>
       <c r="C185" s="11"/>
@@ -5136,7 +5330,7 @@
       <c r="F185" s="11"/>
       <c r="G185" s="11"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="11"/>
       <c r="B186" s="11"/>
       <c r="C186" s="11"/>
@@ -5145,7 +5339,7 @@
       <c r="F186" s="11"/>
       <c r="G186" s="11"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="11"/>
       <c r="B187" s="11"/>
       <c r="C187" s="11"/>
@@ -5154,7 +5348,7 @@
       <c r="F187" s="11"/>
       <c r="G187" s="11"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="11"/>
       <c r="B188" s="11"/>
       <c r="C188" s="11"/>
@@ -5163,7 +5357,7 @@
       <c r="F188" s="11"/>
       <c r="G188" s="11"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="11"/>
       <c r="B189" s="11"/>
       <c r="C189" s="11"/>
@@ -5172,7 +5366,7 @@
       <c r="F189" s="11"/>
       <c r="G189" s="11"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="11"/>
       <c r="B190" s="11"/>
       <c r="C190" s="11"/>
@@ -5181,7 +5375,7 @@
       <c r="F190" s="11"/>
       <c r="G190" s="11"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="11"/>
       <c r="B191" s="11"/>
       <c r="C191" s="11"/>
@@ -5190,7 +5384,7 @@
       <c r="F191" s="11"/>
       <c r="G191" s="11"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="11"/>
       <c r="B192" s="11"/>
       <c r="C192" s="11"/>
@@ -5199,7 +5393,7 @@
       <c r="F192" s="11"/>
       <c r="G192" s="11"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="11"/>
       <c r="B193" s="11"/>
       <c r="C193" s="11"/>
@@ -5208,7 +5402,7 @@
       <c r="F193" s="11"/>
       <c r="G193" s="11"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="11"/>
       <c r="B194" s="11"/>
       <c r="C194" s="11"/>
@@ -5217,7 +5411,7 @@
       <c r="F194" s="11"/>
       <c r="G194" s="11"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="11"/>
       <c r="B195" s="11"/>
       <c r="C195" s="11"/>
@@ -5226,7 +5420,7 @@
       <c r="F195" s="11"/>
       <c r="G195" s="11"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="11"/>
       <c r="B196" s="11"/>
       <c r="C196" s="11"/>
@@ -5235,7 +5429,7 @@
       <c r="F196" s="11"/>
       <c r="G196" s="11"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="11"/>
       <c r="B197" s="11"/>
       <c r="C197" s="11"/>
@@ -5244,7 +5438,7 @@
       <c r="F197" s="11"/>
       <c r="G197" s="11"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="11"/>
       <c r="B198" s="11"/>
       <c r="C198" s="11"/>
@@ -5253,7 +5447,7 @@
       <c r="F198" s="11"/>
       <c r="G198" s="11"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="11"/>
       <c r="B199" s="11"/>
       <c r="C199" s="11"/>
@@ -5262,7 +5456,7 @@
       <c r="F199" s="11"/>
       <c r="G199" s="11"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="11"/>
       <c r="B200" s="11"/>
       <c r="C200" s="11"/>
@@ -5271,7 +5465,7 @@
       <c r="F200" s="11"/>
       <c r="G200" s="11"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="11"/>
       <c r="B201" s="11"/>
       <c r="C201" s="11"/>
@@ -5280,7 +5474,7 @@
       <c r="F201" s="11"/>
       <c r="G201" s="11"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="11"/>
       <c r="B202" s="11"/>
       <c r="C202" s="11"/>
@@ -5289,7 +5483,7 @@
       <c r="F202" s="11"/>
       <c r="G202" s="11"/>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="11"/>
       <c r="B203" s="11"/>
       <c r="C203" s="11"/>
@@ -5298,7 +5492,7 @@
       <c r="F203" s="11"/>
       <c r="G203" s="11"/>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="11"/>
       <c r="B204" s="11"/>
       <c r="C204" s="11"/>
@@ -5307,7 +5501,7 @@
       <c r="F204" s="11"/>
       <c r="G204" s="11"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="11"/>
       <c r="B205" s="11"/>
       <c r="C205" s="11"/>
@@ -5316,7 +5510,7 @@
       <c r="F205" s="11"/>
       <c r="G205" s="11"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="11"/>
       <c r="B206" s="11"/>
       <c r="C206" s="13"/>
@@ -5325,7 +5519,7 @@
       <c r="F206" s="11"/>
       <c r="G206" s="11"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="11"/>
       <c r="B207" s="11"/>
       <c r="C207" s="11"/>
@@ -5334,7 +5528,7 @@
       <c r="F207" s="11"/>
       <c r="G207" s="11"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="11"/>
       <c r="B208" s="11"/>
       <c r="C208" s="11"/>
@@ -5343,7 +5537,7 @@
       <c r="F208" s="11"/>
       <c r="G208" s="11"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="11"/>
       <c r="B209" s="11"/>
       <c r="C209" s="11"/>
@@ -5352,7 +5546,7 @@
       <c r="F209" s="11"/>
       <c r="G209" s="11"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="11"/>
       <c r="B210" s="11"/>
       <c r="C210" s="11"/>
@@ -5361,7 +5555,7 @@
       <c r="F210" s="11"/>
       <c r="G210" s="11"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="11"/>
       <c r="B211" s="11"/>
       <c r="C211" s="11"/>
@@ -5370,7 +5564,7 @@
       <c r="F211" s="11"/>
       <c r="G211" s="11"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="11"/>
       <c r="B212" s="11"/>
       <c r="C212" s="11"/>
@@ -5379,7 +5573,7 @@
       <c r="F212" s="11"/>
       <c r="G212" s="11"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="11"/>
       <c r="B213" s="11"/>
       <c r="C213" s="11"/>
@@ -5388,7 +5582,7 @@
       <c r="F213" s="11"/>
       <c r="G213" s="11"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="11"/>
       <c r="B214" s="11"/>
       <c r="C214" s="11"/>
@@ -5397,7 +5591,7 @@
       <c r="F214" s="11"/>
       <c r="G214" s="11"/>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="11"/>
       <c r="B215" s="11"/>
       <c r="C215" s="11"/>
@@ -5406,7 +5600,7 @@
       <c r="F215" s="11"/>
       <c r="G215" s="11"/>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="11"/>
       <c r="B216" s="11"/>
       <c r="C216" s="11"/>
@@ -5415,7 +5609,7 @@
       <c r="F216" s="11"/>
       <c r="G216" s="11"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="11"/>
       <c r="B217" s="11"/>
       <c r="C217" s="11"/>
@@ -5424,7 +5618,7 @@
       <c r="F217" s="11"/>
       <c r="G217" s="11"/>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="11"/>
       <c r="B218" s="11"/>
       <c r="C218" s="11"/>
@@ -5433,7 +5627,7 @@
       <c r="F218" s="36"/>
       <c r="G218" s="36"/>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="11"/>
       <c r="B219" s="11"/>
       <c r="C219" s="11"/>
@@ -5442,7 +5636,7 @@
       <c r="F219" s="11"/>
       <c r="G219" s="11"/>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="11"/>
       <c r="B220" s="11"/>
       <c r="C220" s="11"/>
@@ -5451,7 +5645,7 @@
       <c r="F220" s="11"/>
       <c r="G220" s="11"/>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="11"/>
       <c r="B221" s="11"/>
       <c r="C221" s="11"/>
@@ -5460,7 +5654,7 @@
       <c r="F221" s="11"/>
       <c r="G221" s="11"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="11"/>
       <c r="B222" s="11"/>
       <c r="C222" s="11"/>
@@ -5469,7 +5663,7 @@
       <c r="F222" s="11"/>
       <c r="G222" s="11"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="11"/>
       <c r="B223" s="11"/>
       <c r="C223" s="11"/>
@@ -5478,7 +5672,7 @@
       <c r="F223" s="11"/>
       <c r="G223" s="11"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="11"/>
       <c r="B224" s="11"/>
       <c r="C224" s="11"/>
@@ -5487,7 +5681,7 @@
       <c r="F224" s="11"/>
       <c r="G224" s="11"/>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="11"/>
       <c r="B225" s="11"/>
       <c r="C225" s="11"/>
@@ -5496,7 +5690,7 @@
       <c r="F225" s="11"/>
       <c r="G225" s="11"/>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="11"/>
       <c r="B226" s="11"/>
       <c r="C226" s="11"/>
@@ -5505,7 +5699,7 @@
       <c r="F226" s="11"/>
       <c r="G226" s="11"/>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="11"/>
       <c r="B227" s="11"/>
       <c r="C227" s="11"/>
@@ -5514,7 +5708,7 @@
       <c r="F227" s="11"/>
       <c r="G227" s="11"/>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="11"/>
       <c r="B228" s="11"/>
       <c r="C228" s="11"/>
@@ -5523,7 +5717,7 @@
       <c r="F228" s="11"/>
       <c r="G228" s="11"/>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="11"/>
       <c r="B229" s="11"/>
       <c r="C229" s="11"/>
@@ -5532,7 +5726,7 @@
       <c r="F229" s="11"/>
       <c r="G229" s="11"/>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="11"/>
       <c r="B230" s="11"/>
       <c r="C230" s="11"/>
@@ -5541,7 +5735,7 @@
       <c r="F230" s="11"/>
       <c r="G230" s="11"/>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="11"/>
       <c r="B231" s="11"/>
       <c r="C231" s="11"/>
@@ -5550,7 +5744,7 @@
       <c r="F231" s="11"/>
       <c r="G231" s="11"/>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="11"/>
       <c r="B232" s="11"/>
       <c r="C232" s="11"/>
@@ -5559,7 +5753,7 @@
       <c r="F232" s="11"/>
       <c r="G232" s="11"/>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="36"/>
       <c r="B233" s="36"/>
       <c r="C233" s="36"/>
@@ -5568,7 +5762,7 @@
       <c r="F233" s="11"/>
       <c r="G233" s="11"/>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="11"/>
       <c r="B234" s="11"/>
       <c r="C234" s="11"/>
@@ -5577,7 +5771,7 @@
       <c r="F234" s="36"/>
       <c r="G234" s="36"/>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="11"/>
       <c r="B235" s="11"/>
       <c r="C235" s="11"/>
@@ -5586,7 +5780,7 @@
       <c r="F235" s="11"/>
       <c r="G235" s="11"/>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="11"/>
       <c r="B236" s="11"/>
       <c r="C236" s="11"/>
@@ -5595,7 +5789,7 @@
       <c r="F236" s="11"/>
       <c r="G236" s="11"/>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="11"/>
       <c r="B237" s="11"/>
       <c r="C237" s="11"/>
@@ -5604,7 +5798,7 @@
       <c r="F237" s="11"/>
       <c r="G237" s="11"/>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="11"/>
       <c r="B238" s="11"/>
       <c r="C238" s="11"/>
@@ -5613,7 +5807,7 @@
       <c r="F238" s="11"/>
       <c r="G238" s="11"/>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="11"/>
       <c r="B239" s="11"/>
       <c r="C239" s="11"/>
@@ -5622,7 +5816,7 @@
       <c r="F239" s="11"/>
       <c r="G239" s="11"/>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="11"/>
       <c r="B240" s="11"/>
       <c r="C240" s="11"/>
@@ -5631,7 +5825,7 @@
       <c r="F240" s="11"/>
       <c r="G240" s="11"/>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="11"/>
       <c r="B241" s="11"/>
       <c r="C241" s="11"/>
@@ -5640,7 +5834,7 @@
       <c r="F241" s="11"/>
       <c r="G241" s="11"/>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="11"/>
       <c r="B242" s="11"/>
       <c r="C242" s="11"/>
@@ -5649,7 +5843,7 @@
       <c r="F242" s="11"/>
       <c r="G242" s="11"/>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="11"/>
       <c r="B243" s="11"/>
       <c r="C243" s="11"/>
@@ -5658,7 +5852,7 @@
       <c r="F243" s="11"/>
       <c r="G243" s="11"/>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="11"/>
       <c r="B244" s="11"/>
       <c r="C244" s="11"/>
@@ -5667,7 +5861,7 @@
       <c r="F244" s="11"/>
       <c r="G244" s="11"/>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="11"/>
       <c r="B245" s="11"/>
       <c r="C245" s="11"/>
@@ -5676,7 +5870,7 @@
       <c r="F245" s="11"/>
       <c r="G245" s="11"/>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="11"/>
       <c r="B246" s="11"/>
       <c r="C246" s="11"/>
@@ -5685,7 +5879,7 @@
       <c r="F246" s="11"/>
       <c r="G246" s="11"/>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="11"/>
       <c r="B247" s="11"/>
       <c r="C247" s="11"/>
@@ -5694,7 +5888,7 @@
       <c r="F247" s="11"/>
       <c r="G247" s="11"/>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="11"/>
       <c r="B248" s="11"/>
       <c r="C248" s="11"/>
@@ -5703,7 +5897,7 @@
       <c r="F248" s="11"/>
       <c r="G248" s="11"/>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="36"/>
       <c r="B249" s="36"/>
       <c r="C249" s="36"/>
@@ -5712,7 +5906,7 @@
       <c r="F249" s="11"/>
       <c r="G249" s="11"/>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="11"/>
       <c r="B250" s="11"/>
       <c r="C250" s="11"/>
@@ -5721,7 +5915,7 @@
       <c r="F250" s="11"/>
       <c r="G250" s="11"/>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="11"/>
       <c r="B251" s="11"/>
       <c r="C251" s="11"/>
@@ -5730,7 +5924,7 @@
       <c r="F251" s="36"/>
       <c r="G251" s="36"/>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="11"/>
       <c r="B252" s="11"/>
       <c r="C252" s="11"/>
@@ -5739,7 +5933,7 @@
       <c r="F252" s="11"/>
       <c r="G252" s="11"/>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="11"/>
       <c r="B253" s="11"/>
       <c r="C253" s="11"/>
@@ -5748,7 +5942,7 @@
       <c r="F253" s="11"/>
       <c r="G253" s="11"/>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="11"/>
       <c r="B254" s="11"/>
       <c r="C254" s="11"/>
@@ -5757,7 +5951,7 @@
       <c r="F254" s="11"/>
       <c r="G254" s="11"/>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="11"/>
       <c r="B255" s="11"/>
       <c r="C255" s="11"/>
@@ -5766,7 +5960,7 @@
       <c r="F255" s="11"/>
       <c r="G255" s="11"/>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="11"/>
       <c r="B256" s="11"/>
       <c r="C256" s="11"/>
@@ -5775,7 +5969,7 @@
       <c r="F256" s="11"/>
       <c r="G256" s="11"/>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="11"/>
       <c r="B257" s="11"/>
       <c r="C257" s="11"/>
@@ -5784,7 +5978,7 @@
       <c r="F257" s="11"/>
       <c r="G257" s="11"/>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="11"/>
       <c r="B258" s="11"/>
       <c r="C258" s="11"/>
@@ -5793,7 +5987,7 @@
       <c r="F258" s="11"/>
       <c r="G258" s="11"/>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="11"/>
       <c r="B259" s="11"/>
       <c r="C259" s="11"/>
@@ -5802,7 +5996,7 @@
       <c r="F259" s="11"/>
       <c r="G259" s="11"/>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="11"/>
       <c r="B260" s="11"/>
       <c r="C260" s="11"/>
@@ -5811,7 +6005,7 @@
       <c r="F260" s="11"/>
       <c r="G260" s="11"/>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="11"/>
       <c r="B261" s="11"/>
       <c r="C261" s="11"/>
@@ -5820,7 +6014,7 @@
       <c r="F261" s="11"/>
       <c r="G261" s="11"/>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="11"/>
       <c r="B262" s="11"/>
       <c r="C262" s="11"/>
@@ -5829,7 +6023,7 @@
       <c r="F262" s="11"/>
       <c r="G262" s="11"/>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="11"/>
       <c r="B263" s="11"/>
       <c r="C263" s="11"/>
@@ -5838,7 +6032,7 @@
       <c r="F263" s="11"/>
       <c r="G263" s="11"/>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="11"/>
       <c r="B264" s="11"/>
       <c r="C264" s="11"/>
@@ -5847,7 +6041,7 @@
       <c r="F264" s="11"/>
       <c r="G264" s="11"/>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="11"/>
       <c r="B265" s="11"/>
       <c r="C265" s="11"/>
@@ -5856,7 +6050,7 @@
       <c r="F265" s="11"/>
       <c r="G265" s="11"/>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="36"/>
       <c r="B266" s="36"/>
       <c r="C266" s="36"/>
@@ -5865,7 +6059,7 @@
       <c r="F266" s="11"/>
       <c r="G266" s="11"/>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="11"/>
       <c r="B267" s="11"/>
       <c r="C267" s="11"/>
@@ -5874,7 +6068,7 @@
       <c r="F267" s="11"/>
       <c r="G267" s="11"/>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="11"/>
       <c r="B268" s="11"/>
       <c r="C268" s="11"/>
@@ -5883,7 +6077,7 @@
       <c r="F268" s="11"/>
       <c r="G268" s="11"/>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="11"/>
       <c r="B269" s="11"/>
       <c r="C269" s="11"/>
@@ -5892,7 +6086,7 @@
       <c r="F269" s="11"/>
       <c r="G269" s="11"/>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="11"/>
       <c r="B270" s="11"/>
       <c r="C270" s="11"/>
@@ -5901,7 +6095,7 @@
       <c r="F270" s="11"/>
       <c r="G270" s="11"/>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="11"/>
       <c r="B271" s="11"/>
       <c r="C271" s="11"/>
@@ -5910,7 +6104,7 @@
       <c r="F271" s="11"/>
       <c r="G271" s="11"/>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="11"/>
       <c r="B272" s="11"/>
       <c r="C272" s="11"/>
@@ -5919,7 +6113,7 @@
       <c r="F272" s="36"/>
       <c r="G272" s="36"/>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="11"/>
       <c r="B273" s="11"/>
       <c r="C273" s="11"/>
@@ -5928,7 +6122,7 @@
       <c r="F273" s="11"/>
       <c r="G273" s="11"/>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="11"/>
       <c r="B274" s="11"/>
       <c r="C274" s="11"/>
@@ -5937,7 +6131,7 @@
       <c r="F274" s="11"/>
       <c r="G274" s="11"/>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="11"/>
       <c r="B275" s="11"/>
       <c r="C275" s="11"/>
@@ -5946,7 +6140,7 @@
       <c r="F275" s="11"/>
       <c r="G275" s="11"/>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="11"/>
       <c r="B276" s="11"/>
       <c r="C276" s="11"/>
@@ -5955,7 +6149,7 @@
       <c r="F276" s="11"/>
       <c r="G276" s="11"/>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="11"/>
       <c r="B277" s="11"/>
       <c r="C277" s="11"/>
@@ -5964,7 +6158,7 @@
       <c r="F277" s="11"/>
       <c r="G277" s="11"/>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="11"/>
       <c r="B278" s="11"/>
       <c r="C278" s="11"/>
@@ -5973,7 +6167,7 @@
       <c r="F278" s="11"/>
       <c r="G278" s="11"/>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="11"/>
       <c r="B279" s="11"/>
       <c r="C279" s="11"/>
@@ -5982,7 +6176,7 @@
       <c r="F279" s="11"/>
       <c r="G279" s="11"/>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="11"/>
       <c r="B280" s="11"/>
       <c r="C280" s="11"/>
@@ -5991,7 +6185,7 @@
       <c r="F280" s="11"/>
       <c r="G280" s="11"/>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="11"/>
       <c r="B281" s="11"/>
       <c r="C281" s="11"/>
@@ -6000,7 +6194,7 @@
       <c r="F281" s="11"/>
       <c r="G281" s="11"/>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="11"/>
       <c r="B282" s="11"/>
       <c r="C282" s="11"/>
@@ -6009,7 +6203,7 @@
       <c r="F282" s="11"/>
       <c r="G282" s="11"/>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="11"/>
       <c r="B283" s="11"/>
       <c r="C283" s="11"/>
@@ -6018,7 +6212,7 @@
       <c r="F283" s="11"/>
       <c r="G283" s="11"/>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="11"/>
       <c r="B284" s="11"/>
       <c r="C284" s="11"/>
@@ -6027,7 +6221,7 @@
       <c r="F284" s="11"/>
       <c r="G284" s="11"/>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="11"/>
       <c r="B285" s="11"/>
       <c r="C285" s="13"/>
@@ -6036,7 +6230,7 @@
       <c r="F285" s="36"/>
       <c r="G285" s="36"/>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="11"/>
       <c r="B286" s="11"/>
       <c r="C286" s="11"/>
@@ -6045,7 +6239,7 @@
       <c r="F286" s="11"/>
       <c r="G286" s="11"/>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="36"/>
       <c r="B287" s="36"/>
       <c r="C287" s="36"/>
@@ -6054,7 +6248,7 @@
       <c r="F287" s="11"/>
       <c r="G287" s="11"/>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="11"/>
       <c r="B288" s="11"/>
       <c r="C288" s="11"/>
@@ -6063,7 +6257,7 @@
       <c r="F288" s="11"/>
       <c r="G288" s="11"/>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="11"/>
       <c r="B289" s="11"/>
       <c r="C289" s="11"/>
@@ -6072,7 +6266,7 @@
       <c r="F289" s="11"/>
       <c r="G289" s="11"/>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="11"/>
       <c r="B290" s="11"/>
       <c r="C290" s="11"/>
@@ -6081,7 +6275,7 @@
       <c r="F290" s="11"/>
       <c r="G290" s="11"/>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="11"/>
       <c r="B291" s="11"/>
       <c r="C291" s="11"/>
@@ -6090,7 +6284,7 @@
       <c r="F291" s="11"/>
       <c r="G291" s="11"/>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="11"/>
       <c r="B292" s="11"/>
       <c r="C292" s="11"/>
@@ -6099,7 +6293,7 @@
       <c r="F292" s="11"/>
       <c r="G292" s="11"/>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="11"/>
       <c r="B293" s="11"/>
       <c r="C293" s="11"/>
@@ -6108,7 +6302,7 @@
       <c r="F293" s="11"/>
       <c r="G293" s="11"/>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="11"/>
       <c r="B294" s="11"/>
       <c r="C294" s="11"/>
@@ -6117,7 +6311,7 @@
       <c r="F294" s="11"/>
       <c r="G294" s="11"/>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="11"/>
       <c r="B295" s="11"/>
       <c r="C295" s="11"/>
@@ -6126,7 +6320,7 @@
       <c r="F295" s="11"/>
       <c r="G295" s="11"/>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="11"/>
       <c r="B296" s="11"/>
       <c r="C296" s="11"/>
@@ -6135,7 +6329,7 @@
       <c r="F296" s="11"/>
       <c r="G296" s="11"/>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="11"/>
       <c r="B297" s="11"/>
       <c r="C297" s="11"/>
@@ -6144,7 +6338,7 @@
       <c r="F297" s="11"/>
       <c r="G297" s="11"/>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="11"/>
       <c r="B298" s="11"/>
       <c r="C298" s="11"/>
@@ -6153,7 +6347,7 @@
       <c r="F298" s="11"/>
       <c r="G298" s="11"/>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="11"/>
       <c r="B299" s="11"/>
       <c r="C299" s="11"/>
@@ -6162,7 +6356,7 @@
       <c r="F299" s="11"/>
       <c r="G299" s="11"/>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="36"/>
       <c r="B300" s="36"/>
       <c r="C300" s="36"/>
@@ -6171,7 +6365,7 @@
       <c r="F300" s="11"/>
       <c r="G300" s="11"/>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="11"/>
       <c r="B301" s="11"/>
       <c r="C301" s="11"/>
@@ -6180,7 +6374,7 @@
       <c r="F301" s="11"/>
       <c r="G301" s="11"/>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="11"/>
       <c r="B302" s="11"/>
       <c r="C302" s="11"/>
@@ -6189,7 +6383,7 @@
       <c r="F302" s="11"/>
       <c r="G302" s="11"/>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="11"/>
       <c r="B303" s="11"/>
       <c r="C303" s="11"/>
@@ -6198,7 +6392,7 @@
       <c r="F303" s="11"/>
       <c r="G303" s="11"/>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="11"/>
       <c r="B304" s="11"/>
       <c r="C304" s="11"/>
@@ -6207,7 +6401,7 @@
       <c r="F304" s="11"/>
       <c r="G304" s="11"/>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="11"/>
       <c r="B305" s="11"/>
       <c r="C305" s="11"/>
@@ -6216,7 +6410,7 @@
       <c r="F305" s="36"/>
       <c r="G305" s="36"/>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="11"/>
       <c r="B306" s="11"/>
       <c r="C306" s="11"/>
@@ -6225,7 +6419,7 @@
       <c r="F306" s="11"/>
       <c r="G306" s="11"/>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="11"/>
       <c r="B307" s="11"/>
       <c r="C307" s="11"/>
@@ -6234,7 +6428,7 @@
       <c r="F307" s="11"/>
       <c r="G307" s="11"/>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="11"/>
       <c r="B308" s="11"/>
       <c r="C308" s="11"/>
@@ -6243,7 +6437,7 @@
       <c r="F308" s="11"/>
       <c r="G308" s="11"/>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="11"/>
       <c r="B309" s="11"/>
       <c r="C309" s="11"/>
@@ -6252,7 +6446,7 @@
       <c r="F309" s="11"/>
       <c r="G309" s="11"/>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="11"/>
       <c r="B310" s="11"/>
       <c r="C310" s="11"/>
@@ -6261,7 +6455,7 @@
       <c r="F310" s="11"/>
       <c r="G310" s="11"/>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="11"/>
       <c r="B311" s="11"/>
       <c r="C311" s="11"/>
@@ -6270,7 +6464,7 @@
       <c r="F311" s="11"/>
       <c r="G311" s="11"/>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="11"/>
       <c r="B312" s="11"/>
       <c r="C312" s="11"/>
@@ -6279,7 +6473,7 @@
       <c r="F312" s="11"/>
       <c r="G312" s="11"/>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="11"/>
       <c r="B313" s="11"/>
       <c r="C313" s="11"/>
@@ -6288,7 +6482,7 @@
       <c r="F313" s="11"/>
       <c r="G313" s="11"/>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="11"/>
       <c r="B314" s="11"/>
       <c r="C314" s="11"/>
@@ -6297,7 +6491,7 @@
       <c r="F314" s="11"/>
       <c r="G314" s="11"/>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="11"/>
       <c r="B315" s="11"/>
       <c r="C315" s="11"/>
@@ -6306,7 +6500,7 @@
       <c r="F315" s="11"/>
       <c r="G315" s="11"/>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="11"/>
       <c r="B316" s="11"/>
       <c r="C316" s="11"/>
@@ -6315,7 +6509,7 @@
       <c r="F316" s="11"/>
       <c r="G316" s="11"/>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="11"/>
       <c r="B317" s="11"/>
       <c r="C317" s="11"/>
@@ -6324,7 +6518,7 @@
       <c r="F317" s="11"/>
       <c r="G317" s="11"/>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="11"/>
       <c r="B318" s="11"/>
       <c r="C318" s="11"/>
@@ -6333,7 +6527,7 @@
       <c r="F318" s="11"/>
       <c r="G318" s="11"/>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="11"/>
       <c r="B319" s="11"/>
       <c r="C319" s="11"/>
@@ -6342,7 +6536,7 @@
       <c r="F319" s="11"/>
       <c r="G319" s="11"/>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="36"/>
       <c r="B320" s="36"/>
       <c r="C320" s="36"/>
@@ -6351,7 +6545,7 @@
       <c r="F320" s="11"/>
       <c r="G320" s="11"/>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="11"/>
       <c r="B321" s="11"/>
       <c r="C321" s="11"/>
@@ -6360,7 +6554,7 @@
       <c r="F321" s="11"/>
       <c r="G321" s="11"/>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="11"/>
       <c r="B322" s="11"/>
       <c r="C322" s="11"/>
@@ -6369,7 +6563,7 @@
       <c r="F322" s="11"/>
       <c r="G322" s="11"/>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="11"/>
       <c r="B323" s="11"/>
       <c r="C323" s="11"/>
@@ -6378,7 +6572,7 @@
       <c r="F323" s="11"/>
       <c r="G323" s="11"/>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="11"/>
       <c r="B324" s="11"/>
       <c r="C324" s="11"/>
@@ -6387,7 +6581,7 @@
       <c r="F324" s="11"/>
       <c r="G324" s="11"/>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="11"/>
       <c r="B325" s="11"/>
       <c r="C325" s="11"/>
@@ -6396,7 +6590,7 @@
       <c r="F325" s="11"/>
       <c r="G325" s="11"/>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="11"/>
       <c r="B326" s="11"/>
       <c r="C326" s="11"/>
@@ -6405,7 +6599,7 @@
       <c r="F326" s="11"/>
       <c r="G326" s="11"/>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="11"/>
       <c r="B327" s="11"/>
       <c r="C327" s="11"/>
@@ -6414,7 +6608,7 @@
       <c r="F327" s="11"/>
       <c r="G327" s="11"/>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="11"/>
       <c r="B328" s="11"/>
       <c r="C328" s="11"/>
@@ -6423,7 +6617,7 @@
       <c r="F328" s="11"/>
       <c r="G328" s="11"/>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="11"/>
       <c r="B329" s="11"/>
       <c r="C329" s="11"/>
@@ -6432,7 +6626,7 @@
       <c r="F329" s="11"/>
       <c r="G329" s="11"/>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="11"/>
       <c r="B330" s="11"/>
       <c r="C330" s="11"/>
@@ -6441,7 +6635,7 @@
       <c r="F330" s="11"/>
       <c r="G330" s="11"/>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="11"/>
       <c r="B331" s="11"/>
       <c r="C331" s="11"/>
@@ -6450,7 +6644,7 @@
       <c r="F331" s="11"/>
       <c r="G331" s="11"/>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="11"/>
       <c r="B332" s="11"/>
       <c r="C332" s="11"/>
@@ -6459,7 +6653,7 @@
       <c r="F332" s="11"/>
       <c r="G332" s="11"/>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="11"/>
       <c r="B333" s="11"/>
       <c r="C333" s="11"/>
@@ -6468,7 +6662,7 @@
       <c r="F333" s="11"/>
       <c r="G333" s="11"/>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="11"/>
       <c r="B334" s="11"/>
       <c r="C334" s="11"/>
@@ -6477,7 +6671,7 @@
       <c r="F334" s="11"/>
       <c r="G334" s="11"/>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="11"/>
       <c r="B335" s="11"/>
       <c r="C335" s="11"/>
@@ -6486,7 +6680,7 @@
       <c r="F335" s="11"/>
       <c r="G335" s="11"/>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="11"/>
       <c r="B336" s="11"/>
       <c r="C336" s="11"/>
@@ -6495,7 +6689,7 @@
       <c r="F336" s="11"/>
       <c r="G336" s="11"/>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="11"/>
       <c r="B337" s="11"/>
       <c r="C337" s="11"/>
@@ -6504,7 +6698,7 @@
       <c r="F337" s="11"/>
       <c r="G337" s="11"/>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="11"/>
       <c r="B338" s="11"/>
       <c r="C338" s="11"/>
@@ -6513,7 +6707,7 @@
       <c r="F338" s="11"/>
       <c r="G338" s="11"/>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="11"/>
       <c r="B339" s="11"/>
       <c r="C339" s="11"/>
@@ -6522,7 +6716,7 @@
       <c r="F339" s="11"/>
       <c r="G339" s="11"/>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="11"/>
       <c r="B340" s="11"/>
       <c r="C340" s="11"/>
@@ -6531,7 +6725,7 @@
       <c r="F340" s="36"/>
       <c r="G340" s="36"/>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="11"/>
       <c r="B341" s="11"/>
       <c r="C341" s="11"/>
@@ -6540,7 +6734,7 @@
       <c r="F341" s="11"/>
       <c r="G341" s="11"/>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="11"/>
       <c r="B342" s="11"/>
       <c r="C342" s="11"/>
@@ -6549,7 +6743,7 @@
       <c r="F342" s="11"/>
       <c r="G342" s="11"/>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="11"/>
       <c r="B343" s="11"/>
       <c r="C343" s="11"/>
@@ -6558,7 +6752,7 @@
       <c r="F343" s="11"/>
       <c r="G343" s="11"/>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="11"/>
       <c r="B344" s="11"/>
       <c r="C344" s="11"/>
@@ -6567,7 +6761,7 @@
       <c r="F344" s="11"/>
       <c r="G344" s="11"/>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="11"/>
       <c r="B345" s="11"/>
       <c r="C345" s="11"/>
@@ -6576,7 +6770,7 @@
       <c r="F345" s="11"/>
       <c r="G345" s="11"/>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="11"/>
       <c r="B346" s="11"/>
       <c r="C346" s="11"/>
@@ -6585,7 +6779,7 @@
       <c r="F346" s="11"/>
       <c r="G346" s="11"/>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="11"/>
       <c r="B347" s="11"/>
       <c r="C347" s="11"/>
@@ -6594,7 +6788,7 @@
       <c r="F347" s="11"/>
       <c r="G347" s="11"/>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="11"/>
       <c r="B348" s="11"/>
       <c r="C348" s="11"/>
@@ -6603,7 +6797,7 @@
       <c r="F348" s="11"/>
       <c r="G348" s="11"/>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="11"/>
       <c r="B349" s="11"/>
       <c r="C349" s="11"/>
@@ -6612,7 +6806,7 @@
       <c r="F349" s="11"/>
       <c r="G349" s="11"/>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="11"/>
       <c r="B350" s="11"/>
       <c r="C350" s="11"/>
@@ -6621,7 +6815,7 @@
       <c r="F350" s="11"/>
       <c r="G350" s="11"/>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="11"/>
       <c r="B351" s="11"/>
       <c r="C351" s="11"/>
@@ -6630,7 +6824,7 @@
       <c r="F351" s="11"/>
       <c r="G351" s="11"/>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="11"/>
       <c r="B352" s="11"/>
       <c r="C352" s="11"/>
@@ -6639,7 +6833,7 @@
       <c r="F352" s="11"/>
       <c r="G352" s="11"/>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="11"/>
       <c r="B353" s="11"/>
       <c r="C353" s="11"/>
@@ -6648,7 +6842,7 @@
       <c r="F353" s="11"/>
       <c r="G353" s="11"/>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="11"/>
       <c r="B354" s="11"/>
       <c r="C354" s="11"/>
@@ -6657,7 +6851,7 @@
       <c r="F354" s="11"/>
       <c r="G354" s="11"/>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="36"/>
       <c r="B355" s="36"/>
       <c r="C355" s="36"/>
@@ -6666,7 +6860,7 @@
       <c r="F355" s="11"/>
       <c r="G355" s="11"/>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="11"/>
       <c r="B356" s="11"/>
       <c r="C356" s="11"/>
@@ -6675,7 +6869,7 @@
       <c r="F356" s="11"/>
       <c r="G356" s="11"/>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="11"/>
       <c r="B357" s="11"/>
       <c r="C357" s="11"/>
@@ -6684,7 +6878,7 @@
       <c r="F357" s="11"/>
       <c r="G357" s="11"/>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="11"/>
       <c r="B358" s="11"/>
       <c r="C358" s="11"/>
@@ -6693,7 +6887,7 @@
       <c r="F358" s="11"/>
       <c r="G358" s="11"/>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="11"/>
       <c r="B359" s="11"/>
       <c r="C359" s="11"/>
@@ -6702,7 +6896,7 @@
       <c r="F359" s="11"/>
       <c r="G359" s="11"/>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="11"/>
       <c r="B360" s="11"/>
       <c r="C360" s="11"/>
@@ -6711,7 +6905,7 @@
       <c r="F360" s="36"/>
       <c r="G360" s="36"/>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="11"/>
       <c r="B361" s="11"/>
       <c r="C361" s="11"/>
@@ -6720,7 +6914,7 @@
       <c r="F361" s="11"/>
       <c r="G361" s="11"/>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="11"/>
       <c r="B362" s="11"/>
       <c r="C362" s="11"/>
@@ -6729,7 +6923,7 @@
       <c r="F362" s="11"/>
       <c r="G362" s="11"/>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="11"/>
       <c r="B363" s="11"/>
       <c r="C363" s="11"/>
@@ -6738,7 +6932,7 @@
       <c r="F363" s="11"/>
       <c r="G363" s="11"/>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="11"/>
       <c r="B364" s="11"/>
       <c r="C364" s="11"/>
@@ -6747,7 +6941,7 @@
       <c r="F364" s="11"/>
       <c r="G364" s="11"/>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="11"/>
       <c r="B365" s="11"/>
       <c r="C365" s="11"/>
@@ -6756,7 +6950,7 @@
       <c r="F365" s="11"/>
       <c r="G365" s="11"/>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="11"/>
       <c r="B366" s="11"/>
       <c r="C366" s="11"/>
@@ -6765,7 +6959,7 @@
       <c r="F366" s="11"/>
       <c r="G366" s="11"/>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="11"/>
       <c r="B367" s="11"/>
       <c r="C367" s="11"/>
@@ -6774,7 +6968,7 @@
       <c r="F367" s="11"/>
       <c r="G367" s="11"/>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="11"/>
       <c r="B368" s="11"/>
       <c r="C368" s="11"/>
@@ -6783,7 +6977,7 @@
       <c r="F368" s="11"/>
       <c r="G368" s="11"/>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="11"/>
       <c r="B369" s="11"/>
       <c r="C369" s="11"/>
@@ -6792,7 +6986,7 @@
       <c r="F369" s="11"/>
       <c r="G369" s="11"/>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="11"/>
       <c r="B370" s="11"/>
       <c r="C370" s="11"/>
@@ -6801,7 +6995,7 @@
       <c r="F370" s="11"/>
       <c r="G370" s="11"/>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="11"/>
       <c r="B371" s="11"/>
       <c r="C371" s="11"/>
@@ -6810,7 +7004,7 @@
       <c r="F371" s="11"/>
       <c r="G371" s="11"/>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="11"/>
       <c r="B372" s="11"/>
       <c r="C372" s="11"/>
@@ -6819,7 +7013,7 @@
       <c r="F372" s="36"/>
       <c r="G372" s="36"/>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="11"/>
       <c r="B373" s="11"/>
       <c r="C373" s="11"/>
@@ -6828,7 +7022,7 @@
       <c r="F373" s="11"/>
       <c r="G373" s="11"/>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="11"/>
       <c r="B374" s="11"/>
       <c r="C374" s="11"/>
@@ -6837,7 +7031,7 @@
       <c r="F374" s="11"/>
       <c r="G374" s="11"/>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="36"/>
       <c r="B375" s="36"/>
       <c r="C375" s="36"/>
@@ -6846,7 +7040,7 @@
       <c r="F375" s="11"/>
       <c r="G375" s="11"/>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="11"/>
       <c r="B376" s="11"/>
       <c r="C376" s="11"/>
@@ -6855,7 +7049,7 @@
       <c r="F376" s="11"/>
       <c r="G376" s="11"/>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="11"/>
       <c r="B377" s="11"/>
       <c r="C377" s="11"/>
@@ -6864,7 +7058,7 @@
       <c r="F377" s="11"/>
       <c r="G377" s="11"/>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="11"/>
       <c r="B378" s="11"/>
       <c r="C378" s="11"/>
@@ -6873,7 +7067,7 @@
       <c r="F378" s="11"/>
       <c r="G378" s="11"/>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="11"/>
       <c r="B379" s="11"/>
       <c r="C379" s="11"/>
@@ -6882,7 +7076,7 @@
       <c r="F379" s="11"/>
       <c r="G379" s="11"/>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="11"/>
       <c r="B380" s="11"/>
       <c r="C380" s="11"/>
@@ -6891,7 +7085,7 @@
       <c r="F380" s="11"/>
       <c r="G380" s="11"/>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="11"/>
       <c r="B381" s="11"/>
       <c r="C381" s="11"/>
@@ -6900,7 +7094,7 @@
       <c r="F381" s="11"/>
       <c r="G381" s="11"/>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="11"/>
       <c r="B382" s="11"/>
       <c r="C382" s="11"/>
@@ -6909,7 +7103,7 @@
       <c r="F382" s="11"/>
       <c r="G382" s="11"/>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="11"/>
       <c r="B383" s="11"/>
       <c r="C383" s="11"/>
@@ -6918,7 +7112,7 @@
       <c r="F383" s="11"/>
       <c r="G383" s="11"/>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" s="11"/>
       <c r="B384" s="11"/>
       <c r="C384" s="11"/>
@@ -6927,7 +7121,7 @@
       <c r="F384" s="11"/>
       <c r="G384" s="11"/>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" s="11"/>
       <c r="B385" s="11"/>
       <c r="C385" s="11"/>
@@ -6936,7 +7130,7 @@
       <c r="F385" s="11"/>
       <c r="G385" s="11"/>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="11"/>
       <c r="B386" s="11"/>
       <c r="C386" s="11"/>
@@ -6945,7 +7139,7 @@
       <c r="F386" s="11"/>
       <c r="G386" s="11"/>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="36"/>
       <c r="B387" s="36"/>
       <c r="C387" s="36"/>
@@ -6954,7 +7148,7 @@
       <c r="F387" s="11"/>
       <c r="G387" s="11"/>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="11"/>
       <c r="B388" s="11"/>
       <c r="C388" s="11"/>
@@ -6963,7 +7157,7 @@
       <c r="F388" s="11"/>
       <c r="G388" s="11"/>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" s="11"/>
       <c r="B389" s="11"/>
       <c r="C389" s="11"/>
@@ -6972,7 +7166,7 @@
       <c r="F389" s="11"/>
       <c r="G389" s="11"/>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" s="11"/>
       <c r="B390" s="11"/>
       <c r="C390" s="11"/>
@@ -6981,7 +7175,7 @@
       <c r="F390" s="11"/>
       <c r="G390" s="11"/>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" s="11"/>
       <c r="B391" s="11"/>
       <c r="C391" s="11"/>
@@ -6990,7 +7184,7 @@
       <c r="F391" s="11"/>
       <c r="G391" s="11"/>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" s="11"/>
       <c r="B392" s="11"/>
       <c r="C392" s="11"/>
@@ -6999,7 +7193,7 @@
       <c r="F392" s="11"/>
       <c r="G392" s="11"/>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" s="11"/>
       <c r="B393" s="11"/>
       <c r="C393" s="11"/>
@@ -7008,7 +7202,7 @@
       <c r="F393" s="36"/>
       <c r="G393" s="36"/>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="11"/>
       <c r="B394" s="11"/>
       <c r="C394" s="11"/>
@@ -7017,7 +7211,7 @@
       <c r="F394" s="11"/>
       <c r="G394" s="11"/>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" s="11"/>
       <c r="B395" s="11"/>
       <c r="C395" s="11"/>
@@ -7026,7 +7220,7 @@
       <c r="F395" s="11"/>
       <c r="G395" s="11"/>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" s="11"/>
       <c r="B396" s="11"/>
       <c r="C396" s="11"/>
@@ -7035,7 +7229,7 @@
       <c r="F396" s="11"/>
       <c r="G396" s="11"/>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" s="11"/>
       <c r="B397" s="11"/>
       <c r="C397" s="11"/>
@@ -7044,7 +7238,7 @@
       <c r="F397" s="11"/>
       <c r="G397" s="11"/>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" s="11"/>
       <c r="B398" s="11"/>
       <c r="C398" s="11"/>
@@ -7053,7 +7247,7 @@
       <c r="F398" s="11"/>
       <c r="G398" s="11"/>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" s="11"/>
       <c r="B399" s="11"/>
       <c r="C399" s="11"/>
@@ -7062,7 +7256,7 @@
       <c r="F399" s="11"/>
       <c r="G399" s="11"/>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" s="11"/>
       <c r="B400" s="11"/>
       <c r="C400" s="11"/>
@@ -7071,7 +7265,7 @@
       <c r="F400" s="11"/>
       <c r="G400" s="11"/>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="11"/>
       <c r="B401" s="11"/>
       <c r="C401" s="11"/>
@@ -7080,7 +7274,7 @@
       <c r="F401" s="11"/>
       <c r="G401" s="11"/>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="11"/>
       <c r="B402" s="11"/>
       <c r="C402" s="11"/>
@@ -7089,7 +7283,7 @@
       <c r="F402" s="11"/>
       <c r="G402" s="11"/>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="11"/>
       <c r="B403" s="11"/>
       <c r="C403" s="11"/>
@@ -7098,7 +7292,7 @@
       <c r="F403" s="11"/>
       <c r="G403" s="11"/>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="11"/>
       <c r="B404" s="11"/>
       <c r="C404" s="11"/>
@@ -7107,7 +7301,7 @@
       <c r="F404" s="11"/>
       <c r="G404" s="11"/>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" s="11"/>
       <c r="B405" s="11"/>
       <c r="C405" s="11"/>
@@ -7116,7 +7310,7 @@
       <c r="F405" s="11"/>
       <c r="G405" s="11"/>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" s="11"/>
       <c r="B406" s="11"/>
       <c r="C406" s="11"/>
@@ -7125,7 +7319,7 @@
       <c r="F406" s="11"/>
       <c r="G406" s="11"/>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" s="11"/>
       <c r="B407" s="11"/>
       <c r="C407" s="11"/>
@@ -7134,7 +7328,7 @@
       <c r="F407" s="11"/>
       <c r="G407" s="11"/>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" s="36"/>
       <c r="B408" s="36"/>
       <c r="C408" s="36"/>
@@ -7143,7 +7337,7 @@
       <c r="F408" s="11"/>
       <c r="G408" s="11"/>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" s="11"/>
       <c r="B409" s="11"/>
       <c r="C409" s="11"/>
@@ -7152,7 +7346,7 @@
       <c r="F409" s="11"/>
       <c r="G409" s="11"/>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" s="11"/>
       <c r="B410" s="11"/>
       <c r="C410" s="11"/>
@@ -7161,7 +7355,7 @@
       <c r="F410" s="11"/>
       <c r="G410" s="11"/>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="11"/>
       <c r="B411" s="11"/>
       <c r="C411" s="11"/>
@@ -7170,7 +7364,7 @@
       <c r="F411" s="11"/>
       <c r="G411" s="11"/>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" s="11"/>
       <c r="B412" s="11"/>
       <c r="C412" s="11"/>
@@ -7179,7 +7373,7 @@
       <c r="F412" s="11"/>
       <c r="G412" s="11"/>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="11"/>
       <c r="B413" s="11"/>
       <c r="C413" s="11"/>
@@ -7188,7 +7382,7 @@
       <c r="F413" s="11"/>
       <c r="G413" s="11"/>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" s="11"/>
       <c r="B414" s="11"/>
       <c r="C414" s="11"/>
@@ -7197,7 +7391,7 @@
       <c r="F414" s="11"/>
       <c r="G414" s="11"/>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="11"/>
       <c r="B415" s="11"/>
       <c r="C415" s="11"/>
@@ -7206,7 +7400,7 @@
       <c r="F415" s="11"/>
       <c r="G415" s="11"/>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="11"/>
       <c r="B416" s="11"/>
       <c r="C416" s="11"/>
@@ -7215,7 +7409,7 @@
       <c r="F416" s="11"/>
       <c r="G416" s="11"/>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" s="11"/>
       <c r="B417" s="11"/>
       <c r="C417" s="11"/>
@@ -7224,7 +7418,7 @@
       <c r="F417" s="11"/>
       <c r="G417" s="11"/>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" s="11"/>
       <c r="B418" s="11"/>
       <c r="C418" s="11"/>
@@ -7233,7 +7427,7 @@
       <c r="F418" s="11"/>
       <c r="G418" s="11"/>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" s="11"/>
       <c r="B419" s="11"/>
       <c r="C419" s="11"/>
@@ -7242,7 +7436,7 @@
       <c r="F419" s="11"/>
       <c r="G419" s="11"/>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" s="11"/>
       <c r="B420" s="11"/>
       <c r="C420" s="11"/>
@@ -7251,7 +7445,7 @@
       <c r="F420" s="11"/>
       <c r="G420" s="11"/>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" s="11"/>
       <c r="B421" s="11"/>
       <c r="C421" s="11"/>
@@ -7260,7 +7454,7 @@
       <c r="F421" s="36"/>
       <c r="G421" s="36"/>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" s="11"/>
       <c r="B422" s="11"/>
       <c r="C422" s="11"/>
@@ -7269,7 +7463,7 @@
       <c r="F422" s="11"/>
       <c r="G422" s="11"/>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" s="11"/>
       <c r="B423" s="11"/>
       <c r="C423" s="11"/>
@@ -7278,7 +7472,7 @@
       <c r="F423" s="11"/>
       <c r="G423" s="11"/>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" s="11"/>
       <c r="B424" s="11"/>
       <c r="C424" s="11"/>
@@ -7287,7 +7481,7 @@
       <c r="F424" s="11"/>
       <c r="G424" s="11"/>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" s="11"/>
       <c r="B425" s="11"/>
       <c r="C425" s="11"/>
@@ -7296,7 +7490,7 @@
       <c r="F425" s="11"/>
       <c r="G425" s="11"/>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" s="11"/>
       <c r="B426" s="11"/>
       <c r="C426" s="11"/>
@@ -7305,7 +7499,7 @@
       <c r="F426" s="11"/>
       <c r="G426" s="11"/>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" s="11"/>
       <c r="B427" s="11"/>
       <c r="C427" s="11"/>
@@ -7314,7 +7508,7 @@
       <c r="F427" s="11"/>
       <c r="G427" s="11"/>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" s="11"/>
       <c r="B428" s="11"/>
       <c r="C428" s="11"/>
@@ -7323,7 +7517,7 @@
       <c r="F428" s="11"/>
       <c r="G428" s="11"/>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="11"/>
       <c r="B429" s="11"/>
       <c r="C429" s="11"/>
@@ -7332,7 +7526,7 @@
       <c r="F429" s="11"/>
       <c r="G429" s="11"/>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="11"/>
       <c r="B430" s="11"/>
       <c r="C430" s="11"/>
@@ -7341,7 +7535,7 @@
       <c r="F430" s="11"/>
       <c r="G430" s="11"/>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" s="11"/>
       <c r="B431" s="11"/>
       <c r="C431" s="11"/>
@@ -7350,7 +7544,7 @@
       <c r="F431" s="11"/>
       <c r="G431" s="11"/>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" s="11"/>
       <c r="B432" s="11"/>
       <c r="C432" s="11"/>
@@ -7359,7 +7553,7 @@
       <c r="F432" s="11"/>
       <c r="G432" s="11"/>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" s="11"/>
       <c r="B433" s="11"/>
       <c r="C433" s="11"/>
@@ -7368,7 +7562,7 @@
       <c r="F433" s="11"/>
       <c r="G433" s="11"/>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" s="11"/>
       <c r="B434" s="11"/>
       <c r="C434" s="11"/>
@@ -7377,7 +7571,7 @@
       <c r="F434" s="11"/>
       <c r="G434" s="11"/>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" s="11"/>
       <c r="B435" s="11"/>
       <c r="C435" s="11"/>
@@ -7386,7 +7580,7 @@
       <c r="F435" s="11"/>
       <c r="G435" s="11"/>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" s="36"/>
       <c r="B436" s="36"/>
       <c r="C436" s="36"/>
@@ -7395,7 +7589,7 @@
       <c r="F436" s="11"/>
       <c r="G436" s="11"/>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" s="11"/>
       <c r="B437" s="11"/>
       <c r="C437" s="11"/>
@@ -7404,7 +7598,7 @@
       <c r="F437" s="11"/>
       <c r="G437" s="11"/>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" s="11"/>
       <c r="B438" s="11"/>
       <c r="C438" s="11"/>
@@ -7413,7 +7607,7 @@
       <c r="F438" s="11"/>
       <c r="G438" s="11"/>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" s="11"/>
       <c r="B439" s="11"/>
       <c r="C439" s="11"/>
@@ -7422,7 +7616,7 @@
       <c r="F439" s="11"/>
       <c r="G439" s="11"/>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" s="11"/>
       <c r="B440" s="11"/>
       <c r="C440" s="11"/>
@@ -7431,7 +7625,7 @@
       <c r="F440" s="11"/>
       <c r="G440" s="11"/>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" s="11"/>
       <c r="B441" s="11"/>
       <c r="C441" s="11"/>
@@ -7440,7 +7634,7 @@
       <c r="F441" s="11"/>
       <c r="G441" s="11"/>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" s="11"/>
       <c r="B442" s="11"/>
       <c r="C442" s="11"/>
@@ -7449,7 +7643,7 @@
       <c r="F442" s="11"/>
       <c r="G442" s="11"/>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" s="11"/>
       <c r="B443" s="11"/>
       <c r="C443" s="11"/>
@@ -7458,7 +7652,7 @@
       <c r="F443" s="11"/>
       <c r="G443" s="11"/>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" s="11"/>
       <c r="B444" s="11"/>
       <c r="C444" s="11"/>
@@ -7467,7 +7661,7 @@
       <c r="F444" s="11"/>
       <c r="G444" s="11"/>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" s="11"/>
       <c r="B445" s="11"/>
       <c r="C445" s="11"/>
@@ -7476,7 +7670,7 @@
       <c r="F445" s="11"/>
       <c r="G445" s="11"/>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" s="11"/>
       <c r="B446" s="11"/>
       <c r="C446" s="11"/>
@@ -7485,7 +7679,7 @@
       <c r="F446" s="11"/>
       <c r="G446" s="11"/>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" s="11"/>
       <c r="B447" s="11"/>
       <c r="C447" s="11"/>
@@ -7494,7 +7688,7 @@
       <c r="F447" s="11"/>
       <c r="G447" s="11"/>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" s="11"/>
       <c r="B448" s="11"/>
       <c r="C448" s="11"/>
@@ -7503,7 +7697,7 @@
       <c r="F448" s="12"/>
       <c r="G448" s="11"/>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" s="11"/>
       <c r="B449" s="11"/>
       <c r="C449" s="11"/>
@@ -7512,7 +7706,7 @@
       <c r="F449" s="12"/>
       <c r="G449" s="11"/>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" s="11"/>
       <c r="B450" s="11"/>
       <c r="C450" s="11"/>
@@ -7521,7 +7715,7 @@
       <c r="F450" s="12"/>
       <c r="G450" s="11"/>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" s="11"/>
       <c r="B451" s="11"/>
       <c r="C451" s="11"/>
@@ -7530,7 +7724,7 @@
       <c r="F451" s="12"/>
       <c r="G451" s="11"/>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" s="11"/>
       <c r="B452" s="11"/>
       <c r="C452" s="11"/>
@@ -7539,7 +7733,7 @@
       <c r="F452" s="12"/>
       <c r="G452" s="11"/>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" s="11"/>
       <c r="B453" s="11"/>
       <c r="C453" s="11"/>
@@ -7548,7 +7742,7 @@
       <c r="F453" s="12"/>
       <c r="G453" s="11"/>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" s="11"/>
       <c r="B454" s="11"/>
       <c r="C454" s="11"/>
@@ -7557,7 +7751,7 @@
       <c r="F454" s="36"/>
       <c r="G454" s="36"/>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" s="11"/>
       <c r="B455" s="11"/>
       <c r="C455" s="11"/>
@@ -7566,7 +7760,7 @@
       <c r="F455" s="11"/>
       <c r="G455" s="11"/>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" s="11"/>
       <c r="B456" s="11"/>
       <c r="C456" s="11"/>
@@ -7575,7 +7769,7 @@
       <c r="F456" s="11"/>
       <c r="G456" s="11"/>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" s="11"/>
       <c r="B457" s="11"/>
       <c r="C457" s="11"/>
@@ -7584,7 +7778,7 @@
       <c r="F457" s="11"/>
       <c r="G457" s="11"/>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" s="11"/>
       <c r="B458" s="11"/>
       <c r="C458" s="11"/>
@@ -7593,7 +7787,7 @@
       <c r="F458" s="11"/>
       <c r="G458" s="11"/>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" s="11"/>
       <c r="B459" s="11"/>
       <c r="C459" s="11"/>
@@ -7602,7 +7796,7 @@
       <c r="F459" s="11"/>
       <c r="G459" s="11"/>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" s="11"/>
       <c r="B460" s="11"/>
       <c r="C460" s="11"/>
@@ -7611,7 +7805,7 @@
       <c r="F460" s="11"/>
       <c r="G460" s="11"/>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" s="11"/>
       <c r="B461" s="11"/>
       <c r="C461" s="11"/>
@@ -7620,7 +7814,7 @@
       <c r="F461" s="11"/>
       <c r="G461" s="11"/>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" s="11"/>
       <c r="B462" s="11"/>
       <c r="C462" s="11"/>
@@ -7629,7 +7823,7 @@
       <c r="F462" s="11"/>
       <c r="G462" s="11"/>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" s="11"/>
       <c r="B463" s="11"/>
       <c r="C463" s="11"/>
@@ -7638,7 +7832,7 @@
       <c r="F463" s="11"/>
       <c r="G463" s="11"/>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" s="11"/>
       <c r="B464" s="11"/>
       <c r="C464" s="11"/>
@@ -7647,7 +7841,7 @@
       <c r="F464" s="11"/>
       <c r="G464" s="11"/>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" s="11"/>
       <c r="B465" s="11"/>
       <c r="C465" s="11"/>
@@ -7656,7 +7850,7 @@
       <c r="F465" s="11"/>
       <c r="G465" s="11"/>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" s="11"/>
       <c r="B466" s="11"/>
       <c r="C466" s="11"/>
@@ -7665,7 +7859,7 @@
       <c r="F466" s="11"/>
       <c r="G466" s="11"/>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" s="11"/>
       <c r="B467" s="11"/>
       <c r="C467" s="11"/>
@@ -7674,7 +7868,7 @@
       <c r="F467" s="11"/>
       <c r="G467" s="11"/>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" s="11"/>
       <c r="B468" s="11"/>
       <c r="C468" s="11"/>
@@ -7683,7 +7877,7 @@
       <c r="F468" s="11"/>
       <c r="G468" s="11"/>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469" s="36"/>
       <c r="B469" s="36"/>
       <c r="C469" s="36"/>
@@ -7692,7 +7886,7 @@
       <c r="F469" s="11"/>
       <c r="G469" s="11"/>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470" s="11"/>
       <c r="B470" s="11"/>
       <c r="C470" s="11"/>
@@ -7701,7 +7895,7 @@
       <c r="F470" s="11"/>
       <c r="G470" s="11"/>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471" s="11"/>
       <c r="B471" s="11"/>
       <c r="C471" s="11"/>
@@ -7710,7 +7904,7 @@
       <c r="F471" s="11"/>
       <c r="G471" s="11"/>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472" s="11"/>
       <c r="B472" s="11"/>
       <c r="C472" s="11"/>
@@ -7719,7 +7913,7 @@
       <c r="F472" s="11"/>
       <c r="G472" s="11"/>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" s="11"/>
       <c r="B473" s="11"/>
       <c r="C473" s="11"/>
@@ -7728,7 +7922,7 @@
       <c r="F473" s="11"/>
       <c r="G473" s="11"/>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" s="11"/>
       <c r="B474" s="11"/>
       <c r="C474" s="11"/>
@@ -7737,7 +7931,7 @@
       <c r="F474" s="11"/>
       <c r="G474" s="11"/>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" s="11"/>
       <c r="B475" s="11"/>
       <c r="C475" s="11"/>
@@ -7746,7 +7940,7 @@
       <c r="F475" s="11"/>
       <c r="G475" s="11"/>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" s="11"/>
       <c r="B476" s="11"/>
       <c r="C476" s="11"/>
@@ -7755,7 +7949,7 @@
       <c r="F476" s="11"/>
       <c r="G476" s="11"/>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" s="11"/>
       <c r="B477" s="11"/>
       <c r="C477" s="11"/>
@@ -7764,7 +7958,7 @@
       <c r="F477" s="11"/>
       <c r="G477" s="11"/>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" s="11"/>
       <c r="B478" s="11"/>
       <c r="C478" s="11"/>
@@ -7773,7 +7967,7 @@
       <c r="F478" s="11"/>
       <c r="G478" s="11"/>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" s="11"/>
       <c r="B479" s="11"/>
       <c r="C479" s="11"/>
@@ -7782,7 +7976,7 @@
       <c r="F479" s="11"/>
       <c r="G479" s="11"/>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" s="11"/>
       <c r="B480" s="11"/>
       <c r="C480" s="11"/>
@@ -7791,7 +7985,7 @@
       <c r="F480" s="11"/>
       <c r="G480" s="11"/>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" s="11"/>
       <c r="B481" s="11"/>
       <c r="C481" s="11"/>
@@ -7800,7 +7994,7 @@
       <c r="F481" s="11"/>
       <c r="G481" s="11"/>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" s="11"/>
       <c r="B482" s="11"/>
       <c r="C482" s="11"/>
@@ -7809,7 +8003,7 @@
       <c r="F482" s="11"/>
       <c r="G482" s="11"/>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" s="11"/>
       <c r="B483" s="11"/>
       <c r="C483" s="11"/>
@@ -7818,7 +8012,7 @@
       <c r="F483" s="11"/>
       <c r="G483" s="11"/>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" s="11"/>
       <c r="B484" s="11"/>
       <c r="C484" s="11"/>
@@ -7827,7 +8021,7 @@
       <c r="F484" s="11"/>
       <c r="G484" s="11"/>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485" s="11"/>
       <c r="B485" s="11"/>
       <c r="C485" s="11"/>
@@ -7836,7 +8030,7 @@
       <c r="F485" s="11"/>
       <c r="G485" s="11"/>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" s="11"/>
       <c r="B486" s="11"/>
       <c r="C486" s="11"/>
@@ -7845,7 +8039,7 @@
       <c r="F486" s="11"/>
       <c r="G486" s="11"/>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" s="11"/>
       <c r="B487" s="11"/>
       <c r="C487" s="11"/>
@@ -7854,7 +8048,7 @@
       <c r="F487" s="11"/>
       <c r="G487" s="11"/>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" s="11"/>
       <c r="B488" s="11"/>
       <c r="C488" s="11"/>
@@ -7863,7 +8057,7 @@
       <c r="F488" s="11"/>
       <c r="G488" s="11"/>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" s="11"/>
       <c r="B489" s="11"/>
       <c r="C489" s="11"/>
@@ -7872,7 +8066,7 @@
       <c r="F489" s="11"/>
       <c r="G489" s="11"/>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" s="11"/>
       <c r="B490" s="11"/>
       <c r="C490" s="11"/>
@@ -7881,7 +8075,7 @@
       <c r="F490" s="11"/>
       <c r="G490" s="11"/>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" s="11"/>
       <c r="B491" s="11"/>
       <c r="C491" s="11"/>
@@ -7890,7 +8084,7 @@
       <c r="F491" s="11"/>
       <c r="G491" s="11"/>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" s="11"/>
       <c r="B492" s="11"/>
       <c r="C492" s="11"/>
@@ -7899,7 +8093,7 @@
       <c r="F492" s="36"/>
       <c r="G492" s="36"/>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" s="11"/>
       <c r="B493" s="11"/>
       <c r="C493" s="11"/>
@@ -7908,7 +8102,7 @@
       <c r="F493" s="11"/>
       <c r="G493" s="11"/>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" s="11"/>
       <c r="B494" s="11"/>
       <c r="C494" s="11"/>
@@ -7917,7 +8111,7 @@
       <c r="F494" s="11"/>
       <c r="G494" s="11"/>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" s="11"/>
       <c r="B495" s="11"/>
       <c r="C495" s="11"/>
@@ -7926,7 +8120,7 @@
       <c r="F495" s="11"/>
       <c r="G495" s="11"/>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" s="11"/>
       <c r="B496" s="11"/>
       <c r="C496" s="11"/>
@@ -7935,7 +8129,7 @@
       <c r="F496" s="11"/>
       <c r="G496" s="11"/>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497" s="11"/>
       <c r="B497" s="11"/>
       <c r="C497" s="11"/>
@@ -7944,7 +8138,7 @@
       <c r="F497" s="11"/>
       <c r="G497" s="11"/>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A498" s="11"/>
       <c r="B498" s="11"/>
       <c r="C498" s="11"/>
@@ -7953,7 +8147,7 @@
       <c r="F498" s="11"/>
       <c r="G498" s="11"/>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A499" s="11"/>
       <c r="B499" s="11"/>
       <c r="C499" s="11"/>
@@ -7962,7 +8156,7 @@
       <c r="F499" s="11"/>
       <c r="G499" s="11"/>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500" s="11"/>
       <c r="B500" s="11"/>
       <c r="C500" s="11"/>
@@ -7971,7 +8165,7 @@
       <c r="F500" s="11"/>
       <c r="G500" s="11"/>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501" s="11"/>
       <c r="B501" s="11"/>
       <c r="C501" s="11"/>
@@ -7980,7 +8174,7 @@
       <c r="F501" s="11"/>
       <c r="G501" s="11"/>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A502" s="11"/>
       <c r="B502" s="11"/>
       <c r="C502" s="11"/>
@@ -7989,7 +8183,7 @@
       <c r="F502" s="11"/>
       <c r="G502" s="11"/>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503" s="11"/>
       <c r="B503" s="11"/>
       <c r="C503" s="11"/>
@@ -7998,7 +8192,7 @@
       <c r="F503" s="11"/>
       <c r="G503" s="11"/>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504" s="11"/>
       <c r="B504" s="11"/>
       <c r="C504" s="11"/>
@@ -8007,7 +8201,7 @@
       <c r="F504" s="11"/>
       <c r="G504" s="11"/>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505" s="11"/>
       <c r="B505" s="11"/>
       <c r="C505" s="11"/>
@@ -8016,7 +8210,7 @@
       <c r="F505" s="11"/>
       <c r="G505" s="11"/>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506" s="11"/>
       <c r="B506" s="11"/>
       <c r="C506" s="11"/>
@@ -8025,7 +8219,7 @@
       <c r="F506" s="11"/>
       <c r="G506" s="11"/>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A507" s="36"/>
       <c r="B507" s="36"/>
       <c r="C507" s="36"/>
@@ -8034,7 +8228,7 @@
       <c r="F507" s="11"/>
       <c r="G507" s="11"/>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508" s="11"/>
       <c r="B508" s="11"/>
       <c r="C508" s="11"/>
@@ -8043,7 +8237,7 @@
       <c r="F508" s="11"/>
       <c r="G508" s="11"/>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509" s="11"/>
       <c r="B509" s="11"/>
       <c r="C509" s="11"/>
@@ -8052,7 +8246,7 @@
       <c r="F509" s="11"/>
       <c r="G509" s="11"/>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510" s="11"/>
       <c r="B510" s="11"/>
       <c r="C510" s="11"/>
@@ -8061,7 +8255,7 @@
       <c r="F510" s="11"/>
       <c r="G510" s="11"/>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511" s="11"/>
       <c r="B511" s="11"/>
       <c r="C511" s="11"/>
@@ -8070,7 +8264,7 @@
       <c r="F511" s="11"/>
       <c r="G511" s="11"/>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512" s="11"/>
       <c r="B512" s="11"/>
       <c r="C512" s="11"/>
@@ -8079,7 +8273,7 @@
       <c r="F512" s="11"/>
       <c r="G512" s="11"/>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513" s="11"/>
       <c r="B513" s="11"/>
       <c r="C513" s="11"/>
@@ -8088,7 +8282,7 @@
       <c r="F513" s="11"/>
       <c r="G513" s="11"/>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A514" s="11"/>
       <c r="B514" s="11"/>
       <c r="C514" s="11"/>
@@ -8097,7 +8291,7 @@
       <c r="F514" s="11"/>
       <c r="G514" s="11"/>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515" s="11"/>
       <c r="B515" s="11"/>
       <c r="C515" s="11"/>
@@ -8106,7 +8300,7 @@
       <c r="F515" s="11"/>
       <c r="G515" s="11"/>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A516" s="11"/>
       <c r="B516" s="11"/>
       <c r="C516" s="11"/>
@@ -8115,7 +8309,7 @@
       <c r="F516" s="11"/>
       <c r="G516" s="11"/>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A517" s="11"/>
       <c r="B517" s="11"/>
       <c r="C517" s="11"/>
@@ -8124,7 +8318,7 @@
       <c r="F517" s="11"/>
       <c r="G517" s="11"/>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A518" s="11"/>
       <c r="B518" s="11"/>
       <c r="C518" s="11"/>
@@ -8133,7 +8327,7 @@
       <c r="F518" s="11"/>
       <c r="G518" s="11"/>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A519" s="11"/>
       <c r="B519" s="11"/>
       <c r="C519" s="11"/>
@@ -8142,7 +8336,7 @@
       <c r="F519" s="11"/>
       <c r="G519" s="11"/>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A520" s="11"/>
       <c r="B520" s="11"/>
       <c r="C520" s="11"/>
@@ -8151,7 +8345,7 @@
       <c r="F520" s="11"/>
       <c r="G520" s="11"/>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A521" s="11"/>
       <c r="B521" s="11"/>
       <c r="C521" s="11"/>
@@ -8160,7 +8354,7 @@
       <c r="F521" s="11"/>
       <c r="G521" s="11"/>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A522" s="11"/>
       <c r="B522" s="11"/>
       <c r="C522" s="11"/>
@@ -8169,7 +8363,7 @@
       <c r="F522" s="11"/>
       <c r="G522" s="11"/>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A523" s="11"/>
       <c r="B523" s="11"/>
       <c r="C523" s="11"/>
@@ -8178,7 +8372,7 @@
       <c r="F523" s="11"/>
       <c r="G523" s="11"/>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A524" s="11"/>
       <c r="B524" s="11"/>
       <c r="C524" s="11"/>
@@ -8187,7 +8381,7 @@
       <c r="F524" s="11"/>
       <c r="G524" s="11"/>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A525" s="11"/>
       <c r="B525" s="11"/>
       <c r="C525" s="11"/>
@@ -8196,7 +8390,7 @@
       <c r="F525" s="11"/>
       <c r="G525" s="11"/>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A526" s="11"/>
       <c r="B526" s="11"/>
       <c r="C526" s="11"/>
@@ -8205,7 +8399,7 @@
       <c r="F526" s="11"/>
       <c r="G526" s="11"/>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A527" s="11"/>
       <c r="B527" s="11"/>
       <c r="C527" s="11"/>
@@ -8214,7 +8408,7 @@
       <c r="F527" s="11"/>
       <c r="G527" s="11"/>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A528" s="11"/>
       <c r="B528" s="11"/>
       <c r="C528" s="11"/>
@@ -8223,7 +8417,7 @@
       <c r="F528" s="36"/>
       <c r="G528" s="36"/>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A529" s="11"/>
       <c r="B529" s="11"/>
       <c r="C529" s="11"/>
@@ -8232,7 +8426,7 @@
       <c r="F529" s="11"/>
       <c r="G529" s="11"/>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A530" s="11"/>
       <c r="B530" s="11"/>
       <c r="C530" s="11"/>
@@ -8241,7 +8435,7 @@
       <c r="F530" s="11"/>
       <c r="G530" s="11"/>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A531" s="11"/>
       <c r="B531" s="11"/>
       <c r="C531" s="11"/>
@@ -8250,7 +8444,7 @@
       <c r="F531" s="11"/>
       <c r="G531" s="11"/>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A532" s="11"/>
       <c r="B532" s="11"/>
       <c r="C532" s="11"/>
@@ -8259,7 +8453,7 @@
       <c r="F532" s="11"/>
       <c r="G532" s="11"/>
     </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A533" s="11"/>
       <c r="B533" s="11"/>
       <c r="C533" s="11"/>
@@ -8268,7 +8462,7 @@
       <c r="F533" s="11"/>
       <c r="G533" s="11"/>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A534" s="11"/>
       <c r="B534" s="11"/>
       <c r="C534" s="11"/>
@@ -8277,7 +8471,7 @@
       <c r="F534" s="11"/>
       <c r="G534" s="11"/>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A535" s="11"/>
       <c r="B535" s="11"/>
       <c r="C535" s="11"/>
@@ -8286,7 +8480,7 @@
       <c r="F535" s="11"/>
       <c r="G535" s="11"/>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A536" s="11"/>
       <c r="B536" s="11"/>
       <c r="C536" s="11"/>
@@ -8295,7 +8489,7 @@
       <c r="F536" s="11"/>
       <c r="G536" s="11"/>
     </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A537" s="11"/>
       <c r="B537" s="11"/>
       <c r="C537" s="11"/>
@@ -8304,7 +8498,7 @@
       <c r="F537" s="11"/>
       <c r="G537" s="11"/>
     </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A538" s="11"/>
       <c r="B538" s="11"/>
       <c r="C538" s="11"/>
@@ -8313,7 +8507,7 @@
       <c r="F538" s="11"/>
       <c r="G538" s="11"/>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A539" s="11"/>
       <c r="B539" s="11"/>
       <c r="C539" s="11"/>
@@ -8322,7 +8516,7 @@
       <c r="F539" s="11"/>
       <c r="G539" s="11"/>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A540" s="11"/>
       <c r="B540" s="11"/>
       <c r="C540" s="11"/>
@@ -8331,7 +8525,7 @@
       <c r="F540" s="11"/>
       <c r="G540" s="11"/>
     </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A541" s="11"/>
       <c r="B541" s="11"/>
       <c r="C541" s="11"/>
@@ -8340,7 +8534,7 @@
       <c r="F541" s="11"/>
       <c r="G541" s="11"/>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A542" s="11"/>
       <c r="B542" s="11"/>
       <c r="C542" s="11"/>
@@ -8349,7 +8543,7 @@
       <c r="F542" s="11"/>
       <c r="G542" s="11"/>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A543" s="36"/>
       <c r="B543" s="36"/>
       <c r="C543" s="36"/>
@@ -8358,7 +8552,7 @@
       <c r="F543" s="11"/>
       <c r="G543" s="11"/>
     </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A544" s="11"/>
       <c r="B544" s="11"/>
       <c r="C544" s="11"/>
@@ -8367,7 +8561,7 @@
       <c r="F544" s="11"/>
       <c r="G544" s="11"/>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A545" s="11"/>
       <c r="B545" s="11"/>
       <c r="C545" s="11"/>
@@ -8376,7 +8570,7 @@
       <c r="F545" s="11"/>
       <c r="G545" s="11"/>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A546" s="11"/>
       <c r="B546" s="11"/>
       <c r="C546" s="11"/>
@@ -8385,7 +8579,7 @@
       <c r="F546" s="11"/>
       <c r="G546" s="11"/>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A547" s="11"/>
       <c r="B547" s="11"/>
       <c r="C547" s="11"/>
@@ -8394,7 +8588,7 @@
       <c r="F547" s="11"/>
       <c r="G547" s="11"/>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A548" s="11"/>
       <c r="B548" s="11"/>
       <c r="C548" s="11"/>
@@ -8403,7 +8597,7 @@
       <c r="F548" s="11"/>
       <c r="G548" s="11"/>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A549" s="11"/>
       <c r="B549" s="11"/>
       <c r="C549" s="11"/>
@@ -8412,7 +8606,7 @@
       <c r="F549" s="11"/>
       <c r="G549" s="11"/>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A550" s="11"/>
       <c r="B550" s="11"/>
       <c r="C550" s="11"/>
@@ -8421,7 +8615,7 @@
       <c r="F550" s="11"/>
       <c r="G550" s="11"/>
     </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A551" s="11"/>
       <c r="B551" s="11"/>
       <c r="C551" s="11"/>
@@ -8430,7 +8624,7 @@
       <c r="F551" s="11"/>
       <c r="G551" s="11"/>
     </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A552" s="11"/>
       <c r="B552" s="11"/>
       <c r="C552" s="11"/>
@@ -8439,7 +8633,7 @@
       <c r="F552" s="11"/>
       <c r="G552" s="11"/>
     </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A553" s="11"/>
       <c r="B553" s="11"/>
       <c r="C553" s="11"/>
@@ -8448,7 +8642,7 @@
       <c r="F553" s="11"/>
       <c r="G553" s="11"/>
     </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A554" s="11"/>
       <c r="B554" s="11"/>
       <c r="C554" s="11"/>
@@ -8457,7 +8651,7 @@
       <c r="F554" s="11"/>
       <c r="G554" s="11"/>
     </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A555" s="11"/>
       <c r="B555" s="11"/>
       <c r="C555" s="11"/>
@@ -8466,7 +8660,7 @@
       <c r="F555" s="11"/>
       <c r="G555" s="11"/>
     </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A556" s="11"/>
       <c r="B556" s="11"/>
       <c r="C556" s="11"/>
@@ -8475,7 +8669,7 @@
       <c r="F556" s="11"/>
       <c r="G556" s="11"/>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A557" s="11"/>
       <c r="B557" s="11"/>
       <c r="C557" s="11"/>
@@ -8484,7 +8678,7 @@
       <c r="F557" s="36"/>
       <c r="G557" s="36"/>
     </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A558" s="11"/>
       <c r="B558" s="11"/>
       <c r="C558" s="11"/>
@@ -8493,7 +8687,7 @@
       <c r="F558" s="11"/>
       <c r="G558" s="11"/>
     </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A559" s="11"/>
       <c r="B559" s="11"/>
       <c r="C559" s="11"/>
@@ -8502,7 +8696,7 @@
       <c r="F559" s="11"/>
       <c r="G559" s="11"/>
     </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A560" s="11"/>
       <c r="B560" s="11"/>
       <c r="C560" s="11"/>
@@ -8511,7 +8705,7 @@
       <c r="F560" s="11"/>
       <c r="G560" s="11"/>
     </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A561" s="11"/>
       <c r="B561" s="11"/>
       <c r="C561" s="11"/>
@@ -8520,7 +8714,7 @@
       <c r="F561" s="11"/>
       <c r="G561" s="11"/>
     </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A562" s="11"/>
       <c r="B562" s="11"/>
       <c r="C562" s="11"/>
@@ -8529,7 +8723,7 @@
       <c r="F562" s="11"/>
       <c r="G562" s="11"/>
     </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A563" s="11"/>
       <c r="B563" s="11"/>
       <c r="C563" s="11"/>
@@ -8538,7 +8732,7 @@
       <c r="F563" s="11"/>
       <c r="G563" s="11"/>
     </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A564" s="11"/>
       <c r="B564" s="11"/>
       <c r="C564" s="11"/>
@@ -8547,7 +8741,7 @@
       <c r="F564" s="11"/>
       <c r="G564" s="11"/>
     </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A565" s="11"/>
       <c r="B565" s="11"/>
       <c r="C565" s="11"/>
@@ -8556,7 +8750,7 @@
       <c r="F565" s="11"/>
       <c r="G565" s="11"/>
     </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A566" s="11"/>
       <c r="B566" s="11"/>
       <c r="C566" s="11"/>
@@ -8565,7 +8759,7 @@
       <c r="F566" s="11"/>
       <c r="G566" s="11"/>
     </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A567" s="11"/>
       <c r="B567" s="11"/>
       <c r="C567" s="11"/>
@@ -8574,7 +8768,7 @@
       <c r="F567" s="11"/>
       <c r="G567" s="11"/>
     </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A568" s="11"/>
       <c r="B568" s="11"/>
       <c r="C568" s="11"/>
@@ -8583,7 +8777,7 @@
       <c r="F568" s="11"/>
       <c r="G568" s="11"/>
     </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A569" s="11"/>
       <c r="B569" s="11"/>
       <c r="C569" s="11"/>
@@ -8592,7 +8786,7 @@
       <c r="F569" s="11"/>
       <c r="G569" s="11"/>
     </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A570" s="11"/>
       <c r="B570" s="11"/>
       <c r="C570" s="11"/>
@@ -8601,7 +8795,7 @@
       <c r="F570" s="11"/>
       <c r="G570" s="11"/>
     </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A571" s="11"/>
       <c r="B571" s="11"/>
       <c r="C571" s="11"/>
@@ -8610,7 +8804,7 @@
       <c r="F571" s="11"/>
       <c r="G571" s="11"/>
     </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A572" s="36"/>
       <c r="B572" s="36"/>
       <c r="C572" s="36"/>
@@ -8619,7 +8813,7 @@
       <c r="F572" s="11"/>
       <c r="G572" s="11"/>
     </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A573" s="11"/>
       <c r="B573" s="11"/>
       <c r="C573" s="11"/>
@@ -8628,7 +8822,7 @@
       <c r="F573" s="11"/>
       <c r="G573" s="11"/>
     </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A574" s="11"/>
       <c r="B574" s="11"/>
       <c r="C574" s="11"/>
@@ -8637,7 +8831,7 @@
       <c r="F574" s="11"/>
       <c r="G574" s="11"/>
     </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A575" s="11"/>
       <c r="B575" s="11"/>
       <c r="C575" s="11"/>
@@ -8646,7 +8840,7 @@
       <c r="F575" s="11"/>
       <c r="G575" s="11"/>
     </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A576" s="11"/>
       <c r="B576" s="11"/>
       <c r="C576" s="11"/>
@@ -8655,7 +8849,7 @@
       <c r="F576" s="11"/>
       <c r="G576" s="11"/>
     </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A577" s="11"/>
       <c r="B577" s="11"/>
       <c r="C577" s="11"/>
@@ -8664,7 +8858,7 @@
       <c r="F577" s="36"/>
       <c r="G577" s="36"/>
     </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A578" s="11"/>
       <c r="B578" s="11"/>
       <c r="C578" s="11"/>
@@ -8673,7 +8867,7 @@
       <c r="F578" s="11"/>
       <c r="G578" s="11"/>
     </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A579" s="11"/>
       <c r="B579" s="11"/>
       <c r="C579" s="11"/>
@@ -8682,7 +8876,7 @@
       <c r="F579" s="11"/>
       <c r="G579" s="11"/>
     </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A580" s="11"/>
       <c r="B580" s="11"/>
       <c r="C580" s="11"/>
@@ -8691,7 +8885,7 @@
       <c r="F580" s="11"/>
       <c r="G580" s="11"/>
     </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A581" s="11"/>
       <c r="B581" s="11"/>
       <c r="C581" s="11"/>
@@ -8700,7 +8894,7 @@
       <c r="F581" s="11"/>
       <c r="G581" s="11"/>
     </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A582" s="11"/>
       <c r="B582" s="11"/>
       <c r="C582" s="11"/>
@@ -8709,7 +8903,7 @@
       <c r="F582" s="11"/>
       <c r="G582" s="11"/>
     </row>
-    <row r="583" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A583" s="11"/>
       <c r="B583" s="11"/>
       <c r="C583" s="11"/>
@@ -8718,7 +8912,7 @@
       <c r="F583" s="11"/>
       <c r="G583" s="11"/>
     </row>
-    <row r="584" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A584" s="11"/>
       <c r="B584" s="11"/>
       <c r="C584" s="11"/>
@@ -8727,7 +8921,7 @@
       <c r="F584" s="11"/>
       <c r="G584" s="11"/>
     </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A585" s="11"/>
       <c r="B585" s="11"/>
       <c r="C585" s="11"/>
@@ -8736,7 +8930,7 @@
       <c r="F585" s="11"/>
       <c r="G585" s="11"/>
     </row>
-    <row r="586" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A586" s="11"/>
       <c r="B586" s="11"/>
       <c r="C586" s="11"/>
@@ -8745,7 +8939,7 @@
       <c r="F586" s="11"/>
       <c r="G586" s="11"/>
     </row>
-    <row r="587" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A587" s="11"/>
       <c r="B587" s="11"/>
       <c r="C587" s="11"/>
@@ -8754,7 +8948,7 @@
       <c r="F587" s="11"/>
       <c r="G587" s="11"/>
     </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A588" s="11"/>
       <c r="B588" s="11"/>
       <c r="C588" s="11"/>
@@ -8763,7 +8957,7 @@
       <c r="F588" s="11"/>
       <c r="G588" s="11"/>
     </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A589" s="11"/>
       <c r="B589" s="11"/>
       <c r="C589" s="11"/>
@@ -8772,7 +8966,7 @@
       <c r="F589" s="11"/>
       <c r="G589" s="11"/>
     </row>
-    <row r="590" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A590" s="11"/>
       <c r="B590" s="11"/>
       <c r="C590" s="11"/>
@@ -8781,7 +8975,7 @@
       <c r="F590" s="11"/>
       <c r="G590" s="11"/>
     </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A591" s="11"/>
       <c r="B591" s="11"/>
       <c r="C591" s="11"/>
@@ -8790,7 +8984,7 @@
       <c r="F591" s="11"/>
       <c r="G591" s="11"/>
     </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A592" s="36"/>
       <c r="B592" s="36"/>
       <c r="C592" s="36"/>
@@ -8799,7 +8993,7 @@
       <c r="F592" s="11"/>
       <c r="G592" s="11"/>
     </row>
-    <row r="593" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A593" s="11"/>
       <c r="B593" s="11"/>
       <c r="C593" s="11"/>
@@ -8808,7 +9002,7 @@
       <c r="F593" s="11"/>
       <c r="G593" s="11"/>
     </row>
-    <row r="594" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A594" s="11"/>
       <c r="B594" s="11"/>
       <c r="C594" s="11"/>
@@ -8817,7 +9011,7 @@
       <c r="F594" s="11"/>
       <c r="G594" s="11"/>
     </row>
-    <row r="595" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A595" s="11"/>
       <c r="B595" s="11"/>
       <c r="C595" s="11"/>
@@ -8826,7 +9020,7 @@
       <c r="F595" s="11"/>
       <c r="G595" s="11"/>
     </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A596" s="11"/>
       <c r="B596" s="11"/>
       <c r="C596" s="11"/>
@@ -8835,7 +9029,7 @@
       <c r="F596" s="11"/>
       <c r="G596" s="11"/>
     </row>
-    <row r="597" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A597" s="11"/>
       <c r="B597" s="11"/>
       <c r="C597" s="11"/>
@@ -8844,7 +9038,7 @@
       <c r="F597" s="11"/>
       <c r="G597" s="11"/>
     </row>
-    <row r="598" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A598" s="11"/>
       <c r="B598" s="11"/>
       <c r="C598" s="11"/>
@@ -8853,7 +9047,7 @@
       <c r="F598" s="11"/>
       <c r="G598" s="11"/>
     </row>
-    <row r="599" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A599" s="11"/>
       <c r="B599" s="11"/>
       <c r="C599" s="11"/>
@@ -8862,7 +9056,7 @@
       <c r="F599" s="11"/>
       <c r="G599" s="11"/>
     </row>
-    <row r="600" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A600" s="11"/>
       <c r="B600" s="11"/>
       <c r="C600" s="11"/>
@@ -8871,7 +9065,7 @@
       <c r="F600" s="36"/>
       <c r="G600" s="36"/>
     </row>
-    <row r="601" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A601" s="11"/>
       <c r="B601" s="11"/>
       <c r="C601" s="11"/>
@@ -8880,7 +9074,7 @@
       <c r="F601" s="36"/>
       <c r="G601" s="36"/>
     </row>
-    <row r="602" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A602" s="11"/>
       <c r="B602" s="11"/>
       <c r="C602" s="11"/>
@@ -8889,7 +9083,7 @@
       <c r="F602" s="11"/>
       <c r="G602" s="11"/>
     </row>
-    <row r="603" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A603" s="11"/>
       <c r="B603" s="11"/>
       <c r="C603" s="11"/>
@@ -8898,7 +9092,7 @@
       <c r="F603" s="11"/>
       <c r="G603" s="11"/>
     </row>
-    <row r="604" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A604" s="11"/>
       <c r="B604" s="11"/>
       <c r="C604" s="11"/>
@@ -8907,7 +9101,7 @@
       <c r="F604" s="11"/>
       <c r="G604" s="11"/>
     </row>
-    <row r="605" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A605" s="11"/>
       <c r="B605" s="11"/>
       <c r="C605" s="11"/>
@@ -8916,7 +9110,7 @@
       <c r="F605" s="11"/>
       <c r="G605" s="11"/>
     </row>
-    <row r="606" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A606" s="11"/>
       <c r="B606" s="11"/>
       <c r="C606" s="11"/>
@@ -8925,7 +9119,7 @@
       <c r="F606" s="11"/>
       <c r="G606" s="11"/>
     </row>
-    <row r="607" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A607" s="11"/>
       <c r="B607" s="11"/>
       <c r="C607" s="11"/>
@@ -8934,7 +9128,7 @@
       <c r="F607" s="11"/>
       <c r="G607" s="11"/>
     </row>
-    <row r="608" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A608" s="11"/>
       <c r="B608" s="11"/>
       <c r="C608" s="11"/>
@@ -8943,7 +9137,7 @@
       <c r="F608" s="11"/>
       <c r="G608" s="11"/>
     </row>
-    <row r="609" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="11"/>
       <c r="B609" s="11"/>
       <c r="C609" s="11"/>
@@ -8952,7 +9146,7 @@
       <c r="F609" s="11"/>
       <c r="G609" s="11"/>
     </row>
-    <row r="610" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A610" s="11"/>
       <c r="B610" s="11"/>
       <c r="C610" s="11"/>
@@ -8961,7 +9155,7 @@
       <c r="F610" s="36"/>
       <c r="G610" s="36"/>
     </row>
-    <row r="611" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A611" s="11"/>
       <c r="B611" s="11"/>
       <c r="C611" s="11"/>
@@ -8970,7 +9164,7 @@
       <c r="F611" s="11"/>
       <c r="G611" s="11"/>
     </row>
-    <row r="612" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A612" s="11"/>
       <c r="B612" s="11"/>
       <c r="C612" s="11"/>
@@ -8979,7 +9173,7 @@
       <c r="F612" s="11"/>
       <c r="G612" s="11"/>
     </row>
-    <row r="613" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A613" s="11"/>
       <c r="B613" s="11"/>
       <c r="C613" s="11"/>
@@ -8988,7 +9182,7 @@
       <c r="F613" s="11"/>
       <c r="G613" s="11"/>
     </row>
-    <row r="614" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A614" s="11"/>
       <c r="B614" s="11"/>
       <c r="C614" s="11"/>
@@ -8997,7 +9191,7 @@
       <c r="F614" s="11"/>
       <c r="G614" s="11"/>
     </row>
-    <row r="615" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A615" s="36"/>
       <c r="B615" s="36"/>
       <c r="C615" s="36"/>
@@ -9006,7 +9200,7 @@
       <c r="F615" s="11"/>
       <c r="G615" s="11"/>
     </row>
-    <row r="616" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A616" s="36"/>
       <c r="B616" s="36"/>
       <c r="C616" s="36"/>
@@ -9015,7 +9209,7 @@
       <c r="F616" s="11"/>
       <c r="G616" s="11"/>
     </row>
-    <row r="617" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A617" s="11"/>
       <c r="B617" s="11"/>
       <c r="C617" s="11"/>
@@ -9024,7 +9218,7 @@
       <c r="F617" s="11"/>
       <c r="G617" s="11"/>
     </row>
-    <row r="618" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A618" s="11"/>
       <c r="B618" s="11"/>
       <c r="C618" s="11"/>
@@ -9033,7 +9227,7 @@
       <c r="F618" s="11"/>
       <c r="G618" s="11"/>
     </row>
-    <row r="619" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A619" s="11"/>
       <c r="B619" s="11"/>
       <c r="C619" s="11"/>
@@ -9042,7 +9236,7 @@
       <c r="F619" s="36"/>
       <c r="G619" s="36"/>
     </row>
-    <row r="620" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A620" s="11"/>
       <c r="B620" s="11"/>
       <c r="C620" s="11"/>
@@ -9051,7 +9245,7 @@
       <c r="F620" s="11"/>
       <c r="G620" s="11"/>
     </row>
-    <row r="621" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A621" s="11"/>
       <c r="B621" s="11"/>
       <c r="C621" s="11"/>
@@ -9060,7 +9254,7 @@
       <c r="F621" s="11"/>
       <c r="G621" s="11"/>
     </row>
-    <row r="622" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A622" s="11"/>
       <c r="B622" s="11"/>
       <c r="C622" s="11"/>
@@ -9069,7 +9263,7 @@
       <c r="F622" s="11"/>
       <c r="G622" s="11"/>
     </row>
-    <row r="623" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A623" s="11"/>
       <c r="B623" s="11"/>
       <c r="C623" s="11"/>
@@ -9078,7 +9272,7 @@
       <c r="F623" s="11"/>
       <c r="G623" s="11"/>
     </row>
-    <row r="624" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A624" s="11"/>
       <c r="B624" s="11"/>
       <c r="C624" s="11"/>
@@ -9087,7 +9281,7 @@
       <c r="F624" s="11"/>
       <c r="G624" s="11"/>
     </row>
-    <row r="625" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A625" s="36"/>
       <c r="B625" s="36"/>
       <c r="C625" s="36"/>
@@ -9096,7 +9290,7 @@
       <c r="F625" s="11"/>
       <c r="G625" s="11"/>
     </row>
-    <row r="626" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A626" s="11"/>
       <c r="B626" s="11"/>
       <c r="C626" s="11"/>
@@ -9105,7 +9299,7 @@
       <c r="F626" s="11"/>
       <c r="G626" s="11"/>
     </row>
-    <row r="627" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A627" s="11"/>
       <c r="B627" s="11"/>
       <c r="C627" s="11"/>
@@ -9114,7 +9308,7 @@
       <c r="F627" s="11"/>
       <c r="G627" s="11"/>
     </row>
-    <row r="628" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A628" s="11"/>
       <c r="B628" s="11"/>
       <c r="C628" s="11"/>
@@ -9123,7 +9317,7 @@
       <c r="F628" s="11"/>
       <c r="G628" s="11"/>
     </row>
-    <row r="629" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A629" s="11"/>
       <c r="B629" s="11"/>
       <c r="C629" s="11"/>
@@ -9132,7 +9326,7 @@
       <c r="F629" s="11"/>
       <c r="G629" s="11"/>
     </row>
-    <row r="630" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A630" s="11"/>
       <c r="B630" s="11"/>
       <c r="C630" s="11"/>
@@ -9141,7 +9335,7 @@
       <c r="F630" s="11"/>
       <c r="G630" s="11"/>
     </row>
-    <row r="631" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A631" s="11"/>
       <c r="B631" s="11"/>
       <c r="C631" s="11"/>
@@ -9150,7 +9344,7 @@
       <c r="F631" s="11"/>
       <c r="G631" s="11"/>
     </row>
-    <row r="632" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A632" s="11"/>
       <c r="B632" s="11"/>
       <c r="C632" s="11"/>
@@ -9159,7 +9353,7 @@
       <c r="F632" s="11"/>
       <c r="G632" s="11"/>
     </row>
-    <row r="633" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A633" s="11"/>
       <c r="B633" s="11"/>
       <c r="C633" s="11"/>
@@ -9168,7 +9362,7 @@
       <c r="F633" s="11"/>
       <c r="G633" s="11"/>
     </row>
-    <row r="634" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A634" s="36"/>
       <c r="B634" s="36"/>
       <c r="C634" s="36"/>
@@ -9177,7 +9371,7 @@
       <c r="F634" s="11"/>
       <c r="G634" s="11"/>
     </row>
-    <row r="635" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A635" s="11"/>
       <c r="B635" s="11"/>
       <c r="C635" s="11"/>
@@ -9186,7 +9380,7 @@
       <c r="F635" s="11"/>
       <c r="G635" s="11"/>
     </row>
-    <row r="636" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A636" s="11"/>
       <c r="B636" s="11"/>
       <c r="C636" s="11"/>
@@ -9195,7 +9389,7 @@
       <c r="F636" s="11"/>
       <c r="G636" s="11"/>
     </row>
-    <row r="637" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A637" s="11"/>
       <c r="B637" s="11"/>
       <c r="C637" s="11"/>
@@ -9204,7 +9398,7 @@
       <c r="F637" s="11"/>
       <c r="G637" s="11"/>
     </row>
-    <row r="638" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A638" s="11"/>
       <c r="B638" s="11"/>
       <c r="C638" s="11"/>
@@ -9213,7 +9407,7 @@
       <c r="F638" s="11"/>
       <c r="G638" s="11"/>
     </row>
-    <row r="639" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A639" s="11"/>
       <c r="B639" s="11"/>
       <c r="C639" s="11"/>
@@ -9222,7 +9416,7 @@
       <c r="F639" s="36"/>
       <c r="G639" s="36"/>
     </row>
-    <row r="640" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A640" s="11"/>
       <c r="B640" s="11"/>
       <c r="C640" s="11"/>
@@ -9231,7 +9425,7 @@
       <c r="F640" s="11"/>
       <c r="G640" s="11"/>
     </row>
-    <row r="641" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A641" s="11"/>
       <c r="B641" s="11"/>
       <c r="C641" s="11"/>
@@ -9240,7 +9434,7 @@
       <c r="F641" s="11"/>
       <c r="G641" s="11"/>
     </row>
-    <row r="642" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A642" s="11"/>
       <c r="B642" s="11"/>
       <c r="C642" s="11"/>
@@ -9249,7 +9443,7 @@
       <c r="F642" s="11"/>
       <c r="G642" s="11"/>
     </row>
-    <row r="643" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A643" s="11"/>
       <c r="B643" s="11"/>
       <c r="C643" s="11"/>
@@ -9258,7 +9452,7 @@
       <c r="F643" s="11"/>
       <c r="G643" s="11"/>
     </row>
-    <row r="644" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A644" s="11"/>
       <c r="B644" s="11"/>
       <c r="C644" s="11"/>
@@ -9267,7 +9461,7 @@
       <c r="F644" s="11"/>
       <c r="G644" s="11"/>
     </row>
-    <row r="645" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A645" s="11"/>
       <c r="B645" s="11"/>
       <c r="C645" s="11"/>
@@ -9276,7 +9470,7 @@
       <c r="F645" s="11"/>
       <c r="G645" s="11"/>
     </row>
-    <row r="646" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A646" s="11"/>
       <c r="B646" s="11"/>
       <c r="C646" s="11"/>
@@ -9285,7 +9479,7 @@
       <c r="F646" s="11"/>
       <c r="G646" s="11"/>
     </row>
-    <row r="647" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A647" s="11"/>
       <c r="B647" s="11"/>
       <c r="C647" s="11"/>
@@ -9294,7 +9488,7 @@
       <c r="F647" s="11"/>
       <c r="G647" s="11"/>
     </row>
-    <row r="648" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A648" s="11"/>
       <c r="B648" s="11"/>
       <c r="C648" s="11"/>
@@ -9303,7 +9497,7 @@
       <c r="F648" s="11"/>
       <c r="G648" s="11"/>
     </row>
-    <row r="649" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A649" s="11"/>
       <c r="B649" s="11"/>
       <c r="C649" s="11"/>
@@ -9312,7 +9506,7 @@
       <c r="F649" s="11"/>
       <c r="G649" s="11"/>
     </row>
-    <row r="650" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A650" s="11"/>
       <c r="B650" s="11"/>
       <c r="C650" s="11"/>
@@ -9321,7 +9515,7 @@
       <c r="F650" s="11"/>
       <c r="G650" s="11"/>
     </row>
-    <row r="651" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A651" s="11"/>
       <c r="B651" s="11"/>
       <c r="C651" s="11"/>
@@ -9330,7 +9524,7 @@
       <c r="F651" s="11"/>
       <c r="G651" s="11"/>
     </row>
-    <row r="652" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A652" s="11"/>
       <c r="B652" s="11"/>
       <c r="C652" s="11"/>
@@ -9339,7 +9533,7 @@
       <c r="F652" s="11"/>
       <c r="G652" s="11"/>
     </row>
-    <row r="653" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A653" s="11"/>
       <c r="B653" s="11"/>
       <c r="C653" s="11"/>
@@ -9348,7 +9542,7 @@
       <c r="F653" s="11"/>
       <c r="G653" s="11"/>
     </row>
-    <row r="654" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A654" s="36"/>
       <c r="B654" s="36"/>
       <c r="C654" s="36"/>
@@ -9357,7 +9551,7 @@
       <c r="F654" s="11"/>
       <c r="G654" s="11"/>
     </row>
-    <row r="655" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A655" s="11"/>
       <c r="B655" s="11"/>
       <c r="C655" s="11"/>
@@ -9366,7 +9560,7 @@
       <c r="F655" s="11"/>
       <c r="G655" s="11"/>
     </row>
-    <row r="656" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A656" s="11"/>
       <c r="B656" s="11"/>
       <c r="C656" s="11"/>
@@ -9375,7 +9569,7 @@
       <c r="F656" s="11"/>
       <c r="G656" s="11"/>
     </row>
-    <row r="657" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A657" s="11"/>
       <c r="B657" s="11"/>
       <c r="C657" s="11"/>
@@ -9384,7 +9578,7 @@
       <c r="F657" s="11"/>
       <c r="G657" s="11"/>
     </row>
-    <row r="658" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A658" s="11"/>
       <c r="B658" s="11"/>
       <c r="C658" s="11"/>
@@ -9393,7 +9587,7 @@
       <c r="F658" s="11"/>
       <c r="G658" s="11"/>
     </row>
-    <row r="659" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A659" s="11"/>
       <c r="B659" s="11"/>
       <c r="C659" s="11"/>
@@ -9402,7 +9596,7 @@
       <c r="F659" s="11"/>
       <c r="G659" s="11"/>
     </row>
-    <row r="660" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A660" s="11"/>
       <c r="B660" s="11"/>
       <c r="C660" s="11"/>
@@ -9411,7 +9605,7 @@
       <c r="F660" s="11"/>
       <c r="G660" s="11"/>
     </row>
-    <row r="661" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A661" s="11"/>
       <c r="B661" s="11"/>
       <c r="C661" s="11"/>
@@ -9420,7 +9614,7 @@
       <c r="F661" s="11"/>
       <c r="G661" s="11"/>
     </row>
-    <row r="662" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A662" s="11"/>
       <c r="B662" s="11"/>
       <c r="C662" s="11"/>
@@ -9429,7 +9623,7 @@
       <c r="F662" s="11"/>
       <c r="G662" s="11"/>
     </row>
-    <row r="663" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A663" s="11"/>
       <c r="B663" s="11"/>
       <c r="C663" s="11"/>
@@ -9438,7 +9632,7 @@
       <c r="F663" s="11"/>
       <c r="G663" s="11"/>
     </row>
-    <row r="664" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A664" s="11"/>
       <c r="B664" s="11"/>
       <c r="C664" s="11"/>
@@ -9447,7 +9641,7 @@
       <c r="F664" s="11"/>
       <c r="G664" s="11"/>
     </row>
-    <row r="665" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A665" s="11"/>
       <c r="B665" s="11"/>
       <c r="C665" s="11"/>
@@ -9456,105 +9650,105 @@
       <c r="F665" s="11"/>
       <c r="G665" s="11"/>
     </row>
-    <row r="666" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A666" s="11"/>
       <c r="B666" s="11"/>
       <c r="C666" s="11"/>
       <c r="D666" s="11"/>
       <c r="E666" s="11"/>
     </row>
-    <row r="667" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A667" s="11"/>
       <c r="B667" s="11"/>
       <c r="C667" s="11"/>
       <c r="D667" s="11"/>
       <c r="E667" s="11"/>
     </row>
-    <row r="668" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A668" s="11"/>
       <c r="B668" s="11"/>
       <c r="C668" s="11"/>
       <c r="D668" s="11"/>
       <c r="E668" s="11"/>
     </row>
-    <row r="669" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A669" s="11"/>
       <c r="B669" s="11"/>
       <c r="C669" s="11"/>
       <c r="D669" s="11"/>
       <c r="E669" s="11"/>
     </row>
-    <row r="670" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A670" s="11"/>
       <c r="B670" s="11"/>
       <c r="C670" s="11"/>
       <c r="D670" s="11"/>
       <c r="E670" s="11"/>
     </row>
-    <row r="671" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A671" s="11"/>
       <c r="B671" s="11"/>
       <c r="C671" s="11"/>
       <c r="D671" s="11"/>
       <c r="E671" s="11"/>
     </row>
-    <row r="672" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A672" s="11"/>
       <c r="B672" s="11"/>
       <c r="C672" s="11"/>
       <c r="D672" s="11"/>
       <c r="E672" s="11"/>
     </row>
-    <row r="673" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A673" s="11"/>
       <c r="B673" s="11"/>
       <c r="C673" s="11"/>
       <c r="D673" s="11"/>
       <c r="E673" s="11"/>
     </row>
-    <row r="674" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A674" s="11"/>
       <c r="B674" s="11"/>
       <c r="C674" s="11"/>
       <c r="D674" s="11"/>
       <c r="E674" s="11"/>
     </row>
-    <row r="675" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A675" s="11"/>
       <c r="B675" s="11"/>
       <c r="C675" s="11"/>
       <c r="D675" s="11"/>
       <c r="E675" s="11"/>
     </row>
-    <row r="676" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A676" s="11"/>
       <c r="B676" s="11"/>
       <c r="C676" s="11"/>
       <c r="D676" s="11"/>
       <c r="E676" s="11"/>
     </row>
-    <row r="677" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A677" s="11"/>
       <c r="B677" s="11"/>
       <c r="C677" s="11"/>
       <c r="D677" s="11"/>
       <c r="E677" s="11"/>
     </row>
-    <row r="678" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A678" s="11"/>
       <c r="B678" s="11"/>
       <c r="C678" s="11"/>
       <c r="D678" s="11"/>
       <c r="E678" s="11"/>
     </row>
-    <row r="679" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A679" s="11"/>
       <c r="B679" s="11"/>
       <c r="C679" s="11"/>
       <c r="D679" s="11"/>
       <c r="E679" s="11"/>
     </row>
-    <row r="680" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A680" s="11"/>
       <c r="B680" s="11"/>
       <c r="C680" s="11"/>
@@ -9576,14 +9770,14 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.26953125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.36328125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="6.6328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="38.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
         <v>211</v>
       </c>
@@ -9594,7 +9788,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>209</v>
       </c>
@@ -9615,18 +9809,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.26953125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="6.6328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>65</v>
       </c>
@@ -9637,7 +9831,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>68</v>
       </c>
@@ -9662,12 +9856,12 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="6.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>77</v>
       </c>
@@ -9678,7 +9872,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>79</v>
       </c>
@@ -9689,7 +9883,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>80</v>
       </c>

--- a/src/test/java/com/born/xls/ProductListPage.xlsx
+++ b/src/test/java/com/born/xls/ProductListPage.xlsx
@@ -4,14 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6585" windowHeight="2655" tabRatio="937"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6590" windowHeight="2660" tabRatio="937"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="2" r:id="rId1"/>
     <sheet name="Test Steps" sheetId="3" r:id="rId2"/>
-    <sheet name="Verifying the Training option" sheetId="60" r:id="rId3"/>
-    <sheet name="Search" sheetId="56" r:id="rId4"/>
-    <sheet name="SortByFilter" sheetId="59" r:id="rId5"/>
+    <sheet name="Search" sheetId="56" r:id="rId3"/>
+    <sheet name="SortByFilter" sheetId="59" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Test Cases'!$A$1:$C$15</definedName>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="217">
   <si>
     <t>TCID</t>
   </si>
@@ -413,30 +412,15 @@
     <t>Take the cursor to the For Professional menu available in the main menu of the home page.</t>
   </si>
   <si>
-    <t>It should have the following text:  Please log in to access our eLearning Courses.</t>
-  </si>
-  <si>
-    <t>Verify that Currently, it has the following contents:  a) Education at your fingertips.  B) Online Courses c) Certified CEU Courses d) In-Person CEU Courses</t>
-  </si>
-  <si>
     <t>Verify Sub menu currently contains the following:  a) Categories  b) Inspired Pro  c) Training</t>
   </si>
   <si>
     <t>ForProfessionals_Link</t>
   </si>
   <si>
-    <t>TrainingCourse_Text</t>
-  </si>
-  <si>
-    <t>Content_Text</t>
-  </si>
-  <si>
     <t>ForProfessionaleMenu_Content</t>
   </si>
   <si>
-    <t>config|ELearningTaining_Text</t>
-  </si>
-  <si>
     <t>Verify the Categories sub menu option available of the For Professional menu.</t>
   </si>
   <si>
@@ -494,13 +478,7 @@
     <t>It should have the following text below the main menu: Commerical</t>
   </si>
   <si>
-    <t>It should have the following sections available: SpecSelect, Case Studies</t>
-  </si>
-  <si>
     <t>CommercialOption_Link</t>
-  </si>
-  <si>
-    <t>CommercialOption_Page</t>
   </si>
   <si>
     <t>CommercialOption_Text</t>
@@ -1019,9 +997,6 @@
     <t>CollectionProducts_Page</t>
   </si>
   <si>
-    <t>Verify that different type of prodcut collections has displayed</t>
-  </si>
-  <si>
     <t>FAQ_Page</t>
   </si>
   <si>
@@ -1154,24 +1129,12 @@
     <t>Verifying the Training option</t>
   </si>
   <si>
-    <t>https://www.deltafaucet.com/for-professionals/training</t>
-  </si>
-  <si>
     <t>col|Product Name</t>
   </si>
   <si>
-    <t>TrainingURL</t>
-  </si>
-  <si>
-    <t>col|TrainingURL</t>
-  </si>
-  <si>
     <t>enter</t>
   </si>
   <si>
-    <t>AutoComplete_Suggetion</t>
-  </si>
-  <si>
     <t>ArrowKeyDown</t>
   </si>
   <si>
@@ -1190,20 +1153,35 @@
     <t>PASS</t>
   </si>
   <si>
-    <t>Result2</t>
-  </si>
-  <si>
-    <t>Result1</t>
-  </si>
-  <si>
-    <t>Result3</t>
+    <t>Verify the Training option is available under the menu</t>
+  </si>
+  <si>
+    <t>Training_Link</t>
+  </si>
+  <si>
+    <t>ProductItem_Link</t>
+  </si>
+  <si>
+    <t>Click on the product which displayed on the page</t>
+  </si>
+  <si>
+    <t>Verify whether product details page has displayed or not</t>
+  </si>
+  <si>
+    <t>Select any collection of products which displayed in the page</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>ProductDetails_Page</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1269,16 +1247,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="13">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1331,21 +1301,6 @@
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
       </patternFill>
     </fill>
   </fills>
@@ -1413,7 +1368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1488,12 +1443,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1506,9 +1455,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1825,15 +1771,15 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="42" style="2" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="74" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="2" collapsed="1"/>
+    <col min="3" max="3" width="9.54296875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.1796875" style="2" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -1844,95 +1790,95 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>53</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>70</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
         <v>81</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
         <v>82</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>83</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="19" t="s">
         <v>84</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="20" t="s">
         <v>85</v>
       </c>
@@ -1943,7 +1889,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="19" t="s">
         <v>86</v>
       </c>
@@ -1954,111 +1900,111 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="19" t="s">
         <v>87</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="19" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="19" t="s">
         <v>88</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="19" t="s">
         <v>89</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="19" t="s">
         <v>90</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="19" t="s">
         <v>91</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>66</v>
@@ -2074,26 +2020,27 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:J680"/>
+  <dimension ref="A1:K681"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.140625" style="1" collapsed="1"/>
-    <col min="3" max="3" width="54.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="34.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.7109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="32.54296875" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.1796875" style="1" collapsed="1"/>
+    <col min="3" max="3" width="54.1796875" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22.81640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="34.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29.7265625" style="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="17" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="10" width="7.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="8" max="8" width="9.1796875" style="1" collapsed="1"/>
+    <col min="9" max="11" width="9.1796875" style="1"/>
+    <col min="12" max="16384" width="9.1796875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2115,17 +2062,8 @@
       <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="40" t="s">
-        <v>221</v>
-      </c>
-      <c r="I1" s="41" t="s">
-        <v>222</v>
-      </c>
-      <c r="J1" s="42" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
         <v>36</v>
       </c>
@@ -2143,11 +2081,8 @@
         <v>9</v>
       </c>
       <c r="G2" s="27"/>
-      <c r="H2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="27" t="s">
         <v>36</v>
       </c>
@@ -2165,11 +2100,8 @@
         <v>11</v>
       </c>
       <c r="G3" s="27"/>
-      <c r="H3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
         <v>36</v>
       </c>
@@ -2187,11 +2119,8 @@
       </c>
       <c r="F4" s="27"/>
       <c r="G4" s="27"/>
-      <c r="H4" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="27" t="s">
         <v>36</v>
       </c>
@@ -2209,11 +2138,8 @@
       </c>
       <c r="F5" s="27"/>
       <c r="G5" s="27"/>
-      <c r="H5" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="27" t="s">
         <v>36</v>
       </c>
@@ -2231,11 +2157,8 @@
       </c>
       <c r="F6" s="27"/>
       <c r="G6" s="27"/>
-      <c r="H6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="27" t="s">
         <v>36</v>
       </c>
@@ -2251,11 +2174,8 @@
       <c r="E7" s="27"/>
       <c r="F7" s="27"/>
       <c r="G7" s="27"/>
-      <c r="H7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="28"/>
       <c r="B8" s="28"/>
       <c r="C8" s="28"/>
@@ -2264,7 +2184,7 @@
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="27" t="s">
         <v>40</v>
       </c>
@@ -2282,11 +2202,8 @@
         <v>9</v>
       </c>
       <c r="G9" s="27"/>
-      <c r="H9" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="27" t="s">
         <v>40</v>
       </c>
@@ -2304,11 +2221,8 @@
         <v>11</v>
       </c>
       <c r="G10" s="27"/>
-      <c r="H10" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="27" t="s">
         <v>40</v>
       </c>
@@ -2326,11 +2240,8 @@
       </c>
       <c r="F11" s="27"/>
       <c r="G11" s="27"/>
-      <c r="H11" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="27" t="s">
         <v>40</v>
       </c>
@@ -2348,11 +2259,8 @@
       </c>
       <c r="F12" s="27"/>
       <c r="G12" s="27"/>
-      <c r="H12" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="27" t="s">
         <v>40</v>
       </c>
@@ -2370,11 +2278,8 @@
       </c>
       <c r="F13" s="27"/>
       <c r="G13" s="27"/>
-      <c r="H13" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="27" t="s">
         <v>40</v>
       </c>
@@ -2392,11 +2297,8 @@
       </c>
       <c r="F14" s="27"/>
       <c r="G14" s="27"/>
-      <c r="H14" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="27" t="s">
         <v>40</v>
       </c>
@@ -2416,11 +2318,8 @@
         <v>47</v>
       </c>
       <c r="G15" s="27"/>
-      <c r="H15" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="27" t="s">
         <v>40</v>
       </c>
@@ -2436,11 +2335,8 @@
       <c r="E16" s="27"/>
       <c r="F16" s="27"/>
       <c r="G16" s="27"/>
-      <c r="H16" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="28"/>
       <c r="B17" s="28"/>
       <c r="C17" s="28"/>
@@ -2449,7 +2345,7 @@
       <c r="F17" s="28"/>
       <c r="G17" s="28"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>70</v>
       </c>
@@ -2467,14 +2363,8 @@
         <v>9</v>
       </c>
       <c r="G18" s="27"/>
-      <c r="H18" t="s">
-        <v>218</v>
-      </c>
-      <c r="I18" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="27" t="s">
         <v>70</v>
       </c>
@@ -2492,14 +2382,8 @@
         <v>11</v>
       </c>
       <c r="G19" s="27"/>
-      <c r="H19" t="s">
-        <v>218</v>
-      </c>
-      <c r="I19" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="27" t="s">
         <v>70</v>
       </c>
@@ -2517,14 +2401,8 @@
       </c>
       <c r="F20" s="27"/>
       <c r="G20" s="27"/>
-      <c r="H20" t="s">
-        <v>218</v>
-      </c>
-      <c r="I20" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="27" t="s">
         <v>70</v>
       </c>
@@ -2542,14 +2420,8 @@
       </c>
       <c r="F21" s="27"/>
       <c r="G21" s="27"/>
-      <c r="H21" t="s">
-        <v>218</v>
-      </c>
-      <c r="I21" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="27" t="s">
         <v>70</v>
       </c>
@@ -2567,14 +2439,8 @@
       </c>
       <c r="F22" s="27"/>
       <c r="G22" s="27"/>
-      <c r="H22" t="s">
-        <v>218</v>
-      </c>
-      <c r="I22" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="27" t="s">
         <v>70</v>
       </c>
@@ -2592,14 +2458,8 @@
       </c>
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
-      <c r="H23" t="s">
-        <v>218</v>
-      </c>
-      <c r="I23" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="27" t="s">
         <v>70</v>
       </c>
@@ -2617,14 +2477,8 @@
       </c>
       <c r="F24" s="27"/>
       <c r="G24" s="27"/>
-      <c r="H24" t="s">
-        <v>218</v>
-      </c>
-      <c r="I24" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="27" t="s">
         <v>70</v>
       </c>
@@ -2640,14 +2494,8 @@
       <c r="E25" s="27"/>
       <c r="F25" s="27"/>
       <c r="G25" s="27"/>
-      <c r="H25" t="s">
-        <v>218</v>
-      </c>
-      <c r="I25" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="28"/>
       <c r="B26" s="28"/>
       <c r="C26" s="28"/>
@@ -2656,7 +2504,7 @@
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
         <v>53</v>
       </c>
@@ -2674,11 +2522,8 @@
         <v>9</v>
       </c>
       <c r="G27" s="27"/>
-      <c r="H27" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
         <v>53</v>
       </c>
@@ -2696,11 +2541,8 @@
         <v>11</v>
       </c>
       <c r="G28" s="27"/>
-      <c r="H28" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
         <v>53</v>
       </c>
@@ -2718,11 +2560,8 @@
       </c>
       <c r="F29" s="27"/>
       <c r="G29" s="27"/>
-      <c r="H29" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
         <v>53</v>
       </c>
@@ -2740,11 +2579,8 @@
       </c>
       <c r="F30" s="27"/>
       <c r="G30" s="27"/>
-      <c r="H30" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>53</v>
       </c>
@@ -2762,11 +2598,8 @@
       </c>
       <c r="F31" s="27"/>
       <c r="G31" s="27"/>
-      <c r="H31" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>53</v>
       </c>
@@ -2784,11 +2617,8 @@
       </c>
       <c r="F32" s="27"/>
       <c r="G32" s="27"/>
-      <c r="H32" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
         <v>53</v>
       </c>
@@ -2806,11 +2636,8 @@
       </c>
       <c r="F33" s="27"/>
       <c r="G33" s="27"/>
-      <c r="H33" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
         <v>53</v>
       </c>
@@ -2828,11 +2655,8 @@
       </c>
       <c r="F34" s="27"/>
       <c r="G34" s="27"/>
-      <c r="H34" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
         <v>53</v>
       </c>
@@ -2848,11 +2672,8 @@
       <c r="E35" s="27"/>
       <c r="F35" s="27"/>
       <c r="G35" s="27"/>
-      <c r="H35" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="28"/>
       <c r="B36" s="28"/>
       <c r="C36" s="28"/>
@@ -2861,7 +2682,7 @@
       <c r="F36" s="28"/>
       <c r="G36" s="28"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
         <v>60</v>
       </c>
@@ -2880,7 +2701,7 @@
       </c>
       <c r="G37" s="27"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
         <v>60</v>
       </c>
@@ -2899,7 +2720,7 @@
       </c>
       <c r="G38" s="27"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
         <v>60</v>
       </c>
@@ -2920,7 +2741,7 @@
       </c>
       <c r="G39" s="27"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
         <v>60</v>
       </c>
@@ -2928,18 +2749,16 @@
         <v>25</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>205</v>
-      </c>
-      <c r="E40" s="29" t="s">
-        <v>214</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="E40" s="27"/>
       <c r="F40" s="27"/>
       <c r="G40" s="27"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
         <v>60</v>
       </c>
@@ -2947,16 +2766,18 @@
         <v>24</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>215</v>
-      </c>
-      <c r="E41" s="27"/>
+        <v>199</v>
+      </c>
+      <c r="E41" s="29" t="s">
+        <v>198</v>
+      </c>
       <c r="F41" s="27"/>
       <c r="G41" s="27"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
         <v>60</v>
       </c>
@@ -2964,18 +2785,18 @@
         <v>23</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="D42" s="27" t="s">
-        <v>207</v>
-      </c>
-      <c r="E42" s="29" t="s">
-        <v>206</v>
-      </c>
-      <c r="F42" s="27"/>
+        <v>202</v>
+      </c>
+      <c r="E42" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="F42" s="7"/>
       <c r="G42" s="27"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
         <v>60</v>
       </c>
@@ -2983,18 +2804,18 @@
         <v>22</v>
       </c>
       <c r="C43" s="27" t="s">
-        <v>217</v>
+        <v>67</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="E43" s="27" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="27"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
         <v>60</v>
       </c>
@@ -3002,18 +2823,18 @@
         <v>21</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>205</v>
+        <v>34</v>
       </c>
       <c r="E44" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="F44" s="7"/>
+      <c r="F44" s="27"/>
       <c r="G44" s="27"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="6" t="s">
         <v>60</v>
       </c>
@@ -3021,2136 +2842,2102 @@
         <v>20</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="D45" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E45" s="27" t="s">
-        <v>69</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="E45" s="27"/>
       <c r="F45" s="27"/>
       <c r="G45" s="27"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B46" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C46" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="D46" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="28"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="39"/>
-    </row>
-    <row r="48" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="28"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="37"/>
+    </row>
+    <row r="47" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A47" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B47" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D47" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" s="27"/>
+    </row>
+    <row r="48" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="19" t="s">
         <v>81</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C48" s="27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D48" s="27" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E48" s="27"/>
       <c r="F48" s="27" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G48" s="27"/>
-      <c r="J48" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:7" ht="145" x14ac:dyDescent="0.35">
       <c r="A49" s="19" t="s">
         <v>81</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C49" s="27" t="s">
-        <v>32</v>
+        <v>26</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>187</v>
       </c>
       <c r="D49" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27" t="s">
-        <v>11</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E49" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="F49" s="27"/>
       <c r="G49" s="27"/>
-      <c r="J49" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="19" t="s">
         <v>81</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C50" s="25" t="s">
-        <v>195</v>
+        <v>25</v>
+      </c>
+      <c r="C50" s="27" t="s">
+        <v>39</v>
       </c>
       <c r="D50" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E50" s="27" t="s">
-        <v>95</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="E50" s="27"/>
       <c r="F50" s="27"/>
       <c r="G50" s="27"/>
-      <c r="J50" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="B51" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C51" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="D51" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="J51" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="37"/>
-      <c r="B52" s="38"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="38"/>
-      <c r="E52" s="38"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
-    </row>
-    <row r="53" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="35"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
+    </row>
+    <row r="52" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A52" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B52" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D52" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" s="27"/>
+    </row>
+    <row r="53" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="19" t="s">
         <v>82</v>
       </c>
       <c r="B53" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C53" s="27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D53" s="27" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E53" s="27"/>
       <c r="F53" s="27" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G53" s="27"/>
-      <c r="J53" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A54" s="19" t="s">
         <v>82</v>
       </c>
       <c r="B54" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C54" s="27" t="s">
-        <v>32</v>
+        <v>26</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>188</v>
       </c>
       <c r="D54" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27" t="s">
-        <v>11</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E54" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="F54" s="27"/>
       <c r="G54" s="27"/>
-      <c r="J54" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A55" s="19" t="s">
         <v>82</v>
       </c>
       <c r="B55" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C55" s="25" t="s">
-        <v>196</v>
+        <v>25</v>
+      </c>
+      <c r="C55" s="27" t="s">
+        <v>96</v>
       </c>
       <c r="D55" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="E55" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="F55" s="27"/>
+        <v>94</v>
+      </c>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27" t="s">
+        <v>11</v>
+      </c>
       <c r="G55" s="27"/>
-      <c r="J55" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:7" ht="87.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="19" t="s">
         <v>82</v>
       </c>
       <c r="B56" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C56" s="27" t="s">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="D56" s="27" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="E56" s="27"/>
-      <c r="F56" s="27" t="s">
-        <v>11</v>
-      </c>
+      <c r="F56" s="27"/>
       <c r="G56" s="27"/>
-      <c r="J56" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="B57" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="C57" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="D57" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
-      <c r="J57" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="28"/>
-      <c r="B58" s="28"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="28"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" s="28"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="28"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B58" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D58" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58" s="27"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="20" t="s">
         <v>83</v>
       </c>
       <c r="B59" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C59" s="27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D59" s="27" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E59" s="27"/>
       <c r="F59" s="27" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G59" s="27"/>
-      <c r="J59" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="20" t="s">
         <v>83</v>
       </c>
       <c r="B60" s="27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C60" s="27" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="D60" s="27" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E60" s="27"/>
       <c r="F60" s="27" t="s">
-        <v>11</v>
+        <v>201</v>
       </c>
       <c r="G60" s="27"/>
-      <c r="J60" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="20" t="s">
+    </row>
+    <row r="61" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A61" s="21" t="s">
         <v>83</v>
       </c>
       <c r="B61" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C61" s="27" t="s">
-        <v>98</v>
+        <v>25</v>
+      </c>
+      <c r="C61" s="26" t="s">
+        <v>99</v>
       </c>
       <c r="D61" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="E61" s="27"/>
-      <c r="F61" s="27" t="s">
-        <v>210</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E61" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="F61" s="27"/>
       <c r="G61" s="27"/>
-      <c r="J61" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="105" x14ac:dyDescent="0.25">
-      <c r="A62" s="21" t="s">
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" s="20" t="s">
         <v>83</v>
       </c>
       <c r="B62" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C62" s="26" t="s">
-        <v>99</v>
+        <v>24</v>
+      </c>
+      <c r="C62" s="27" t="s">
+        <v>39</v>
       </c>
       <c r="D62" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E62" s="27" t="s">
-        <v>101</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="E62" s="27"/>
       <c r="F62" s="27"/>
       <c r="G62" s="27"/>
-      <c r="J62" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="B63" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="C63" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="D63" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="E63" s="27"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="27"/>
-      <c r="J63" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="28"/>
-      <c r="B64" s="28"/>
-      <c r="C64" s="28"/>
-      <c r="D64" s="28"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="28"/>
-      <c r="G64" s="28"/>
-    </row>
-    <row r="65" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" s="28"/>
+      <c r="B63" s="28"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="28"/>
+    </row>
+    <row r="64" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A64" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B64" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C64" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D64" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E64" s="27"/>
+      <c r="F64" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="27"/>
+    </row>
+    <row r="65" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A65" s="19" t="s">
         <v>84</v>
       </c>
       <c r="B65" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C65" s="27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D65" s="27" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E65" s="27"/>
       <c r="F65" s="27" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G65" s="27"/>
     </row>
-    <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A66" s="19" t="s">
         <v>84</v>
       </c>
       <c r="B66" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C66" s="27" t="s">
-        <v>32</v>
+        <v>26</v>
+      </c>
+      <c r="C66" s="25" t="s">
+        <v>186</v>
       </c>
       <c r="D66" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E66" s="27"/>
-      <c r="F66" s="27" t="s">
-        <v>11</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E66" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F66" s="27"/>
       <c r="G66" s="27"/>
     </row>
-    <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A67" s="19" t="s">
         <v>84</v>
       </c>
       <c r="B67" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C67" s="25" t="s">
-        <v>194</v>
+        <v>25</v>
+      </c>
+      <c r="C67" s="27" t="s">
+        <v>92</v>
       </c>
       <c r="D67" s="27" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E67" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="F67" s="27"/>
-      <c r="G67" s="27"/>
-    </row>
-    <row r="68" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+    </row>
+    <row r="68" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A68" s="19" t="s">
         <v>84</v>
       </c>
       <c r="B68" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C68" s="27" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D68" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="E68" s="27" t="s">
-        <v>41</v>
+      <c r="E68" s="29" t="s">
+        <v>105</v>
       </c>
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
     </row>
-    <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A69" s="19" t="s">
         <v>84</v>
       </c>
       <c r="B69" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C69" s="27" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D69" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="E69" s="29" t="s">
-        <v>105</v>
+        <v>34</v>
+      </c>
+      <c r="E69" s="27" t="s">
+        <v>106</v>
       </c>
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
     </row>
-    <row r="70" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A70" s="19" t="s">
         <v>84</v>
       </c>
       <c r="B70" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C70" s="27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D70" s="27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E70" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-    </row>
-    <row r="71" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F70" s="27"/>
+      <c r="G70" s="27"/>
+    </row>
+    <row r="71" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A71" s="19" t="s">
         <v>84</v>
       </c>
       <c r="B71" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C71" s="27" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D71" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="E71" s="27" t="s">
-        <v>106</v>
+        <v>34</v>
+      </c>
+      <c r="E71" s="29" t="s">
+        <v>105</v>
       </c>
       <c r="F71" s="27"/>
       <c r="G71" s="27"/>
     </row>
-    <row r="72" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A72" s="19" t="s">
         <v>84</v>
       </c>
       <c r="B72" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C72" s="27" t="s">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="D72" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E72" s="29" t="s">
-        <v>105</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="E72" s="29"/>
       <c r="F72" s="27"/>
       <c r="G72" s="27"/>
     </row>
-    <row r="73" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="B73" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="C73" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="D73" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="E73" s="29"/>
-      <c r="F73" s="27"/>
-      <c r="G73" s="27"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="28"/>
-      <c r="B74" s="28"/>
-      <c r="C74" s="28"/>
-      <c r="D74" s="28"/>
-      <c r="E74" s="30"/>
-      <c r="F74" s="28"/>
-      <c r="G74" s="28"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73" s="28"/>
+      <c r="B73" s="28"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="30"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="28"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B74" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C74" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D74" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E74" s="27"/>
+      <c r="F74" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G74" s="27"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="20" t="s">
         <v>85</v>
       </c>
       <c r="B75" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C75" s="27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D75" s="27" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E75" s="27"/>
       <c r="F75" s="27" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G75" s="27"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A76" s="20" t="s">
         <v>85</v>
       </c>
       <c r="B76" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C76" s="27" t="s">
-        <v>32</v>
+        <v>26</v>
+      </c>
+      <c r="C76" s="25" t="s">
+        <v>186</v>
       </c>
       <c r="D76" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E76" s="27"/>
-      <c r="F76" s="27" t="s">
-        <v>11</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E76" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F76" s="27"/>
       <c r="G76" s="27"/>
     </row>
-    <row r="77" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="20" t="s">
         <v>85</v>
       </c>
       <c r="B77" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C77" s="25" t="s">
-        <v>194</v>
+        <v>25</v>
+      </c>
+      <c r="C77" s="27" t="s">
+        <v>92</v>
       </c>
       <c r="D77" s="27" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E77" s="27" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F77" s="27"/>
       <c r="G77" s="27"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="20" t="s">
         <v>85</v>
       </c>
       <c r="B78" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C78" s="27" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="D78" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="E78" s="27" t="s">
-        <v>41</v>
+      <c r="E78" s="29" t="s">
+        <v>110</v>
       </c>
       <c r="F78" s="27"/>
       <c r="G78" s="27"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="20" t="s">
         <v>85</v>
       </c>
       <c r="B79" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C79" s="27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D79" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E79" s="29" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F79" s="27"/>
       <c r="G79" s="27"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="20" t="s">
         <v>85</v>
       </c>
       <c r="B80" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C80" s="27" t="s">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="D80" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E80" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="F80" s="27"/>
-      <c r="G80" s="27"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="B81" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="C81" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="D81" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="E81" s="29"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="28"/>
-      <c r="B82" s="28"/>
-      <c r="C82" s="28"/>
-      <c r="D82" s="28"/>
-      <c r="E82" s="30"/>
-      <c r="F82" s="28"/>
-      <c r="G82" s="28"/>
-    </row>
-    <row r="83" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="E80" s="29"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81" s="28"/>
+      <c r="B81" s="28"/>
+      <c r="C81" s="28"/>
+      <c r="D81" s="28"/>
+      <c r="E81" s="30"/>
+      <c r="F81" s="28"/>
+      <c r="G81" s="28"/>
+    </row>
+    <row r="82" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A82" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B82" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C82" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D82" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E82" s="27"/>
+      <c r="F82" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G82" s="27"/>
+    </row>
+    <row r="83" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A83" s="19" t="s">
         <v>86</v>
       </c>
       <c r="B83" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C83" s="27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D83" s="27" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E83" s="27"/>
       <c r="F83" s="27" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G83" s="27"/>
     </row>
-    <row r="84" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A84" s="19" t="s">
         <v>86</v>
       </c>
       <c r="B84" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C84" s="27" t="s">
-        <v>32</v>
+        <v>26</v>
+      </c>
+      <c r="C84" s="26" t="s">
+        <v>113</v>
       </c>
       <c r="D84" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E84" s="27"/>
-      <c r="F84" s="27" t="s">
-        <v>11</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="E84" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="F84" s="27"/>
       <c r="G84" s="27"/>
     </row>
-    <row r="85" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A85" s="19" t="s">
         <v>86</v>
       </c>
       <c r="B85" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C85" s="26" t="s">
-        <v>113</v>
+        <v>25</v>
+      </c>
+      <c r="C85" s="27" t="s">
+        <v>39</v>
       </c>
       <c r="D85" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E85" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="F85" s="27"/>
+        <v>51</v>
+      </c>
+      <c r="E85" s="29"/>
+      <c r="F85" s="26"/>
       <c r="G85" s="27"/>
     </row>
-    <row r="86" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="B86" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C86" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="D86" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="E86" s="29"/>
-      <c r="F86" s="26"/>
-      <c r="G86" s="27"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="28"/>
-      <c r="B87" s="28"/>
-      <c r="C87" s="28"/>
-      <c r="D87" s="28"/>
-      <c r="E87" s="30"/>
-      <c r="F87" s="28"/>
-      <c r="G87" s="28"/>
-    </row>
-    <row r="88" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A86" s="28"/>
+      <c r="B86" s="28"/>
+      <c r="C86" s="28"/>
+      <c r="D86" s="28"/>
+      <c r="E86" s="30"/>
+      <c r="F86" s="28"/>
+      <c r="G86" s="28"/>
+    </row>
+    <row r="87" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A87" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C87" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D87" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E87" s="27"/>
+      <c r="F87" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G87" s="27"/>
+    </row>
+    <row r="88" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A88" s="19" t="s">
         <v>87</v>
       </c>
       <c r="B88" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C88" s="27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D88" s="27" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E88" s="27"/>
       <c r="F88" s="27" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G88" s="27"/>
     </row>
-    <row r="89" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A89" s="19" t="s">
         <v>87</v>
       </c>
       <c r="B89" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C89" s="27" t="s">
-        <v>32</v>
+        <v>26</v>
+      </c>
+      <c r="C89" s="25" t="s">
+        <v>189</v>
       </c>
       <c r="D89" s="27" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E89" s="27"/>
-      <c r="F89" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G89" s="27"/>
-    </row>
-    <row r="90" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+    </row>
+    <row r="90" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A90" s="19" t="s">
         <v>87</v>
       </c>
       <c r="B90" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C90" s="25" t="s">
-        <v>197</v>
+        <v>25</v>
+      </c>
+      <c r="C90" s="26" t="s">
+        <v>114</v>
       </c>
       <c r="D90" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="E90" s="27"/>
+        <v>35</v>
+      </c>
+      <c r="E90" s="26" t="s">
+        <v>115</v>
+      </c>
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
     </row>
-    <row r="91" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A91" s="19" t="s">
         <v>87</v>
       </c>
       <c r="B91" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C91" s="26" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D91" s="27" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E91" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="F91" s="7"/>
-      <c r="G91" s="7"/>
-    </row>
-    <row r="92" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+      <c r="F91" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="G91" s="27"/>
+    </row>
+    <row r="92" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A92" s="19" t="s">
         <v>87</v>
       </c>
       <c r="B92" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C92" s="26" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D92" s="27" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E92" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="F92" s="26" t="s">
-        <v>124</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="F92" s="27"/>
       <c r="G92" s="27"/>
     </row>
-    <row r="93" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="19" t="s">
         <v>87</v>
       </c>
       <c r="B93" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C93" s="26" t="s">
-        <v>125</v>
+        <v>22</v>
+      </c>
+      <c r="C93" s="27" t="s">
+        <v>39</v>
       </c>
       <c r="D93" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E93" s="26" t="s">
-        <v>126</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="E93" s="26"/>
       <c r="F93" s="27"/>
       <c r="G93" s="27"/>
     </row>
-    <row r="94" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="B94" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="C94" s="27" t="s">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A94" s="28"/>
+      <c r="B94" s="28"/>
+      <c r="C94" s="28"/>
+      <c r="D94" s="28"/>
+      <c r="E94" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="F94" s="28"/>
+      <c r="G94" s="28"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A95" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="B95" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C95" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D95" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E95" s="26"/>
+      <c r="F95" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G95" s="27"/>
+    </row>
+    <row r="96" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="B96" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C96" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D96" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E96" s="27"/>
+      <c r="F96" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G96" s="27"/>
+    </row>
+    <row r="97" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="B97" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C97" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D97" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="E97" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="F97" s="27"/>
+      <c r="G97" s="27"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A98" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="B98" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C98" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="D98" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E98" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="F98" s="27"/>
+      <c r="G98" s="27"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A99" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="B99" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C99" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D94" s="27" t="s">
+      <c r="D99" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="E94" s="26"/>
-      <c r="F94" s="27"/>
-      <c r="G94" s="27"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="28"/>
-      <c r="B95" s="28"/>
-      <c r="C95" s="28"/>
-      <c r="D95" s="28"/>
-      <c r="E95" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="F95" s="28"/>
-      <c r="G95" s="28"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="B96" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C96" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="D96" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E96" s="26"/>
-      <c r="F96" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="G96" s="27"/>
-    </row>
-    <row r="97" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="B97" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C97" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D97" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E97" s="27"/>
-      <c r="F97" s="27" t="s">
-        <v>212</v>
-      </c>
-      <c r="G97" s="27"/>
-    </row>
-    <row r="98" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="B98" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C98" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="D98" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="E98" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="F98" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="G98" s="27"/>
-    </row>
-    <row r="99" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A99" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="B99" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C99" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="D99" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E99" s="27" t="s">
-        <v>133</v>
-      </c>
+      <c r="E99" s="27"/>
       <c r="F99" s="27"/>
       <c r="G99" s="27"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="B100" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="C100" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="D100" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="E100" s="27"/>
-      <c r="F100" s="27"/>
-      <c r="G100" s="27"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="28"/>
-      <c r="B101" s="28"/>
-      <c r="C101" s="28"/>
-      <c r="D101" s="28"/>
-      <c r="E101" s="31" t="s">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A100" s="28"/>
+      <c r="B100" s="28"/>
+      <c r="C100" s="28"/>
+      <c r="D100" s="28"/>
+      <c r="E100" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="F101" s="28"/>
-      <c r="G101" s="28"/>
-    </row>
-    <row r="102" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="F100" s="28"/>
+      <c r="G100" s="28"/>
+    </row>
+    <row r="101" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A101" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B101" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C101" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D101" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E101" s="26"/>
+      <c r="F101" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G101" s="27"/>
+    </row>
+    <row r="102" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A102" s="19" t="s">
         <v>88</v>
       </c>
       <c r="B102" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C102" s="27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D102" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E102" s="26"/>
+        <v>10</v>
+      </c>
+      <c r="E102" s="27"/>
       <c r="F102" s="27" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G102" s="27"/>
     </row>
-    <row r="103" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A103" s="19" t="s">
         <v>88</v>
       </c>
       <c r="B103" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C103" s="27" t="s">
-        <v>32</v>
+        <v>26</v>
+      </c>
+      <c r="C103" s="26" t="s">
+        <v>127</v>
       </c>
       <c r="D103" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E103" s="27"/>
-      <c r="F103" s="27" t="s">
-        <v>11</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="E103" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="F103" s="27"/>
       <c r="G103" s="27"/>
     </row>
-    <row r="104" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A104" s="19" t="s">
         <v>88</v>
       </c>
       <c r="B104" s="27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C104" s="26" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D104" s="27" t="s">
-        <v>219</v>
-      </c>
-      <c r="E104" s="27" t="s">
-        <v>131</v>
+        <v>34</v>
+      </c>
+      <c r="E104" s="29" t="s">
+        <v>130</v>
       </c>
       <c r="F104" s="27"/>
       <c r="G104" s="27"/>
     </row>
-    <row r="105" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A105" s="19" t="s">
         <v>88</v>
       </c>
       <c r="B105" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C105" s="26" t="s">
-        <v>130</v>
+        <v>24</v>
+      </c>
+      <c r="C105" s="27" t="s">
+        <v>39</v>
       </c>
       <c r="D105" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E105" s="29" t="s">
-        <v>134</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="E105" s="29"/>
       <c r="F105" s="27"/>
       <c r="G105" s="27"/>
     </row>
-    <row r="106" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A106" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="B106" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="C106" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="D106" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="E106" s="29"/>
-      <c r="F106" s="27"/>
-      <c r="G106" s="27"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="28"/>
-      <c r="B107" s="28"/>
-      <c r="C107" s="28"/>
-      <c r="D107" s="28"/>
-      <c r="E107" s="31" t="s">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A106" s="28"/>
+      <c r="B106" s="28"/>
+      <c r="C106" s="28"/>
+      <c r="D106" s="28"/>
+      <c r="E106" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="F107" s="28"/>
-      <c r="G107" s="28"/>
-    </row>
-    <row r="108" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="F106" s="28"/>
+      <c r="G106" s="28"/>
+    </row>
+    <row r="107" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A107" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B107" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C107" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D107" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E107" s="26"/>
+      <c r="F107" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G107" s="27"/>
+    </row>
+    <row r="108" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A108" s="19" t="s">
         <v>89</v>
       </c>
       <c r="B108" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C108" s="27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D108" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E108" s="26"/>
+        <v>10</v>
+      </c>
+      <c r="E108" s="27"/>
       <c r="F108" s="27" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G108" s="27"/>
     </row>
-    <row r="109" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A109" s="19" t="s">
         <v>89</v>
       </c>
       <c r="B109" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C109" s="27" t="s">
-        <v>32</v>
+        <v>26</v>
+      </c>
+      <c r="C109" s="26" t="s">
+        <v>127</v>
       </c>
       <c r="D109" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E109" s="27"/>
-      <c r="F109" s="27" t="s">
-        <v>11</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="E109" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="F109" s="27"/>
       <c r="G109" s="27"/>
     </row>
-    <row r="110" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A110" s="19" t="s">
         <v>89</v>
       </c>
       <c r="B110" s="27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C110" s="26" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D110" s="27" t="s">
-        <v>219</v>
-      </c>
-      <c r="E110" s="27" t="s">
-        <v>131</v>
+        <v>34</v>
+      </c>
+      <c r="E110" s="29" t="s">
+        <v>130</v>
       </c>
       <c r="F110" s="27"/>
       <c r="G110" s="27"/>
     </row>
-    <row r="111" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A111" s="19" t="s">
         <v>89</v>
       </c>
       <c r="B111" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C111" s="26" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D111" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E111" s="29" t="s">
-        <v>134</v>
+        <v>35</v>
+      </c>
+      <c r="E111" s="27" t="s">
+        <v>140</v>
       </c>
       <c r="F111" s="27"/>
       <c r="G111" s="27"/>
     </row>
-    <row r="112" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A112" s="19" t="s">
         <v>89</v>
       </c>
       <c r="B112" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C112" s="26" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D112" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E112" s="27" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F112" s="27"/>
       <c r="G112" s="27"/>
     </row>
-    <row r="113" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A113" s="19" t="s">
         <v>89</v>
       </c>
       <c r="B113" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C113" s="26" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="D113" s="27" t="s">
-        <v>34</v>
+        <v>207</v>
       </c>
       <c r="E113" s="27" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="F113" s="27"/>
       <c r="G113" s="27"/>
     </row>
-    <row r="114" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A114" s="19" t="s">
         <v>89</v>
       </c>
       <c r="B114" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C114" s="26" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D114" s="27" t="s">
-        <v>219</v>
+        <v>35</v>
       </c>
       <c r="E114" s="27" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="F114" s="27"/>
       <c r="G114" s="27"/>
     </row>
-    <row r="115" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A115" s="19" t="s">
         <v>89</v>
       </c>
       <c r="B115" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C115" s="26" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D115" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E115" s="27" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F115" s="27"/>
       <c r="G115" s="27"/>
     </row>
-    <row r="116" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A116" s="19" t="s">
         <v>89</v>
       </c>
       <c r="B116" s="27" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C116" s="26" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="D116" s="27" t="s">
-        <v>34</v>
+        <v>207</v>
       </c>
       <c r="E116" s="27" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="F116" s="27"/>
       <c r="G116" s="27"/>
     </row>
-    <row r="117" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A117" s="19" t="s">
         <v>89</v>
       </c>
       <c r="B117" s="27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C117" s="26" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="D117" s="27" t="s">
-        <v>219</v>
+        <v>35</v>
       </c>
       <c r="E117" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="F117" s="27"/>
-      <c r="G117" s="27"/>
-    </row>
-    <row r="118" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+      <c r="F117" s="7"/>
+      <c r="G117" s="7"/>
+    </row>
+    <row r="118" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A118" s="19" t="s">
         <v>89</v>
       </c>
       <c r="B118" s="27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C118" s="26" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D118" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E118" s="27" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F118" s="7"/>
-      <c r="G118" s="7"/>
-    </row>
-    <row r="119" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="G118" s="27"/>
+    </row>
+    <row r="119" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A119" s="19" t="s">
         <v>89</v>
       </c>
       <c r="B119" s="27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C119" s="26" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="D119" s="27" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E119" s="27" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="F119" s="7"/>
       <c r="G119" s="27"/>
     </row>
-    <row r="120" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A120" s="19" t="s">
         <v>89</v>
       </c>
       <c r="B120" s="27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C120" s="26" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="D120" s="27" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E120" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="F120" s="7"/>
+        <v>144</v>
+      </c>
+      <c r="F120" s="27"/>
       <c r="G120" s="27"/>
     </row>
-    <row r="121" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A121" s="19" t="s">
         <v>89</v>
       </c>
       <c r="B121" s="27" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C121" s="26" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D121" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E121" s="27" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F121" s="27"/>
       <c r="G121" s="27"/>
     </row>
-    <row r="122" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A122" s="19" t="s">
         <v>89</v>
       </c>
       <c r="B122" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="C122" s="26" t="s">
-        <v>144</v>
+        <v>19</v>
+      </c>
+      <c r="C122" s="27" t="s">
+        <v>39</v>
       </c>
       <c r="D122" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E122" s="27" t="s">
-        <v>150</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="E122" s="27"/>
       <c r="F122" s="27"/>
       <c r="G122" s="27"/>
     </row>
-    <row r="123" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A123" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="B123" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C123" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="D123" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="E123" s="27"/>
-      <c r="F123" s="27"/>
-      <c r="G123" s="27"/>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="28"/>
-      <c r="B124" s="28"/>
-      <c r="C124" s="28"/>
-      <c r="D124" s="28"/>
-      <c r="E124" s="31" t="s">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A123" s="28"/>
+      <c r="B123" s="28"/>
+      <c r="C123" s="28"/>
+      <c r="D123" s="28"/>
+      <c r="E123" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="F124" s="28"/>
-      <c r="G124" s="28"/>
-    </row>
-    <row r="125" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="F123" s="28"/>
+      <c r="G123" s="28"/>
+    </row>
+    <row r="124" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A124" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B124" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C124" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D124" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E124" s="26"/>
+      <c r="F124" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G124" s="27"/>
+    </row>
+    <row r="125" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A125" s="19" t="s">
         <v>90</v>
       </c>
       <c r="B125" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C125" s="27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D125" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E125" s="26"/>
+        <v>10</v>
+      </c>
+      <c r="E125" s="27"/>
       <c r="F125" s="27" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G125" s="27"/>
     </row>
-    <row r="126" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A126" s="19" t="s">
         <v>90</v>
       </c>
       <c r="B126" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C126" s="27" t="s">
-        <v>32</v>
+        <v>26</v>
+      </c>
+      <c r="C126" s="26" t="s">
+        <v>127</v>
       </c>
       <c r="D126" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E126" s="27"/>
-      <c r="F126" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G126" s="27"/>
-    </row>
-    <row r="127" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="E126" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="F126" s="7"/>
+      <c r="G126" s="7"/>
+    </row>
+    <row r="127" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A127" s="19" t="s">
         <v>90</v>
       </c>
       <c r="B127" s="27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C127" s="26" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D127" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E127" s="27" t="s">
-        <v>131</v>
+        <v>34</v>
+      </c>
+      <c r="E127" s="29" t="s">
+        <v>130</v>
       </c>
       <c r="F127" s="7"/>
-      <c r="G127" s="7"/>
-    </row>
-    <row r="128" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="G127" s="27"/>
+    </row>
+    <row r="128" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A128" s="19" t="s">
         <v>90</v>
       </c>
       <c r="B128" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C128" s="26" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="D128" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E128" s="29" t="s">
-        <v>134</v>
+        <v>35</v>
+      </c>
+      <c r="E128" s="27" t="s">
+        <v>150</v>
       </c>
       <c r="F128" s="7"/>
       <c r="G128" s="27"/>
     </row>
-    <row r="129" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A129" s="19" t="s">
         <v>90</v>
       </c>
       <c r="B129" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C129" s="26" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D129" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E129" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="F129" s="7"/>
+        <v>151</v>
+      </c>
+      <c r="F129" s="27"/>
       <c r="G129" s="27"/>
     </row>
-    <row r="130" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A130" s="19" t="s">
         <v>90</v>
       </c>
       <c r="B130" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C130" s="26" t="s">
-        <v>154</v>
+        <v>22</v>
+      </c>
+      <c r="C130" s="27" t="s">
+        <v>39</v>
       </c>
       <c r="D130" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E130" s="27" t="s">
-        <v>158</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="E130" s="27"/>
       <c r="F130" s="27"/>
       <c r="G130" s="27"/>
     </row>
-    <row r="131" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A131" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="B131" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="C131" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="D131" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E131" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="F131" s="27"/>
-      <c r="G131" s="27"/>
-    </row>
-    <row r="132" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A131" s="28"/>
+      <c r="B131" s="28"/>
+      <c r="C131" s="28"/>
+      <c r="D131" s="28"/>
+      <c r="E131" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="F131" s="28"/>
+      <c r="G131" s="28"/>
+    </row>
+    <row r="132" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A132" s="19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B132" s="27" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C132" s="27" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D132" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="E132" s="27"/>
-      <c r="F132" s="27"/>
+        <v>30</v>
+      </c>
+      <c r="E132" s="26"/>
+      <c r="F132" s="27" t="s">
+        <v>9</v>
+      </c>
       <c r="G132" s="27"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="28"/>
-      <c r="B133" s="28"/>
-      <c r="C133" s="28"/>
-      <c r="D133" s="28"/>
-      <c r="E133" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="F133" s="28"/>
-      <c r="G133" s="28"/>
-    </row>
-    <row r="134" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A133" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B133" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C133" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D133" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E133" s="27"/>
+      <c r="F133" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G133" s="27"/>
+    </row>
+    <row r="134" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A134" s="19" t="s">
         <v>91</v>
       </c>
       <c r="B134" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C134" s="27" t="s">
-        <v>31</v>
+        <v>26</v>
+      </c>
+      <c r="C134" s="26" t="s">
+        <v>127</v>
       </c>
       <c r="D134" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E134" s="26"/>
-      <c r="F134" s="27" t="s">
-        <v>9</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E134" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="F134" s="7"/>
       <c r="G134" s="27"/>
     </row>
-    <row r="135" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A135" s="19" t="s">
         <v>91</v>
       </c>
       <c r="B135" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C135" s="27" t="s">
-        <v>32</v>
+        <v>25</v>
+      </c>
+      <c r="C135" s="26" t="s">
+        <v>152</v>
       </c>
       <c r="D135" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E135" s="27"/>
-      <c r="F135" s="27" t="s">
-        <v>11</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E135" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="F135" s="7"/>
       <c r="G135" s="27"/>
     </row>
-    <row r="136" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A136" s="19" t="s">
         <v>91</v>
       </c>
       <c r="B136" s="27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C136" s="26" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="D136" s="27" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E136" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="F136" s="7"/>
+        <v>156</v>
+      </c>
+      <c r="F136" s="27"/>
       <c r="G136" s="27"/>
     </row>
-    <row r="137" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A137" s="19" t="s">
         <v>91</v>
       </c>
       <c r="B137" s="27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C137" s="26" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D137" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="E137" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="F137" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="E137" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="F137" s="27"/>
       <c r="G137" s="27"/>
     </row>
-    <row r="138" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A138" s="19" t="s">
         <v>91</v>
       </c>
       <c r="B138" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="C138" s="26" t="s">
-        <v>161</v>
+        <v>22</v>
+      </c>
+      <c r="C138" s="27" t="s">
+        <v>39</v>
       </c>
       <c r="D138" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E138" s="27" t="s">
-        <v>163</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="E138" s="29"/>
       <c r="F138" s="27"/>
       <c r="G138" s="27"/>
     </row>
-    <row r="139" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A139" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="B139" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="C139" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="D139" s="27" t="s">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A139" s="28"/>
+      <c r="B139" s="28"/>
+      <c r="C139" s="28"/>
+      <c r="D139" s="28"/>
+      <c r="E139" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="F139" s="28"/>
+      <c r="G139" s="28"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A140" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="B140" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C140" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D140" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E140" s="27"/>
+      <c r="F140" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G140" s="7"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A141" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="B141" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C141" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D141" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E141" s="27"/>
+      <c r="F141" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G141" s="7"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A142" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="B142" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C142" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="D142" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="E142" s="27"/>
+      <c r="F142" s="7"/>
+      <c r="G142" s="7"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A143" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="B143" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C143" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="D143" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E143" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="F143" s="7"/>
+      <c r="G143" s="7"/>
+    </row>
+    <row r="144" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A144" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="B144" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C144" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="D144" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="E139" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="F139" s="27"/>
-      <c r="G139" s="27"/>
-    </row>
-    <row r="140" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A140" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="B140" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="C140" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="D140" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="E140" s="29"/>
-      <c r="F140" s="27"/>
-      <c r="G140" s="27"/>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="28"/>
-      <c r="B141" s="28"/>
-      <c r="C141" s="28"/>
-      <c r="D141" s="28"/>
-      <c r="E141" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="F141" s="28"/>
-      <c r="G141" s="28"/>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="B142" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C142" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="D142" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E142" s="27"/>
-      <c r="F142" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="G142" s="7"/>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="B143" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C143" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D143" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E143" s="27"/>
-      <c r="F143" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G143" s="7"/>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="B144" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C144" s="27" t="s">
+      <c r="E144" s="29" t="s">
         <v>184</v>
       </c>
-      <c r="D144" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="E144" s="27"/>
       <c r="F144" s="7"/>
       <c r="G144" s="7"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" s="26" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B145" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C145" s="27" t="s">
-        <v>185</v>
+        <v>23</v>
+      </c>
+      <c r="C145" s="26" t="s">
+        <v>214</v>
       </c>
       <c r="D145" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="E145" s="27" t="s">
-        <v>189</v>
+        <v>33</v>
+      </c>
+      <c r="E145" s="29" t="s">
+        <v>211</v>
       </c>
       <c r="F145" s="7"/>
       <c r="G145" s="7"/>
     </row>
-    <row r="146" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146" s="26" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B146" s="27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C146" s="26" t="s">
-        <v>186</v>
+        <v>67</v>
       </c>
       <c r="D146" s="27" t="s">
-        <v>34</v>
+        <v>199</v>
       </c>
       <c r="E146" s="29" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="F146" s="7"/>
       <c r="G146" s="7"/>
     </row>
-    <row r="147" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147" s="26" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B147" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C147" s="26" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="D147" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E147" s="29" t="s">
-        <v>52</v>
+        <v>211</v>
       </c>
       <c r="F147" s="7"/>
       <c r="G147" s="7"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148" s="26" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B148" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="C148" s="27" t="s">
-        <v>39</v>
+        <v>20</v>
+      </c>
+      <c r="C148" s="26" t="s">
+        <v>213</v>
       </c>
       <c r="D148" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="E148" s="27"/>
+        <v>34</v>
+      </c>
+      <c r="E148" s="29" t="s">
+        <v>216</v>
+      </c>
       <c r="F148" s="7"/>
       <c r="G148" s="7"/>
     </row>
-    <row r="149" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="28"/>
-      <c r="B149" s="28"/>
-      <c r="C149" s="28"/>
-      <c r="D149" s="28"/>
-      <c r="E149" s="31" t="s">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A149" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="B149" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C149" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D149" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E149" s="27"/>
+      <c r="F149" s="7"/>
+      <c r="G149" s="7"/>
+    </row>
+    <row r="150" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="28"/>
+      <c r="B150" s="28"/>
+      <c r="C150" s="28"/>
+      <c r="D150" s="28"/>
+      <c r="E150" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="F149" s="28"/>
-      <c r="G149" s="31" t="s">
+      <c r="F150" s="28"/>
+      <c r="G150" s="31" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="B150" s="27" t="s">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A151" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="B151" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C150" s="27" t="s">
+      <c r="C151" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D150" s="27" t="s">
+      <c r="D151" s="27" t="s">
         <v>30</v>
-      </c>
-      <c r="E150" s="27"/>
-      <c r="F150" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="G150" s="7"/>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="B151" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="C151" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D151" s="27" t="s">
-        <v>10</v>
       </c>
       <c r="E151" s="27"/>
       <c r="F151" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G151" s="7"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A152" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="B152" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C152" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D152" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E152" s="27"/>
+      <c r="F152" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G151" s="7"/>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="B152" s="27" t="s">
+      <c r="G152" s="7"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A153" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="B153" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C152" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="D152" s="27" t="s">
+      <c r="C153" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="D153" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="E152" s="27"/>
-      <c r="F152" s="7"/>
-      <c r="G152" s="7"/>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="B153" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C153" s="27" t="s">
-        <v>187</v>
-      </c>
-      <c r="D153" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="E153" s="27" t="s">
-        <v>190</v>
-      </c>
+      <c r="E153" s="27"/>
       <c r="F153" s="7"/>
       <c r="G153" s="7"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154" s="26" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B154" s="27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C154" s="27" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="D154" s="27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E154" s="27" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="F154" s="7"/>
       <c r="G154" s="7"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155" s="26" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B155" s="27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C155" s="27" t="s">
-        <v>39</v>
+        <v>181</v>
       </c>
       <c r="D155" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="E155" s="29"/>
+        <v>34</v>
+      </c>
+      <c r="E155" s="27" t="s">
+        <v>185</v>
+      </c>
       <c r="F155" s="7"/>
       <c r="G155" s="7"/>
     </row>
-    <row r="156" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="8"/>
-      <c r="B156" s="8"/>
-      <c r="C156" s="8"/>
-      <c r="D156" s="8"/>
-      <c r="E156" s="22" t="s">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A156" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="B156" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C156" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D156" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E156" s="29"/>
+      <c r="F156" s="7"/>
+      <c r="G156" s="7"/>
+    </row>
+    <row r="157" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="8"/>
+      <c r="B157" s="8"/>
+      <c r="C157" s="8"/>
+      <c r="D157" s="8"/>
+      <c r="E157" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="F156" s="28"/>
-      <c r="G156" s="31" t="s">
+      <c r="F157" s="28"/>
+      <c r="G157" s="31" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="B157" s="7" t="s">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A158" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B158" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C157" s="27" t="s">
+      <c r="C158" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D157" s="27" t="s">
+      <c r="D158" s="27" t="s">
         <v>30</v>
-      </c>
-      <c r="E157" s="27"/>
-      <c r="F157" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="G157" s="7"/>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="B158" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C158" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D158" s="27" t="s">
-        <v>10</v>
       </c>
       <c r="E158" s="27"/>
       <c r="F158" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G158" s="7"/>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A159" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C159" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D159" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E159" s="27"/>
+      <c r="F159" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G158" s="7"/>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="B159" s="7" t="s">
+      <c r="G159" s="7"/>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A160" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B160" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C159" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="D159" s="7" t="s">
+      <c r="C160" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="D160" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E159" s="33" t="s">
-        <v>202</v>
-      </c>
-      <c r="F159" s="7"/>
-      <c r="G159" s="7"/>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="B160" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C160" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="D160" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="E160" s="33" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="F160" s="7"/>
       <c r="G160" s="7"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161" s="4" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>39</v>
+        <v>196</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E161" s="33"/>
+        <v>34</v>
+      </c>
+      <c r="E161" s="33" t="s">
+        <v>195</v>
+      </c>
       <c r="F161" s="7"/>
       <c r="G161" s="7"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" s="11"/>
-      <c r="B162" s="11"/>
-      <c r="C162" s="11"/>
-      <c r="D162" s="11"/>
-      <c r="E162" s="12"/>
-      <c r="F162" s="11"/>
-      <c r="G162" s="11"/>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A162" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D162" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E162" s="33"/>
+      <c r="F162" s="7"/>
+      <c r="G162" s="7"/>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163" s="11"/>
       <c r="B163" s="11"/>
       <c r="C163" s="11"/>
       <c r="D163" s="11"/>
-      <c r="E163" s="11"/>
+      <c r="E163" s="12"/>
       <c r="F163" s="11"/>
       <c r="G163" s="11"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" s="36"/>
-      <c r="B164" s="36"/>
-      <c r="C164" s="36"/>
-      <c r="D164" s="36"/>
-      <c r="E164" s="36"/>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A164" s="11"/>
+      <c r="B164" s="11"/>
+      <c r="C164" s="11"/>
+      <c r="D164" s="11"/>
+      <c r="E164" s="11"/>
       <c r="F164" s="11"/>
       <c r="G164" s="11"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" s="11"/>
-      <c r="B165" s="11"/>
-      <c r="C165" s="11"/>
-      <c r="D165" s="11"/>
-      <c r="E165" s="11"/>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A165" s="34"/>
+      <c r="B165" s="34"/>
+      <c r="C165" s="34"/>
+      <c r="D165" s="34"/>
+      <c r="E165" s="34"/>
       <c r="F165" s="11"/>
       <c r="G165" s="11"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166" s="11"/>
       <c r="B166" s="11"/>
       <c r="C166" s="11"/>
@@ -5159,7 +4946,7 @@
       <c r="F166" s="11"/>
       <c r="G166" s="11"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167" s="11"/>
       <c r="B167" s="11"/>
       <c r="C167" s="11"/>
@@ -5168,7 +4955,7 @@
       <c r="F167" s="11"/>
       <c r="G167" s="11"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168" s="11"/>
       <c r="B168" s="11"/>
       <c r="C168" s="11"/>
@@ -5177,7 +4964,7 @@
       <c r="F168" s="11"/>
       <c r="G168" s="11"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169" s="11"/>
       <c r="B169" s="11"/>
       <c r="C169" s="11"/>
@@ -5186,7 +4973,7 @@
       <c r="F169" s="11"/>
       <c r="G169" s="11"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170" s="11"/>
       <c r="B170" s="11"/>
       <c r="C170" s="11"/>
@@ -5195,7 +4982,7 @@
       <c r="F170" s="11"/>
       <c r="G170" s="11"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171" s="11"/>
       <c r="B171" s="11"/>
       <c r="C171" s="11"/>
@@ -5204,7 +4991,7 @@
       <c r="F171" s="11"/>
       <c r="G171" s="11"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172" s="11"/>
       <c r="B172" s="11"/>
       <c r="C172" s="11"/>
@@ -5213,7 +5000,7 @@
       <c r="F172" s="11"/>
       <c r="G172" s="11"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173" s="11"/>
       <c r="B173" s="11"/>
       <c r="C173" s="11"/>
@@ -5222,7 +5009,7 @@
       <c r="F173" s="11"/>
       <c r="G173" s="11"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174" s="11"/>
       <c r="B174" s="11"/>
       <c r="C174" s="11"/>
@@ -5231,7 +5018,7 @@
       <c r="F174" s="11"/>
       <c r="G174" s="11"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175" s="11"/>
       <c r="B175" s="11"/>
       <c r="C175" s="11"/>
@@ -5240,7 +5027,7 @@
       <c r="F175" s="11"/>
       <c r="G175" s="11"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176" s="11"/>
       <c r="B176" s="11"/>
       <c r="C176" s="11"/>
@@ -5249,7 +5036,7 @@
       <c r="F176" s="11"/>
       <c r="G176" s="11"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177" s="11"/>
       <c r="B177" s="11"/>
       <c r="C177" s="11"/>
@@ -5258,7 +5045,7 @@
       <c r="F177" s="11"/>
       <c r="G177" s="11"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178" s="11"/>
       <c r="B178" s="11"/>
       <c r="C178" s="11"/>
@@ -5267,7 +5054,7 @@
       <c r="F178" s="11"/>
       <c r="G178" s="11"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179" s="11"/>
       <c r="B179" s="11"/>
       <c r="C179" s="11"/>
@@ -5276,7 +5063,7 @@
       <c r="F179" s="11"/>
       <c r="G179" s="11"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180" s="11"/>
       <c r="B180" s="11"/>
       <c r="C180" s="11"/>
@@ -5285,7 +5072,7 @@
       <c r="F180" s="11"/>
       <c r="G180" s="11"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A181" s="11"/>
       <c r="B181" s="11"/>
       <c r="C181" s="11"/>
@@ -5294,7 +5081,7 @@
       <c r="F181" s="11"/>
       <c r="G181" s="11"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A182" s="11"/>
       <c r="B182" s="11"/>
       <c r="C182" s="11"/>
@@ -5303,7 +5090,7 @@
       <c r="F182" s="11"/>
       <c r="G182" s="11"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183" s="11"/>
       <c r="B183" s="11"/>
       <c r="C183" s="11"/>
@@ -5312,16 +5099,16 @@
       <c r="F183" s="11"/>
       <c r="G183" s="11"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A184" s="11"/>
       <c r="B184" s="11"/>
       <c r="C184" s="11"/>
       <c r="D184" s="11"/>
-      <c r="E184" s="12"/>
+      <c r="E184" s="11"/>
       <c r="F184" s="11"/>
       <c r="G184" s="11"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185" s="11"/>
       <c r="B185" s="11"/>
       <c r="C185" s="11"/>
@@ -5330,7 +5117,7 @@
       <c r="F185" s="11"/>
       <c r="G185" s="11"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186" s="11"/>
       <c r="B186" s="11"/>
       <c r="C186" s="11"/>
@@ -5339,7 +5126,7 @@
       <c r="F186" s="11"/>
       <c r="G186" s="11"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A187" s="11"/>
       <c r="B187" s="11"/>
       <c r="C187" s="11"/>
@@ -5348,16 +5135,16 @@
       <c r="F187" s="11"/>
       <c r="G187" s="11"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188" s="11"/>
       <c r="B188" s="11"/>
       <c r="C188" s="11"/>
       <c r="D188" s="11"/>
-      <c r="E188" s="11"/>
+      <c r="E188" s="12"/>
       <c r="F188" s="11"/>
       <c r="G188" s="11"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189" s="11"/>
       <c r="B189" s="11"/>
       <c r="C189" s="11"/>
@@ -5366,16 +5153,16 @@
       <c r="F189" s="11"/>
       <c r="G189" s="11"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A190" s="11"/>
       <c r="B190" s="11"/>
       <c r="C190" s="11"/>
       <c r="D190" s="11"/>
-      <c r="E190" s="12"/>
+      <c r="E190" s="11"/>
       <c r="F190" s="11"/>
       <c r="G190" s="11"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191" s="11"/>
       <c r="B191" s="11"/>
       <c r="C191" s="11"/>
@@ -5384,7 +5171,7 @@
       <c r="F191" s="11"/>
       <c r="G191" s="11"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A192" s="11"/>
       <c r="B192" s="11"/>
       <c r="C192" s="11"/>
@@ -5393,7 +5180,7 @@
       <c r="F192" s="11"/>
       <c r="G192" s="11"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A193" s="11"/>
       <c r="B193" s="11"/>
       <c r="C193" s="11"/>
@@ -5402,7 +5189,7 @@
       <c r="F193" s="11"/>
       <c r="G193" s="11"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A194" s="11"/>
       <c r="B194" s="11"/>
       <c r="C194" s="11"/>
@@ -5411,7 +5198,7 @@
       <c r="F194" s="11"/>
       <c r="G194" s="11"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A195" s="11"/>
       <c r="B195" s="11"/>
       <c r="C195" s="11"/>
@@ -5420,7 +5207,7 @@
       <c r="F195" s="11"/>
       <c r="G195" s="11"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A196" s="11"/>
       <c r="B196" s="11"/>
       <c r="C196" s="11"/>
@@ -5429,7 +5216,7 @@
       <c r="F196" s="11"/>
       <c r="G196" s="11"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A197" s="11"/>
       <c r="B197" s="11"/>
       <c r="C197" s="11"/>
@@ -5438,7 +5225,7 @@
       <c r="F197" s="11"/>
       <c r="G197" s="11"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A198" s="11"/>
       <c r="B198" s="11"/>
       <c r="C198" s="11"/>
@@ -5447,7 +5234,7 @@
       <c r="F198" s="11"/>
       <c r="G198" s="11"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A199" s="11"/>
       <c r="B199" s="11"/>
       <c r="C199" s="11"/>
@@ -5456,7 +5243,7 @@
       <c r="F199" s="11"/>
       <c r="G199" s="11"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A200" s="11"/>
       <c r="B200" s="11"/>
       <c r="C200" s="11"/>
@@ -5465,7 +5252,7 @@
       <c r="F200" s="11"/>
       <c r="G200" s="11"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A201" s="11"/>
       <c r="B201" s="11"/>
       <c r="C201" s="11"/>
@@ -5474,7 +5261,7 @@
       <c r="F201" s="11"/>
       <c r="G201" s="11"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A202" s="11"/>
       <c r="B202" s="11"/>
       <c r="C202" s="11"/>
@@ -5483,7 +5270,7 @@
       <c r="F202" s="11"/>
       <c r="G202" s="11"/>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A203" s="11"/>
       <c r="B203" s="11"/>
       <c r="C203" s="11"/>
@@ -5492,7 +5279,7 @@
       <c r="F203" s="11"/>
       <c r="G203" s="11"/>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A204" s="11"/>
       <c r="B204" s="11"/>
       <c r="C204" s="11"/>
@@ -5501,7 +5288,7 @@
       <c r="F204" s="11"/>
       <c r="G204" s="11"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A205" s="11"/>
       <c r="B205" s="11"/>
       <c r="C205" s="11"/>
@@ -5510,25 +5297,25 @@
       <c r="F205" s="11"/>
       <c r="G205" s="11"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A206" s="11"/>
       <c r="B206" s="11"/>
-      <c r="C206" s="13"/>
+      <c r="C206" s="11"/>
       <c r="D206" s="11"/>
       <c r="E206" s="12"/>
       <c r="F206" s="11"/>
       <c r="G206" s="11"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A207" s="11"/>
       <c r="B207" s="11"/>
-      <c r="C207" s="11"/>
+      <c r="C207" s="13"/>
       <c r="D207" s="11"/>
-      <c r="E207" s="11"/>
+      <c r="E207" s="12"/>
       <c r="F207" s="11"/>
       <c r="G207" s="11"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A208" s="11"/>
       <c r="B208" s="11"/>
       <c r="C208" s="11"/>
@@ -5537,7 +5324,7 @@
       <c r="F208" s="11"/>
       <c r="G208" s="11"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A209" s="11"/>
       <c r="B209" s="11"/>
       <c r="C209" s="11"/>
@@ -5546,7 +5333,7 @@
       <c r="F209" s="11"/>
       <c r="G209" s="11"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A210" s="11"/>
       <c r="B210" s="11"/>
       <c r="C210" s="11"/>
@@ -5555,7 +5342,7 @@
       <c r="F210" s="11"/>
       <c r="G210" s="11"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A211" s="11"/>
       <c r="B211" s="11"/>
       <c r="C211" s="11"/>
@@ -5564,7 +5351,7 @@
       <c r="F211" s="11"/>
       <c r="G211" s="11"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A212" s="11"/>
       <c r="B212" s="11"/>
       <c r="C212" s="11"/>
@@ -5573,7 +5360,7 @@
       <c r="F212" s="11"/>
       <c r="G212" s="11"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A213" s="11"/>
       <c r="B213" s="11"/>
       <c r="C213" s="11"/>
@@ -5582,7 +5369,7 @@
       <c r="F213" s="11"/>
       <c r="G213" s="11"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A214" s="11"/>
       <c r="B214" s="11"/>
       <c r="C214" s="11"/>
@@ -5591,61 +5378,61 @@
       <c r="F214" s="11"/>
       <c r="G214" s="11"/>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A215" s="11"/>
       <c r="B215" s="11"/>
       <c r="C215" s="11"/>
       <c r="D215" s="11"/>
-      <c r="E215" s="12"/>
+      <c r="E215" s="11"/>
       <c r="F215" s="11"/>
       <c r="G215" s="11"/>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A216" s="11"/>
       <c r="B216" s="11"/>
       <c r="C216" s="11"/>
       <c r="D216" s="11"/>
-      <c r="E216" s="11"/>
+      <c r="E216" s="12"/>
       <c r="F216" s="11"/>
       <c r="G216" s="11"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A217" s="11"/>
       <c r="B217" s="11"/>
       <c r="C217" s="11"/>
       <c r="D217" s="11"/>
-      <c r="E217" s="12"/>
+      <c r="E217" s="11"/>
       <c r="F217" s="11"/>
       <c r="G217" s="11"/>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A218" s="11"/>
       <c r="B218" s="11"/>
       <c r="C218" s="11"/>
       <c r="D218" s="11"/>
-      <c r="E218" s="11"/>
-      <c r="F218" s="36"/>
-      <c r="G218" s="36"/>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E218" s="12"/>
+      <c r="F218" s="11"/>
+      <c r="G218" s="11"/>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A219" s="11"/>
       <c r="B219" s="11"/>
       <c r="C219" s="11"/>
       <c r="D219" s="11"/>
-      <c r="E219" s="12"/>
-      <c r="F219" s="11"/>
-      <c r="G219" s="11"/>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E219" s="11"/>
+      <c r="F219" s="34"/>
+      <c r="G219" s="34"/>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A220" s="11"/>
       <c r="B220" s="11"/>
       <c r="C220" s="11"/>
       <c r="D220" s="11"/>
-      <c r="E220" s="11"/>
+      <c r="E220" s="12"/>
       <c r="F220" s="11"/>
       <c r="G220" s="11"/>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A221" s="11"/>
       <c r="B221" s="11"/>
       <c r="C221" s="11"/>
@@ -5654,7 +5441,7 @@
       <c r="F221" s="11"/>
       <c r="G221" s="11"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A222" s="11"/>
       <c r="B222" s="11"/>
       <c r="C222" s="11"/>
@@ -5663,16 +5450,16 @@
       <c r="F222" s="11"/>
       <c r="G222" s="11"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A223" s="11"/>
       <c r="B223" s="11"/>
       <c r="C223" s="11"/>
       <c r="D223" s="11"/>
-      <c r="E223" s="12"/>
+      <c r="E223" s="11"/>
       <c r="F223" s="11"/>
       <c r="G223" s="11"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A224" s="11"/>
       <c r="B224" s="11"/>
       <c r="C224" s="11"/>
@@ -5681,7 +5468,7 @@
       <c r="F224" s="11"/>
       <c r="G224" s="11"/>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A225" s="11"/>
       <c r="B225" s="11"/>
       <c r="C225" s="11"/>
@@ -5690,7 +5477,7 @@
       <c r="F225" s="11"/>
       <c r="G225" s="11"/>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A226" s="11"/>
       <c r="B226" s="11"/>
       <c r="C226" s="11"/>
@@ -5699,7 +5486,7 @@
       <c r="F226" s="11"/>
       <c r="G226" s="11"/>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A227" s="11"/>
       <c r="B227" s="11"/>
       <c r="C227" s="11"/>
@@ -5708,7 +5495,7 @@
       <c r="F227" s="11"/>
       <c r="G227" s="11"/>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A228" s="11"/>
       <c r="B228" s="11"/>
       <c r="C228" s="11"/>
@@ -5717,7 +5504,7 @@
       <c r="F228" s="11"/>
       <c r="G228" s="11"/>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A229" s="11"/>
       <c r="B229" s="11"/>
       <c r="C229" s="11"/>
@@ -5726,7 +5513,7 @@
       <c r="F229" s="11"/>
       <c r="G229" s="11"/>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A230" s="11"/>
       <c r="B230" s="11"/>
       <c r="C230" s="11"/>
@@ -5735,7 +5522,7 @@
       <c r="F230" s="11"/>
       <c r="G230" s="11"/>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A231" s="11"/>
       <c r="B231" s="11"/>
       <c r="C231" s="11"/>
@@ -5744,43 +5531,43 @@
       <c r="F231" s="11"/>
       <c r="G231" s="11"/>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A232" s="11"/>
       <c r="B232" s="11"/>
       <c r="C232" s="11"/>
       <c r="D232" s="11"/>
-      <c r="E232" s="11"/>
+      <c r="E232" s="12"/>
       <c r="F232" s="11"/>
       <c r="G232" s="11"/>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A233" s="36"/>
-      <c r="B233" s="36"/>
-      <c r="C233" s="36"/>
-      <c r="D233" s="36"/>
-      <c r="E233" s="36"/>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A233" s="11"/>
+      <c r="B233" s="11"/>
+      <c r="C233" s="11"/>
+      <c r="D233" s="11"/>
+      <c r="E233" s="11"/>
       <c r="F233" s="11"/>
       <c r="G233" s="11"/>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A234" s="11"/>
-      <c r="B234" s="11"/>
-      <c r="C234" s="11"/>
-      <c r="D234" s="11"/>
-      <c r="E234" s="11"/>
-      <c r="F234" s="36"/>
-      <c r="G234" s="36"/>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A234" s="34"/>
+      <c r="B234" s="34"/>
+      <c r="C234" s="34"/>
+      <c r="D234" s="34"/>
+      <c r="E234" s="34"/>
+      <c r="F234" s="11"/>
+      <c r="G234" s="11"/>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A235" s="11"/>
       <c r="B235" s="11"/>
       <c r="C235" s="11"/>
       <c r="D235" s="11"/>
       <c r="E235" s="11"/>
-      <c r="F235" s="11"/>
-      <c r="G235" s="11"/>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F235" s="34"/>
+      <c r="G235" s="34"/>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A236" s="11"/>
       <c r="B236" s="11"/>
       <c r="C236" s="11"/>
@@ -5789,7 +5576,7 @@
       <c r="F236" s="11"/>
       <c r="G236" s="11"/>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A237" s="11"/>
       <c r="B237" s="11"/>
       <c r="C237" s="11"/>
@@ -5798,7 +5585,7 @@
       <c r="F237" s="11"/>
       <c r="G237" s="11"/>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A238" s="11"/>
       <c r="B238" s="11"/>
       <c r="C238" s="11"/>
@@ -5807,7 +5594,7 @@
       <c r="F238" s="11"/>
       <c r="G238" s="11"/>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A239" s="11"/>
       <c r="B239" s="11"/>
       <c r="C239" s="11"/>
@@ -5816,7 +5603,7 @@
       <c r="F239" s="11"/>
       <c r="G239" s="11"/>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A240" s="11"/>
       <c r="B240" s="11"/>
       <c r="C240" s="11"/>
@@ -5825,7 +5612,7 @@
       <c r="F240" s="11"/>
       <c r="G240" s="11"/>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A241" s="11"/>
       <c r="B241" s="11"/>
       <c r="C241" s="11"/>
@@ -5834,7 +5621,7 @@
       <c r="F241" s="11"/>
       <c r="G241" s="11"/>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A242" s="11"/>
       <c r="B242" s="11"/>
       <c r="C242" s="11"/>
@@ -5843,16 +5630,16 @@
       <c r="F242" s="11"/>
       <c r="G242" s="11"/>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A243" s="11"/>
       <c r="B243" s="11"/>
       <c r="C243" s="11"/>
       <c r="D243" s="11"/>
-      <c r="E243" s="12"/>
+      <c r="E243" s="11"/>
       <c r="F243" s="11"/>
       <c r="G243" s="11"/>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A244" s="11"/>
       <c r="B244" s="11"/>
       <c r="C244" s="11"/>
@@ -5861,7 +5648,7 @@
       <c r="F244" s="11"/>
       <c r="G244" s="11"/>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A245" s="11"/>
       <c r="B245" s="11"/>
       <c r="C245" s="11"/>
@@ -5870,7 +5657,7 @@
       <c r="F245" s="11"/>
       <c r="G245" s="11"/>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A246" s="11"/>
       <c r="B246" s="11"/>
       <c r="C246" s="11"/>
@@ -5879,7 +5666,7 @@
       <c r="F246" s="11"/>
       <c r="G246" s="11"/>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A247" s="11"/>
       <c r="B247" s="11"/>
       <c r="C247" s="11"/>
@@ -5888,52 +5675,52 @@
       <c r="F247" s="11"/>
       <c r="G247" s="11"/>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A248" s="11"/>
       <c r="B248" s="11"/>
       <c r="C248" s="11"/>
       <c r="D248" s="11"/>
-      <c r="E248" s="11"/>
+      <c r="E248" s="12"/>
       <c r="F248" s="11"/>
       <c r="G248" s="11"/>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A249" s="36"/>
-      <c r="B249" s="36"/>
-      <c r="C249" s="36"/>
-      <c r="D249" s="36"/>
-      <c r="E249" s="36"/>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A249" s="11"/>
+      <c r="B249" s="11"/>
+      <c r="C249" s="11"/>
+      <c r="D249" s="11"/>
+      <c r="E249" s="11"/>
       <c r="F249" s="11"/>
       <c r="G249" s="11"/>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A250" s="11"/>
-      <c r="B250" s="11"/>
-      <c r="C250" s="11"/>
-      <c r="D250" s="11"/>
-      <c r="E250" s="11"/>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A250" s="34"/>
+      <c r="B250" s="34"/>
+      <c r="C250" s="34"/>
+      <c r="D250" s="34"/>
+      <c r="E250" s="34"/>
       <c r="F250" s="11"/>
       <c r="G250" s="11"/>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A251" s="11"/>
       <c r="B251" s="11"/>
       <c r="C251" s="11"/>
       <c r="D251" s="11"/>
       <c r="E251" s="11"/>
-      <c r="F251" s="36"/>
-      <c r="G251" s="36"/>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F251" s="11"/>
+      <c r="G251" s="11"/>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A252" s="11"/>
       <c r="B252" s="11"/>
       <c r="C252" s="11"/>
       <c r="D252" s="11"/>
       <c r="E252" s="11"/>
-      <c r="F252" s="11"/>
-      <c r="G252" s="11"/>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F252" s="34"/>
+      <c r="G252" s="34"/>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A253" s="11"/>
       <c r="B253" s="11"/>
       <c r="C253" s="11"/>
@@ -5942,7 +5729,7 @@
       <c r="F253" s="11"/>
       <c r="G253" s="11"/>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A254" s="11"/>
       <c r="B254" s="11"/>
       <c r="C254" s="11"/>
@@ -5951,7 +5738,7 @@
       <c r="F254" s="11"/>
       <c r="G254" s="11"/>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A255" s="11"/>
       <c r="B255" s="11"/>
       <c r="C255" s="11"/>
@@ -5960,7 +5747,7 @@
       <c r="F255" s="11"/>
       <c r="G255" s="11"/>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A256" s="11"/>
       <c r="B256" s="11"/>
       <c r="C256" s="11"/>
@@ -5969,7 +5756,7 @@
       <c r="F256" s="11"/>
       <c r="G256" s="11"/>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A257" s="11"/>
       <c r="B257" s="11"/>
       <c r="C257" s="11"/>
@@ -5978,7 +5765,7 @@
       <c r="F257" s="11"/>
       <c r="G257" s="11"/>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A258" s="11"/>
       <c r="B258" s="11"/>
       <c r="C258" s="11"/>
@@ -5987,7 +5774,7 @@
       <c r="F258" s="11"/>
       <c r="G258" s="11"/>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A259" s="11"/>
       <c r="B259" s="11"/>
       <c r="C259" s="11"/>
@@ -5996,16 +5783,16 @@
       <c r="F259" s="11"/>
       <c r="G259" s="11"/>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A260" s="11"/>
       <c r="B260" s="11"/>
       <c r="C260" s="11"/>
       <c r="D260" s="11"/>
-      <c r="E260" s="12"/>
+      <c r="E260" s="11"/>
       <c r="F260" s="11"/>
       <c r="G260" s="11"/>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A261" s="11"/>
       <c r="B261" s="11"/>
       <c r="C261" s="11"/>
@@ -6014,7 +5801,7 @@
       <c r="F261" s="11"/>
       <c r="G261" s="11"/>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A262" s="11"/>
       <c r="B262" s="11"/>
       <c r="C262" s="11"/>
@@ -6023,7 +5810,7 @@
       <c r="F262" s="11"/>
       <c r="G262" s="11"/>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A263" s="11"/>
       <c r="B263" s="11"/>
       <c r="C263" s="11"/>
@@ -6032,7 +5819,7 @@
       <c r="F263" s="11"/>
       <c r="G263" s="11"/>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A264" s="11"/>
       <c r="B264" s="11"/>
       <c r="C264" s="11"/>
@@ -6041,34 +5828,34 @@
       <c r="F264" s="11"/>
       <c r="G264" s="11"/>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A265" s="11"/>
       <c r="B265" s="11"/>
       <c r="C265" s="11"/>
       <c r="D265" s="11"/>
-      <c r="E265" s="11"/>
+      <c r="E265" s="12"/>
       <c r="F265" s="11"/>
       <c r="G265" s="11"/>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A266" s="36"/>
-      <c r="B266" s="36"/>
-      <c r="C266" s="36"/>
-      <c r="D266" s="36"/>
-      <c r="E266" s="36"/>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A266" s="11"/>
+      <c r="B266" s="11"/>
+      <c r="C266" s="11"/>
+      <c r="D266" s="11"/>
+      <c r="E266" s="11"/>
       <c r="F266" s="11"/>
       <c r="G266" s="11"/>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A267" s="11"/>
-      <c r="B267" s="11"/>
-      <c r="C267" s="11"/>
-      <c r="D267" s="11"/>
-      <c r="E267" s="11"/>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A267" s="34"/>
+      <c r="B267" s="34"/>
+      <c r="C267" s="34"/>
+      <c r="D267" s="34"/>
+      <c r="E267" s="34"/>
       <c r="F267" s="11"/>
       <c r="G267" s="11"/>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A268" s="11"/>
       <c r="B268" s="11"/>
       <c r="C268" s="11"/>
@@ -6077,7 +5864,7 @@
       <c r="F268" s="11"/>
       <c r="G268" s="11"/>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A269" s="11"/>
       <c r="B269" s="11"/>
       <c r="C269" s="11"/>
@@ -6086,7 +5873,7 @@
       <c r="F269" s="11"/>
       <c r="G269" s="11"/>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A270" s="11"/>
       <c r="B270" s="11"/>
       <c r="C270" s="11"/>
@@ -6095,7 +5882,7 @@
       <c r="F270" s="11"/>
       <c r="G270" s="11"/>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A271" s="11"/>
       <c r="B271" s="11"/>
       <c r="C271" s="11"/>
@@ -6104,25 +5891,25 @@
       <c r="F271" s="11"/>
       <c r="G271" s="11"/>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A272" s="11"/>
       <c r="B272" s="11"/>
       <c r="C272" s="11"/>
       <c r="D272" s="11"/>
       <c r="E272" s="11"/>
-      <c r="F272" s="36"/>
-      <c r="G272" s="36"/>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F272" s="11"/>
+      <c r="G272" s="11"/>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A273" s="11"/>
       <c r="B273" s="11"/>
       <c r="C273" s="11"/>
       <c r="D273" s="11"/>
       <c r="E273" s="11"/>
-      <c r="F273" s="11"/>
-      <c r="G273" s="11"/>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F273" s="34"/>
+      <c r="G273" s="34"/>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A274" s="11"/>
       <c r="B274" s="11"/>
       <c r="C274" s="11"/>
@@ -6131,7 +5918,7 @@
       <c r="F274" s="11"/>
       <c r="G274" s="11"/>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A275" s="11"/>
       <c r="B275" s="11"/>
       <c r="C275" s="11"/>
@@ -6140,7 +5927,7 @@
       <c r="F275" s="11"/>
       <c r="G275" s="11"/>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A276" s="11"/>
       <c r="B276" s="11"/>
       <c r="C276" s="11"/>
@@ -6149,7 +5936,7 @@
       <c r="F276" s="11"/>
       <c r="G276" s="11"/>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A277" s="11"/>
       <c r="B277" s="11"/>
       <c r="C277" s="11"/>
@@ -6158,7 +5945,7 @@
       <c r="F277" s="11"/>
       <c r="G277" s="11"/>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A278" s="11"/>
       <c r="B278" s="11"/>
       <c r="C278" s="11"/>
@@ -6167,7 +5954,7 @@
       <c r="F278" s="11"/>
       <c r="G278" s="11"/>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A279" s="11"/>
       <c r="B279" s="11"/>
       <c r="C279" s="11"/>
@@ -6176,7 +5963,7 @@
       <c r="F279" s="11"/>
       <c r="G279" s="11"/>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A280" s="11"/>
       <c r="B280" s="11"/>
       <c r="C280" s="11"/>
@@ -6185,7 +5972,7 @@
       <c r="F280" s="11"/>
       <c r="G280" s="11"/>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A281" s="11"/>
       <c r="B281" s="11"/>
       <c r="C281" s="11"/>
@@ -6194,7 +5981,7 @@
       <c r="F281" s="11"/>
       <c r="G281" s="11"/>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A282" s="11"/>
       <c r="B282" s="11"/>
       <c r="C282" s="11"/>
@@ -6203,7 +5990,7 @@
       <c r="F282" s="11"/>
       <c r="G282" s="11"/>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A283" s="11"/>
       <c r="B283" s="11"/>
       <c r="C283" s="11"/>
@@ -6212,7 +5999,7 @@
       <c r="F283" s="11"/>
       <c r="G283" s="11"/>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A284" s="11"/>
       <c r="B284" s="11"/>
       <c r="C284" s="11"/>
@@ -6221,43 +6008,43 @@
       <c r="F284" s="11"/>
       <c r="G284" s="11"/>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A285" s="11"/>
       <c r="B285" s="11"/>
-      <c r="C285" s="13"/>
+      <c r="C285" s="11"/>
       <c r="D285" s="11"/>
       <c r="E285" s="11"/>
-      <c r="F285" s="36"/>
-      <c r="G285" s="36"/>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F285" s="11"/>
+      <c r="G285" s="11"/>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A286" s="11"/>
       <c r="B286" s="11"/>
-      <c r="C286" s="11"/>
+      <c r="C286" s="13"/>
       <c r="D286" s="11"/>
       <c r="E286" s="11"/>
-      <c r="F286" s="11"/>
-      <c r="G286" s="11"/>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A287" s="36"/>
-      <c r="B287" s="36"/>
-      <c r="C287" s="36"/>
-      <c r="D287" s="36"/>
-      <c r="E287" s="36"/>
+      <c r="F286" s="34"/>
+      <c r="G286" s="34"/>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A287" s="11"/>
+      <c r="B287" s="11"/>
+      <c r="C287" s="11"/>
+      <c r="D287" s="11"/>
+      <c r="E287" s="11"/>
       <c r="F287" s="11"/>
       <c r="G287" s="11"/>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A288" s="11"/>
-      <c r="B288" s="11"/>
-      <c r="C288" s="11"/>
-      <c r="D288" s="11"/>
-      <c r="E288" s="11"/>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A288" s="34"/>
+      <c r="B288" s="34"/>
+      <c r="C288" s="34"/>
+      <c r="D288" s="34"/>
+      <c r="E288" s="34"/>
       <c r="F288" s="11"/>
       <c r="G288" s="11"/>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A289" s="11"/>
       <c r="B289" s="11"/>
       <c r="C289" s="11"/>
@@ -6266,7 +6053,7 @@
       <c r="F289" s="11"/>
       <c r="G289" s="11"/>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A290" s="11"/>
       <c r="B290" s="11"/>
       <c r="C290" s="11"/>
@@ -6275,7 +6062,7 @@
       <c r="F290" s="11"/>
       <c r="G290" s="11"/>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A291" s="11"/>
       <c r="B291" s="11"/>
       <c r="C291" s="11"/>
@@ -6284,7 +6071,7 @@
       <c r="F291" s="11"/>
       <c r="G291" s="11"/>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A292" s="11"/>
       <c r="B292" s="11"/>
       <c r="C292" s="11"/>
@@ -6293,7 +6080,7 @@
       <c r="F292" s="11"/>
       <c r="G292" s="11"/>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A293" s="11"/>
       <c r="B293" s="11"/>
       <c r="C293" s="11"/>
@@ -6302,7 +6089,7 @@
       <c r="F293" s="11"/>
       <c r="G293" s="11"/>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A294" s="11"/>
       <c r="B294" s="11"/>
       <c r="C294" s="11"/>
@@ -6311,7 +6098,7 @@
       <c r="F294" s="11"/>
       <c r="G294" s="11"/>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A295" s="11"/>
       <c r="B295" s="11"/>
       <c r="C295" s="11"/>
@@ -6320,7 +6107,7 @@
       <c r="F295" s="11"/>
       <c r="G295" s="11"/>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A296" s="11"/>
       <c r="B296" s="11"/>
       <c r="C296" s="11"/>
@@ -6329,7 +6116,7 @@
       <c r="F296" s="11"/>
       <c r="G296" s="11"/>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A297" s="11"/>
       <c r="B297" s="11"/>
       <c r="C297" s="11"/>
@@ -6338,7 +6125,7 @@
       <c r="F297" s="11"/>
       <c r="G297" s="11"/>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A298" s="11"/>
       <c r="B298" s="11"/>
       <c r="C298" s="11"/>
@@ -6347,7 +6134,7 @@
       <c r="F298" s="11"/>
       <c r="G298" s="11"/>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A299" s="11"/>
       <c r="B299" s="11"/>
       <c r="C299" s="11"/>
@@ -6356,25 +6143,25 @@
       <c r="F299" s="11"/>
       <c r="G299" s="11"/>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A300" s="36"/>
-      <c r="B300" s="36"/>
-      <c r="C300" s="36"/>
-      <c r="D300" s="36"/>
-      <c r="E300" s="36"/>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A300" s="11"/>
+      <c r="B300" s="11"/>
+      <c r="C300" s="11"/>
+      <c r="D300" s="11"/>
+      <c r="E300" s="11"/>
       <c r="F300" s="11"/>
       <c r="G300" s="11"/>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A301" s="11"/>
-      <c r="B301" s="11"/>
-      <c r="C301" s="11"/>
-      <c r="D301" s="11"/>
-      <c r="E301" s="11"/>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A301" s="34"/>
+      <c r="B301" s="34"/>
+      <c r="C301" s="34"/>
+      <c r="D301" s="34"/>
+      <c r="E301" s="34"/>
       <c r="F301" s="11"/>
       <c r="G301" s="11"/>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A302" s="11"/>
       <c r="B302" s="11"/>
       <c r="C302" s="11"/>
@@ -6383,7 +6170,7 @@
       <c r="F302" s="11"/>
       <c r="G302" s="11"/>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A303" s="11"/>
       <c r="B303" s="11"/>
       <c r="C303" s="11"/>
@@ -6392,7 +6179,7 @@
       <c r="F303" s="11"/>
       <c r="G303" s="11"/>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A304" s="11"/>
       <c r="B304" s="11"/>
       <c r="C304" s="11"/>
@@ -6401,25 +6188,25 @@
       <c r="F304" s="11"/>
       <c r="G304" s="11"/>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A305" s="11"/>
       <c r="B305" s="11"/>
       <c r="C305" s="11"/>
       <c r="D305" s="11"/>
       <c r="E305" s="11"/>
-      <c r="F305" s="36"/>
-      <c r="G305" s="36"/>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F305" s="11"/>
+      <c r="G305" s="11"/>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A306" s="11"/>
       <c r="B306" s="11"/>
       <c r="C306" s="11"/>
       <c r="D306" s="11"/>
       <c r="E306" s="11"/>
-      <c r="F306" s="11"/>
-      <c r="G306" s="11"/>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F306" s="34"/>
+      <c r="G306" s="34"/>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A307" s="11"/>
       <c r="B307" s="11"/>
       <c r="C307" s="11"/>
@@ -6428,7 +6215,7 @@
       <c r="F307" s="11"/>
       <c r="G307" s="11"/>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A308" s="11"/>
       <c r="B308" s="11"/>
       <c r="C308" s="11"/>
@@ -6437,7 +6224,7 @@
       <c r="F308" s="11"/>
       <c r="G308" s="11"/>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A309" s="11"/>
       <c r="B309" s="11"/>
       <c r="C309" s="11"/>
@@ -6446,7 +6233,7 @@
       <c r="F309" s="11"/>
       <c r="G309" s="11"/>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A310" s="11"/>
       <c r="B310" s="11"/>
       <c r="C310" s="11"/>
@@ -6455,7 +6242,7 @@
       <c r="F310" s="11"/>
       <c r="G310" s="11"/>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A311" s="11"/>
       <c r="B311" s="11"/>
       <c r="C311" s="11"/>
@@ -6464,7 +6251,7 @@
       <c r="F311" s="11"/>
       <c r="G311" s="11"/>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A312" s="11"/>
       <c r="B312" s="11"/>
       <c r="C312" s="11"/>
@@ -6473,7 +6260,7 @@
       <c r="F312" s="11"/>
       <c r="G312" s="11"/>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A313" s="11"/>
       <c r="B313" s="11"/>
       <c r="C313" s="11"/>
@@ -6482,7 +6269,7 @@
       <c r="F313" s="11"/>
       <c r="G313" s="11"/>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A314" s="11"/>
       <c r="B314" s="11"/>
       <c r="C314" s="11"/>
@@ -6491,7 +6278,7 @@
       <c r="F314" s="11"/>
       <c r="G314" s="11"/>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A315" s="11"/>
       <c r="B315" s="11"/>
       <c r="C315" s="11"/>
@@ -6500,7 +6287,7 @@
       <c r="F315" s="11"/>
       <c r="G315" s="11"/>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A316" s="11"/>
       <c r="B316" s="11"/>
       <c r="C316" s="11"/>
@@ -6509,7 +6296,7 @@
       <c r="F316" s="11"/>
       <c r="G316" s="11"/>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A317" s="11"/>
       <c r="B317" s="11"/>
       <c r="C317" s="11"/>
@@ -6518,7 +6305,7 @@
       <c r="F317" s="11"/>
       <c r="G317" s="11"/>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A318" s="11"/>
       <c r="B318" s="11"/>
       <c r="C318" s="11"/>
@@ -6527,7 +6314,7 @@
       <c r="F318" s="11"/>
       <c r="G318" s="11"/>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A319" s="11"/>
       <c r="B319" s="11"/>
       <c r="C319" s="11"/>
@@ -6536,25 +6323,25 @@
       <c r="F319" s="11"/>
       <c r="G319" s="11"/>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A320" s="36"/>
-      <c r="B320" s="36"/>
-      <c r="C320" s="36"/>
-      <c r="D320" s="36"/>
-      <c r="E320" s="36"/>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A320" s="11"/>
+      <c r="B320" s="11"/>
+      <c r="C320" s="11"/>
+      <c r="D320" s="11"/>
+      <c r="E320" s="11"/>
       <c r="F320" s="11"/>
       <c r="G320" s="11"/>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A321" s="11"/>
-      <c r="B321" s="11"/>
-      <c r="C321" s="11"/>
-      <c r="D321" s="11"/>
-      <c r="E321" s="11"/>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A321" s="34"/>
+      <c r="B321" s="34"/>
+      <c r="C321" s="34"/>
+      <c r="D321" s="34"/>
+      <c r="E321" s="34"/>
       <c r="F321" s="11"/>
       <c r="G321" s="11"/>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A322" s="11"/>
       <c r="B322" s="11"/>
       <c r="C322" s="11"/>
@@ -6563,7 +6350,7 @@
       <c r="F322" s="11"/>
       <c r="G322" s="11"/>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A323" s="11"/>
       <c r="B323" s="11"/>
       <c r="C323" s="11"/>
@@ -6572,7 +6359,7 @@
       <c r="F323" s="11"/>
       <c r="G323" s="11"/>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A324" s="11"/>
       <c r="B324" s="11"/>
       <c r="C324" s="11"/>
@@ -6581,7 +6368,7 @@
       <c r="F324" s="11"/>
       <c r="G324" s="11"/>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A325" s="11"/>
       <c r="B325" s="11"/>
       <c r="C325" s="11"/>
@@ -6590,7 +6377,7 @@
       <c r="F325" s="11"/>
       <c r="G325" s="11"/>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A326" s="11"/>
       <c r="B326" s="11"/>
       <c r="C326" s="11"/>
@@ -6599,7 +6386,7 @@
       <c r="F326" s="11"/>
       <c r="G326" s="11"/>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A327" s="11"/>
       <c r="B327" s="11"/>
       <c r="C327" s="11"/>
@@ -6608,7 +6395,7 @@
       <c r="F327" s="11"/>
       <c r="G327" s="11"/>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A328" s="11"/>
       <c r="B328" s="11"/>
       <c r="C328" s="11"/>
@@ -6617,7 +6404,7 @@
       <c r="F328" s="11"/>
       <c r="G328" s="11"/>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A329" s="11"/>
       <c r="B329" s="11"/>
       <c r="C329" s="11"/>
@@ -6626,7 +6413,7 @@
       <c r="F329" s="11"/>
       <c r="G329" s="11"/>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A330" s="11"/>
       <c r="B330" s="11"/>
       <c r="C330" s="11"/>
@@ -6635,7 +6422,7 @@
       <c r="F330" s="11"/>
       <c r="G330" s="11"/>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A331" s="11"/>
       <c r="B331" s="11"/>
       <c r="C331" s="11"/>
@@ -6644,7 +6431,7 @@
       <c r="F331" s="11"/>
       <c r="G331" s="11"/>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A332" s="11"/>
       <c r="B332" s="11"/>
       <c r="C332" s="11"/>
@@ -6653,16 +6440,16 @@
       <c r="F332" s="11"/>
       <c r="G332" s="11"/>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A333" s="11"/>
       <c r="B333" s="11"/>
       <c r="C333" s="11"/>
       <c r="D333" s="11"/>
-      <c r="E333" s="12"/>
+      <c r="E333" s="11"/>
       <c r="F333" s="11"/>
       <c r="G333" s="11"/>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A334" s="11"/>
       <c r="B334" s="11"/>
       <c r="C334" s="11"/>
@@ -6671,7 +6458,7 @@
       <c r="F334" s="11"/>
       <c r="G334" s="11"/>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A335" s="11"/>
       <c r="B335" s="11"/>
       <c r="C335" s="11"/>
@@ -6680,7 +6467,7 @@
       <c r="F335" s="11"/>
       <c r="G335" s="11"/>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A336" s="11"/>
       <c r="B336" s="11"/>
       <c r="C336" s="11"/>
@@ -6689,7 +6476,7 @@
       <c r="F336" s="11"/>
       <c r="G336" s="11"/>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A337" s="11"/>
       <c r="B337" s="11"/>
       <c r="C337" s="11"/>
@@ -6698,7 +6485,7 @@
       <c r="F337" s="11"/>
       <c r="G337" s="11"/>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A338" s="11"/>
       <c r="B338" s="11"/>
       <c r="C338" s="11"/>
@@ -6707,34 +6494,34 @@
       <c r="F338" s="11"/>
       <c r="G338" s="11"/>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A339" s="11"/>
       <c r="B339" s="11"/>
       <c r="C339" s="11"/>
       <c r="D339" s="11"/>
-      <c r="E339" s="11"/>
+      <c r="E339" s="12"/>
       <c r="F339" s="11"/>
       <c r="G339" s="11"/>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A340" s="11"/>
       <c r="B340" s="11"/>
       <c r="C340" s="11"/>
       <c r="D340" s="11"/>
       <c r="E340" s="11"/>
-      <c r="F340" s="36"/>
-      <c r="G340" s="36"/>
-    </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F340" s="11"/>
+      <c r="G340" s="11"/>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A341" s="11"/>
       <c r="B341" s="11"/>
       <c r="C341" s="11"/>
       <c r="D341" s="11"/>
       <c r="E341" s="11"/>
-      <c r="F341" s="11"/>
-      <c r="G341" s="11"/>
-    </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F341" s="34"/>
+      <c r="G341" s="34"/>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A342" s="11"/>
       <c r="B342" s="11"/>
       <c r="C342" s="11"/>
@@ -6743,7 +6530,7 @@
       <c r="F342" s="11"/>
       <c r="G342" s="11"/>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A343" s="11"/>
       <c r="B343" s="11"/>
       <c r="C343" s="11"/>
@@ -6752,7 +6539,7 @@
       <c r="F343" s="11"/>
       <c r="G343" s="11"/>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A344" s="11"/>
       <c r="B344" s="11"/>
       <c r="C344" s="11"/>
@@ -6761,7 +6548,7 @@
       <c r="F344" s="11"/>
       <c r="G344" s="11"/>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A345" s="11"/>
       <c r="B345" s="11"/>
       <c r="C345" s="11"/>
@@ -6770,7 +6557,7 @@
       <c r="F345" s="11"/>
       <c r="G345" s="11"/>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A346" s="11"/>
       <c r="B346" s="11"/>
       <c r="C346" s="11"/>
@@ -6779,7 +6566,7 @@
       <c r="F346" s="11"/>
       <c r="G346" s="11"/>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A347" s="11"/>
       <c r="B347" s="11"/>
       <c r="C347" s="11"/>
@@ -6788,7 +6575,7 @@
       <c r="F347" s="11"/>
       <c r="G347" s="11"/>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A348" s="11"/>
       <c r="B348" s="11"/>
       <c r="C348" s="11"/>
@@ -6797,7 +6584,7 @@
       <c r="F348" s="11"/>
       <c r="G348" s="11"/>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A349" s="11"/>
       <c r="B349" s="11"/>
       <c r="C349" s="11"/>
@@ -6806,7 +6593,7 @@
       <c r="F349" s="11"/>
       <c r="G349" s="11"/>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A350" s="11"/>
       <c r="B350" s="11"/>
       <c r="C350" s="11"/>
@@ -6815,25 +6602,25 @@
       <c r="F350" s="11"/>
       <c r="G350" s="11"/>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A351" s="11"/>
       <c r="B351" s="11"/>
       <c r="C351" s="11"/>
       <c r="D351" s="11"/>
-      <c r="E351" s="12"/>
+      <c r="E351" s="11"/>
       <c r="F351" s="11"/>
       <c r="G351" s="11"/>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A352" s="11"/>
       <c r="B352" s="11"/>
       <c r="C352" s="11"/>
       <c r="D352" s="11"/>
-      <c r="E352" s="11"/>
+      <c r="E352" s="12"/>
       <c r="F352" s="11"/>
       <c r="G352" s="11"/>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A353" s="11"/>
       <c r="B353" s="11"/>
       <c r="C353" s="11"/>
@@ -6842,7 +6629,7 @@
       <c r="F353" s="11"/>
       <c r="G353" s="11"/>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A354" s="11"/>
       <c r="B354" s="11"/>
       <c r="C354" s="11"/>
@@ -6851,25 +6638,25 @@
       <c r="F354" s="11"/>
       <c r="G354" s="11"/>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A355" s="36"/>
-      <c r="B355" s="36"/>
-      <c r="C355" s="36"/>
-      <c r="D355" s="36"/>
-      <c r="E355" s="36"/>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A355" s="11"/>
+      <c r="B355" s="11"/>
+      <c r="C355" s="11"/>
+      <c r="D355" s="11"/>
+      <c r="E355" s="11"/>
       <c r="F355" s="11"/>
       <c r="G355" s="11"/>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A356" s="11"/>
-      <c r="B356" s="11"/>
-      <c r="C356" s="11"/>
-      <c r="D356" s="11"/>
-      <c r="E356" s="11"/>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A356" s="34"/>
+      <c r="B356" s="34"/>
+      <c r="C356" s="34"/>
+      <c r="D356" s="34"/>
+      <c r="E356" s="34"/>
       <c r="F356" s="11"/>
       <c r="G356" s="11"/>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A357" s="11"/>
       <c r="B357" s="11"/>
       <c r="C357" s="11"/>
@@ -6878,7 +6665,7 @@
       <c r="F357" s="11"/>
       <c r="G357" s="11"/>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A358" s="11"/>
       <c r="B358" s="11"/>
       <c r="C358" s="11"/>
@@ -6887,7 +6674,7 @@
       <c r="F358" s="11"/>
       <c r="G358" s="11"/>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A359" s="11"/>
       <c r="B359" s="11"/>
       <c r="C359" s="11"/>
@@ -6896,25 +6683,25 @@
       <c r="F359" s="11"/>
       <c r="G359" s="11"/>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A360" s="11"/>
       <c r="B360" s="11"/>
       <c r="C360" s="11"/>
       <c r="D360" s="11"/>
       <c r="E360" s="11"/>
-      <c r="F360" s="36"/>
-      <c r="G360" s="36"/>
-    </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F360" s="11"/>
+      <c r="G360" s="11"/>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A361" s="11"/>
       <c r="B361" s="11"/>
       <c r="C361" s="11"/>
       <c r="D361" s="11"/>
       <c r="E361" s="11"/>
-      <c r="F361" s="11"/>
-      <c r="G361" s="11"/>
-    </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F361" s="34"/>
+      <c r="G361" s="34"/>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A362" s="11"/>
       <c r="B362" s="11"/>
       <c r="C362" s="11"/>
@@ -6923,7 +6710,7 @@
       <c r="F362" s="11"/>
       <c r="G362" s="11"/>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A363" s="11"/>
       <c r="B363" s="11"/>
       <c r="C363" s="11"/>
@@ -6932,7 +6719,7 @@
       <c r="F363" s="11"/>
       <c r="G363" s="11"/>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A364" s="11"/>
       <c r="B364" s="11"/>
       <c r="C364" s="11"/>
@@ -6941,7 +6728,7 @@
       <c r="F364" s="11"/>
       <c r="G364" s="11"/>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A365" s="11"/>
       <c r="B365" s="11"/>
       <c r="C365" s="11"/>
@@ -6950,7 +6737,7 @@
       <c r="F365" s="11"/>
       <c r="G365" s="11"/>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A366" s="11"/>
       <c r="B366" s="11"/>
       <c r="C366" s="11"/>
@@ -6959,16 +6746,16 @@
       <c r="F366" s="11"/>
       <c r="G366" s="11"/>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A367" s="11"/>
       <c r="B367" s="11"/>
       <c r="C367" s="11"/>
       <c r="D367" s="11"/>
-      <c r="E367" s="12"/>
+      <c r="E367" s="11"/>
       <c r="F367" s="11"/>
       <c r="G367" s="11"/>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A368" s="11"/>
       <c r="B368" s="11"/>
       <c r="C368" s="11"/>
@@ -6977,7 +6764,7 @@
       <c r="F368" s="11"/>
       <c r="G368" s="11"/>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A369" s="11"/>
       <c r="B369" s="11"/>
       <c r="C369" s="11"/>
@@ -6986,7 +6773,7 @@
       <c r="F369" s="11"/>
       <c r="G369" s="11"/>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A370" s="11"/>
       <c r="B370" s="11"/>
       <c r="C370" s="11"/>
@@ -6995,7 +6782,7 @@
       <c r="F370" s="11"/>
       <c r="G370" s="11"/>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A371" s="11"/>
       <c r="B371" s="11"/>
       <c r="C371" s="11"/>
@@ -7004,25 +6791,25 @@
       <c r="F371" s="11"/>
       <c r="G371" s="11"/>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A372" s="11"/>
       <c r="B372" s="11"/>
       <c r="C372" s="11"/>
       <c r="D372" s="11"/>
-      <c r="E372" s="11"/>
-      <c r="F372" s="36"/>
-      <c r="G372" s="36"/>
-    </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E372" s="12"/>
+      <c r="F372" s="11"/>
+      <c r="G372" s="11"/>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A373" s="11"/>
       <c r="B373" s="11"/>
       <c r="C373" s="11"/>
       <c r="D373" s="11"/>
       <c r="E373" s="11"/>
-      <c r="F373" s="11"/>
-      <c r="G373" s="11"/>
-    </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F373" s="34"/>
+      <c r="G373" s="34"/>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A374" s="11"/>
       <c r="B374" s="11"/>
       <c r="C374" s="11"/>
@@ -7031,25 +6818,25 @@
       <c r="F374" s="11"/>
       <c r="G374" s="11"/>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A375" s="36"/>
-      <c r="B375" s="36"/>
-      <c r="C375" s="36"/>
-      <c r="D375" s="36"/>
-      <c r="E375" s="36"/>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A375" s="11"/>
+      <c r="B375" s="11"/>
+      <c r="C375" s="11"/>
+      <c r="D375" s="11"/>
+      <c r="E375" s="11"/>
       <c r="F375" s="11"/>
       <c r="G375" s="11"/>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A376" s="11"/>
-      <c r="B376" s="11"/>
-      <c r="C376" s="11"/>
-      <c r="D376" s="11"/>
-      <c r="E376" s="11"/>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A376" s="34"/>
+      <c r="B376" s="34"/>
+      <c r="C376" s="34"/>
+      <c r="D376" s="34"/>
+      <c r="E376" s="34"/>
       <c r="F376" s="11"/>
       <c r="G376" s="11"/>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A377" s="11"/>
       <c r="B377" s="11"/>
       <c r="C377" s="11"/>
@@ -7058,7 +6845,7 @@
       <c r="F377" s="11"/>
       <c r="G377" s="11"/>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A378" s="11"/>
       <c r="B378" s="11"/>
       <c r="C378" s="11"/>
@@ -7067,7 +6854,7 @@
       <c r="F378" s="11"/>
       <c r="G378" s="11"/>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A379" s="11"/>
       <c r="B379" s="11"/>
       <c r="C379" s="11"/>
@@ -7076,7 +6863,7 @@
       <c r="F379" s="11"/>
       <c r="G379" s="11"/>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A380" s="11"/>
       <c r="B380" s="11"/>
       <c r="C380" s="11"/>
@@ -7085,7 +6872,7 @@
       <c r="F380" s="11"/>
       <c r="G380" s="11"/>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A381" s="11"/>
       <c r="B381" s="11"/>
       <c r="C381" s="11"/>
@@ -7094,7 +6881,7 @@
       <c r="F381" s="11"/>
       <c r="G381" s="11"/>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A382" s="11"/>
       <c r="B382" s="11"/>
       <c r="C382" s="11"/>
@@ -7103,7 +6890,7 @@
       <c r="F382" s="11"/>
       <c r="G382" s="11"/>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A383" s="11"/>
       <c r="B383" s="11"/>
       <c r="C383" s="11"/>
@@ -7112,7 +6899,7 @@
       <c r="F383" s="11"/>
       <c r="G383" s="11"/>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A384" s="11"/>
       <c r="B384" s="11"/>
       <c r="C384" s="11"/>
@@ -7121,7 +6908,7 @@
       <c r="F384" s="11"/>
       <c r="G384" s="11"/>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A385" s="11"/>
       <c r="B385" s="11"/>
       <c r="C385" s="11"/>
@@ -7130,7 +6917,7 @@
       <c r="F385" s="11"/>
       <c r="G385" s="11"/>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A386" s="11"/>
       <c r="B386" s="11"/>
       <c r="C386" s="11"/>
@@ -7139,25 +6926,25 @@
       <c r="F386" s="11"/>
       <c r="G386" s="11"/>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A387" s="36"/>
-      <c r="B387" s="36"/>
-      <c r="C387" s="36"/>
-      <c r="D387" s="36"/>
-      <c r="E387" s="36"/>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A387" s="11"/>
+      <c r="B387" s="11"/>
+      <c r="C387" s="11"/>
+      <c r="D387" s="11"/>
+      <c r="E387" s="11"/>
       <c r="F387" s="11"/>
       <c r="G387" s="11"/>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A388" s="11"/>
-      <c r="B388" s="11"/>
-      <c r="C388" s="11"/>
-      <c r="D388" s="11"/>
-      <c r="E388" s="11"/>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A388" s="34"/>
+      <c r="B388" s="34"/>
+      <c r="C388" s="34"/>
+      <c r="D388" s="34"/>
+      <c r="E388" s="34"/>
       <c r="F388" s="11"/>
       <c r="G388" s="11"/>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A389" s="11"/>
       <c r="B389" s="11"/>
       <c r="C389" s="11"/>
@@ -7166,7 +6953,7 @@
       <c r="F389" s="11"/>
       <c r="G389" s="11"/>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A390" s="11"/>
       <c r="B390" s="11"/>
       <c r="C390" s="11"/>
@@ -7175,7 +6962,7 @@
       <c r="F390" s="11"/>
       <c r="G390" s="11"/>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A391" s="11"/>
       <c r="B391" s="11"/>
       <c r="C391" s="11"/>
@@ -7184,7 +6971,7 @@
       <c r="F391" s="11"/>
       <c r="G391" s="11"/>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A392" s="11"/>
       <c r="B392" s="11"/>
       <c r="C392" s="11"/>
@@ -7193,25 +6980,25 @@
       <c r="F392" s="11"/>
       <c r="G392" s="11"/>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A393" s="11"/>
       <c r="B393" s="11"/>
       <c r="C393" s="11"/>
       <c r="D393" s="11"/>
       <c r="E393" s="11"/>
-      <c r="F393" s="36"/>
-      <c r="G393" s="36"/>
-    </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F393" s="11"/>
+      <c r="G393" s="11"/>
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A394" s="11"/>
       <c r="B394" s="11"/>
       <c r="C394" s="11"/>
       <c r="D394" s="11"/>
       <c r="E394" s="11"/>
-      <c r="F394" s="11"/>
-      <c r="G394" s="11"/>
-    </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F394" s="34"/>
+      <c r="G394" s="34"/>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A395" s="11"/>
       <c r="B395" s="11"/>
       <c r="C395" s="11"/>
@@ -7220,7 +7007,7 @@
       <c r="F395" s="11"/>
       <c r="G395" s="11"/>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A396" s="11"/>
       <c r="B396" s="11"/>
       <c r="C396" s="11"/>
@@ -7229,7 +7016,7 @@
       <c r="F396" s="11"/>
       <c r="G396" s="11"/>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A397" s="11"/>
       <c r="B397" s="11"/>
       <c r="C397" s="11"/>
@@ -7238,7 +7025,7 @@
       <c r="F397" s="11"/>
       <c r="G397" s="11"/>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A398" s="11"/>
       <c r="B398" s="11"/>
       <c r="C398" s="11"/>
@@ -7247,7 +7034,7 @@
       <c r="F398" s="11"/>
       <c r="G398" s="11"/>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A399" s="11"/>
       <c r="B399" s="11"/>
       <c r="C399" s="11"/>
@@ -7256,7 +7043,7 @@
       <c r="F399" s="11"/>
       <c r="G399" s="11"/>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A400" s="11"/>
       <c r="B400" s="11"/>
       <c r="C400" s="11"/>
@@ -7265,7 +7052,7 @@
       <c r="F400" s="11"/>
       <c r="G400" s="11"/>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A401" s="11"/>
       <c r="B401" s="11"/>
       <c r="C401" s="11"/>
@@ -7274,7 +7061,7 @@
       <c r="F401" s="11"/>
       <c r="G401" s="11"/>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A402" s="11"/>
       <c r="B402" s="11"/>
       <c r="C402" s="11"/>
@@ -7283,7 +7070,7 @@
       <c r="F402" s="11"/>
       <c r="G402" s="11"/>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A403" s="11"/>
       <c r="B403" s="11"/>
       <c r="C403" s="11"/>
@@ -7292,7 +7079,7 @@
       <c r="F403" s="11"/>
       <c r="G403" s="11"/>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A404" s="11"/>
       <c r="B404" s="11"/>
       <c r="C404" s="11"/>
@@ -7301,7 +7088,7 @@
       <c r="F404" s="11"/>
       <c r="G404" s="11"/>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A405" s="11"/>
       <c r="B405" s="11"/>
       <c r="C405" s="11"/>
@@ -7310,7 +7097,7 @@
       <c r="F405" s="11"/>
       <c r="G405" s="11"/>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A406" s="11"/>
       <c r="B406" s="11"/>
       <c r="C406" s="11"/>
@@ -7319,7 +7106,7 @@
       <c r="F406" s="11"/>
       <c r="G406" s="11"/>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A407" s="11"/>
       <c r="B407" s="11"/>
       <c r="C407" s="11"/>
@@ -7328,25 +7115,25 @@
       <c r="F407" s="11"/>
       <c r="G407" s="11"/>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A408" s="36"/>
-      <c r="B408" s="36"/>
-      <c r="C408" s="36"/>
-      <c r="D408" s="36"/>
-      <c r="E408" s="36"/>
+    <row r="408" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A408" s="11"/>
+      <c r="B408" s="11"/>
+      <c r="C408" s="11"/>
+      <c r="D408" s="11"/>
+      <c r="E408" s="11"/>
       <c r="F408" s="11"/>
       <c r="G408" s="11"/>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A409" s="11"/>
-      <c r="B409" s="11"/>
-      <c r="C409" s="11"/>
-      <c r="D409" s="11"/>
-      <c r="E409" s="11"/>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A409" s="34"/>
+      <c r="B409" s="34"/>
+      <c r="C409" s="34"/>
+      <c r="D409" s="34"/>
+      <c r="E409" s="34"/>
       <c r="F409" s="11"/>
       <c r="G409" s="11"/>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A410" s="11"/>
       <c r="B410" s="11"/>
       <c r="C410" s="11"/>
@@ -7355,7 +7142,7 @@
       <c r="F410" s="11"/>
       <c r="G410" s="11"/>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A411" s="11"/>
       <c r="B411" s="11"/>
       <c r="C411" s="11"/>
@@ -7364,7 +7151,7 @@
       <c r="F411" s="11"/>
       <c r="G411" s="11"/>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A412" s="11"/>
       <c r="B412" s="11"/>
       <c r="C412" s="11"/>
@@ -7373,7 +7160,7 @@
       <c r="F412" s="11"/>
       <c r="G412" s="11"/>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A413" s="11"/>
       <c r="B413" s="11"/>
       <c r="C413" s="11"/>
@@ -7382,7 +7169,7 @@
       <c r="F413" s="11"/>
       <c r="G413" s="11"/>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A414" s="11"/>
       <c r="B414" s="11"/>
       <c r="C414" s="11"/>
@@ -7391,7 +7178,7 @@
       <c r="F414" s="11"/>
       <c r="G414" s="11"/>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A415" s="11"/>
       <c r="B415" s="11"/>
       <c r="C415" s="11"/>
@@ -7400,7 +7187,7 @@
       <c r="F415" s="11"/>
       <c r="G415" s="11"/>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A416" s="11"/>
       <c r="B416" s="11"/>
       <c r="C416" s="11"/>
@@ -7409,7 +7196,7 @@
       <c r="F416" s="11"/>
       <c r="G416" s="11"/>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A417" s="11"/>
       <c r="B417" s="11"/>
       <c r="C417" s="11"/>
@@ -7418,7 +7205,7 @@
       <c r="F417" s="11"/>
       <c r="G417" s="11"/>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A418" s="11"/>
       <c r="B418" s="11"/>
       <c r="C418" s="11"/>
@@ -7427,7 +7214,7 @@
       <c r="F418" s="11"/>
       <c r="G418" s="11"/>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A419" s="11"/>
       <c r="B419" s="11"/>
       <c r="C419" s="11"/>
@@ -7436,7 +7223,7 @@
       <c r="F419" s="11"/>
       <c r="G419" s="11"/>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A420" s="11"/>
       <c r="B420" s="11"/>
       <c r="C420" s="11"/>
@@ -7445,25 +7232,25 @@
       <c r="F420" s="11"/>
       <c r="G420" s="11"/>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A421" s="11"/>
       <c r="B421" s="11"/>
       <c r="C421" s="11"/>
       <c r="D421" s="11"/>
       <c r="E421" s="11"/>
-      <c r="F421" s="36"/>
-      <c r="G421" s="36"/>
-    </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F421" s="11"/>
+      <c r="G421" s="11"/>
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A422" s="11"/>
       <c r="B422" s="11"/>
       <c r="C422" s="11"/>
       <c r="D422" s="11"/>
       <c r="E422" s="11"/>
-      <c r="F422" s="11"/>
-      <c r="G422" s="11"/>
-    </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F422" s="34"/>
+      <c r="G422" s="34"/>
+    </row>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A423" s="11"/>
       <c r="B423" s="11"/>
       <c r="C423" s="11"/>
@@ -7472,7 +7259,7 @@
       <c r="F423" s="11"/>
       <c r="G423" s="11"/>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A424" s="11"/>
       <c r="B424" s="11"/>
       <c r="C424" s="11"/>
@@ -7481,7 +7268,7 @@
       <c r="F424" s="11"/>
       <c r="G424" s="11"/>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A425" s="11"/>
       <c r="B425" s="11"/>
       <c r="C425" s="11"/>
@@ -7490,7 +7277,7 @@
       <c r="F425" s="11"/>
       <c r="G425" s="11"/>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A426" s="11"/>
       <c r="B426" s="11"/>
       <c r="C426" s="11"/>
@@ -7499,16 +7286,16 @@
       <c r="F426" s="11"/>
       <c r="G426" s="11"/>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A427" s="11"/>
       <c r="B427" s="11"/>
       <c r="C427" s="11"/>
       <c r="D427" s="11"/>
-      <c r="E427" s="12"/>
+      <c r="E427" s="11"/>
       <c r="F427" s="11"/>
       <c r="G427" s="11"/>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A428" s="11"/>
       <c r="B428" s="11"/>
       <c r="C428" s="11"/>
@@ -7517,16 +7304,16 @@
       <c r="F428" s="11"/>
       <c r="G428" s="11"/>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A429" s="11"/>
       <c r="B429" s="11"/>
       <c r="C429" s="11"/>
       <c r="D429" s="11"/>
-      <c r="E429" s="11"/>
+      <c r="E429" s="12"/>
       <c r="F429" s="11"/>
       <c r="G429" s="11"/>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A430" s="11"/>
       <c r="B430" s="11"/>
       <c r="C430" s="11"/>
@@ -7535,7 +7322,7 @@
       <c r="F430" s="11"/>
       <c r="G430" s="11"/>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A431" s="11"/>
       <c r="B431" s="11"/>
       <c r="C431" s="11"/>
@@ -7544,7 +7331,7 @@
       <c r="F431" s="11"/>
       <c r="G431" s="11"/>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A432" s="11"/>
       <c r="B432" s="11"/>
       <c r="C432" s="11"/>
@@ -7553,7 +7340,7 @@
       <c r="F432" s="11"/>
       <c r="G432" s="11"/>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A433" s="11"/>
       <c r="B433" s="11"/>
       <c r="C433" s="11"/>
@@ -7562,7 +7349,7 @@
       <c r="F433" s="11"/>
       <c r="G433" s="11"/>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A434" s="11"/>
       <c r="B434" s="11"/>
       <c r="C434" s="11"/>
@@ -7571,7 +7358,7 @@
       <c r="F434" s="11"/>
       <c r="G434" s="11"/>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A435" s="11"/>
       <c r="B435" s="11"/>
       <c r="C435" s="11"/>
@@ -7580,25 +7367,25 @@
       <c r="F435" s="11"/>
       <c r="G435" s="11"/>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A436" s="36"/>
-      <c r="B436" s="36"/>
-      <c r="C436" s="36"/>
-      <c r="D436" s="36"/>
-      <c r="E436" s="36"/>
+    <row r="436" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A436" s="11"/>
+      <c r="B436" s="11"/>
+      <c r="C436" s="11"/>
+      <c r="D436" s="11"/>
+      <c r="E436" s="11"/>
       <c r="F436" s="11"/>
       <c r="G436" s="11"/>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A437" s="11"/>
-      <c r="B437" s="11"/>
-      <c r="C437" s="11"/>
-      <c r="D437" s="11"/>
-      <c r="E437" s="11"/>
+    <row r="437" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A437" s="34"/>
+      <c r="B437" s="34"/>
+      <c r="C437" s="34"/>
+      <c r="D437" s="34"/>
+      <c r="E437" s="34"/>
       <c r="F437" s="11"/>
       <c r="G437" s="11"/>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A438" s="11"/>
       <c r="B438" s="11"/>
       <c r="C438" s="11"/>
@@ -7607,7 +7394,7 @@
       <c r="F438" s="11"/>
       <c r="G438" s="11"/>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A439" s="11"/>
       <c r="B439" s="11"/>
       <c r="C439" s="11"/>
@@ -7616,7 +7403,7 @@
       <c r="F439" s="11"/>
       <c r="G439" s="11"/>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A440" s="11"/>
       <c r="B440" s="11"/>
       <c r="C440" s="11"/>
@@ -7625,7 +7412,7 @@
       <c r="F440" s="11"/>
       <c r="G440" s="11"/>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A441" s="11"/>
       <c r="B441" s="11"/>
       <c r="C441" s="11"/>
@@ -7634,7 +7421,7 @@
       <c r="F441" s="11"/>
       <c r="G441" s="11"/>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A442" s="11"/>
       <c r="B442" s="11"/>
       <c r="C442" s="11"/>
@@ -7643,7 +7430,7 @@
       <c r="F442" s="11"/>
       <c r="G442" s="11"/>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A443" s="11"/>
       <c r="B443" s="11"/>
       <c r="C443" s="11"/>
@@ -7652,7 +7439,7 @@
       <c r="F443" s="11"/>
       <c r="G443" s="11"/>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A444" s="11"/>
       <c r="B444" s="11"/>
       <c r="C444" s="11"/>
@@ -7661,7 +7448,7 @@
       <c r="F444" s="11"/>
       <c r="G444" s="11"/>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A445" s="11"/>
       <c r="B445" s="11"/>
       <c r="C445" s="11"/>
@@ -7670,7 +7457,7 @@
       <c r="F445" s="11"/>
       <c r="G445" s="11"/>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A446" s="11"/>
       <c r="B446" s="11"/>
       <c r="C446" s="11"/>
@@ -7679,7 +7466,7 @@
       <c r="F446" s="11"/>
       <c r="G446" s="11"/>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A447" s="11"/>
       <c r="B447" s="11"/>
       <c r="C447" s="11"/>
@@ -7688,16 +7475,16 @@
       <c r="F447" s="11"/>
       <c r="G447" s="11"/>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A448" s="11"/>
       <c r="B448" s="11"/>
       <c r="C448" s="11"/>
       <c r="D448" s="11"/>
       <c r="E448" s="11"/>
-      <c r="F448" s="12"/>
+      <c r="F448" s="11"/>
       <c r="G448" s="11"/>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A449" s="11"/>
       <c r="B449" s="11"/>
       <c r="C449" s="11"/>
@@ -7706,7 +7493,7 @@
       <c r="F449" s="12"/>
       <c r="G449" s="11"/>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A450" s="11"/>
       <c r="B450" s="11"/>
       <c r="C450" s="11"/>
@@ -7715,7 +7502,7 @@
       <c r="F450" s="12"/>
       <c r="G450" s="11"/>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A451" s="11"/>
       <c r="B451" s="11"/>
       <c r="C451" s="11"/>
@@ -7724,7 +7511,7 @@
       <c r="F451" s="12"/>
       <c r="G451" s="11"/>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A452" s="11"/>
       <c r="B452" s="11"/>
       <c r="C452" s="11"/>
@@ -7733,7 +7520,7 @@
       <c r="F452" s="12"/>
       <c r="G452" s="11"/>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A453" s="11"/>
       <c r="B453" s="11"/>
       <c r="C453" s="11"/>
@@ -7742,25 +7529,25 @@
       <c r="F453" s="12"/>
       <c r="G453" s="11"/>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A454" s="11"/>
       <c r="B454" s="11"/>
       <c r="C454" s="11"/>
       <c r="D454" s="11"/>
       <c r="E454" s="11"/>
-      <c r="F454" s="36"/>
-      <c r="G454" s="36"/>
-    </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F454" s="12"/>
+      <c r="G454" s="11"/>
+    </row>
+    <row r="455" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A455" s="11"/>
       <c r="B455" s="11"/>
       <c r="C455" s="11"/>
       <c r="D455" s="11"/>
       <c r="E455" s="11"/>
-      <c r="F455" s="11"/>
-      <c r="G455" s="11"/>
-    </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F455" s="34"/>
+      <c r="G455" s="34"/>
+    </row>
+    <row r="456" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A456" s="11"/>
       <c r="B456" s="11"/>
       <c r="C456" s="11"/>
@@ -7769,7 +7556,7 @@
       <c r="F456" s="11"/>
       <c r="G456" s="11"/>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A457" s="11"/>
       <c r="B457" s="11"/>
       <c r="C457" s="11"/>
@@ -7778,7 +7565,7 @@
       <c r="F457" s="11"/>
       <c r="G457" s="11"/>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A458" s="11"/>
       <c r="B458" s="11"/>
       <c r="C458" s="11"/>
@@ -7787,7 +7574,7 @@
       <c r="F458" s="11"/>
       <c r="G458" s="11"/>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A459" s="11"/>
       <c r="B459" s="11"/>
       <c r="C459" s="11"/>
@@ -7796,7 +7583,7 @@
       <c r="F459" s="11"/>
       <c r="G459" s="11"/>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A460" s="11"/>
       <c r="B460" s="11"/>
       <c r="C460" s="11"/>
@@ -7805,7 +7592,7 @@
       <c r="F460" s="11"/>
       <c r="G460" s="11"/>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A461" s="11"/>
       <c r="B461" s="11"/>
       <c r="C461" s="11"/>
@@ -7814,7 +7601,7 @@
       <c r="F461" s="11"/>
       <c r="G461" s="11"/>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A462" s="11"/>
       <c r="B462" s="11"/>
       <c r="C462" s="11"/>
@@ -7823,7 +7610,7 @@
       <c r="F462" s="11"/>
       <c r="G462" s="11"/>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A463" s="11"/>
       <c r="B463" s="11"/>
       <c r="C463" s="11"/>
@@ -7832,7 +7619,7 @@
       <c r="F463" s="11"/>
       <c r="G463" s="11"/>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A464" s="11"/>
       <c r="B464" s="11"/>
       <c r="C464" s="11"/>
@@ -7841,7 +7628,7 @@
       <c r="F464" s="11"/>
       <c r="G464" s="11"/>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A465" s="11"/>
       <c r="B465" s="11"/>
       <c r="C465" s="11"/>
@@ -7850,7 +7637,7 @@
       <c r="F465" s="11"/>
       <c r="G465" s="11"/>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A466" s="11"/>
       <c r="B466" s="11"/>
       <c r="C466" s="11"/>
@@ -7859,7 +7646,7 @@
       <c r="F466" s="11"/>
       <c r="G466" s="11"/>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A467" s="11"/>
       <c r="B467" s="11"/>
       <c r="C467" s="11"/>
@@ -7868,7 +7655,7 @@
       <c r="F467" s="11"/>
       <c r="G467" s="11"/>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A468" s="11"/>
       <c r="B468" s="11"/>
       <c r="C468" s="11"/>
@@ -7877,25 +7664,25 @@
       <c r="F468" s="11"/>
       <c r="G468" s="11"/>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A469" s="36"/>
-      <c r="B469" s="36"/>
-      <c r="C469" s="36"/>
-      <c r="D469" s="36"/>
-      <c r="E469" s="36"/>
+    <row r="469" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A469" s="11"/>
+      <c r="B469" s="11"/>
+      <c r="C469" s="11"/>
+      <c r="D469" s="11"/>
+      <c r="E469" s="11"/>
       <c r="F469" s="11"/>
       <c r="G469" s="11"/>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A470" s="11"/>
-      <c r="B470" s="11"/>
-      <c r="C470" s="11"/>
-      <c r="D470" s="11"/>
-      <c r="E470" s="11"/>
+    <row r="470" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A470" s="34"/>
+      <c r="B470" s="34"/>
+      <c r="C470" s="34"/>
+      <c r="D470" s="34"/>
+      <c r="E470" s="34"/>
       <c r="F470" s="11"/>
       <c r="G470" s="11"/>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A471" s="11"/>
       <c r="B471" s="11"/>
       <c r="C471" s="11"/>
@@ -7904,7 +7691,7 @@
       <c r="F471" s="11"/>
       <c r="G471" s="11"/>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A472" s="11"/>
       <c r="B472" s="11"/>
       <c r="C472" s="11"/>
@@ -7913,7 +7700,7 @@
       <c r="F472" s="11"/>
       <c r="G472" s="11"/>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A473" s="11"/>
       <c r="B473" s="11"/>
       <c r="C473" s="11"/>
@@ -7922,7 +7709,7 @@
       <c r="F473" s="11"/>
       <c r="G473" s="11"/>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A474" s="11"/>
       <c r="B474" s="11"/>
       <c r="C474" s="11"/>
@@ -7931,7 +7718,7 @@
       <c r="F474" s="11"/>
       <c r="G474" s="11"/>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A475" s="11"/>
       <c r="B475" s="11"/>
       <c r="C475" s="11"/>
@@ -7940,7 +7727,7 @@
       <c r="F475" s="11"/>
       <c r="G475" s="11"/>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A476" s="11"/>
       <c r="B476" s="11"/>
       <c r="C476" s="11"/>
@@ -7949,7 +7736,7 @@
       <c r="F476" s="11"/>
       <c r="G476" s="11"/>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A477" s="11"/>
       <c r="B477" s="11"/>
       <c r="C477" s="11"/>
@@ -7958,7 +7745,7 @@
       <c r="F477" s="11"/>
       <c r="G477" s="11"/>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A478" s="11"/>
       <c r="B478" s="11"/>
       <c r="C478" s="11"/>
@@ -7967,7 +7754,7 @@
       <c r="F478" s="11"/>
       <c r="G478" s="11"/>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A479" s="11"/>
       <c r="B479" s="11"/>
       <c r="C479" s="11"/>
@@ -7976,7 +7763,7 @@
       <c r="F479" s="11"/>
       <c r="G479" s="11"/>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A480" s="11"/>
       <c r="B480" s="11"/>
       <c r="C480" s="11"/>
@@ -7985,7 +7772,7 @@
       <c r="F480" s="11"/>
       <c r="G480" s="11"/>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A481" s="11"/>
       <c r="B481" s="11"/>
       <c r="C481" s="11"/>
@@ -7994,7 +7781,7 @@
       <c r="F481" s="11"/>
       <c r="G481" s="11"/>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A482" s="11"/>
       <c r="B482" s="11"/>
       <c r="C482" s="11"/>
@@ -8003,7 +7790,7 @@
       <c r="F482" s="11"/>
       <c r="G482" s="11"/>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A483" s="11"/>
       <c r="B483" s="11"/>
       <c r="C483" s="11"/>
@@ -8012,7 +7799,7 @@
       <c r="F483" s="11"/>
       <c r="G483" s="11"/>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A484" s="11"/>
       <c r="B484" s="11"/>
       <c r="C484" s="11"/>
@@ -8021,7 +7808,7 @@
       <c r="F484" s="11"/>
       <c r="G484" s="11"/>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A485" s="11"/>
       <c r="B485" s="11"/>
       <c r="C485" s="11"/>
@@ -8030,7 +7817,7 @@
       <c r="F485" s="11"/>
       <c r="G485" s="11"/>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A486" s="11"/>
       <c r="B486" s="11"/>
       <c r="C486" s="11"/>
@@ -8039,7 +7826,7 @@
       <c r="F486" s="11"/>
       <c r="G486" s="11"/>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A487" s="11"/>
       <c r="B487" s="11"/>
       <c r="C487" s="11"/>
@@ -8048,7 +7835,7 @@
       <c r="F487" s="11"/>
       <c r="G487" s="11"/>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A488" s="11"/>
       <c r="B488" s="11"/>
       <c r="C488" s="11"/>
@@ -8057,7 +7844,7 @@
       <c r="F488" s="11"/>
       <c r="G488" s="11"/>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A489" s="11"/>
       <c r="B489" s="11"/>
       <c r="C489" s="11"/>
@@ -8066,7 +7853,7 @@
       <c r="F489" s="11"/>
       <c r="G489" s="11"/>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A490" s="11"/>
       <c r="B490" s="11"/>
       <c r="C490" s="11"/>
@@ -8075,7 +7862,7 @@
       <c r="F490" s="11"/>
       <c r="G490" s="11"/>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A491" s="11"/>
       <c r="B491" s="11"/>
       <c r="C491" s="11"/>
@@ -8084,25 +7871,25 @@
       <c r="F491" s="11"/>
       <c r="G491" s="11"/>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A492" s="11"/>
       <c r="B492" s="11"/>
       <c r="C492" s="11"/>
       <c r="D492" s="11"/>
       <c r="E492" s="11"/>
-      <c r="F492" s="36"/>
-      <c r="G492" s="36"/>
-    </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F492" s="11"/>
+      <c r="G492" s="11"/>
+    </row>
+    <row r="493" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A493" s="11"/>
       <c r="B493" s="11"/>
       <c r="C493" s="11"/>
       <c r="D493" s="11"/>
       <c r="E493" s="11"/>
-      <c r="F493" s="11"/>
-      <c r="G493" s="11"/>
-    </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F493" s="34"/>
+      <c r="G493" s="34"/>
+    </row>
+    <row r="494" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A494" s="11"/>
       <c r="B494" s="11"/>
       <c r="C494" s="11"/>
@@ -8111,7 +7898,7 @@
       <c r="F494" s="11"/>
       <c r="G494" s="11"/>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A495" s="11"/>
       <c r="B495" s="11"/>
       <c r="C495" s="11"/>
@@ -8120,7 +7907,7 @@
       <c r="F495" s="11"/>
       <c r="G495" s="11"/>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A496" s="11"/>
       <c r="B496" s="11"/>
       <c r="C496" s="11"/>
@@ -8129,7 +7916,7 @@
       <c r="F496" s="11"/>
       <c r="G496" s="11"/>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A497" s="11"/>
       <c r="B497" s="11"/>
       <c r="C497" s="11"/>
@@ -8138,7 +7925,7 @@
       <c r="F497" s="11"/>
       <c r="G497" s="11"/>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A498" s="11"/>
       <c r="B498" s="11"/>
       <c r="C498" s="11"/>
@@ -8147,7 +7934,7 @@
       <c r="F498" s="11"/>
       <c r="G498" s="11"/>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A499" s="11"/>
       <c r="B499" s="11"/>
       <c r="C499" s="11"/>
@@ -8156,7 +7943,7 @@
       <c r="F499" s="11"/>
       <c r="G499" s="11"/>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A500" s="11"/>
       <c r="B500" s="11"/>
       <c r="C500" s="11"/>
@@ -8165,7 +7952,7 @@
       <c r="F500" s="11"/>
       <c r="G500" s="11"/>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A501" s="11"/>
       <c r="B501" s="11"/>
       <c r="C501" s="11"/>
@@ -8174,7 +7961,7 @@
       <c r="F501" s="11"/>
       <c r="G501" s="11"/>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A502" s="11"/>
       <c r="B502" s="11"/>
       <c r="C502" s="11"/>
@@ -8183,7 +7970,7 @@
       <c r="F502" s="11"/>
       <c r="G502" s="11"/>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A503" s="11"/>
       <c r="B503" s="11"/>
       <c r="C503" s="11"/>
@@ -8192,7 +7979,7 @@
       <c r="F503" s="11"/>
       <c r="G503" s="11"/>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A504" s="11"/>
       <c r="B504" s="11"/>
       <c r="C504" s="11"/>
@@ -8201,7 +7988,7 @@
       <c r="F504" s="11"/>
       <c r="G504" s="11"/>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A505" s="11"/>
       <c r="B505" s="11"/>
       <c r="C505" s="11"/>
@@ -8210,7 +7997,7 @@
       <c r="F505" s="11"/>
       <c r="G505" s="11"/>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A506" s="11"/>
       <c r="B506" s="11"/>
       <c r="C506" s="11"/>
@@ -8219,25 +8006,25 @@
       <c r="F506" s="11"/>
       <c r="G506" s="11"/>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A507" s="36"/>
-      <c r="B507" s="36"/>
-      <c r="C507" s="36"/>
-      <c r="D507" s="36"/>
-      <c r="E507" s="36"/>
+    <row r="507" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A507" s="11"/>
+      <c r="B507" s="11"/>
+      <c r="C507" s="11"/>
+      <c r="D507" s="11"/>
+      <c r="E507" s="11"/>
       <c r="F507" s="11"/>
       <c r="G507" s="11"/>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A508" s="11"/>
-      <c r="B508" s="11"/>
-      <c r="C508" s="11"/>
-      <c r="D508" s="11"/>
-      <c r="E508" s="11"/>
+    <row r="508" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A508" s="34"/>
+      <c r="B508" s="34"/>
+      <c r="C508" s="34"/>
+      <c r="D508" s="34"/>
+      <c r="E508" s="34"/>
       <c r="F508" s="11"/>
       <c r="G508" s="11"/>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A509" s="11"/>
       <c r="B509" s="11"/>
       <c r="C509" s="11"/>
@@ -8246,7 +8033,7 @@
       <c r="F509" s="11"/>
       <c r="G509" s="11"/>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A510" s="11"/>
       <c r="B510" s="11"/>
       <c r="C510" s="11"/>
@@ -8255,7 +8042,7 @@
       <c r="F510" s="11"/>
       <c r="G510" s="11"/>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A511" s="11"/>
       <c r="B511" s="11"/>
       <c r="C511" s="11"/>
@@ -8264,7 +8051,7 @@
       <c r="F511" s="11"/>
       <c r="G511" s="11"/>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A512" s="11"/>
       <c r="B512" s="11"/>
       <c r="C512" s="11"/>
@@ -8273,7 +8060,7 @@
       <c r="F512" s="11"/>
       <c r="G512" s="11"/>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A513" s="11"/>
       <c r="B513" s="11"/>
       <c r="C513" s="11"/>
@@ -8282,7 +8069,7 @@
       <c r="F513" s="11"/>
       <c r="G513" s="11"/>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A514" s="11"/>
       <c r="B514" s="11"/>
       <c r="C514" s="11"/>
@@ -8291,7 +8078,7 @@
       <c r="F514" s="11"/>
       <c r="G514" s="11"/>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A515" s="11"/>
       <c r="B515" s="11"/>
       <c r="C515" s="11"/>
@@ -8300,7 +8087,7 @@
       <c r="F515" s="11"/>
       <c r="G515" s="11"/>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A516" s="11"/>
       <c r="B516" s="11"/>
       <c r="C516" s="11"/>
@@ -8309,7 +8096,7 @@
       <c r="F516" s="11"/>
       <c r="G516" s="11"/>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A517" s="11"/>
       <c r="B517" s="11"/>
       <c r="C517" s="11"/>
@@ -8318,7 +8105,7 @@
       <c r="F517" s="11"/>
       <c r="G517" s="11"/>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A518" s="11"/>
       <c r="B518" s="11"/>
       <c r="C518" s="11"/>
@@ -8327,7 +8114,7 @@
       <c r="F518" s="11"/>
       <c r="G518" s="11"/>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A519" s="11"/>
       <c r="B519" s="11"/>
       <c r="C519" s="11"/>
@@ -8336,7 +8123,7 @@
       <c r="F519" s="11"/>
       <c r="G519" s="11"/>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A520" s="11"/>
       <c r="B520" s="11"/>
       <c r="C520" s="11"/>
@@ -8345,7 +8132,7 @@
       <c r="F520" s="11"/>
       <c r="G520" s="11"/>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A521" s="11"/>
       <c r="B521" s="11"/>
       <c r="C521" s="11"/>
@@ -8354,7 +8141,7 @@
       <c r="F521" s="11"/>
       <c r="G521" s="11"/>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A522" s="11"/>
       <c r="B522" s="11"/>
       <c r="C522" s="11"/>
@@ -8363,7 +8150,7 @@
       <c r="F522" s="11"/>
       <c r="G522" s="11"/>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A523" s="11"/>
       <c r="B523" s="11"/>
       <c r="C523" s="11"/>
@@ -8372,7 +8159,7 @@
       <c r="F523" s="11"/>
       <c r="G523" s="11"/>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A524" s="11"/>
       <c r="B524" s="11"/>
       <c r="C524" s="11"/>
@@ -8381,7 +8168,7 @@
       <c r="F524" s="11"/>
       <c r="G524" s="11"/>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A525" s="11"/>
       <c r="B525" s="11"/>
       <c r="C525" s="11"/>
@@ -8390,7 +8177,7 @@
       <c r="F525" s="11"/>
       <c r="G525" s="11"/>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A526" s="11"/>
       <c r="B526" s="11"/>
       <c r="C526" s="11"/>
@@ -8399,7 +8186,7 @@
       <c r="F526" s="11"/>
       <c r="G526" s="11"/>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A527" s="11"/>
       <c r="B527" s="11"/>
       <c r="C527" s="11"/>
@@ -8408,25 +8195,25 @@
       <c r="F527" s="11"/>
       <c r="G527" s="11"/>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A528" s="11"/>
       <c r="B528" s="11"/>
       <c r="C528" s="11"/>
       <c r="D528" s="11"/>
       <c r="E528" s="11"/>
-      <c r="F528" s="36"/>
-      <c r="G528" s="36"/>
-    </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F528" s="11"/>
+      <c r="G528" s="11"/>
+    </row>
+    <row r="529" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A529" s="11"/>
       <c r="B529" s="11"/>
       <c r="C529" s="11"/>
       <c r="D529" s="11"/>
       <c r="E529" s="11"/>
-      <c r="F529" s="11"/>
-      <c r="G529" s="11"/>
-    </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F529" s="34"/>
+      <c r="G529" s="34"/>
+    </row>
+    <row r="530" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A530" s="11"/>
       <c r="B530" s="11"/>
       <c r="C530" s="11"/>
@@ -8435,7 +8222,7 @@
       <c r="F530" s="11"/>
       <c r="G530" s="11"/>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A531" s="11"/>
       <c r="B531" s="11"/>
       <c r="C531" s="11"/>
@@ -8444,7 +8231,7 @@
       <c r="F531" s="11"/>
       <c r="G531" s="11"/>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A532" s="11"/>
       <c r="B532" s="11"/>
       <c r="C532" s="11"/>
@@ -8453,7 +8240,7 @@
       <c r="F532" s="11"/>
       <c r="G532" s="11"/>
     </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A533" s="11"/>
       <c r="B533" s="11"/>
       <c r="C533" s="11"/>
@@ -8462,7 +8249,7 @@
       <c r="F533" s="11"/>
       <c r="G533" s="11"/>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A534" s="11"/>
       <c r="B534" s="11"/>
       <c r="C534" s="11"/>
@@ -8471,7 +8258,7 @@
       <c r="F534" s="11"/>
       <c r="G534" s="11"/>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A535" s="11"/>
       <c r="B535" s="11"/>
       <c r="C535" s="11"/>
@@ -8480,7 +8267,7 @@
       <c r="F535" s="11"/>
       <c r="G535" s="11"/>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A536" s="11"/>
       <c r="B536" s="11"/>
       <c r="C536" s="11"/>
@@ -8489,7 +8276,7 @@
       <c r="F536" s="11"/>
       <c r="G536" s="11"/>
     </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A537" s="11"/>
       <c r="B537" s="11"/>
       <c r="C537" s="11"/>
@@ -8498,7 +8285,7 @@
       <c r="F537" s="11"/>
       <c r="G537" s="11"/>
     </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A538" s="11"/>
       <c r="B538" s="11"/>
       <c r="C538" s="11"/>
@@ -8507,7 +8294,7 @@
       <c r="F538" s="11"/>
       <c r="G538" s="11"/>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A539" s="11"/>
       <c r="B539" s="11"/>
       <c r="C539" s="11"/>
@@ -8516,7 +8303,7 @@
       <c r="F539" s="11"/>
       <c r="G539" s="11"/>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A540" s="11"/>
       <c r="B540" s="11"/>
       <c r="C540" s="11"/>
@@ -8525,7 +8312,7 @@
       <c r="F540" s="11"/>
       <c r="G540" s="11"/>
     </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A541" s="11"/>
       <c r="B541" s="11"/>
       <c r="C541" s="11"/>
@@ -8534,7 +8321,7 @@
       <c r="F541" s="11"/>
       <c r="G541" s="11"/>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A542" s="11"/>
       <c r="B542" s="11"/>
       <c r="C542" s="11"/>
@@ -8543,25 +8330,25 @@
       <c r="F542" s="11"/>
       <c r="G542" s="11"/>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A543" s="36"/>
-      <c r="B543" s="36"/>
-      <c r="C543" s="36"/>
-      <c r="D543" s="36"/>
-      <c r="E543" s="36"/>
+    <row r="543" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A543" s="11"/>
+      <c r="B543" s="11"/>
+      <c r="C543" s="11"/>
+      <c r="D543" s="11"/>
+      <c r="E543" s="11"/>
       <c r="F543" s="11"/>
       <c r="G543" s="11"/>
     </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A544" s="11"/>
-      <c r="B544" s="11"/>
-      <c r="C544" s="11"/>
-      <c r="D544" s="11"/>
-      <c r="E544" s="11"/>
+    <row r="544" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A544" s="34"/>
+      <c r="B544" s="34"/>
+      <c r="C544" s="34"/>
+      <c r="D544" s="34"/>
+      <c r="E544" s="34"/>
       <c r="F544" s="11"/>
       <c r="G544" s="11"/>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A545" s="11"/>
       <c r="B545" s="11"/>
       <c r="C545" s="11"/>
@@ -8570,7 +8357,7 @@
       <c r="F545" s="11"/>
       <c r="G545" s="11"/>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A546" s="11"/>
       <c r="B546" s="11"/>
       <c r="C546" s="11"/>
@@ -8579,7 +8366,7 @@
       <c r="F546" s="11"/>
       <c r="G546" s="11"/>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A547" s="11"/>
       <c r="B547" s="11"/>
       <c r="C547" s="11"/>
@@ -8588,7 +8375,7 @@
       <c r="F547" s="11"/>
       <c r="G547" s="11"/>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A548" s="11"/>
       <c r="B548" s="11"/>
       <c r="C548" s="11"/>
@@ -8597,7 +8384,7 @@
       <c r="F548" s="11"/>
       <c r="G548" s="11"/>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A549" s="11"/>
       <c r="B549" s="11"/>
       <c r="C549" s="11"/>
@@ -8606,7 +8393,7 @@
       <c r="F549" s="11"/>
       <c r="G549" s="11"/>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A550" s="11"/>
       <c r="B550" s="11"/>
       <c r="C550" s="11"/>
@@ -8615,7 +8402,7 @@
       <c r="F550" s="11"/>
       <c r="G550" s="11"/>
     </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A551" s="11"/>
       <c r="B551" s="11"/>
       <c r="C551" s="11"/>
@@ -8624,7 +8411,7 @@
       <c r="F551" s="11"/>
       <c r="G551" s="11"/>
     </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A552" s="11"/>
       <c r="B552" s="11"/>
       <c r="C552" s="11"/>
@@ -8633,7 +8420,7 @@
       <c r="F552" s="11"/>
       <c r="G552" s="11"/>
     </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A553" s="11"/>
       <c r="B553" s="11"/>
       <c r="C553" s="11"/>
@@ -8642,7 +8429,7 @@
       <c r="F553" s="11"/>
       <c r="G553" s="11"/>
     </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A554" s="11"/>
       <c r="B554" s="11"/>
       <c r="C554" s="11"/>
@@ -8651,7 +8438,7 @@
       <c r="F554" s="11"/>
       <c r="G554" s="11"/>
     </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A555" s="11"/>
       <c r="B555" s="11"/>
       <c r="C555" s="11"/>
@@ -8660,7 +8447,7 @@
       <c r="F555" s="11"/>
       <c r="G555" s="11"/>
     </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A556" s="11"/>
       <c r="B556" s="11"/>
       <c r="C556" s="11"/>
@@ -8669,25 +8456,25 @@
       <c r="F556" s="11"/>
       <c r="G556" s="11"/>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A557" s="11"/>
       <c r="B557" s="11"/>
       <c r="C557" s="11"/>
       <c r="D557" s="11"/>
       <c r="E557" s="11"/>
-      <c r="F557" s="36"/>
-      <c r="G557" s="36"/>
-    </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F557" s="11"/>
+      <c r="G557" s="11"/>
+    </row>
+    <row r="558" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A558" s="11"/>
       <c r="B558" s="11"/>
       <c r="C558" s="11"/>
       <c r="D558" s="11"/>
       <c r="E558" s="11"/>
-      <c r="F558" s="11"/>
-      <c r="G558" s="11"/>
-    </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F558" s="34"/>
+      <c r="G558" s="34"/>
+    </row>
+    <row r="559" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A559" s="11"/>
       <c r="B559" s="11"/>
       <c r="C559" s="11"/>
@@ -8696,7 +8483,7 @@
       <c r="F559" s="11"/>
       <c r="G559" s="11"/>
     </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A560" s="11"/>
       <c r="B560" s="11"/>
       <c r="C560" s="11"/>
@@ -8705,7 +8492,7 @@
       <c r="F560" s="11"/>
       <c r="G560" s="11"/>
     </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A561" s="11"/>
       <c r="B561" s="11"/>
       <c r="C561" s="11"/>
@@ -8714,7 +8501,7 @@
       <c r="F561" s="11"/>
       <c r="G561" s="11"/>
     </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A562" s="11"/>
       <c r="B562" s="11"/>
       <c r="C562" s="11"/>
@@ -8723,7 +8510,7 @@
       <c r="F562" s="11"/>
       <c r="G562" s="11"/>
     </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A563" s="11"/>
       <c r="B563" s="11"/>
       <c r="C563" s="11"/>
@@ -8732,7 +8519,7 @@
       <c r="F563" s="11"/>
       <c r="G563" s="11"/>
     </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A564" s="11"/>
       <c r="B564" s="11"/>
       <c r="C564" s="11"/>
@@ -8741,7 +8528,7 @@
       <c r="F564" s="11"/>
       <c r="G564" s="11"/>
     </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A565" s="11"/>
       <c r="B565" s="11"/>
       <c r="C565" s="11"/>
@@ -8750,7 +8537,7 @@
       <c r="F565" s="11"/>
       <c r="G565" s="11"/>
     </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A566" s="11"/>
       <c r="B566" s="11"/>
       <c r="C566" s="11"/>
@@ -8759,7 +8546,7 @@
       <c r="F566" s="11"/>
       <c r="G566" s="11"/>
     </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A567" s="11"/>
       <c r="B567" s="11"/>
       <c r="C567" s="11"/>
@@ -8768,7 +8555,7 @@
       <c r="F567" s="11"/>
       <c r="G567" s="11"/>
     </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A568" s="11"/>
       <c r="B568" s="11"/>
       <c r="C568" s="11"/>
@@ -8777,7 +8564,7 @@
       <c r="F568" s="11"/>
       <c r="G568" s="11"/>
     </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A569" s="11"/>
       <c r="B569" s="11"/>
       <c r="C569" s="11"/>
@@ -8786,7 +8573,7 @@
       <c r="F569" s="11"/>
       <c r="G569" s="11"/>
     </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A570" s="11"/>
       <c r="B570" s="11"/>
       <c r="C570" s="11"/>
@@ -8795,7 +8582,7 @@
       <c r="F570" s="11"/>
       <c r="G570" s="11"/>
     </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A571" s="11"/>
       <c r="B571" s="11"/>
       <c r="C571" s="11"/>
@@ -8804,25 +8591,25 @@
       <c r="F571" s="11"/>
       <c r="G571" s="11"/>
     </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A572" s="36"/>
-      <c r="B572" s="36"/>
-      <c r="C572" s="36"/>
-      <c r="D572" s="36"/>
-      <c r="E572" s="36"/>
+    <row r="572" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A572" s="11"/>
+      <c r="B572" s="11"/>
+      <c r="C572" s="11"/>
+      <c r="D572" s="11"/>
+      <c r="E572" s="11"/>
       <c r="F572" s="11"/>
       <c r="G572" s="11"/>
     </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A573" s="11"/>
-      <c r="B573" s="11"/>
-      <c r="C573" s="11"/>
-      <c r="D573" s="11"/>
-      <c r="E573" s="11"/>
+    <row r="573" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A573" s="34"/>
+      <c r="B573" s="34"/>
+      <c r="C573" s="34"/>
+      <c r="D573" s="34"/>
+      <c r="E573" s="34"/>
       <c r="F573" s="11"/>
       <c r="G573" s="11"/>
     </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A574" s="11"/>
       <c r="B574" s="11"/>
       <c r="C574" s="11"/>
@@ -8831,7 +8618,7 @@
       <c r="F574" s="11"/>
       <c r="G574" s="11"/>
     </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A575" s="11"/>
       <c r="B575" s="11"/>
       <c r="C575" s="11"/>
@@ -8840,7 +8627,7 @@
       <c r="F575" s="11"/>
       <c r="G575" s="11"/>
     </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A576" s="11"/>
       <c r="B576" s="11"/>
       <c r="C576" s="11"/>
@@ -8849,25 +8636,25 @@
       <c r="F576" s="11"/>
       <c r="G576" s="11"/>
     </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A577" s="11"/>
       <c r="B577" s="11"/>
       <c r="C577" s="11"/>
       <c r="D577" s="11"/>
       <c r="E577" s="11"/>
-      <c r="F577" s="36"/>
-      <c r="G577" s="36"/>
-    </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F577" s="11"/>
+      <c r="G577" s="11"/>
+    </row>
+    <row r="578" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A578" s="11"/>
       <c r="B578" s="11"/>
       <c r="C578" s="11"/>
       <c r="D578" s="11"/>
       <c r="E578" s="11"/>
-      <c r="F578" s="11"/>
-      <c r="G578" s="11"/>
-    </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F578" s="34"/>
+      <c r="G578" s="34"/>
+    </row>
+    <row r="579" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A579" s="11"/>
       <c r="B579" s="11"/>
       <c r="C579" s="11"/>
@@ -8876,7 +8663,7 @@
       <c r="F579" s="11"/>
       <c r="G579" s="11"/>
     </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A580" s="11"/>
       <c r="B580" s="11"/>
       <c r="C580" s="11"/>
@@ -8885,7 +8672,7 @@
       <c r="F580" s="11"/>
       <c r="G580" s="11"/>
     </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A581" s="11"/>
       <c r="B581" s="11"/>
       <c r="C581" s="11"/>
@@ -8894,7 +8681,7 @@
       <c r="F581" s="11"/>
       <c r="G581" s="11"/>
     </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A582" s="11"/>
       <c r="B582" s="11"/>
       <c r="C582" s="11"/>
@@ -8903,16 +8690,16 @@
       <c r="F582" s="11"/>
       <c r="G582" s="11"/>
     </row>
-    <row r="583" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A583" s="11"/>
       <c r="B583" s="11"/>
       <c r="C583" s="11"/>
       <c r="D583" s="11"/>
-      <c r="E583" s="12"/>
+      <c r="E583" s="11"/>
       <c r="F583" s="11"/>
       <c r="G583" s="11"/>
     </row>
-    <row r="584" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A584" s="11"/>
       <c r="B584" s="11"/>
       <c r="C584" s="11"/>
@@ -8921,7 +8708,7 @@
       <c r="F584" s="11"/>
       <c r="G584" s="11"/>
     </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A585" s="11"/>
       <c r="B585" s="11"/>
       <c r="C585" s="11"/>
@@ -8930,7 +8717,7 @@
       <c r="F585" s="11"/>
       <c r="G585" s="11"/>
     </row>
-    <row r="586" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A586" s="11"/>
       <c r="B586" s="11"/>
       <c r="C586" s="11"/>
@@ -8939,16 +8726,16 @@
       <c r="F586" s="11"/>
       <c r="G586" s="11"/>
     </row>
-    <row r="587" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A587" s="11"/>
       <c r="B587" s="11"/>
       <c r="C587" s="11"/>
       <c r="D587" s="11"/>
-      <c r="E587" s="11"/>
+      <c r="E587" s="12"/>
       <c r="F587" s="11"/>
       <c r="G587" s="11"/>
     </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A588" s="11"/>
       <c r="B588" s="11"/>
       <c r="C588" s="11"/>
@@ -8957,7 +8744,7 @@
       <c r="F588" s="11"/>
       <c r="G588" s="11"/>
     </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A589" s="11"/>
       <c r="B589" s="11"/>
       <c r="C589" s="11"/>
@@ -8966,7 +8753,7 @@
       <c r="F589" s="11"/>
       <c r="G589" s="11"/>
     </row>
-    <row r="590" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A590" s="11"/>
       <c r="B590" s="11"/>
       <c r="C590" s="11"/>
@@ -8975,7 +8762,7 @@
       <c r="F590" s="11"/>
       <c r="G590" s="11"/>
     </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A591" s="11"/>
       <c r="B591" s="11"/>
       <c r="C591" s="11"/>
@@ -8984,25 +8771,25 @@
       <c r="F591" s="11"/>
       <c r="G591" s="11"/>
     </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A592" s="36"/>
-      <c r="B592" s="36"/>
-      <c r="C592" s="36"/>
-      <c r="D592" s="36"/>
-      <c r="E592" s="36"/>
+    <row r="592" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A592" s="11"/>
+      <c r="B592" s="11"/>
+      <c r="C592" s="11"/>
+      <c r="D592" s="11"/>
+      <c r="E592" s="11"/>
       <c r="F592" s="11"/>
       <c r="G592" s="11"/>
     </row>
-    <row r="593" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A593" s="11"/>
-      <c r="B593" s="11"/>
-      <c r="C593" s="11"/>
-      <c r="D593" s="11"/>
-      <c r="E593" s="11"/>
+    <row r="593" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A593" s="34"/>
+      <c r="B593" s="34"/>
+      <c r="C593" s="34"/>
+      <c r="D593" s="34"/>
+      <c r="E593" s="34"/>
       <c r="F593" s="11"/>
       <c r="G593" s="11"/>
     </row>
-    <row r="594" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A594" s="11"/>
       <c r="B594" s="11"/>
       <c r="C594" s="11"/>
@@ -9011,7 +8798,7 @@
       <c r="F594" s="11"/>
       <c r="G594" s="11"/>
     </row>
-    <row r="595" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A595" s="11"/>
       <c r="B595" s="11"/>
       <c r="C595" s="11"/>
@@ -9020,7 +8807,7 @@
       <c r="F595" s="11"/>
       <c r="G595" s="11"/>
     </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A596" s="11"/>
       <c r="B596" s="11"/>
       <c r="C596" s="11"/>
@@ -9029,7 +8816,7 @@
       <c r="F596" s="11"/>
       <c r="G596" s="11"/>
     </row>
-    <row r="597" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A597" s="11"/>
       <c r="B597" s="11"/>
       <c r="C597" s="11"/>
@@ -9038,7 +8825,7 @@
       <c r="F597" s="11"/>
       <c r="G597" s="11"/>
     </row>
-    <row r="598" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A598" s="11"/>
       <c r="B598" s="11"/>
       <c r="C598" s="11"/>
@@ -9047,7 +8834,7 @@
       <c r="F598" s="11"/>
       <c r="G598" s="11"/>
     </row>
-    <row r="599" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A599" s="11"/>
       <c r="B599" s="11"/>
       <c r="C599" s="11"/>
@@ -9056,34 +8843,34 @@
       <c r="F599" s="11"/>
       <c r="G599" s="11"/>
     </row>
-    <row r="600" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A600" s="11"/>
       <c r="B600" s="11"/>
       <c r="C600" s="11"/>
       <c r="D600" s="11"/>
       <c r="E600" s="11"/>
-      <c r="F600" s="36"/>
-      <c r="G600" s="36"/>
-    </row>
-    <row r="601" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F600" s="11"/>
+      <c r="G600" s="11"/>
+    </row>
+    <row r="601" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A601" s="11"/>
       <c r="B601" s="11"/>
       <c r="C601" s="11"/>
       <c r="D601" s="11"/>
       <c r="E601" s="11"/>
-      <c r="F601" s="36"/>
-      <c r="G601" s="36"/>
-    </row>
-    <row r="602" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F601" s="34"/>
+      <c r="G601" s="34"/>
+    </row>
+    <row r="602" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A602" s="11"/>
       <c r="B602" s="11"/>
       <c r="C602" s="11"/>
       <c r="D602" s="11"/>
       <c r="E602" s="11"/>
-      <c r="F602" s="11"/>
-      <c r="G602" s="11"/>
-    </row>
-    <row r="603" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F602" s="34"/>
+      <c r="G602" s="34"/>
+    </row>
+    <row r="603" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A603" s="11"/>
       <c r="B603" s="11"/>
       <c r="C603" s="11"/>
@@ -9092,7 +8879,7 @@
       <c r="F603" s="11"/>
       <c r="G603" s="11"/>
     </row>
-    <row r="604" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A604" s="11"/>
       <c r="B604" s="11"/>
       <c r="C604" s="11"/>
@@ -9101,7 +8888,7 @@
       <c r="F604" s="11"/>
       <c r="G604" s="11"/>
     </row>
-    <row r="605" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A605" s="11"/>
       <c r="B605" s="11"/>
       <c r="C605" s="11"/>
@@ -9110,7 +8897,7 @@
       <c r="F605" s="11"/>
       <c r="G605" s="11"/>
     </row>
-    <row r="606" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A606" s="11"/>
       <c r="B606" s="11"/>
       <c r="C606" s="11"/>
@@ -9119,7 +8906,7 @@
       <c r="F606" s="11"/>
       <c r="G606" s="11"/>
     </row>
-    <row r="607" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A607" s="11"/>
       <c r="B607" s="11"/>
       <c r="C607" s="11"/>
@@ -9128,7 +8915,7 @@
       <c r="F607" s="11"/>
       <c r="G607" s="11"/>
     </row>
-    <row r="608" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A608" s="11"/>
       <c r="B608" s="11"/>
       <c r="C608" s="11"/>
@@ -9137,7 +8924,7 @@
       <c r="F608" s="11"/>
       <c r="G608" s="11"/>
     </row>
-    <row r="609" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A609" s="11"/>
       <c r="B609" s="11"/>
       <c r="C609" s="11"/>
@@ -9146,25 +8933,25 @@
       <c r="F609" s="11"/>
       <c r="G609" s="11"/>
     </row>
-    <row r="610" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A610" s="11"/>
       <c r="B610" s="11"/>
       <c r="C610" s="11"/>
       <c r="D610" s="11"/>
       <c r="E610" s="11"/>
-      <c r="F610" s="36"/>
-      <c r="G610" s="36"/>
-    </row>
-    <row r="611" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F610" s="11"/>
+      <c r="G610" s="11"/>
+    </row>
+    <row r="611" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A611" s="11"/>
       <c r="B611" s="11"/>
       <c r="C611" s="11"/>
       <c r="D611" s="11"/>
       <c r="E611" s="11"/>
-      <c r="F611" s="11"/>
-      <c r="G611" s="11"/>
-    </row>
-    <row r="612" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F611" s="34"/>
+      <c r="G611" s="34"/>
+    </row>
+    <row r="612" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A612" s="11"/>
       <c r="B612" s="11"/>
       <c r="C612" s="11"/>
@@ -9173,7 +8960,7 @@
       <c r="F612" s="11"/>
       <c r="G612" s="11"/>
     </row>
-    <row r="613" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A613" s="11"/>
       <c r="B613" s="11"/>
       <c r="C613" s="11"/>
@@ -9182,7 +8969,7 @@
       <c r="F613" s="11"/>
       <c r="G613" s="11"/>
     </row>
-    <row r="614" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A614" s="11"/>
       <c r="B614" s="11"/>
       <c r="C614" s="11"/>
@@ -9191,34 +8978,34 @@
       <c r="F614" s="11"/>
       <c r="G614" s="11"/>
     </row>
-    <row r="615" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A615" s="36"/>
-      <c r="B615" s="36"/>
-      <c r="C615" s="36"/>
-      <c r="D615" s="36"/>
-      <c r="E615" s="36"/>
+    <row r="615" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A615" s="11"/>
+      <c r="B615" s="11"/>
+      <c r="C615" s="11"/>
+      <c r="D615" s="11"/>
+      <c r="E615" s="11"/>
       <c r="F615" s="11"/>
       <c r="G615" s="11"/>
     </row>
-    <row r="616" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A616" s="36"/>
-      <c r="B616" s="36"/>
-      <c r="C616" s="36"/>
-      <c r="D616" s="36"/>
-      <c r="E616" s="36"/>
+    <row r="616" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A616" s="34"/>
+      <c r="B616" s="34"/>
+      <c r="C616" s="34"/>
+      <c r="D616" s="34"/>
+      <c r="E616" s="34"/>
       <c r="F616" s="11"/>
       <c r="G616" s="11"/>
     </row>
-    <row r="617" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A617" s="11"/>
-      <c r="B617" s="11"/>
-      <c r="C617" s="11"/>
-      <c r="D617" s="11"/>
-      <c r="E617" s="11"/>
+    <row r="617" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A617" s="34"/>
+      <c r="B617" s="34"/>
+      <c r="C617" s="34"/>
+      <c r="D617" s="34"/>
+      <c r="E617" s="34"/>
       <c r="F617" s="11"/>
       <c r="G617" s="11"/>
     </row>
-    <row r="618" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A618" s="11"/>
       <c r="B618" s="11"/>
       <c r="C618" s="11"/>
@@ -9227,25 +9014,25 @@
       <c r="F618" s="11"/>
       <c r="G618" s="11"/>
     </row>
-    <row r="619" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A619" s="11"/>
       <c r="B619" s="11"/>
       <c r="C619" s="11"/>
       <c r="D619" s="11"/>
       <c r="E619" s="11"/>
-      <c r="F619" s="36"/>
-      <c r="G619" s="36"/>
-    </row>
-    <row r="620" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F619" s="11"/>
+      <c r="G619" s="11"/>
+    </row>
+    <row r="620" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A620" s="11"/>
       <c r="B620" s="11"/>
       <c r="C620" s="11"/>
       <c r="D620" s="11"/>
       <c r="E620" s="11"/>
-      <c r="F620" s="11"/>
-      <c r="G620" s="11"/>
-    </row>
-    <row r="621" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F620" s="34"/>
+      <c r="G620" s="34"/>
+    </row>
+    <row r="621" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A621" s="11"/>
       <c r="B621" s="11"/>
       <c r="C621" s="11"/>
@@ -9254,7 +9041,7 @@
       <c r="F621" s="11"/>
       <c r="G621" s="11"/>
     </row>
-    <row r="622" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A622" s="11"/>
       <c r="B622" s="11"/>
       <c r="C622" s="11"/>
@@ -9263,7 +9050,7 @@
       <c r="F622" s="11"/>
       <c r="G622" s="11"/>
     </row>
-    <row r="623" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A623" s="11"/>
       <c r="B623" s="11"/>
       <c r="C623" s="11"/>
@@ -9272,7 +9059,7 @@
       <c r="F623" s="11"/>
       <c r="G623" s="11"/>
     </row>
-    <row r="624" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A624" s="11"/>
       <c r="B624" s="11"/>
       <c r="C624" s="11"/>
@@ -9281,25 +9068,25 @@
       <c r="F624" s="11"/>
       <c r="G624" s="11"/>
     </row>
-    <row r="625" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A625" s="36"/>
-      <c r="B625" s="36"/>
-      <c r="C625" s="36"/>
-      <c r="D625" s="36"/>
-      <c r="E625" s="36"/>
+    <row r="625" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A625" s="11"/>
+      <c r="B625" s="11"/>
+      <c r="C625" s="11"/>
+      <c r="D625" s="11"/>
+      <c r="E625" s="11"/>
       <c r="F625" s="11"/>
       <c r="G625" s="11"/>
     </row>
-    <row r="626" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A626" s="11"/>
-      <c r="B626" s="11"/>
-      <c r="C626" s="11"/>
-      <c r="D626" s="11"/>
-      <c r="E626" s="11"/>
+    <row r="626" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A626" s="34"/>
+      <c r="B626" s="34"/>
+      <c r="C626" s="34"/>
+      <c r="D626" s="34"/>
+      <c r="E626" s="34"/>
       <c r="F626" s="11"/>
       <c r="G626" s="11"/>
     </row>
-    <row r="627" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A627" s="11"/>
       <c r="B627" s="11"/>
       <c r="C627" s="11"/>
@@ -9308,7 +9095,7 @@
       <c r="F627" s="11"/>
       <c r="G627" s="11"/>
     </row>
-    <row r="628" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A628" s="11"/>
       <c r="B628" s="11"/>
       <c r="C628" s="11"/>
@@ -9317,7 +9104,7 @@
       <c r="F628" s="11"/>
       <c r="G628" s="11"/>
     </row>
-    <row r="629" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A629" s="11"/>
       <c r="B629" s="11"/>
       <c r="C629" s="11"/>
@@ -9326,7 +9113,7 @@
       <c r="F629" s="11"/>
       <c r="G629" s="11"/>
     </row>
-    <row r="630" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A630" s="11"/>
       <c r="B630" s="11"/>
       <c r="C630" s="11"/>
@@ -9335,7 +9122,7 @@
       <c r="F630" s="11"/>
       <c r="G630" s="11"/>
     </row>
-    <row r="631" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A631" s="11"/>
       <c r="B631" s="11"/>
       <c r="C631" s="11"/>
@@ -9344,7 +9131,7 @@
       <c r="F631" s="11"/>
       <c r="G631" s="11"/>
     </row>
-    <row r="632" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A632" s="11"/>
       <c r="B632" s="11"/>
       <c r="C632" s="11"/>
@@ -9353,7 +9140,7 @@
       <c r="F632" s="11"/>
       <c r="G632" s="11"/>
     </row>
-    <row r="633" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A633" s="11"/>
       <c r="B633" s="11"/>
       <c r="C633" s="11"/>
@@ -9362,25 +9149,25 @@
       <c r="F633" s="11"/>
       <c r="G633" s="11"/>
     </row>
-    <row r="634" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A634" s="36"/>
-      <c r="B634" s="36"/>
-      <c r="C634" s="36"/>
-      <c r="D634" s="36"/>
-      <c r="E634" s="36"/>
+    <row r="634" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A634" s="11"/>
+      <c r="B634" s="11"/>
+      <c r="C634" s="11"/>
+      <c r="D634" s="11"/>
+      <c r="E634" s="11"/>
       <c r="F634" s="11"/>
       <c r="G634" s="11"/>
     </row>
-    <row r="635" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A635" s="11"/>
-      <c r="B635" s="11"/>
-      <c r="C635" s="11"/>
-      <c r="D635" s="11"/>
-      <c r="E635" s="11"/>
+    <row r="635" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A635" s="34"/>
+      <c r="B635" s="34"/>
+      <c r="C635" s="34"/>
+      <c r="D635" s="34"/>
+      <c r="E635" s="34"/>
       <c r="F635" s="11"/>
       <c r="G635" s="11"/>
     </row>
-    <row r="636" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A636" s="11"/>
       <c r="B636" s="11"/>
       <c r="C636" s="11"/>
@@ -9389,7 +9176,7 @@
       <c r="F636" s="11"/>
       <c r="G636" s="11"/>
     </row>
-    <row r="637" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A637" s="11"/>
       <c r="B637" s="11"/>
       <c r="C637" s="11"/>
@@ -9398,7 +9185,7 @@
       <c r="F637" s="11"/>
       <c r="G637" s="11"/>
     </row>
-    <row r="638" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A638" s="11"/>
       <c r="B638" s="11"/>
       <c r="C638" s="11"/>
@@ -9407,25 +9194,25 @@
       <c r="F638" s="11"/>
       <c r="G638" s="11"/>
     </row>
-    <row r="639" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A639" s="11"/>
       <c r="B639" s="11"/>
       <c r="C639" s="11"/>
       <c r="D639" s="11"/>
       <c r="E639" s="11"/>
-      <c r="F639" s="36"/>
-      <c r="G639" s="36"/>
-    </row>
-    <row r="640" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F639" s="11"/>
+      <c r="G639" s="11"/>
+    </row>
+    <row r="640" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A640" s="11"/>
       <c r="B640" s="11"/>
       <c r="C640" s="11"/>
       <c r="D640" s="11"/>
       <c r="E640" s="11"/>
-      <c r="F640" s="11"/>
-      <c r="G640" s="11"/>
-    </row>
-    <row r="641" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F640" s="34"/>
+      <c r="G640" s="34"/>
+    </row>
+    <row r="641" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A641" s="11"/>
       <c r="B641" s="11"/>
       <c r="C641" s="11"/>
@@ -9434,7 +9221,7 @@
       <c r="F641" s="11"/>
       <c r="G641" s="11"/>
     </row>
-    <row r="642" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A642" s="11"/>
       <c r="B642" s="11"/>
       <c r="C642" s="11"/>
@@ -9443,7 +9230,7 @@
       <c r="F642" s="11"/>
       <c r="G642" s="11"/>
     </row>
-    <row r="643" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A643" s="11"/>
       <c r="B643" s="11"/>
       <c r="C643" s="11"/>
@@ -9452,7 +9239,7 @@
       <c r="F643" s="11"/>
       <c r="G643" s="11"/>
     </row>
-    <row r="644" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A644" s="11"/>
       <c r="B644" s="11"/>
       <c r="C644" s="11"/>
@@ -9461,7 +9248,7 @@
       <c r="F644" s="11"/>
       <c r="G644" s="11"/>
     </row>
-    <row r="645" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A645" s="11"/>
       <c r="B645" s="11"/>
       <c r="C645" s="11"/>
@@ -9470,7 +9257,7 @@
       <c r="F645" s="11"/>
       <c r="G645" s="11"/>
     </row>
-    <row r="646" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A646" s="11"/>
       <c r="B646" s="11"/>
       <c r="C646" s="11"/>
@@ -9479,7 +9266,7 @@
       <c r="F646" s="11"/>
       <c r="G646" s="11"/>
     </row>
-    <row r="647" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A647" s="11"/>
       <c r="B647" s="11"/>
       <c r="C647" s="11"/>
@@ -9488,7 +9275,7 @@
       <c r="F647" s="11"/>
       <c r="G647" s="11"/>
     </row>
-    <row r="648" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A648" s="11"/>
       <c r="B648" s="11"/>
       <c r="C648" s="11"/>
@@ -9497,7 +9284,7 @@
       <c r="F648" s="11"/>
       <c r="G648" s="11"/>
     </row>
-    <row r="649" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A649" s="11"/>
       <c r="B649" s="11"/>
       <c r="C649" s="11"/>
@@ -9506,7 +9293,7 @@
       <c r="F649" s="11"/>
       <c r="G649" s="11"/>
     </row>
-    <row r="650" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A650" s="11"/>
       <c r="B650" s="11"/>
       <c r="C650" s="11"/>
@@ -9515,7 +9302,7 @@
       <c r="F650" s="11"/>
       <c r="G650" s="11"/>
     </row>
-    <row r="651" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A651" s="11"/>
       <c r="B651" s="11"/>
       <c r="C651" s="11"/>
@@ -9524,7 +9311,7 @@
       <c r="F651" s="11"/>
       <c r="G651" s="11"/>
     </row>
-    <row r="652" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A652" s="11"/>
       <c r="B652" s="11"/>
       <c r="C652" s="11"/>
@@ -9533,7 +9320,7 @@
       <c r="F652" s="11"/>
       <c r="G652" s="11"/>
     </row>
-    <row r="653" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A653" s="11"/>
       <c r="B653" s="11"/>
       <c r="C653" s="11"/>
@@ -9542,25 +9329,25 @@
       <c r="F653" s="11"/>
       <c r="G653" s="11"/>
     </row>
-    <row r="654" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A654" s="36"/>
-      <c r="B654" s="36"/>
-      <c r="C654" s="36"/>
-      <c r="D654" s="36"/>
-      <c r="E654" s="36"/>
+    <row r="654" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A654" s="11"/>
+      <c r="B654" s="11"/>
+      <c r="C654" s="11"/>
+      <c r="D654" s="11"/>
+      <c r="E654" s="11"/>
       <c r="F654" s="11"/>
       <c r="G654" s="11"/>
     </row>
-    <row r="655" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A655" s="11"/>
-      <c r="B655" s="11"/>
-      <c r="C655" s="11"/>
-      <c r="D655" s="11"/>
-      <c r="E655" s="11"/>
+    <row r="655" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A655" s="34"/>
+      <c r="B655" s="34"/>
+      <c r="C655" s="34"/>
+      <c r="D655" s="34"/>
+      <c r="E655" s="34"/>
       <c r="F655" s="11"/>
       <c r="G655" s="11"/>
     </row>
-    <row r="656" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A656" s="11"/>
       <c r="B656" s="11"/>
       <c r="C656" s="11"/>
@@ -9569,7 +9356,7 @@
       <c r="F656" s="11"/>
       <c r="G656" s="11"/>
     </row>
-    <row r="657" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A657" s="11"/>
       <c r="B657" s="11"/>
       <c r="C657" s="11"/>
@@ -9578,7 +9365,7 @@
       <c r="F657" s="11"/>
       <c r="G657" s="11"/>
     </row>
-    <row r="658" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A658" s="11"/>
       <c r="B658" s="11"/>
       <c r="C658" s="11"/>
@@ -9587,7 +9374,7 @@
       <c r="F658" s="11"/>
       <c r="G658" s="11"/>
     </row>
-    <row r="659" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A659" s="11"/>
       <c r="B659" s="11"/>
       <c r="C659" s="11"/>
@@ -9596,7 +9383,7 @@
       <c r="F659" s="11"/>
       <c r="G659" s="11"/>
     </row>
-    <row r="660" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A660" s="11"/>
       <c r="B660" s="11"/>
       <c r="C660" s="11"/>
@@ -9605,7 +9392,7 @@
       <c r="F660" s="11"/>
       <c r="G660" s="11"/>
     </row>
-    <row r="661" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A661" s="11"/>
       <c r="B661" s="11"/>
       <c r="C661" s="11"/>
@@ -9614,7 +9401,7 @@
       <c r="F661" s="11"/>
       <c r="G661" s="11"/>
     </row>
-    <row r="662" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A662" s="11"/>
       <c r="B662" s="11"/>
       <c r="C662" s="11"/>
@@ -9623,7 +9410,7 @@
       <c r="F662" s="11"/>
       <c r="G662" s="11"/>
     </row>
-    <row r="663" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A663" s="11"/>
       <c r="B663" s="11"/>
       <c r="C663" s="11"/>
@@ -9632,7 +9419,7 @@
       <c r="F663" s="11"/>
       <c r="G663" s="11"/>
     </row>
-    <row r="664" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A664" s="11"/>
       <c r="B664" s="11"/>
       <c r="C664" s="11"/>
@@ -9641,7 +9428,7 @@
       <c r="F664" s="11"/>
       <c r="G664" s="11"/>
     </row>
-    <row r="665" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A665" s="11"/>
       <c r="B665" s="11"/>
       <c r="C665" s="11"/>
@@ -9650,110 +9437,119 @@
       <c r="F665" s="11"/>
       <c r="G665" s="11"/>
     </row>
-    <row r="666" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A666" s="11"/>
       <c r="B666" s="11"/>
       <c r="C666" s="11"/>
       <c r="D666" s="11"/>
       <c r="E666" s="11"/>
-    </row>
-    <row r="667" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F666" s="11"/>
+      <c r="G666" s="11"/>
+    </row>
+    <row r="667" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A667" s="11"/>
       <c r="B667" s="11"/>
       <c r="C667" s="11"/>
       <c r="D667" s="11"/>
       <c r="E667" s="11"/>
     </row>
-    <row r="668" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A668" s="11"/>
       <c r="B668" s="11"/>
       <c r="C668" s="11"/>
       <c r="D668" s="11"/>
       <c r="E668" s="11"/>
     </row>
-    <row r="669" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A669" s="11"/>
       <c r="B669" s="11"/>
       <c r="C669" s="11"/>
       <c r="D669" s="11"/>
       <c r="E669" s="11"/>
     </row>
-    <row r="670" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A670" s="11"/>
       <c r="B670" s="11"/>
       <c r="C670" s="11"/>
       <c r="D670" s="11"/>
       <c r="E670" s="11"/>
     </row>
-    <row r="671" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A671" s="11"/>
       <c r="B671" s="11"/>
       <c r="C671" s="11"/>
       <c r="D671" s="11"/>
       <c r="E671" s="11"/>
     </row>
-    <row r="672" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A672" s="11"/>
       <c r="B672" s="11"/>
       <c r="C672" s="11"/>
       <c r="D672" s="11"/>
       <c r="E672" s="11"/>
     </row>
-    <row r="673" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A673" s="11"/>
       <c r="B673" s="11"/>
       <c r="C673" s="11"/>
       <c r="D673" s="11"/>
       <c r="E673" s="11"/>
     </row>
-    <row r="674" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A674" s="11"/>
       <c r="B674" s="11"/>
       <c r="C674" s="11"/>
       <c r="D674" s="11"/>
       <c r="E674" s="11"/>
     </row>
-    <row r="675" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A675" s="11"/>
       <c r="B675" s="11"/>
       <c r="C675" s="11"/>
       <c r="D675" s="11"/>
       <c r="E675" s="11"/>
     </row>
-    <row r="676" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A676" s="11"/>
       <c r="B676" s="11"/>
       <c r="C676" s="11"/>
       <c r="D676" s="11"/>
       <c r="E676" s="11"/>
     </row>
-    <row r="677" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A677" s="11"/>
       <c r="B677" s="11"/>
       <c r="C677" s="11"/>
       <c r="D677" s="11"/>
       <c r="E677" s="11"/>
     </row>
-    <row r="678" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A678" s="11"/>
       <c r="B678" s="11"/>
       <c r="C678" s="11"/>
       <c r="D678" s="11"/>
       <c r="E678" s="11"/>
     </row>
-    <row r="679" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A679" s="11"/>
       <c r="B679" s="11"/>
       <c r="C679" s="11"/>
       <c r="D679" s="11"/>
       <c r="E679" s="11"/>
     </row>
-    <row r="680" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A680" s="11"/>
       <c r="B680" s="11"/>
       <c r="C680" s="11"/>
       <c r="D680" s="11"/>
       <c r="E680" s="11"/>
+    </row>
+    <row r="681" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A681" s="11"/>
+      <c r="B681" s="11"/>
+      <c r="C681" s="11"/>
+      <c r="D681" s="11"/>
+      <c r="E681" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1"/>
@@ -9767,19 +9563,19 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="38.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="16.1796875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.26953125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="6.6328125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>211</v>
+    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>2</v>
@@ -9788,15 +9584,15 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>209</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
+        <v>68</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>66</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -9807,61 +9603,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="32" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="6.36328125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>77</v>
       </c>
@@ -9872,7 +9625,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
         <v>79</v>
       </c>
@@ -9880,10 +9633,10 @@
         <v>66</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
         <v>80</v>
       </c>
@@ -9891,7 +9644,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/com/born/xls/ProductListPage.xlsx
+++ b/src/test/java/com/born/xls/ProductListPage.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="218">
   <si>
     <t>TCID</t>
   </si>
@@ -1175,6 +1175,9 @@
   </si>
   <si>
     <t>ProductDetails_Page</t>
+  </si>
+  <si>
+    <t>selectFirstElement</t>
   </si>
 </sst>
 </file>
@@ -1768,7 +1771,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1798,7 +1801,7 @@
         <v>174</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1809,7 +1812,7 @@
         <v>172</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -1820,7 +1823,7 @@
         <v>173</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -1831,7 +1834,7 @@
         <v>176</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -1842,7 +1845,7 @@
         <v>160</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -1853,7 +1856,7 @@
         <v>161</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -1864,7 +1867,7 @@
         <v>162</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -1875,7 +1878,7 @@
         <v>163</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -1886,7 +1889,7 @@
         <v>107</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -1897,7 +1900,7 @@
         <v>112</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1908,7 +1911,7 @@
         <v>164</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -1919,7 +1922,7 @@
         <v>165</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -1930,7 +1933,7 @@
         <v>166</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -1941,7 +1944,7 @@
         <v>175</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -1952,7 +1955,7 @@
         <v>167</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -1963,7 +1966,7 @@
         <v>168</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -1974,7 +1977,7 @@
         <v>169</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -1996,7 +1999,7 @@
         <v>171</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -2007,7 +2010,7 @@
         <v>192</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2020,10 +2023,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:K681"/>
+  <dimension ref="A1:K682"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4599,7 +4602,7 @@
         <v>214</v>
       </c>
       <c r="D145" s="27" t="s">
-        <v>33</v>
+        <v>217</v>
       </c>
       <c r="E145" s="29" t="s">
         <v>211</v>
@@ -4637,7 +4640,7 @@
         <v>212</v>
       </c>
       <c r="D147" s="27" t="s">
-        <v>33</v>
+        <v>217</v>
       </c>
       <c r="E147" s="29" t="s">
         <v>211</v>
@@ -4653,13 +4656,13 @@
         <v>20</v>
       </c>
       <c r="C148" s="26" t="s">
-        <v>213</v>
+        <v>67</v>
       </c>
       <c r="D148" s="27" t="s">
-        <v>34</v>
+        <v>199</v>
       </c>
       <c r="E148" s="29" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="F148" s="7"/>
       <c r="G148" s="7"/>
@@ -4671,64 +4674,64 @@
       <c r="B149" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C149" s="27" t="s">
-        <v>39</v>
+      <c r="C149" s="26" t="s">
+        <v>213</v>
       </c>
       <c r="D149" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="E149" s="27"/>
+        <v>34</v>
+      </c>
+      <c r="E149" s="29" t="s">
+        <v>216</v>
+      </c>
       <c r="F149" s="7"/>
       <c r="G149" s="7"/>
     </row>
-    <row r="150" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="28"/>
-      <c r="B150" s="28"/>
-      <c r="C150" s="28"/>
-      <c r="D150" s="28"/>
-      <c r="E150" s="31" t="s">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A150" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="B150" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C150" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D150" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E150" s="27"/>
+      <c r="F150" s="7"/>
+      <c r="G150" s="7"/>
+    </row>
+    <row r="151" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="28"/>
+      <c r="B151" s="28"/>
+      <c r="C151" s="28"/>
+      <c r="D151" s="28"/>
+      <c r="E151" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="F150" s="28"/>
-      <c r="G150" s="31" t="s">
+      <c r="F151" s="28"/>
+      <c r="G151" s="31" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A151" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="B151" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C151" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="D151" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E151" s="27"/>
-      <c r="F151" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="G151" s="7"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152" s="26" t="s">
         <v>159</v>
       </c>
       <c r="B152" s="27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C152" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D152" s="27" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E152" s="27"/>
       <c r="F152" s="27" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G152" s="7"/>
     </row>
@@ -4737,16 +4740,18 @@
         <v>159</v>
       </c>
       <c r="B153" s="27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C153" s="27" t="s">
-        <v>177</v>
+        <v>32</v>
       </c>
       <c r="D153" s="27" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E153" s="27"/>
-      <c r="F153" s="7"/>
+      <c r="F153" s="27" t="s">
+        <v>11</v>
+      </c>
       <c r="G153" s="7"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.35">
@@ -4754,17 +4759,15 @@
         <v>159</v>
       </c>
       <c r="B154" s="27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C154" s="27" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D154" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="E154" s="27" t="s">
-        <v>183</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E154" s="27"/>
       <c r="F154" s="7"/>
       <c r="G154" s="7"/>
     </row>
@@ -4773,16 +4776,16 @@
         <v>159</v>
       </c>
       <c r="B155" s="27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C155" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D155" s="27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E155" s="27" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F155" s="7"/>
       <c r="G155" s="7"/>
@@ -4792,66 +4795,66 @@
         <v>159</v>
       </c>
       <c r="B156" s="27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C156" s="27" t="s">
-        <v>39</v>
+        <v>181</v>
       </c>
       <c r="D156" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="E156" s="29"/>
+        <v>34</v>
+      </c>
+      <c r="E156" s="27" t="s">
+        <v>185</v>
+      </c>
       <c r="F156" s="7"/>
       <c r="G156" s="7"/>
     </row>
-    <row r="157" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="8"/>
-      <c r="B157" s="8"/>
-      <c r="C157" s="8"/>
-      <c r="D157" s="8"/>
-      <c r="E157" s="22" t="s">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A157" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="B157" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C157" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D157" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E157" s="29"/>
+      <c r="F157" s="7"/>
+      <c r="G157" s="7"/>
+    </row>
+    <row r="158" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A158" s="8"/>
+      <c r="B158" s="8"/>
+      <c r="C158" s="8"/>
+      <c r="D158" s="8"/>
+      <c r="E158" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="F157" s="28"/>
-      <c r="G157" s="31" t="s">
+      <c r="F158" s="28"/>
+      <c r="G158" s="31" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A158" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="B158" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C158" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="D158" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E158" s="27"/>
-      <c r="F158" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="G158" s="7"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159" s="4" t="s">
         <v>191</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C159" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D159" s="27" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E159" s="27"/>
       <c r="F159" s="27" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G159" s="7"/>
     </row>
@@ -4860,18 +4863,18 @@
         <v>191</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C160" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="D160" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E160" s="33" t="s">
-        <v>194</v>
-      </c>
-      <c r="F160" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="C160" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D160" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E160" s="27"/>
+      <c r="F160" s="27" t="s">
+        <v>11</v>
+      </c>
       <c r="G160" s="7"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.35">
@@ -4879,16 +4882,16 @@
         <v>191</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E161" s="33" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F161" s="7"/>
       <c r="G161" s="7"/>
@@ -4898,51 +4901,61 @@
         <v>191</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>39</v>
+        <v>196</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E162" s="33"/>
+        <v>34</v>
+      </c>
+      <c r="E162" s="33" t="s">
+        <v>195</v>
+      </c>
       <c r="F162" s="7"/>
       <c r="G162" s="7"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A163" s="11"/>
-      <c r="B163" s="11"/>
-      <c r="C163" s="11"/>
-      <c r="D163" s="11"/>
-      <c r="E163" s="12"/>
-      <c r="F163" s="11"/>
-      <c r="G163" s="11"/>
+      <c r="A163" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D163" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E163" s="33"/>
+      <c r="F163" s="7"/>
+      <c r="G163" s="7"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164" s="11"/>
       <c r="B164" s="11"/>
       <c r="C164" s="11"/>
       <c r="D164" s="11"/>
-      <c r="E164" s="11"/>
+      <c r="E164" s="12"/>
       <c r="F164" s="11"/>
       <c r="G164" s="11"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A165" s="34"/>
-      <c r="B165" s="34"/>
-      <c r="C165" s="34"/>
-      <c r="D165" s="34"/>
-      <c r="E165" s="34"/>
+      <c r="A165" s="11"/>
+      <c r="B165" s="11"/>
+      <c r="C165" s="11"/>
+      <c r="D165" s="11"/>
+      <c r="E165" s="11"/>
       <c r="F165" s="11"/>
       <c r="G165" s="11"/>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A166" s="11"/>
-      <c r="B166" s="11"/>
-      <c r="C166" s="11"/>
-      <c r="D166" s="11"/>
-      <c r="E166" s="11"/>
+      <c r="A166" s="34"/>
+      <c r="B166" s="34"/>
+      <c r="C166" s="34"/>
+      <c r="D166" s="34"/>
+      <c r="E166" s="34"/>
       <c r="F166" s="11"/>
       <c r="G166" s="11"/>
     </row>
@@ -5113,7 +5126,7 @@
       <c r="B185" s="11"/>
       <c r="C185" s="11"/>
       <c r="D185" s="11"/>
-      <c r="E185" s="12"/>
+      <c r="E185" s="11"/>
       <c r="F185" s="11"/>
       <c r="G185" s="11"/>
     </row>
@@ -5149,7 +5162,7 @@
       <c r="B189" s="11"/>
       <c r="C189" s="11"/>
       <c r="D189" s="11"/>
-      <c r="E189" s="11"/>
+      <c r="E189" s="12"/>
       <c r="F189" s="11"/>
       <c r="G189" s="11"/>
     </row>
@@ -5167,7 +5180,7 @@
       <c r="B191" s="11"/>
       <c r="C191" s="11"/>
       <c r="D191" s="11"/>
-      <c r="E191" s="12"/>
+      <c r="E191" s="11"/>
       <c r="F191" s="11"/>
       <c r="G191" s="11"/>
     </row>
@@ -5309,7 +5322,7 @@
     <row r="207" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A207" s="11"/>
       <c r="B207" s="11"/>
-      <c r="C207" s="13"/>
+      <c r="C207" s="11"/>
       <c r="D207" s="11"/>
       <c r="E207" s="12"/>
       <c r="F207" s="11"/>
@@ -5318,9 +5331,9 @@
     <row r="208" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A208" s="11"/>
       <c r="B208" s="11"/>
-      <c r="C208" s="11"/>
+      <c r="C208" s="13"/>
       <c r="D208" s="11"/>
-      <c r="E208" s="11"/>
+      <c r="E208" s="12"/>
       <c r="F208" s="11"/>
       <c r="G208" s="11"/>
     </row>
@@ -5392,7 +5405,7 @@
       <c r="B216" s="11"/>
       <c r="C216" s="11"/>
       <c r="D216" s="11"/>
-      <c r="E216" s="12"/>
+      <c r="E216" s="11"/>
       <c r="F216" s="11"/>
       <c r="G216" s="11"/>
     </row>
@@ -5401,7 +5414,7 @@
       <c r="B217" s="11"/>
       <c r="C217" s="11"/>
       <c r="D217" s="11"/>
-      <c r="E217" s="11"/>
+      <c r="E217" s="12"/>
       <c r="F217" s="11"/>
       <c r="G217" s="11"/>
     </row>
@@ -5410,7 +5423,7 @@
       <c r="B218" s="11"/>
       <c r="C218" s="11"/>
       <c r="D218" s="11"/>
-      <c r="E218" s="12"/>
+      <c r="E218" s="11"/>
       <c r="F218" s="11"/>
       <c r="G218" s="11"/>
     </row>
@@ -5419,25 +5432,25 @@
       <c r="B219" s="11"/>
       <c r="C219" s="11"/>
       <c r="D219" s="11"/>
-      <c r="E219" s="11"/>
-      <c r="F219" s="34"/>
-      <c r="G219" s="34"/>
+      <c r="E219" s="12"/>
+      <c r="F219" s="11"/>
+      <c r="G219" s="11"/>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A220" s="11"/>
       <c r="B220" s="11"/>
       <c r="C220" s="11"/>
       <c r="D220" s="11"/>
-      <c r="E220" s="12"/>
-      <c r="F220" s="11"/>
-      <c r="G220" s="11"/>
+      <c r="E220" s="11"/>
+      <c r="F220" s="34"/>
+      <c r="G220" s="34"/>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A221" s="11"/>
       <c r="B221" s="11"/>
       <c r="C221" s="11"/>
       <c r="D221" s="11"/>
-      <c r="E221" s="11"/>
+      <c r="E221" s="12"/>
       <c r="F221" s="11"/>
       <c r="G221" s="11"/>
     </row>
@@ -5464,7 +5477,7 @@
       <c r="B224" s="11"/>
       <c r="C224" s="11"/>
       <c r="D224" s="11"/>
-      <c r="E224" s="12"/>
+      <c r="E224" s="11"/>
       <c r="F224" s="11"/>
       <c r="G224" s="11"/>
     </row>
@@ -5545,27 +5558,27 @@
       <c r="B233" s="11"/>
       <c r="C233" s="11"/>
       <c r="D233" s="11"/>
-      <c r="E233" s="11"/>
+      <c r="E233" s="12"/>
       <c r="F233" s="11"/>
       <c r="G233" s="11"/>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A234" s="34"/>
-      <c r="B234" s="34"/>
-      <c r="C234" s="34"/>
-      <c r="D234" s="34"/>
-      <c r="E234" s="34"/>
+      <c r="A234" s="11"/>
+      <c r="B234" s="11"/>
+      <c r="C234" s="11"/>
+      <c r="D234" s="11"/>
+      <c r="E234" s="11"/>
       <c r="F234" s="11"/>
       <c r="G234" s="11"/>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A235" s="11"/>
-      <c r="B235" s="11"/>
-      <c r="C235" s="11"/>
-      <c r="D235" s="11"/>
-      <c r="E235" s="11"/>
-      <c r="F235" s="34"/>
-      <c r="G235" s="34"/>
+      <c r="A235" s="34"/>
+      <c r="B235" s="34"/>
+      <c r="C235" s="34"/>
+      <c r="D235" s="34"/>
+      <c r="E235" s="34"/>
+      <c r="F235" s="11"/>
+      <c r="G235" s="11"/>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A236" s="11"/>
@@ -5573,8 +5586,8 @@
       <c r="C236" s="11"/>
       <c r="D236" s="11"/>
       <c r="E236" s="11"/>
-      <c r="F236" s="11"/>
-      <c r="G236" s="11"/>
+      <c r="F236" s="34"/>
+      <c r="G236" s="34"/>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A237" s="11"/>
@@ -5644,7 +5657,7 @@
       <c r="B244" s="11"/>
       <c r="C244" s="11"/>
       <c r="D244" s="11"/>
-      <c r="E244" s="12"/>
+      <c r="E244" s="11"/>
       <c r="F244" s="11"/>
       <c r="G244" s="11"/>
     </row>
@@ -5689,25 +5702,25 @@
       <c r="B249" s="11"/>
       <c r="C249" s="11"/>
       <c r="D249" s="11"/>
-      <c r="E249" s="11"/>
+      <c r="E249" s="12"/>
       <c r="F249" s="11"/>
       <c r="G249" s="11"/>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A250" s="34"/>
-      <c r="B250" s="34"/>
-      <c r="C250" s="34"/>
-      <c r="D250" s="34"/>
-      <c r="E250" s="34"/>
+      <c r="A250" s="11"/>
+      <c r="B250" s="11"/>
+      <c r="C250" s="11"/>
+      <c r="D250" s="11"/>
+      <c r="E250" s="11"/>
       <c r="F250" s="11"/>
       <c r="G250" s="11"/>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A251" s="11"/>
-      <c r="B251" s="11"/>
-      <c r="C251" s="11"/>
-      <c r="D251" s="11"/>
-      <c r="E251" s="11"/>
+      <c r="A251" s="34"/>
+      <c r="B251" s="34"/>
+      <c r="C251" s="34"/>
+      <c r="D251" s="34"/>
+      <c r="E251" s="34"/>
       <c r="F251" s="11"/>
       <c r="G251" s="11"/>
     </row>
@@ -5717,8 +5730,8 @@
       <c r="C252" s="11"/>
       <c r="D252" s="11"/>
       <c r="E252" s="11"/>
-      <c r="F252" s="34"/>
-      <c r="G252" s="34"/>
+      <c r="F252" s="11"/>
+      <c r="G252" s="11"/>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A253" s="11"/>
@@ -5726,8 +5739,8 @@
       <c r="C253" s="11"/>
       <c r="D253" s="11"/>
       <c r="E253" s="11"/>
-      <c r="F253" s="11"/>
-      <c r="G253" s="11"/>
+      <c r="F253" s="34"/>
+      <c r="G253" s="34"/>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A254" s="11"/>
@@ -5797,7 +5810,7 @@
       <c r="B261" s="11"/>
       <c r="C261" s="11"/>
       <c r="D261" s="11"/>
-      <c r="E261" s="12"/>
+      <c r="E261" s="11"/>
       <c r="F261" s="11"/>
       <c r="G261" s="11"/>
     </row>
@@ -5842,25 +5855,25 @@
       <c r="B266" s="11"/>
       <c r="C266" s="11"/>
       <c r="D266" s="11"/>
-      <c r="E266" s="11"/>
+      <c r="E266" s="12"/>
       <c r="F266" s="11"/>
       <c r="G266" s="11"/>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A267" s="34"/>
-      <c r="B267" s="34"/>
-      <c r="C267" s="34"/>
-      <c r="D267" s="34"/>
-      <c r="E267" s="34"/>
+      <c r="A267" s="11"/>
+      <c r="B267" s="11"/>
+      <c r="C267" s="11"/>
+      <c r="D267" s="11"/>
+      <c r="E267" s="11"/>
       <c r="F267" s="11"/>
       <c r="G267" s="11"/>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A268" s="11"/>
-      <c r="B268" s="11"/>
-      <c r="C268" s="11"/>
-      <c r="D268" s="11"/>
-      <c r="E268" s="11"/>
+      <c r="A268" s="34"/>
+      <c r="B268" s="34"/>
+      <c r="C268" s="34"/>
+      <c r="D268" s="34"/>
+      <c r="E268" s="34"/>
       <c r="F268" s="11"/>
       <c r="G268" s="11"/>
     </row>
@@ -5906,8 +5919,8 @@
       <c r="C273" s="11"/>
       <c r="D273" s="11"/>
       <c r="E273" s="11"/>
-      <c r="F273" s="34"/>
-      <c r="G273" s="34"/>
+      <c r="F273" s="11"/>
+      <c r="G273" s="11"/>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A274" s="11"/>
@@ -5915,8 +5928,8 @@
       <c r="C274" s="11"/>
       <c r="D274" s="11"/>
       <c r="E274" s="11"/>
-      <c r="F274" s="11"/>
-      <c r="G274" s="11"/>
+      <c r="F274" s="34"/>
+      <c r="G274" s="34"/>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A275" s="11"/>
@@ -6020,36 +6033,36 @@
     <row r="286" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A286" s="11"/>
       <c r="B286" s="11"/>
-      <c r="C286" s="13"/>
+      <c r="C286" s="11"/>
       <c r="D286" s="11"/>
       <c r="E286" s="11"/>
-      <c r="F286" s="34"/>
-      <c r="G286" s="34"/>
+      <c r="F286" s="11"/>
+      <c r="G286" s="11"/>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A287" s="11"/>
       <c r="B287" s="11"/>
-      <c r="C287" s="11"/>
+      <c r="C287" s="13"/>
       <c r="D287" s="11"/>
       <c r="E287" s="11"/>
-      <c r="F287" s="11"/>
-      <c r="G287" s="11"/>
+      <c r="F287" s="34"/>
+      <c r="G287" s="34"/>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A288" s="34"/>
-      <c r="B288" s="34"/>
-      <c r="C288" s="34"/>
-      <c r="D288" s="34"/>
-      <c r="E288" s="34"/>
+      <c r="A288" s="11"/>
+      <c r="B288" s="11"/>
+      <c r="C288" s="11"/>
+      <c r="D288" s="11"/>
+      <c r="E288" s="11"/>
       <c r="F288" s="11"/>
       <c r="G288" s="11"/>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A289" s="11"/>
-      <c r="B289" s="11"/>
-      <c r="C289" s="11"/>
-      <c r="D289" s="11"/>
-      <c r="E289" s="11"/>
+      <c r="A289" s="34"/>
+      <c r="B289" s="34"/>
+      <c r="C289" s="34"/>
+      <c r="D289" s="34"/>
+      <c r="E289" s="34"/>
       <c r="F289" s="11"/>
       <c r="G289" s="11"/>
     </row>
@@ -6153,20 +6166,20 @@
       <c r="G300" s="11"/>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A301" s="34"/>
-      <c r="B301" s="34"/>
-      <c r="C301" s="34"/>
-      <c r="D301" s="34"/>
-      <c r="E301" s="34"/>
+      <c r="A301" s="11"/>
+      <c r="B301" s="11"/>
+      <c r="C301" s="11"/>
+      <c r="D301" s="11"/>
+      <c r="E301" s="11"/>
       <c r="F301" s="11"/>
       <c r="G301" s="11"/>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A302" s="11"/>
-      <c r="B302" s="11"/>
-      <c r="C302" s="11"/>
-      <c r="D302" s="11"/>
-      <c r="E302" s="11"/>
+      <c r="A302" s="34"/>
+      <c r="B302" s="34"/>
+      <c r="C302" s="34"/>
+      <c r="D302" s="34"/>
+      <c r="E302" s="34"/>
       <c r="F302" s="11"/>
       <c r="G302" s="11"/>
     </row>
@@ -6203,8 +6216,8 @@
       <c r="C306" s="11"/>
       <c r="D306" s="11"/>
       <c r="E306" s="11"/>
-      <c r="F306" s="34"/>
-      <c r="G306" s="34"/>
+      <c r="F306" s="11"/>
+      <c r="G306" s="11"/>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A307" s="11"/>
@@ -6212,8 +6225,8 @@
       <c r="C307" s="11"/>
       <c r="D307" s="11"/>
       <c r="E307" s="11"/>
-      <c r="F307" s="11"/>
-      <c r="G307" s="11"/>
+      <c r="F307" s="34"/>
+      <c r="G307" s="34"/>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A308" s="11"/>
@@ -6333,20 +6346,20 @@
       <c r="G320" s="11"/>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A321" s="34"/>
-      <c r="B321" s="34"/>
-      <c r="C321" s="34"/>
-      <c r="D321" s="34"/>
-      <c r="E321" s="34"/>
+      <c r="A321" s="11"/>
+      <c r="B321" s="11"/>
+      <c r="C321" s="11"/>
+      <c r="D321" s="11"/>
+      <c r="E321" s="11"/>
       <c r="F321" s="11"/>
       <c r="G321" s="11"/>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A322" s="11"/>
-      <c r="B322" s="11"/>
-      <c r="C322" s="11"/>
-      <c r="D322" s="11"/>
-      <c r="E322" s="11"/>
+      <c r="A322" s="34"/>
+      <c r="B322" s="34"/>
+      <c r="C322" s="34"/>
+      <c r="D322" s="34"/>
+      <c r="E322" s="34"/>
       <c r="F322" s="11"/>
       <c r="G322" s="11"/>
     </row>
@@ -6454,7 +6467,7 @@
       <c r="B334" s="11"/>
       <c r="C334" s="11"/>
       <c r="D334" s="11"/>
-      <c r="E334" s="12"/>
+      <c r="E334" s="11"/>
       <c r="F334" s="11"/>
       <c r="G334" s="11"/>
     </row>
@@ -6508,7 +6521,7 @@
       <c r="B340" s="11"/>
       <c r="C340" s="11"/>
       <c r="D340" s="11"/>
-      <c r="E340" s="11"/>
+      <c r="E340" s="12"/>
       <c r="F340" s="11"/>
       <c r="G340" s="11"/>
     </row>
@@ -6518,8 +6531,8 @@
       <c r="C341" s="11"/>
       <c r="D341" s="11"/>
       <c r="E341" s="11"/>
-      <c r="F341" s="34"/>
-      <c r="G341" s="34"/>
+      <c r="F341" s="11"/>
+      <c r="G341" s="11"/>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A342" s="11"/>
@@ -6527,8 +6540,8 @@
       <c r="C342" s="11"/>
       <c r="D342" s="11"/>
       <c r="E342" s="11"/>
-      <c r="F342" s="11"/>
-      <c r="G342" s="11"/>
+      <c r="F342" s="34"/>
+      <c r="G342" s="34"/>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A343" s="11"/>
@@ -6616,7 +6629,7 @@
       <c r="B352" s="11"/>
       <c r="C352" s="11"/>
       <c r="D352" s="11"/>
-      <c r="E352" s="12"/>
+      <c r="E352" s="11"/>
       <c r="F352" s="11"/>
       <c r="G352" s="11"/>
     </row>
@@ -6625,7 +6638,7 @@
       <c r="B353" s="11"/>
       <c r="C353" s="11"/>
       <c r="D353" s="11"/>
-      <c r="E353" s="11"/>
+      <c r="E353" s="12"/>
       <c r="F353" s="11"/>
       <c r="G353" s="11"/>
     </row>
@@ -6648,20 +6661,20 @@
       <c r="G355" s="11"/>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A356" s="34"/>
-      <c r="B356" s="34"/>
-      <c r="C356" s="34"/>
-      <c r="D356" s="34"/>
-      <c r="E356" s="34"/>
+      <c r="A356" s="11"/>
+      <c r="B356" s="11"/>
+      <c r="C356" s="11"/>
+      <c r="D356" s="11"/>
+      <c r="E356" s="11"/>
       <c r="F356" s="11"/>
       <c r="G356" s="11"/>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A357" s="11"/>
-      <c r="B357" s="11"/>
-      <c r="C357" s="11"/>
-      <c r="D357" s="11"/>
-      <c r="E357" s="11"/>
+      <c r="A357" s="34"/>
+      <c r="B357" s="34"/>
+      <c r="C357" s="34"/>
+      <c r="D357" s="34"/>
+      <c r="E357" s="34"/>
       <c r="F357" s="11"/>
       <c r="G357" s="11"/>
     </row>
@@ -6698,8 +6711,8 @@
       <c r="C361" s="11"/>
       <c r="D361" s="11"/>
       <c r="E361" s="11"/>
-      <c r="F361" s="34"/>
-      <c r="G361" s="34"/>
+      <c r="F361" s="11"/>
+      <c r="G361" s="11"/>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A362" s="11"/>
@@ -6707,8 +6720,8 @@
       <c r="C362" s="11"/>
       <c r="D362" s="11"/>
       <c r="E362" s="11"/>
-      <c r="F362" s="11"/>
-      <c r="G362" s="11"/>
+      <c r="F362" s="34"/>
+      <c r="G362" s="34"/>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A363" s="11"/>
@@ -6760,7 +6773,7 @@
       <c r="B368" s="11"/>
       <c r="C368" s="11"/>
       <c r="D368" s="11"/>
-      <c r="E368" s="12"/>
+      <c r="E368" s="11"/>
       <c r="F368" s="11"/>
       <c r="G368" s="11"/>
     </row>
@@ -6805,9 +6818,9 @@
       <c r="B373" s="11"/>
       <c r="C373" s="11"/>
       <c r="D373" s="11"/>
-      <c r="E373" s="11"/>
-      <c r="F373" s="34"/>
-      <c r="G373" s="34"/>
+      <c r="E373" s="12"/>
+      <c r="F373" s="11"/>
+      <c r="G373" s="11"/>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A374" s="11"/>
@@ -6815,8 +6828,8 @@
       <c r="C374" s="11"/>
       <c r="D374" s="11"/>
       <c r="E374" s="11"/>
-      <c r="F374" s="11"/>
-      <c r="G374" s="11"/>
+      <c r="F374" s="34"/>
+      <c r="G374" s="34"/>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A375" s="11"/>
@@ -6828,20 +6841,20 @@
       <c r="G375" s="11"/>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A376" s="34"/>
-      <c r="B376" s="34"/>
-      <c r="C376" s="34"/>
-      <c r="D376" s="34"/>
-      <c r="E376" s="34"/>
+      <c r="A376" s="11"/>
+      <c r="B376" s="11"/>
+      <c r="C376" s="11"/>
+      <c r="D376" s="11"/>
+      <c r="E376" s="11"/>
       <c r="F376" s="11"/>
       <c r="G376" s="11"/>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A377" s="11"/>
-      <c r="B377" s="11"/>
-      <c r="C377" s="11"/>
-      <c r="D377" s="11"/>
-      <c r="E377" s="11"/>
+      <c r="A377" s="34"/>
+      <c r="B377" s="34"/>
+      <c r="C377" s="34"/>
+      <c r="D377" s="34"/>
+      <c r="E377" s="34"/>
       <c r="F377" s="11"/>
       <c r="G377" s="11"/>
     </row>
@@ -6936,20 +6949,20 @@
       <c r="G387" s="11"/>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A388" s="34"/>
-      <c r="B388" s="34"/>
-      <c r="C388" s="34"/>
-      <c r="D388" s="34"/>
-      <c r="E388" s="34"/>
+      <c r="A388" s="11"/>
+      <c r="B388" s="11"/>
+      <c r="C388" s="11"/>
+      <c r="D388" s="11"/>
+      <c r="E388" s="11"/>
       <c r="F388" s="11"/>
       <c r="G388" s="11"/>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A389" s="11"/>
-      <c r="B389" s="11"/>
-      <c r="C389" s="11"/>
-      <c r="D389" s="11"/>
-      <c r="E389" s="11"/>
+      <c r="A389" s="34"/>
+      <c r="B389" s="34"/>
+      <c r="C389" s="34"/>
+      <c r="D389" s="34"/>
+      <c r="E389" s="34"/>
       <c r="F389" s="11"/>
       <c r="G389" s="11"/>
     </row>
@@ -6995,8 +7008,8 @@
       <c r="C394" s="11"/>
       <c r="D394" s="11"/>
       <c r="E394" s="11"/>
-      <c r="F394" s="34"/>
-      <c r="G394" s="34"/>
+      <c r="F394" s="11"/>
+      <c r="G394" s="11"/>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A395" s="11"/>
@@ -7004,8 +7017,8 @@
       <c r="C395" s="11"/>
       <c r="D395" s="11"/>
       <c r="E395" s="11"/>
-      <c r="F395" s="11"/>
-      <c r="G395" s="11"/>
+      <c r="F395" s="34"/>
+      <c r="G395" s="34"/>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A396" s="11"/>
@@ -7125,20 +7138,20 @@
       <c r="G408" s="11"/>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A409" s="34"/>
-      <c r="B409" s="34"/>
-      <c r="C409" s="34"/>
-      <c r="D409" s="34"/>
-      <c r="E409" s="34"/>
+      <c r="A409" s="11"/>
+      <c r="B409" s="11"/>
+      <c r="C409" s="11"/>
+      <c r="D409" s="11"/>
+      <c r="E409" s="11"/>
       <c r="F409" s="11"/>
       <c r="G409" s="11"/>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A410" s="11"/>
-      <c r="B410" s="11"/>
-      <c r="C410" s="11"/>
-      <c r="D410" s="11"/>
-      <c r="E410" s="11"/>
+      <c r="A410" s="34"/>
+      <c r="B410" s="34"/>
+      <c r="C410" s="34"/>
+      <c r="D410" s="34"/>
+      <c r="E410" s="34"/>
       <c r="F410" s="11"/>
       <c r="G410" s="11"/>
     </row>
@@ -7247,8 +7260,8 @@
       <c r="C422" s="11"/>
       <c r="D422" s="11"/>
       <c r="E422" s="11"/>
-      <c r="F422" s="34"/>
-      <c r="G422" s="34"/>
+      <c r="F422" s="11"/>
+      <c r="G422" s="11"/>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A423" s="11"/>
@@ -7256,8 +7269,8 @@
       <c r="C423" s="11"/>
       <c r="D423" s="11"/>
       <c r="E423" s="11"/>
-      <c r="F423" s="11"/>
-      <c r="G423" s="11"/>
+      <c r="F423" s="34"/>
+      <c r="G423" s="34"/>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A424" s="11"/>
@@ -7300,7 +7313,7 @@
       <c r="B428" s="11"/>
       <c r="C428" s="11"/>
       <c r="D428" s="11"/>
-      <c r="E428" s="12"/>
+      <c r="E428" s="11"/>
       <c r="F428" s="11"/>
       <c r="G428" s="11"/>
     </row>
@@ -7318,7 +7331,7 @@
       <c r="B430" s="11"/>
       <c r="C430" s="11"/>
       <c r="D430" s="11"/>
-      <c r="E430" s="11"/>
+      <c r="E430" s="12"/>
       <c r="F430" s="11"/>
       <c r="G430" s="11"/>
     </row>
@@ -7377,20 +7390,20 @@
       <c r="G436" s="11"/>
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A437" s="34"/>
-      <c r="B437" s="34"/>
-      <c r="C437" s="34"/>
-      <c r="D437" s="34"/>
-      <c r="E437" s="34"/>
+      <c r="A437" s="11"/>
+      <c r="B437" s="11"/>
+      <c r="C437" s="11"/>
+      <c r="D437" s="11"/>
+      <c r="E437" s="11"/>
       <c r="F437" s="11"/>
       <c r="G437" s="11"/>
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A438" s="11"/>
-      <c r="B438" s="11"/>
-      <c r="C438" s="11"/>
-      <c r="D438" s="11"/>
-      <c r="E438" s="11"/>
+      <c r="A438" s="34"/>
+      <c r="B438" s="34"/>
+      <c r="C438" s="34"/>
+      <c r="D438" s="34"/>
+      <c r="E438" s="34"/>
       <c r="F438" s="11"/>
       <c r="G438" s="11"/>
     </row>
@@ -7490,7 +7503,7 @@
       <c r="C449" s="11"/>
       <c r="D449" s="11"/>
       <c r="E449" s="11"/>
-      <c r="F449" s="12"/>
+      <c r="F449" s="11"/>
       <c r="G449" s="11"/>
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.35">
@@ -7544,8 +7557,8 @@
       <c r="C455" s="11"/>
       <c r="D455" s="11"/>
       <c r="E455" s="11"/>
-      <c r="F455" s="34"/>
-      <c r="G455" s="34"/>
+      <c r="F455" s="12"/>
+      <c r="G455" s="11"/>
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A456" s="11"/>
@@ -7553,8 +7566,8 @@
       <c r="C456" s="11"/>
       <c r="D456" s="11"/>
       <c r="E456" s="11"/>
-      <c r="F456" s="11"/>
-      <c r="G456" s="11"/>
+      <c r="F456" s="34"/>
+      <c r="G456" s="34"/>
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A457" s="11"/>
@@ -7674,20 +7687,20 @@
       <c r="G469" s="11"/>
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A470" s="34"/>
-      <c r="B470" s="34"/>
-      <c r="C470" s="34"/>
-      <c r="D470" s="34"/>
-      <c r="E470" s="34"/>
+      <c r="A470" s="11"/>
+      <c r="B470" s="11"/>
+      <c r="C470" s="11"/>
+      <c r="D470" s="11"/>
+      <c r="E470" s="11"/>
       <c r="F470" s="11"/>
       <c r="G470" s="11"/>
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A471" s="11"/>
-      <c r="B471" s="11"/>
-      <c r="C471" s="11"/>
-      <c r="D471" s="11"/>
-      <c r="E471" s="11"/>
+      <c r="A471" s="34"/>
+      <c r="B471" s="34"/>
+      <c r="C471" s="34"/>
+      <c r="D471" s="34"/>
+      <c r="E471" s="34"/>
       <c r="F471" s="11"/>
       <c r="G471" s="11"/>
     </row>
@@ -7886,8 +7899,8 @@
       <c r="C493" s="11"/>
       <c r="D493" s="11"/>
       <c r="E493" s="11"/>
-      <c r="F493" s="34"/>
-      <c r="G493" s="34"/>
+      <c r="F493" s="11"/>
+      <c r="G493" s="11"/>
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A494" s="11"/>
@@ -7895,8 +7908,8 @@
       <c r="C494" s="11"/>
       <c r="D494" s="11"/>
       <c r="E494" s="11"/>
-      <c r="F494" s="11"/>
-      <c r="G494" s="11"/>
+      <c r="F494" s="34"/>
+      <c r="G494" s="34"/>
     </row>
     <row r="495" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A495" s="11"/>
@@ -8016,20 +8029,20 @@
       <c r="G507" s="11"/>
     </row>
     <row r="508" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A508" s="34"/>
-      <c r="B508" s="34"/>
-      <c r="C508" s="34"/>
-      <c r="D508" s="34"/>
-      <c r="E508" s="34"/>
+      <c r="A508" s="11"/>
+      <c r="B508" s="11"/>
+      <c r="C508" s="11"/>
+      <c r="D508" s="11"/>
+      <c r="E508" s="11"/>
       <c r="F508" s="11"/>
       <c r="G508" s="11"/>
     </row>
     <row r="509" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A509" s="11"/>
-      <c r="B509" s="11"/>
-      <c r="C509" s="11"/>
-      <c r="D509" s="11"/>
-      <c r="E509" s="11"/>
+      <c r="A509" s="34"/>
+      <c r="B509" s="34"/>
+      <c r="C509" s="34"/>
+      <c r="D509" s="34"/>
+      <c r="E509" s="34"/>
       <c r="F509" s="11"/>
       <c r="G509" s="11"/>
     </row>
@@ -8210,8 +8223,8 @@
       <c r="C529" s="11"/>
       <c r="D529" s="11"/>
       <c r="E529" s="11"/>
-      <c r="F529" s="34"/>
-      <c r="G529" s="34"/>
+      <c r="F529" s="11"/>
+      <c r="G529" s="11"/>
     </row>
     <row r="530" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A530" s="11"/>
@@ -8219,8 +8232,8 @@
       <c r="C530" s="11"/>
       <c r="D530" s="11"/>
       <c r="E530" s="11"/>
-      <c r="F530" s="11"/>
-      <c r="G530" s="11"/>
+      <c r="F530" s="34"/>
+      <c r="G530" s="34"/>
     </row>
     <row r="531" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A531" s="11"/>
@@ -8340,20 +8353,20 @@
       <c r="G543" s="11"/>
     </row>
     <row r="544" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A544" s="34"/>
-      <c r="B544" s="34"/>
-      <c r="C544" s="34"/>
-      <c r="D544" s="34"/>
-      <c r="E544" s="34"/>
+      <c r="A544" s="11"/>
+      <c r="B544" s="11"/>
+      <c r="C544" s="11"/>
+      <c r="D544" s="11"/>
+      <c r="E544" s="11"/>
       <c r="F544" s="11"/>
       <c r="G544" s="11"/>
     </row>
     <row r="545" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A545" s="11"/>
-      <c r="B545" s="11"/>
-      <c r="C545" s="11"/>
-      <c r="D545" s="11"/>
-      <c r="E545" s="11"/>
+      <c r="A545" s="34"/>
+      <c r="B545" s="34"/>
+      <c r="C545" s="34"/>
+      <c r="D545" s="34"/>
+      <c r="E545" s="34"/>
       <c r="F545" s="11"/>
       <c r="G545" s="11"/>
     </row>
@@ -8471,8 +8484,8 @@
       <c r="C558" s="11"/>
       <c r="D558" s="11"/>
       <c r="E558" s="11"/>
-      <c r="F558" s="34"/>
-      <c r="G558" s="34"/>
+      <c r="F558" s="11"/>
+      <c r="G558" s="11"/>
     </row>
     <row r="559" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A559" s="11"/>
@@ -8480,8 +8493,8 @@
       <c r="C559" s="11"/>
       <c r="D559" s="11"/>
       <c r="E559" s="11"/>
-      <c r="F559" s="11"/>
-      <c r="G559" s="11"/>
+      <c r="F559" s="34"/>
+      <c r="G559" s="34"/>
     </row>
     <row r="560" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A560" s="11"/>
@@ -8601,20 +8614,20 @@
       <c r="G572" s="11"/>
     </row>
     <row r="573" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A573" s="34"/>
-      <c r="B573" s="34"/>
-      <c r="C573" s="34"/>
-      <c r="D573" s="34"/>
-      <c r="E573" s="34"/>
+      <c r="A573" s="11"/>
+      <c r="B573" s="11"/>
+      <c r="C573" s="11"/>
+      <c r="D573" s="11"/>
+      <c r="E573" s="11"/>
       <c r="F573" s="11"/>
       <c r="G573" s="11"/>
     </row>
     <row r="574" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A574" s="11"/>
-      <c r="B574" s="11"/>
-      <c r="C574" s="11"/>
-      <c r="D574" s="11"/>
-      <c r="E574" s="11"/>
+      <c r="A574" s="34"/>
+      <c r="B574" s="34"/>
+      <c r="C574" s="34"/>
+      <c r="D574" s="34"/>
+      <c r="E574" s="34"/>
       <c r="F574" s="11"/>
       <c r="G574" s="11"/>
     </row>
@@ -8651,8 +8664,8 @@
       <c r="C578" s="11"/>
       <c r="D578" s="11"/>
       <c r="E578" s="11"/>
-      <c r="F578" s="34"/>
-      <c r="G578" s="34"/>
+      <c r="F578" s="11"/>
+      <c r="G578" s="11"/>
     </row>
     <row r="579" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A579" s="11"/>
@@ -8660,8 +8673,8 @@
       <c r="C579" s="11"/>
       <c r="D579" s="11"/>
       <c r="E579" s="11"/>
-      <c r="F579" s="11"/>
-      <c r="G579" s="11"/>
+      <c r="F579" s="34"/>
+      <c r="G579" s="34"/>
     </row>
     <row r="580" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A580" s="11"/>
@@ -8704,7 +8717,7 @@
       <c r="B584" s="11"/>
       <c r="C584" s="11"/>
       <c r="D584" s="11"/>
-      <c r="E584" s="12"/>
+      <c r="E584" s="11"/>
       <c r="F584" s="11"/>
       <c r="G584" s="11"/>
     </row>
@@ -8740,7 +8753,7 @@
       <c r="B588" s="11"/>
       <c r="C588" s="11"/>
       <c r="D588" s="11"/>
-      <c r="E588" s="11"/>
+      <c r="E588" s="12"/>
       <c r="F588" s="11"/>
       <c r="G588" s="11"/>
     </row>
@@ -8781,20 +8794,20 @@
       <c r="G592" s="11"/>
     </row>
     <row r="593" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A593" s="34"/>
-      <c r="B593" s="34"/>
-      <c r="C593" s="34"/>
-      <c r="D593" s="34"/>
-      <c r="E593" s="34"/>
+      <c r="A593" s="11"/>
+      <c r="B593" s="11"/>
+      <c r="C593" s="11"/>
+      <c r="D593" s="11"/>
+      <c r="E593" s="11"/>
       <c r="F593" s="11"/>
       <c r="G593" s="11"/>
     </row>
     <row r="594" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A594" s="11"/>
-      <c r="B594" s="11"/>
-      <c r="C594" s="11"/>
-      <c r="D594" s="11"/>
-      <c r="E594" s="11"/>
+      <c r="A594" s="34"/>
+      <c r="B594" s="34"/>
+      <c r="C594" s="34"/>
+      <c r="D594" s="34"/>
+      <c r="E594" s="34"/>
       <c r="F594" s="11"/>
       <c r="G594" s="11"/>
     </row>
@@ -8858,8 +8871,8 @@
       <c r="C601" s="11"/>
       <c r="D601" s="11"/>
       <c r="E601" s="11"/>
-      <c r="F601" s="34"/>
-      <c r="G601" s="34"/>
+      <c r="F601" s="11"/>
+      <c r="G601" s="11"/>
     </row>
     <row r="602" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A602" s="11"/>
@@ -8876,8 +8889,8 @@
       <c r="C603" s="11"/>
       <c r="D603" s="11"/>
       <c r="E603" s="11"/>
-      <c r="F603" s="11"/>
-      <c r="G603" s="11"/>
+      <c r="F603" s="34"/>
+      <c r="G603" s="34"/>
     </row>
     <row r="604" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A604" s="11"/>
@@ -8933,7 +8946,7 @@
       <c r="F609" s="11"/>
       <c r="G609" s="11"/>
     </row>
-    <row r="610" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A610" s="11"/>
       <c r="B610" s="11"/>
       <c r="C610" s="11"/>
@@ -8942,14 +8955,14 @@
       <c r="F610" s="11"/>
       <c r="G610" s="11"/>
     </row>
-    <row r="611" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A611" s="11"/>
       <c r="B611" s="11"/>
       <c r="C611" s="11"/>
       <c r="D611" s="11"/>
       <c r="E611" s="11"/>
-      <c r="F611" s="34"/>
-      <c r="G611" s="34"/>
+      <c r="F611" s="11"/>
+      <c r="G611" s="11"/>
     </row>
     <row r="612" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A612" s="11"/>
@@ -8957,8 +8970,8 @@
       <c r="C612" s="11"/>
       <c r="D612" s="11"/>
       <c r="E612" s="11"/>
-      <c r="F612" s="11"/>
-      <c r="G612" s="11"/>
+      <c r="F612" s="34"/>
+      <c r="G612" s="34"/>
     </row>
     <row r="613" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A613" s="11"/>
@@ -8988,11 +9001,11 @@
       <c r="G615" s="11"/>
     </row>
     <row r="616" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A616" s="34"/>
-      <c r="B616" s="34"/>
-      <c r="C616" s="34"/>
-      <c r="D616" s="34"/>
-      <c r="E616" s="34"/>
+      <c r="A616" s="11"/>
+      <c r="B616" s="11"/>
+      <c r="C616" s="11"/>
+      <c r="D616" s="11"/>
+      <c r="E616" s="11"/>
       <c r="F616" s="11"/>
       <c r="G616" s="11"/>
     </row>
@@ -9006,11 +9019,11 @@
       <c r="G617" s="11"/>
     </row>
     <row r="618" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A618" s="11"/>
-      <c r="B618" s="11"/>
-      <c r="C618" s="11"/>
-      <c r="D618" s="11"/>
-      <c r="E618" s="11"/>
+      <c r="A618" s="34"/>
+      <c r="B618" s="34"/>
+      <c r="C618" s="34"/>
+      <c r="D618" s="34"/>
+      <c r="E618" s="34"/>
       <c r="F618" s="11"/>
       <c r="G618" s="11"/>
     </row>
@@ -9029,8 +9042,8 @@
       <c r="C620" s="11"/>
       <c r="D620" s="11"/>
       <c r="E620" s="11"/>
-      <c r="F620" s="34"/>
-      <c r="G620" s="34"/>
+      <c r="F620" s="11"/>
+      <c r="G620" s="11"/>
     </row>
     <row r="621" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A621" s="11"/>
@@ -9038,8 +9051,8 @@
       <c r="C621" s="11"/>
       <c r="D621" s="11"/>
       <c r="E621" s="11"/>
-      <c r="F621" s="11"/>
-      <c r="G621" s="11"/>
+      <c r="F621" s="34"/>
+      <c r="G621" s="34"/>
     </row>
     <row r="622" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A622" s="11"/>
@@ -9078,20 +9091,20 @@
       <c r="G625" s="11"/>
     </row>
     <row r="626" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A626" s="34"/>
-      <c r="B626" s="34"/>
-      <c r="C626" s="34"/>
-      <c r="D626" s="34"/>
-      <c r="E626" s="34"/>
+      <c r="A626" s="11"/>
+      <c r="B626" s="11"/>
+      <c r="C626" s="11"/>
+      <c r="D626" s="11"/>
+      <c r="E626" s="11"/>
       <c r="F626" s="11"/>
       <c r="G626" s="11"/>
     </row>
     <row r="627" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A627" s="11"/>
-      <c r="B627" s="11"/>
-      <c r="C627" s="11"/>
-      <c r="D627" s="11"/>
-      <c r="E627" s="11"/>
+      <c r="A627" s="34"/>
+      <c r="B627" s="34"/>
+      <c r="C627" s="34"/>
+      <c r="D627" s="34"/>
+      <c r="E627" s="34"/>
       <c r="F627" s="11"/>
       <c r="G627" s="11"/>
     </row>
@@ -9159,20 +9172,20 @@
       <c r="G634" s="11"/>
     </row>
     <row r="635" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A635" s="34"/>
-      <c r="B635" s="34"/>
-      <c r="C635" s="34"/>
-      <c r="D635" s="34"/>
-      <c r="E635" s="34"/>
+      <c r="A635" s="11"/>
+      <c r="B635" s="11"/>
+      <c r="C635" s="11"/>
+      <c r="D635" s="11"/>
+      <c r="E635" s="11"/>
       <c r="F635" s="11"/>
       <c r="G635" s="11"/>
     </row>
     <row r="636" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A636" s="11"/>
-      <c r="B636" s="11"/>
-      <c r="C636" s="11"/>
-      <c r="D636" s="11"/>
-      <c r="E636" s="11"/>
+      <c r="A636" s="34"/>
+      <c r="B636" s="34"/>
+      <c r="C636" s="34"/>
+      <c r="D636" s="34"/>
+      <c r="E636" s="34"/>
       <c r="F636" s="11"/>
       <c r="G636" s="11"/>
     </row>
@@ -9209,8 +9222,8 @@
       <c r="C640" s="11"/>
       <c r="D640" s="11"/>
       <c r="E640" s="11"/>
-      <c r="F640" s="34"/>
-      <c r="G640" s="34"/>
+      <c r="F640" s="11"/>
+      <c r="G640" s="11"/>
     </row>
     <row r="641" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A641" s="11"/>
@@ -9218,8 +9231,8 @@
       <c r="C641" s="11"/>
       <c r="D641" s="11"/>
       <c r="E641" s="11"/>
-      <c r="F641" s="11"/>
-      <c r="G641" s="11"/>
+      <c r="F641" s="34"/>
+      <c r="G641" s="34"/>
     </row>
     <row r="642" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A642" s="11"/>
@@ -9339,20 +9352,20 @@
       <c r="G654" s="11"/>
     </row>
     <row r="655" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A655" s="34"/>
-      <c r="B655" s="34"/>
-      <c r="C655" s="34"/>
-      <c r="D655" s="34"/>
-      <c r="E655" s="34"/>
+      <c r="A655" s="11"/>
+      <c r="B655" s="11"/>
+      <c r="C655" s="11"/>
+      <c r="D655" s="11"/>
+      <c r="E655" s="11"/>
       <c r="F655" s="11"/>
       <c r="G655" s="11"/>
     </row>
     <row r="656" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A656" s="11"/>
-      <c r="B656" s="11"/>
-      <c r="C656" s="11"/>
-      <c r="D656" s="11"/>
-      <c r="E656" s="11"/>
+      <c r="A656" s="34"/>
+      <c r="B656" s="34"/>
+      <c r="C656" s="34"/>
+      <c r="D656" s="34"/>
+      <c r="E656" s="34"/>
       <c r="F656" s="11"/>
       <c r="G656" s="11"/>
     </row>
@@ -9452,6 +9465,8 @@
       <c r="C667" s="11"/>
       <c r="D667" s="11"/>
       <c r="E667" s="11"/>
+      <c r="F667" s="11"/>
+      <c r="G667" s="11"/>
     </row>
     <row r="668" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A668" s="11"/>
@@ -9550,6 +9565,13 @@
       <c r="C681" s="11"/>
       <c r="D681" s="11"/>
       <c r="E681" s="11"/>
+    </row>
+    <row r="682" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A682" s="11"/>
+      <c r="B682" s="11"/>
+      <c r="C682" s="11"/>
+      <c r="D682" s="11"/>
+      <c r="E682" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1"/>

--- a/src/test/java/com/born/xls/ProductListPage.xlsx
+++ b/src/test/java/com/born/xls/ProductListPage.xlsx
@@ -2025,8 +2025,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K682"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="A139" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C151" sqref="C151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/test/java/com/born/xls/ProductListPage.xlsx
+++ b/src/test/java/com/born/xls/ProductListPage.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="251">
   <si>
     <t>TCID</t>
   </si>
@@ -979,9 +979,6 @@
     <t>Click on the Collection link</t>
   </si>
   <si>
-    <t>Verify that collection page has displayed with collection of  products</t>
-  </si>
-  <si>
     <t>Click on the FAQ link</t>
   </si>
   <si>
@@ -992,9 +989,6 @@
   </si>
   <si>
     <t>FAQ_Link</t>
-  </si>
-  <si>
-    <t>CollectionProducts_Page</t>
   </si>
   <si>
     <t>FAQ_Page</t>
@@ -1171,13 +1165,118 @@
     <t>Select any collection of products which displayed in the page</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>ProductDetails_Page</t>
   </si>
   <si>
-    <t>selectFirstElement</t>
+    <t>BathroomProducts_Link</t>
+  </si>
+  <si>
+    <t>Hover on the Bathroom link displayed in main page</t>
+  </si>
+  <si>
+    <t>ProductDetails_Button</t>
+  </si>
+  <si>
+    <t>Click on the Site Map link displayed in the footer</t>
+  </si>
+  <si>
+    <t>Verify that user has navigated to particular page</t>
+  </si>
+  <si>
+    <t>SiteMap_Link</t>
+  </si>
+  <si>
+    <t>SiteMap Kitchen</t>
+  </si>
+  <si>
+    <t>SiteMap_Page</t>
+  </si>
+  <si>
+    <t>Kitchen_Map</t>
+  </si>
+  <si>
+    <t>Select Kitchen categeory in the Site Map</t>
+  </si>
+  <si>
+    <t>KitchenProductPage</t>
+  </si>
+  <si>
+    <t>SiteMap Bath</t>
+  </si>
+  <si>
+    <t>SiteMap ForProffessionals</t>
+  </si>
+  <si>
+    <t>SiteMap Service&amp;Parts</t>
+  </si>
+  <si>
+    <t>SiteMap SinkFaucet</t>
+  </si>
+  <si>
+    <t>SiteMap TwoHandle</t>
+  </si>
+  <si>
+    <t>Select Bath categeory in the Site Map</t>
+  </si>
+  <si>
+    <t>Select  ForProffessionals categeory in the Site Map</t>
+  </si>
+  <si>
+    <t>Select  Service&amp;Parts categeory in the Site Map</t>
+  </si>
+  <si>
+    <t>Select  SinkFaucet categeory in the Site Map</t>
+  </si>
+  <si>
+    <t>Select TwoHandle categeory in the Site Map</t>
+  </si>
+  <si>
+    <t>Bath_Map</t>
+  </si>
+  <si>
+    <t>ForProffessionals_Map</t>
+  </si>
+  <si>
+    <t>ServicePart_Map</t>
+  </si>
+  <si>
+    <t>SinkFaucet_Map</t>
+  </si>
+  <si>
+    <t>KitchenTwoHandle_Map</t>
+  </si>
+  <si>
+    <t>BathProductPage</t>
+  </si>
+  <si>
+    <t>ForProffessionals_Page</t>
+  </si>
+  <si>
+    <t>ServicePartMap_Page</t>
+  </si>
+  <si>
+    <t>SinkFaucetMap_Page</t>
+  </si>
+  <si>
+    <t>KitchenTwoHandle_Page</t>
+  </si>
+  <si>
+    <t>To verify whether user can able to navigate to the particular Sink Faucet product page using Site Map Directions</t>
+  </si>
+  <si>
+    <t>To verify whether user can able to navigate to the particular Service &amp; Parts page using Site Map Directions</t>
+  </si>
+  <si>
+    <t>To verify whether user can able to navigate to the particular Tow Handle product page using Site Map Directions</t>
+  </si>
+  <si>
+    <t>To verify whether user can able to navigate to the particular ForProffessionals  page using Site Map Directions</t>
+  </si>
+  <si>
+    <t>To verify whether user can able to navigate to the particular Bath product page using Site Map Directions</t>
+  </si>
+  <si>
+    <t>To verify whether user can able to navigate to the particular Kitchen product page using Site Directions</t>
   </si>
 </sst>
 </file>
@@ -1768,10 +1867,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1801,7 +1900,7 @@
         <v>174</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -1812,7 +1911,7 @@
         <v>172</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -1823,7 +1922,7 @@
         <v>173</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -1834,7 +1933,7 @@
         <v>176</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -1845,7 +1944,7 @@
         <v>160</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -1856,7 +1955,7 @@
         <v>161</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -1867,7 +1966,7 @@
         <v>162</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -1878,7 +1977,7 @@
         <v>163</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -1889,7 +1988,7 @@
         <v>107</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -1900,7 +1999,7 @@
         <v>112</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="41.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1911,18 +2010,18 @@
         <v>164</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="19" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B13" s="25" t="s">
         <v>165</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -1933,7 +2032,7 @@
         <v>166</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -1944,7 +2043,7 @@
         <v>175</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -1955,7 +2054,7 @@
         <v>167</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -1966,7 +2065,7 @@
         <v>168</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -1977,7 +2076,7 @@
         <v>169</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -1999,17 +2098,83 @@
         <v>171</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2023,10 +2188,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:K682"/>
+  <dimension ref="A1:K678"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C151" sqref="C151"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2752,10 +2917,10 @@
         <v>25</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E40" s="27"/>
       <c r="F40" s="27"/>
@@ -2769,13 +2934,13 @@
         <v>24</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E41" s="29" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F41" s="27"/>
       <c r="G41" s="27"/>
@@ -2788,10 +2953,10 @@
         <v>23</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D42" s="27" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E42" s="27" t="s">
         <v>63</v>
@@ -2810,7 +2975,7 @@
         <v>67</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E43" s="27" t="s">
         <v>69</v>
@@ -2909,7 +3074,7 @@
         <v>26</v>
       </c>
       <c r="C49" s="25" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D49" s="27" t="s">
         <v>34</v>
@@ -2992,7 +3157,7 @@
         <v>26</v>
       </c>
       <c r="C54" s="25" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D54" s="27" t="s">
         <v>35</v>
@@ -3101,7 +3266,7 @@
       </c>
       <c r="E60" s="27"/>
       <c r="F60" s="27" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G60" s="27"/>
     </row>
@@ -3196,7 +3361,7 @@
         <v>26</v>
       </c>
       <c r="C66" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D66" s="27" t="s">
         <v>42</v>
@@ -3374,7 +3539,7 @@
         <v>26</v>
       </c>
       <c r="C76" s="25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D76" s="27" t="s">
         <v>42</v>
@@ -3597,7 +3762,7 @@
         <v>26</v>
       </c>
       <c r="C89" s="25" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D89" s="27" t="s">
         <v>100</v>
@@ -3695,7 +3860,7 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" s="19" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B95" s="27" t="s">
         <v>28</v>
@@ -3714,7 +3879,7 @@
     </row>
     <row r="96" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="19" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B96" s="27" t="s">
         <v>27</v>
@@ -3733,7 +3898,7 @@
     </row>
     <row r="97" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="19" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B97" s="27" t="s">
         <v>26</v>
@@ -3742,7 +3907,7 @@
         <v>127</v>
       </c>
       <c r="D97" s="27" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E97" s="27" t="s">
         <v>129</v>
@@ -3752,26 +3917,26 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="19" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B98" s="27" t="s">
         <v>25</v>
       </c>
       <c r="C98" s="26" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D98" s="27" t="s">
         <v>34</v>
       </c>
       <c r="E98" s="27" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F98" s="27"/>
       <c r="G98" s="27"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="19" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B99" s="27" t="s">
         <v>24</v>
@@ -3846,7 +4011,7 @@
         <v>127</v>
       </c>
       <c r="D103" s="27" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E103" s="27" t="s">
         <v>129</v>
@@ -3950,7 +4115,7 @@
         <v>127</v>
       </c>
       <c r="D109" s="27" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E109" s="27" t="s">
         <v>129</v>
@@ -4026,7 +4191,7 @@
         <v>127</v>
       </c>
       <c r="D113" s="27" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E113" s="27" t="s">
         <v>129</v>
@@ -4083,7 +4248,7 @@
         <v>127</v>
       </c>
       <c r="D116" s="27" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E116" s="27" t="s">
         <v>129</v>
@@ -4544,12 +4709,14 @@
         <v>26</v>
       </c>
       <c r="C142" s="27" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="D142" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="E142" s="27"/>
+        <v>42</v>
+      </c>
+      <c r="E142" s="27" t="s">
+        <v>214</v>
+      </c>
       <c r="F142" s="7"/>
       <c r="G142" s="7"/>
     </row>
@@ -4567,12 +4734,12 @@
         <v>35</v>
       </c>
       <c r="E143" s="27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F143" s="7"/>
       <c r="G143" s="7"/>
     </row>
-    <row r="144" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" s="26" t="s">
         <v>158</v>
       </c>
@@ -4580,13 +4747,13 @@
         <v>24</v>
       </c>
       <c r="C144" s="26" t="s">
-        <v>179</v>
+        <v>67</v>
       </c>
       <c r="D144" s="27" t="s">
-        <v>34</v>
+        <v>197</v>
       </c>
       <c r="E144" s="29" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="F144" s="7"/>
       <c r="G144" s="7"/>
@@ -4599,13 +4766,13 @@
         <v>23</v>
       </c>
       <c r="C145" s="26" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D145" s="27" t="s">
-        <v>217</v>
+        <v>33</v>
       </c>
       <c r="E145" s="29" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F145" s="7"/>
       <c r="G145" s="7"/>
@@ -4621,10 +4788,10 @@
         <v>67</v>
       </c>
       <c r="D146" s="27" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E146" s="29" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="F146" s="7"/>
       <c r="G146" s="7"/>
@@ -4637,13 +4804,13 @@
         <v>21</v>
       </c>
       <c r="C147" s="26" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D147" s="27" t="s">
-        <v>217</v>
+        <v>33</v>
       </c>
       <c r="E147" s="29" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F147" s="7"/>
       <c r="G147" s="7"/>
@@ -4659,10 +4826,10 @@
         <v>67</v>
       </c>
       <c r="D148" s="27" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E148" s="29" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F148" s="7"/>
       <c r="G148" s="7"/>
@@ -4675,13 +4842,13 @@
         <v>13</v>
       </c>
       <c r="C149" s="26" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D149" s="27" t="s">
         <v>34</v>
       </c>
       <c r="E149" s="29" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F149" s="7"/>
       <c r="G149" s="7"/>
@@ -4779,13 +4946,13 @@
         <v>25</v>
       </c>
       <c r="C155" s="27" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D155" s="27" t="s">
         <v>35</v>
       </c>
       <c r="E155" s="27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F155" s="7"/>
       <c r="G155" s="7"/>
@@ -4798,13 +4965,13 @@
         <v>24</v>
       </c>
       <c r="C156" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D156" s="27" t="s">
         <v>34</v>
       </c>
       <c r="E156" s="27" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F156" s="7"/>
       <c r="G156" s="7"/>
@@ -4841,7 +5008,7 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B159" s="7" t="s">
         <v>28</v>
@@ -4860,7 +5027,7 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B160" s="7" t="s">
         <v>27</v>
@@ -4879,45 +5046,45 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B161" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D161" s="7" t="s">
         <v>35</v>
       </c>
       <c r="E161" s="33" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F161" s="7"/>
       <c r="G161" s="7"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B162" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D162" s="7" t="s">
         <v>34</v>
       </c>
       <c r="E162" s="33" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F162" s="7"/>
       <c r="G162" s="7"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B163" s="7" t="s">
         <v>24</v>
@@ -4933,436 +5100,856 @@
       <c r="G163" s="7"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A164" s="11"/>
-      <c r="B164" s="11"/>
-      <c r="C164" s="11"/>
-      <c r="D164" s="11"/>
-      <c r="E164" s="12"/>
-      <c r="F164" s="11"/>
-      <c r="G164" s="11"/>
+      <c r="A164" s="28"/>
+      <c r="B164" s="28"/>
+      <c r="C164" s="28"/>
+      <c r="D164" s="28"/>
+      <c r="E164" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="F164" s="28"/>
+      <c r="G164" s="28"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A165" s="11"/>
-      <c r="B165" s="11"/>
-      <c r="C165" s="11"/>
-      <c r="D165" s="11"/>
-      <c r="E165" s="11"/>
-      <c r="F165" s="11"/>
-      <c r="G165" s="11"/>
+      <c r="A165" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="B165" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C165" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D165" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E165" s="27"/>
+      <c r="F165" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G165" s="7"/>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A166" s="34"/>
-      <c r="B166" s="34"/>
-      <c r="C166" s="34"/>
-      <c r="D166" s="34"/>
-      <c r="E166" s="34"/>
-      <c r="F166" s="11"/>
-      <c r="G166" s="11"/>
+      <c r="A166" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="B166" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C166" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D166" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E166" s="27"/>
+      <c r="F166" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G166" s="7"/>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A167" s="11"/>
-      <c r="B167" s="11"/>
-      <c r="C167" s="11"/>
-      <c r="D167" s="11"/>
-      <c r="E167" s="11"/>
-      <c r="F167" s="11"/>
-      <c r="G167" s="11"/>
+      <c r="A167" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="B167" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C167" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="D167" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E167" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="F167" s="7"/>
+      <c r="G167" s="7"/>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A168" s="11"/>
-      <c r="B168" s="11"/>
-      <c r="C168" s="11"/>
-      <c r="D168" s="11"/>
-      <c r="E168" s="11"/>
-      <c r="F168" s="11"/>
-      <c r="G168" s="11"/>
+      <c r="A168" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="B168" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C168" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="D168" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E168" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="F168" s="7"/>
+      <c r="G168" s="7"/>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A169" s="11"/>
-      <c r="B169" s="11"/>
-      <c r="C169" s="11"/>
-      <c r="D169" s="11"/>
-      <c r="E169" s="11"/>
-      <c r="F169" s="11"/>
-      <c r="G169" s="11"/>
+      <c r="A169" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="B169" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C169" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="D169" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E169" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="F169" s="7"/>
+      <c r="G169" s="7"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A170" s="11"/>
-      <c r="B170" s="11"/>
-      <c r="C170" s="11"/>
-      <c r="D170" s="11"/>
-      <c r="E170" s="11"/>
-      <c r="F170" s="11"/>
-      <c r="G170" s="11"/>
+      <c r="A170" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="B170" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C170" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="D170" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E170" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="F170" s="7"/>
+      <c r="G170" s="7"/>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A171" s="11"/>
-      <c r="B171" s="11"/>
-      <c r="C171" s="11"/>
-      <c r="D171" s="11"/>
-      <c r="E171" s="11"/>
-      <c r="F171" s="11"/>
-      <c r="G171" s="11"/>
+      <c r="A171" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="B171" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C171" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D171" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E171" s="27"/>
+      <c r="F171" s="7"/>
+      <c r="G171" s="7"/>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A172" s="11"/>
-      <c r="B172" s="11"/>
-      <c r="C172" s="11"/>
-      <c r="D172" s="11"/>
-      <c r="E172" s="11"/>
-      <c r="F172" s="11"/>
-      <c r="G172" s="11"/>
+      <c r="A172" s="28"/>
+      <c r="B172" s="28"/>
+      <c r="C172" s="28"/>
+      <c r="D172" s="28"/>
+      <c r="E172" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="F172" s="28"/>
+      <c r="G172" s="28"/>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A173" s="11"/>
-      <c r="B173" s="11"/>
-      <c r="C173" s="11"/>
-      <c r="D173" s="11"/>
-      <c r="E173" s="11"/>
-      <c r="F173" s="11"/>
-      <c r="G173" s="11"/>
+      <c r="A173" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="B173" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C173" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D173" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E173" s="27"/>
+      <c r="F173" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G173" s="7"/>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A174" s="11"/>
-      <c r="B174" s="11"/>
-      <c r="C174" s="11"/>
-      <c r="D174" s="11"/>
-      <c r="E174" s="11"/>
-      <c r="F174" s="11"/>
-      <c r="G174" s="11"/>
+      <c r="A174" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="B174" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C174" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D174" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E174" s="27"/>
+      <c r="F174" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G174" s="7"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A175" s="11"/>
-      <c r="B175" s="11"/>
-      <c r="C175" s="11"/>
-      <c r="D175" s="11"/>
-      <c r="E175" s="11"/>
-      <c r="F175" s="11"/>
-      <c r="G175" s="11"/>
+      <c r="A175" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="B175" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C175" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="D175" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E175" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="F175" s="7"/>
+      <c r="G175" s="7"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A176" s="11"/>
-      <c r="B176" s="11"/>
-      <c r="C176" s="11"/>
-      <c r="D176" s="11"/>
-      <c r="E176" s="11"/>
-      <c r="F176" s="11"/>
-      <c r="G176" s="11"/>
+      <c r="A176" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="B176" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C176" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="D176" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E176" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="F176" s="7"/>
+      <c r="G176" s="7"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A177" s="11"/>
-      <c r="B177" s="11"/>
-      <c r="C177" s="11"/>
-      <c r="D177" s="11"/>
-      <c r="E177" s="11"/>
-      <c r="F177" s="11"/>
-      <c r="G177" s="11"/>
+      <c r="A177" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="B177" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C177" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="D177" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E177" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="F177" s="7"/>
+      <c r="G177" s="7"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A178" s="11"/>
-      <c r="B178" s="11"/>
-      <c r="C178" s="11"/>
-      <c r="D178" s="11"/>
-      <c r="E178" s="11"/>
-      <c r="F178" s="11"/>
-      <c r="G178" s="11"/>
+      <c r="A178" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="B178" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C178" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="D178" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E178" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="F178" s="7"/>
+      <c r="G178" s="7"/>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A179" s="11"/>
-      <c r="B179" s="11"/>
-      <c r="C179" s="11"/>
-      <c r="D179" s="11"/>
-      <c r="E179" s="11"/>
-      <c r="F179" s="11"/>
-      <c r="G179" s="11"/>
+      <c r="A179" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="B179" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C179" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D179" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E179" s="27"/>
+      <c r="F179" s="7"/>
+      <c r="G179" s="7"/>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A180" s="11"/>
-      <c r="B180" s="11"/>
-      <c r="C180" s="11"/>
-      <c r="D180" s="11"/>
-      <c r="E180" s="11"/>
-      <c r="F180" s="11"/>
-      <c r="G180" s="11"/>
+      <c r="A180" s="28"/>
+      <c r="B180" s="28"/>
+      <c r="C180" s="28"/>
+      <c r="D180" s="28"/>
+      <c r="E180" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="F180" s="28"/>
+      <c r="G180" s="28"/>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A181" s="11"/>
-      <c r="B181" s="11"/>
-      <c r="C181" s="11"/>
-      <c r="D181" s="11"/>
-      <c r="E181" s="11"/>
-      <c r="F181" s="11"/>
-      <c r="G181" s="11"/>
+      <c r="A181" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="B181" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C181" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D181" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E181" s="27"/>
+      <c r="F181" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G181" s="7"/>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A182" s="11"/>
-      <c r="B182" s="11"/>
-      <c r="C182" s="11"/>
-      <c r="D182" s="11"/>
-      <c r="E182" s="11"/>
-      <c r="F182" s="11"/>
-      <c r="G182" s="11"/>
+      <c r="A182" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="B182" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C182" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D182" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E182" s="27"/>
+      <c r="F182" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G182" s="7"/>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A183" s="11"/>
-      <c r="B183" s="11"/>
-      <c r="C183" s="11"/>
-      <c r="D183" s="11"/>
-      <c r="E183" s="11"/>
-      <c r="F183" s="11"/>
-      <c r="G183" s="11"/>
+      <c r="A183" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="B183" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C183" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="D183" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E183" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="F183" s="7"/>
+      <c r="G183" s="7"/>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A184" s="11"/>
-      <c r="B184" s="11"/>
-      <c r="C184" s="11"/>
-      <c r="D184" s="11"/>
-      <c r="E184" s="11"/>
-      <c r="F184" s="11"/>
-      <c r="G184" s="11"/>
+      <c r="A184" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="B184" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C184" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="D184" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E184" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="F184" s="7"/>
+      <c r="G184" s="7"/>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A185" s="11"/>
-      <c r="B185" s="11"/>
-      <c r="C185" s="11"/>
-      <c r="D185" s="11"/>
-      <c r="E185" s="11"/>
-      <c r="F185" s="11"/>
-      <c r="G185" s="11"/>
+      <c r="A185" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="B185" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C185" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="D185" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E185" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="F185" s="7"/>
+      <c r="G185" s="7"/>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A186" s="11"/>
-      <c r="B186" s="11"/>
-      <c r="C186" s="11"/>
-      <c r="D186" s="11"/>
-      <c r="E186" s="12"/>
-      <c r="F186" s="11"/>
-      <c r="G186" s="11"/>
+      <c r="A186" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="B186" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C186" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="D186" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E186" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="F186" s="7"/>
+      <c r="G186" s="7"/>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A187" s="11"/>
-      <c r="B187" s="11"/>
-      <c r="C187" s="11"/>
-      <c r="D187" s="11"/>
-      <c r="E187" s="12"/>
-      <c r="F187" s="11"/>
-      <c r="G187" s="11"/>
+      <c r="A187" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="B187" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C187" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D187" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E187" s="27"/>
+      <c r="F187" s="7"/>
+      <c r="G187" s="7"/>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A188" s="11"/>
-      <c r="B188" s="11"/>
-      <c r="C188" s="11"/>
-      <c r="D188" s="11"/>
-      <c r="E188" s="12"/>
-      <c r="F188" s="11"/>
-      <c r="G188" s="11"/>
+      <c r="A188" s="28"/>
+      <c r="B188" s="28"/>
+      <c r="C188" s="28"/>
+      <c r="D188" s="28"/>
+      <c r="E188" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="F188" s="28"/>
+      <c r="G188" s="28"/>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A189" s="11"/>
-      <c r="B189" s="11"/>
-      <c r="C189" s="11"/>
-      <c r="D189" s="11"/>
-      <c r="E189" s="12"/>
-      <c r="F189" s="11"/>
-      <c r="G189" s="11"/>
+      <c r="A189" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="B189" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C189" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D189" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E189" s="27"/>
+      <c r="F189" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G189" s="7"/>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A190" s="11"/>
-      <c r="B190" s="11"/>
-      <c r="C190" s="11"/>
-      <c r="D190" s="11"/>
-      <c r="E190" s="11"/>
-      <c r="F190" s="11"/>
-      <c r="G190" s="11"/>
+      <c r="A190" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="B190" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C190" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D190" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E190" s="27"/>
+      <c r="F190" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G190" s="7"/>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A191" s="11"/>
-      <c r="B191" s="11"/>
-      <c r="C191" s="11"/>
-      <c r="D191" s="11"/>
-      <c r="E191" s="11"/>
-      <c r="F191" s="11"/>
-      <c r="G191" s="11"/>
+      <c r="A191" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="B191" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C191" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="D191" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E191" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="F191" s="7"/>
+      <c r="G191" s="7"/>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A192" s="11"/>
-      <c r="B192" s="11"/>
-      <c r="C192" s="11"/>
-      <c r="D192" s="11"/>
-      <c r="E192" s="12"/>
-      <c r="F192" s="11"/>
-      <c r="G192" s="11"/>
+      <c r="A192" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="B192" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C192" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="D192" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E192" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="F192" s="7"/>
+      <c r="G192" s="7"/>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A193" s="11"/>
-      <c r="B193" s="11"/>
-      <c r="C193" s="11"/>
-      <c r="D193" s="11"/>
-      <c r="E193" s="12"/>
-      <c r="F193" s="11"/>
-      <c r="G193" s="11"/>
+      <c r="A193" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="B193" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C193" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="D193" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E193" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="F193" s="7"/>
+      <c r="G193" s="7"/>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A194" s="11"/>
-      <c r="B194" s="11"/>
-      <c r="C194" s="11"/>
-      <c r="D194" s="11"/>
-      <c r="E194" s="12"/>
-      <c r="F194" s="11"/>
-      <c r="G194" s="11"/>
+      <c r="A194" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="B194" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C194" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="D194" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E194" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="F194" s="7"/>
+      <c r="G194" s="7"/>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A195" s="11"/>
-      <c r="B195" s="11"/>
-      <c r="C195" s="11"/>
-      <c r="D195" s="11"/>
-      <c r="E195" s="12"/>
-      <c r="F195" s="11"/>
-      <c r="G195" s="11"/>
+      <c r="A195" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="B195" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C195" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D195" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E195" s="27"/>
+      <c r="F195" s="7"/>
+      <c r="G195" s="7"/>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A196" s="11"/>
-      <c r="B196" s="11"/>
-      <c r="C196" s="11"/>
-      <c r="D196" s="11"/>
-      <c r="E196" s="12"/>
-      <c r="F196" s="11"/>
-      <c r="G196" s="11"/>
+      <c r="A196" s="28"/>
+      <c r="B196" s="28"/>
+      <c r="C196" s="28"/>
+      <c r="D196" s="28"/>
+      <c r="E196" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="F196" s="28"/>
+      <c r="G196" s="28"/>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A197" s="11"/>
-      <c r="B197" s="11"/>
-      <c r="C197" s="11"/>
-      <c r="D197" s="11"/>
-      <c r="E197" s="12"/>
-      <c r="F197" s="11"/>
-      <c r="G197" s="11"/>
+      <c r="A197" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="B197" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C197" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D197" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E197" s="27"/>
+      <c r="F197" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G197" s="7"/>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A198" s="11"/>
-      <c r="B198" s="11"/>
-      <c r="C198" s="11"/>
-      <c r="D198" s="11"/>
-      <c r="E198" s="12"/>
-      <c r="F198" s="11"/>
-      <c r="G198" s="11"/>
+      <c r="A198" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="B198" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C198" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D198" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E198" s="27"/>
+      <c r="F198" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G198" s="7"/>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A199" s="11"/>
-      <c r="B199" s="11"/>
-      <c r="C199" s="11"/>
-      <c r="D199" s="11"/>
-      <c r="E199" s="12"/>
-      <c r="F199" s="11"/>
-      <c r="G199" s="11"/>
+      <c r="A199" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="B199" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C199" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="D199" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E199" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="F199" s="7"/>
+      <c r="G199" s="7"/>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A200" s="11"/>
-      <c r="B200" s="11"/>
-      <c r="C200" s="11"/>
-      <c r="D200" s="11"/>
-      <c r="E200" s="12"/>
-      <c r="F200" s="11"/>
-      <c r="G200" s="11"/>
+      <c r="A200" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="B200" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C200" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="D200" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E200" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="F200" s="7"/>
+      <c r="G200" s="7"/>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A201" s="11"/>
-      <c r="B201" s="11"/>
-      <c r="C201" s="11"/>
-      <c r="D201" s="11"/>
-      <c r="E201" s="12"/>
-      <c r="F201" s="11"/>
-      <c r="G201" s="11"/>
+      <c r="A201" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="B201" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C201" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="D201" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E201" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="F201" s="7"/>
+      <c r="G201" s="7"/>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A202" s="11"/>
-      <c r="B202" s="11"/>
-      <c r="C202" s="11"/>
-      <c r="D202" s="11"/>
-      <c r="E202" s="12"/>
-      <c r="F202" s="11"/>
-      <c r="G202" s="11"/>
+      <c r="A202" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="B202" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C202" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="D202" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E202" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="F202" s="7"/>
+      <c r="G202" s="7"/>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A203" s="11"/>
-      <c r="B203" s="11"/>
-      <c r="C203" s="11"/>
-      <c r="D203" s="11"/>
-      <c r="E203" s="12"/>
-      <c r="F203" s="11"/>
-      <c r="G203" s="11"/>
+      <c r="A203" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="B203" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C203" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D203" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E203" s="27"/>
+      <c r="F203" s="7"/>
+      <c r="G203" s="7"/>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A204" s="11"/>
-      <c r="B204" s="11"/>
-      <c r="C204" s="11"/>
-      <c r="D204" s="11"/>
-      <c r="E204" s="12"/>
-      <c r="F204" s="11"/>
-      <c r="G204" s="11"/>
+      <c r="A204" s="28"/>
+      <c r="B204" s="28"/>
+      <c r="C204" s="28"/>
+      <c r="D204" s="28"/>
+      <c r="E204" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="F204" s="28"/>
+      <c r="G204" s="28"/>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A205" s="11"/>
-      <c r="B205" s="11"/>
-      <c r="C205" s="11"/>
-      <c r="D205" s="11"/>
-      <c r="E205" s="12"/>
-      <c r="F205" s="11"/>
-      <c r="G205" s="11"/>
+      <c r="A205" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="B205" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C205" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D205" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E205" s="27"/>
+      <c r="F205" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G205" s="7"/>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A206" s="11"/>
-      <c r="B206" s="11"/>
-      <c r="C206" s="11"/>
-      <c r="D206" s="11"/>
-      <c r="E206" s="12"/>
-      <c r="F206" s="11"/>
-      <c r="G206" s="11"/>
+      <c r="A206" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="B206" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C206" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D206" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E206" s="27"/>
+      <c r="F206" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G206" s="7"/>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A207" s="11"/>
-      <c r="B207" s="11"/>
-      <c r="C207" s="11"/>
-      <c r="D207" s="11"/>
-      <c r="E207" s="12"/>
-      <c r="F207" s="11"/>
-      <c r="G207" s="11"/>
+      <c r="A207" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="B207" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C207" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="D207" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E207" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="F207" s="7"/>
+      <c r="G207" s="7"/>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A208" s="11"/>
-      <c r="B208" s="11"/>
-      <c r="C208" s="13"/>
-      <c r="D208" s="11"/>
-      <c r="E208" s="12"/>
-      <c r="F208" s="11"/>
-      <c r="G208" s="11"/>
+      <c r="A208" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="B208" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C208" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="D208" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E208" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="F208" s="7"/>
+      <c r="G208" s="7"/>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A209" s="11"/>
-      <c r="B209" s="11"/>
-      <c r="C209" s="11"/>
-      <c r="D209" s="11"/>
-      <c r="E209" s="11"/>
-      <c r="F209" s="11"/>
-      <c r="G209" s="11"/>
+      <c r="A209" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="B209" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C209" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="D209" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E209" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="F209" s="7"/>
+      <c r="G209" s="7"/>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A210" s="11"/>
-      <c r="B210" s="11"/>
-      <c r="C210" s="11"/>
-      <c r="D210" s="11"/>
-      <c r="E210" s="11"/>
-      <c r="F210" s="11"/>
-      <c r="G210" s="11"/>
+      <c r="A210" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="B210" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C210" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="D210" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E210" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="F210" s="7"/>
+      <c r="G210" s="7"/>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A211" s="11"/>
-      <c r="B211" s="11"/>
-      <c r="C211" s="11"/>
-      <c r="D211" s="11"/>
-      <c r="E211" s="11"/>
-      <c r="F211" s="11"/>
-      <c r="G211" s="11"/>
+      <c r="A211" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="B211" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C211" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D211" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E211" s="27"/>
+      <c r="F211" s="7"/>
+      <c r="G211" s="7"/>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A212" s="11"/>
@@ -5378,7 +5965,7 @@
       <c r="B213" s="11"/>
       <c r="C213" s="11"/>
       <c r="D213" s="11"/>
-      <c r="E213" s="11"/>
+      <c r="E213" s="12"/>
       <c r="F213" s="11"/>
       <c r="G213" s="11"/>
     </row>
@@ -5396,7 +5983,7 @@
       <c r="B215" s="11"/>
       <c r="C215" s="11"/>
       <c r="D215" s="11"/>
-      <c r="E215" s="11"/>
+      <c r="E215" s="12"/>
       <c r="F215" s="11"/>
       <c r="G215" s="11"/>
     </row>
@@ -5406,8 +5993,8 @@
       <c r="C216" s="11"/>
       <c r="D216" s="11"/>
       <c r="E216" s="11"/>
-      <c r="F216" s="11"/>
-      <c r="G216" s="11"/>
+      <c r="F216" s="34"/>
+      <c r="G216" s="34"/>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A217" s="11"/>
@@ -5432,7 +6019,7 @@
       <c r="B219" s="11"/>
       <c r="C219" s="11"/>
       <c r="D219" s="11"/>
-      <c r="E219" s="12"/>
+      <c r="E219" s="11"/>
       <c r="F219" s="11"/>
       <c r="G219" s="11"/>
     </row>
@@ -5442,8 +6029,8 @@
       <c r="C220" s="11"/>
       <c r="D220" s="11"/>
       <c r="E220" s="11"/>
-      <c r="F220" s="34"/>
-      <c r="G220" s="34"/>
+      <c r="F220" s="11"/>
+      <c r="G220" s="11"/>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A221" s="11"/>
@@ -5459,7 +6046,7 @@
       <c r="B222" s="11"/>
       <c r="C222" s="11"/>
       <c r="D222" s="11"/>
-      <c r="E222" s="11"/>
+      <c r="E222" s="12"/>
       <c r="F222" s="11"/>
       <c r="G222" s="11"/>
     </row>
@@ -5468,7 +6055,7 @@
       <c r="B223" s="11"/>
       <c r="C223" s="11"/>
       <c r="D223" s="11"/>
-      <c r="E223" s="11"/>
+      <c r="E223" s="12"/>
       <c r="F223" s="11"/>
       <c r="G223" s="11"/>
     </row>
@@ -5477,7 +6064,7 @@
       <c r="B224" s="11"/>
       <c r="C224" s="11"/>
       <c r="D224" s="11"/>
-      <c r="E224" s="11"/>
+      <c r="E224" s="12"/>
       <c r="F224" s="11"/>
       <c r="G224" s="11"/>
     </row>
@@ -5531,16 +6118,16 @@
       <c r="B230" s="11"/>
       <c r="C230" s="11"/>
       <c r="D230" s="11"/>
-      <c r="E230" s="12"/>
+      <c r="E230" s="11"/>
       <c r="F230" s="11"/>
       <c r="G230" s="11"/>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A231" s="11"/>
-      <c r="B231" s="11"/>
-      <c r="C231" s="11"/>
-      <c r="D231" s="11"/>
-      <c r="E231" s="12"/>
+      <c r="A231" s="34"/>
+      <c r="B231" s="34"/>
+      <c r="C231" s="34"/>
+      <c r="D231" s="34"/>
+      <c r="E231" s="34"/>
       <c r="F231" s="11"/>
       <c r="G231" s="11"/>
     </row>
@@ -5549,16 +6136,16 @@
       <c r="B232" s="11"/>
       <c r="C232" s="11"/>
       <c r="D232" s="11"/>
-      <c r="E232" s="12"/>
-      <c r="F232" s="11"/>
-      <c r="G232" s="11"/>
+      <c r="E232" s="11"/>
+      <c r="F232" s="34"/>
+      <c r="G232" s="34"/>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A233" s="11"/>
       <c r="B233" s="11"/>
       <c r="C233" s="11"/>
       <c r="D233" s="11"/>
-      <c r="E233" s="12"/>
+      <c r="E233" s="11"/>
       <c r="F233" s="11"/>
       <c r="G233" s="11"/>
     </row>
@@ -5572,11 +6159,11 @@
       <c r="G234" s="11"/>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A235" s="34"/>
-      <c r="B235" s="34"/>
-      <c r="C235" s="34"/>
-      <c r="D235" s="34"/>
-      <c r="E235" s="34"/>
+      <c r="A235" s="11"/>
+      <c r="B235" s="11"/>
+      <c r="C235" s="11"/>
+      <c r="D235" s="11"/>
+      <c r="E235" s="11"/>
       <c r="F235" s="11"/>
       <c r="G235" s="11"/>
     </row>
@@ -5586,8 +6173,8 @@
       <c r="C236" s="11"/>
       <c r="D236" s="11"/>
       <c r="E236" s="11"/>
-      <c r="F236" s="34"/>
-      <c r="G236" s="34"/>
+      <c r="F236" s="11"/>
+      <c r="G236" s="11"/>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A237" s="11"/>
@@ -5630,7 +6217,7 @@
       <c r="B241" s="11"/>
       <c r="C241" s="11"/>
       <c r="D241" s="11"/>
-      <c r="E241" s="11"/>
+      <c r="E241" s="12"/>
       <c r="F241" s="11"/>
       <c r="G241" s="11"/>
     </row>
@@ -5639,7 +6226,7 @@
       <c r="B242" s="11"/>
       <c r="C242" s="11"/>
       <c r="D242" s="11"/>
-      <c r="E242" s="11"/>
+      <c r="E242" s="12"/>
       <c r="F242" s="11"/>
       <c r="G242" s="11"/>
     </row>
@@ -5648,7 +6235,7 @@
       <c r="B243" s="11"/>
       <c r="C243" s="11"/>
       <c r="D243" s="11"/>
-      <c r="E243" s="11"/>
+      <c r="E243" s="12"/>
       <c r="F243" s="11"/>
       <c r="G243" s="11"/>
     </row>
@@ -5657,7 +6244,7 @@
       <c r="B244" s="11"/>
       <c r="C244" s="11"/>
       <c r="D244" s="11"/>
-      <c r="E244" s="11"/>
+      <c r="E244" s="12"/>
       <c r="F244" s="11"/>
       <c r="G244" s="11"/>
     </row>
@@ -5675,16 +6262,16 @@
       <c r="B246" s="11"/>
       <c r="C246" s="11"/>
       <c r="D246" s="11"/>
-      <c r="E246" s="12"/>
+      <c r="E246" s="11"/>
       <c r="F246" s="11"/>
       <c r="G246" s="11"/>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A247" s="11"/>
-      <c r="B247" s="11"/>
-      <c r="C247" s="11"/>
-      <c r="D247" s="11"/>
-      <c r="E247" s="12"/>
+      <c r="A247" s="34"/>
+      <c r="B247" s="34"/>
+      <c r="C247" s="34"/>
+      <c r="D247" s="34"/>
+      <c r="E247" s="34"/>
       <c r="F247" s="11"/>
       <c r="G247" s="11"/>
     </row>
@@ -5693,7 +6280,7 @@
       <c r="B248" s="11"/>
       <c r="C248" s="11"/>
       <c r="D248" s="11"/>
-      <c r="E248" s="12"/>
+      <c r="E248" s="11"/>
       <c r="F248" s="11"/>
       <c r="G248" s="11"/>
     </row>
@@ -5702,9 +6289,9 @@
       <c r="B249" s="11"/>
       <c r="C249" s="11"/>
       <c r="D249" s="11"/>
-      <c r="E249" s="12"/>
-      <c r="F249" s="11"/>
-      <c r="G249" s="11"/>
+      <c r="E249" s="11"/>
+      <c r="F249" s="34"/>
+      <c r="G249" s="34"/>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A250" s="11"/>
@@ -5716,11 +6303,11 @@
       <c r="G250" s="11"/>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A251" s="34"/>
-      <c r="B251" s="34"/>
-      <c r="C251" s="34"/>
-      <c r="D251" s="34"/>
-      <c r="E251" s="34"/>
+      <c r="A251" s="11"/>
+      <c r="B251" s="11"/>
+      <c r="C251" s="11"/>
+      <c r="D251" s="11"/>
+      <c r="E251" s="11"/>
       <c r="F251" s="11"/>
       <c r="G251" s="11"/>
     </row>
@@ -5739,8 +6326,8 @@
       <c r="C253" s="11"/>
       <c r="D253" s="11"/>
       <c r="E253" s="11"/>
-      <c r="F253" s="34"/>
-      <c r="G253" s="34"/>
+      <c r="F253" s="11"/>
+      <c r="G253" s="11"/>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A254" s="11"/>
@@ -5783,7 +6370,7 @@
       <c r="B258" s="11"/>
       <c r="C258" s="11"/>
       <c r="D258" s="11"/>
-      <c r="E258" s="11"/>
+      <c r="E258" s="12"/>
       <c r="F258" s="11"/>
       <c r="G258" s="11"/>
     </row>
@@ -5792,7 +6379,7 @@
       <c r="B259" s="11"/>
       <c r="C259" s="11"/>
       <c r="D259" s="11"/>
-      <c r="E259" s="11"/>
+      <c r="E259" s="12"/>
       <c r="F259" s="11"/>
       <c r="G259" s="11"/>
     </row>
@@ -5801,7 +6388,7 @@
       <c r="B260" s="11"/>
       <c r="C260" s="11"/>
       <c r="D260" s="11"/>
-      <c r="E260" s="11"/>
+      <c r="E260" s="12"/>
       <c r="F260" s="11"/>
       <c r="G260" s="11"/>
     </row>
@@ -5810,7 +6397,7 @@
       <c r="B261" s="11"/>
       <c r="C261" s="11"/>
       <c r="D261" s="11"/>
-      <c r="E261" s="11"/>
+      <c r="E261" s="12"/>
       <c r="F261" s="11"/>
       <c r="G261" s="11"/>
     </row>
@@ -5828,16 +6415,16 @@
       <c r="B263" s="11"/>
       <c r="C263" s="11"/>
       <c r="D263" s="11"/>
-      <c r="E263" s="12"/>
+      <c r="E263" s="11"/>
       <c r="F263" s="11"/>
       <c r="G263" s="11"/>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A264" s="11"/>
-      <c r="B264" s="11"/>
-      <c r="C264" s="11"/>
-      <c r="D264" s="11"/>
-      <c r="E264" s="12"/>
+      <c r="A264" s="34"/>
+      <c r="B264" s="34"/>
+      <c r="C264" s="34"/>
+      <c r="D264" s="34"/>
+      <c r="E264" s="34"/>
       <c r="F264" s="11"/>
       <c r="G264" s="11"/>
     </row>
@@ -5846,7 +6433,7 @@
       <c r="B265" s="11"/>
       <c r="C265" s="11"/>
       <c r="D265" s="11"/>
-      <c r="E265" s="12"/>
+      <c r="E265" s="11"/>
       <c r="F265" s="11"/>
       <c r="G265" s="11"/>
     </row>
@@ -5855,7 +6442,7 @@
       <c r="B266" s="11"/>
       <c r="C266" s="11"/>
       <c r="D266" s="11"/>
-      <c r="E266" s="12"/>
+      <c r="E266" s="11"/>
       <c r="F266" s="11"/>
       <c r="G266" s="11"/>
     </row>
@@ -5869,11 +6456,11 @@
       <c r="G267" s="11"/>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A268" s="34"/>
-      <c r="B268" s="34"/>
-      <c r="C268" s="34"/>
-      <c r="D268" s="34"/>
-      <c r="E268" s="34"/>
+      <c r="A268" s="11"/>
+      <c r="B268" s="11"/>
+      <c r="C268" s="11"/>
+      <c r="D268" s="11"/>
+      <c r="E268" s="11"/>
       <c r="F268" s="11"/>
       <c r="G268" s="11"/>
     </row>
@@ -5892,8 +6479,8 @@
       <c r="C270" s="11"/>
       <c r="D270" s="11"/>
       <c r="E270" s="11"/>
-      <c r="F270" s="11"/>
-      <c r="G270" s="11"/>
+      <c r="F270" s="34"/>
+      <c r="G270" s="34"/>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A271" s="11"/>
@@ -5928,8 +6515,8 @@
       <c r="C274" s="11"/>
       <c r="D274" s="11"/>
       <c r="E274" s="11"/>
-      <c r="F274" s="34"/>
-      <c r="G274" s="34"/>
+      <c r="F274" s="11"/>
+      <c r="G274" s="11"/>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A275" s="11"/>
@@ -6006,11 +6593,11 @@
     <row r="283" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A283" s="11"/>
       <c r="B283" s="11"/>
-      <c r="C283" s="11"/>
+      <c r="C283" s="13"/>
       <c r="D283" s="11"/>
       <c r="E283" s="11"/>
-      <c r="F283" s="11"/>
-      <c r="G283" s="11"/>
+      <c r="F283" s="34"/>
+      <c r="G283" s="34"/>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A284" s="11"/>
@@ -6022,11 +6609,11 @@
       <c r="G284" s="11"/>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A285" s="11"/>
-      <c r="B285" s="11"/>
-      <c r="C285" s="11"/>
-      <c r="D285" s="11"/>
-      <c r="E285" s="11"/>
+      <c r="A285" s="34"/>
+      <c r="B285" s="34"/>
+      <c r="C285" s="34"/>
+      <c r="D285" s="34"/>
+      <c r="E285" s="34"/>
       <c r="F285" s="11"/>
       <c r="G285" s="11"/>
     </row>
@@ -6042,11 +6629,11 @@
     <row r="287" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A287" s="11"/>
       <c r="B287" s="11"/>
-      <c r="C287" s="13"/>
+      <c r="C287" s="11"/>
       <c r="D287" s="11"/>
       <c r="E287" s="11"/>
-      <c r="F287" s="34"/>
-      <c r="G287" s="34"/>
+      <c r="F287" s="11"/>
+      <c r="G287" s="11"/>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A288" s="11"/>
@@ -6058,11 +6645,11 @@
       <c r="G288" s="11"/>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A289" s="34"/>
-      <c r="B289" s="34"/>
-      <c r="C289" s="34"/>
-      <c r="D289" s="34"/>
-      <c r="E289" s="34"/>
+      <c r="A289" s="11"/>
+      <c r="B289" s="11"/>
+      <c r="C289" s="11"/>
+      <c r="D289" s="11"/>
+      <c r="E289" s="11"/>
       <c r="F289" s="11"/>
       <c r="G289" s="11"/>
     </row>
@@ -6139,11 +6726,11 @@
       <c r="G297" s="11"/>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A298" s="11"/>
-      <c r="B298" s="11"/>
-      <c r="C298" s="11"/>
-      <c r="D298" s="11"/>
-      <c r="E298" s="11"/>
+      <c r="A298" s="34"/>
+      <c r="B298" s="34"/>
+      <c r="C298" s="34"/>
+      <c r="D298" s="34"/>
+      <c r="E298" s="34"/>
       <c r="F298" s="11"/>
       <c r="G298" s="11"/>
     </row>
@@ -6175,11 +6762,11 @@
       <c r="G301" s="11"/>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A302" s="34"/>
-      <c r="B302" s="34"/>
-      <c r="C302" s="34"/>
-      <c r="D302" s="34"/>
-      <c r="E302" s="34"/>
+      <c r="A302" s="11"/>
+      <c r="B302" s="11"/>
+      <c r="C302" s="11"/>
+      <c r="D302" s="11"/>
+      <c r="E302" s="11"/>
       <c r="F302" s="11"/>
       <c r="G302" s="11"/>
     </row>
@@ -6189,8 +6776,8 @@
       <c r="C303" s="11"/>
       <c r="D303" s="11"/>
       <c r="E303" s="11"/>
-      <c r="F303" s="11"/>
-      <c r="G303" s="11"/>
+      <c r="F303" s="34"/>
+      <c r="G303" s="34"/>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A304" s="11"/>
@@ -6225,8 +6812,8 @@
       <c r="C307" s="11"/>
       <c r="D307" s="11"/>
       <c r="E307" s="11"/>
-      <c r="F307" s="34"/>
-      <c r="G307" s="34"/>
+      <c r="F307" s="11"/>
+      <c r="G307" s="11"/>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A308" s="11"/>
@@ -6319,11 +6906,11 @@
       <c r="G317" s="11"/>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A318" s="11"/>
-      <c r="B318" s="11"/>
-      <c r="C318" s="11"/>
-      <c r="D318" s="11"/>
-      <c r="E318" s="11"/>
+      <c r="A318" s="34"/>
+      <c r="B318" s="34"/>
+      <c r="C318" s="34"/>
+      <c r="D318" s="34"/>
+      <c r="E318" s="34"/>
       <c r="F318" s="11"/>
       <c r="G318" s="11"/>
     </row>
@@ -6355,11 +6942,11 @@
       <c r="G321" s="11"/>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A322" s="34"/>
-      <c r="B322" s="34"/>
-      <c r="C322" s="34"/>
-      <c r="D322" s="34"/>
-      <c r="E322" s="34"/>
+      <c r="A322" s="11"/>
+      <c r="B322" s="11"/>
+      <c r="C322" s="11"/>
+      <c r="D322" s="11"/>
+      <c r="E322" s="11"/>
       <c r="F322" s="11"/>
       <c r="G322" s="11"/>
     </row>
@@ -6440,7 +7027,7 @@
       <c r="B331" s="11"/>
       <c r="C331" s="11"/>
       <c r="D331" s="11"/>
-      <c r="E331" s="11"/>
+      <c r="E331" s="12"/>
       <c r="F331" s="11"/>
       <c r="G331" s="11"/>
     </row>
@@ -6449,7 +7036,7 @@
       <c r="B332" s="11"/>
       <c r="C332" s="11"/>
       <c r="D332" s="11"/>
-      <c r="E332" s="11"/>
+      <c r="E332" s="12"/>
       <c r="F332" s="11"/>
       <c r="G332" s="11"/>
     </row>
@@ -6458,7 +7045,7 @@
       <c r="B333" s="11"/>
       <c r="C333" s="11"/>
       <c r="D333" s="11"/>
-      <c r="E333" s="11"/>
+      <c r="E333" s="12"/>
       <c r="F333" s="11"/>
       <c r="G333" s="11"/>
     </row>
@@ -6467,7 +7054,7 @@
       <c r="B334" s="11"/>
       <c r="C334" s="11"/>
       <c r="D334" s="11"/>
-      <c r="E334" s="11"/>
+      <c r="E334" s="12"/>
       <c r="F334" s="11"/>
       <c r="G334" s="11"/>
     </row>
@@ -6494,7 +7081,7 @@
       <c r="B337" s="11"/>
       <c r="C337" s="11"/>
       <c r="D337" s="11"/>
-      <c r="E337" s="12"/>
+      <c r="E337" s="11"/>
       <c r="F337" s="11"/>
       <c r="G337" s="11"/>
     </row>
@@ -6503,16 +7090,16 @@
       <c r="B338" s="11"/>
       <c r="C338" s="11"/>
       <c r="D338" s="11"/>
-      <c r="E338" s="12"/>
-      <c r="F338" s="11"/>
-      <c r="G338" s="11"/>
+      <c r="E338" s="11"/>
+      <c r="F338" s="34"/>
+      <c r="G338" s="34"/>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A339" s="11"/>
       <c r="B339" s="11"/>
       <c r="C339" s="11"/>
       <c r="D339" s="11"/>
-      <c r="E339" s="12"/>
+      <c r="E339" s="11"/>
       <c r="F339" s="11"/>
       <c r="G339" s="11"/>
     </row>
@@ -6521,7 +7108,7 @@
       <c r="B340" s="11"/>
       <c r="C340" s="11"/>
       <c r="D340" s="11"/>
-      <c r="E340" s="12"/>
+      <c r="E340" s="11"/>
       <c r="F340" s="11"/>
       <c r="G340" s="11"/>
     </row>
@@ -6540,8 +7127,8 @@
       <c r="C342" s="11"/>
       <c r="D342" s="11"/>
       <c r="E342" s="11"/>
-      <c r="F342" s="34"/>
-      <c r="G342" s="34"/>
+      <c r="F342" s="11"/>
+      <c r="G342" s="11"/>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A343" s="11"/>
@@ -6602,7 +7189,7 @@
       <c r="B349" s="11"/>
       <c r="C349" s="11"/>
       <c r="D349" s="11"/>
-      <c r="E349" s="11"/>
+      <c r="E349" s="12"/>
       <c r="F349" s="11"/>
       <c r="G349" s="11"/>
     </row>
@@ -6634,11 +7221,11 @@
       <c r="G352" s="11"/>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A353" s="11"/>
-      <c r="B353" s="11"/>
-      <c r="C353" s="11"/>
-      <c r="D353" s="11"/>
-      <c r="E353" s="12"/>
+      <c r="A353" s="34"/>
+      <c r="B353" s="34"/>
+      <c r="C353" s="34"/>
+      <c r="D353" s="34"/>
+      <c r="E353" s="34"/>
       <c r="F353" s="11"/>
       <c r="G353" s="11"/>
     </row>
@@ -6670,11 +7257,11 @@
       <c r="G356" s="11"/>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A357" s="34"/>
-      <c r="B357" s="34"/>
-      <c r="C357" s="34"/>
-      <c r="D357" s="34"/>
-      <c r="E357" s="34"/>
+      <c r="A357" s="11"/>
+      <c r="B357" s="11"/>
+      <c r="C357" s="11"/>
+      <c r="D357" s="11"/>
+      <c r="E357" s="11"/>
       <c r="F357" s="11"/>
       <c r="G357" s="11"/>
     </row>
@@ -6684,8 +7271,8 @@
       <c r="C358" s="11"/>
       <c r="D358" s="11"/>
       <c r="E358" s="11"/>
-      <c r="F358" s="11"/>
-      <c r="G358" s="11"/>
+      <c r="F358" s="34"/>
+      <c r="G358" s="34"/>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A359" s="11"/>
@@ -6720,8 +7307,8 @@
       <c r="C362" s="11"/>
       <c r="D362" s="11"/>
       <c r="E362" s="11"/>
-      <c r="F362" s="34"/>
-      <c r="G362" s="34"/>
+      <c r="F362" s="11"/>
+      <c r="G362" s="11"/>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A363" s="11"/>
@@ -6746,7 +7333,7 @@
       <c r="B365" s="11"/>
       <c r="C365" s="11"/>
       <c r="D365" s="11"/>
-      <c r="E365" s="11"/>
+      <c r="E365" s="12"/>
       <c r="F365" s="11"/>
       <c r="G365" s="11"/>
     </row>
@@ -6755,7 +7342,7 @@
       <c r="B366" s="11"/>
       <c r="C366" s="11"/>
       <c r="D366" s="11"/>
-      <c r="E366" s="11"/>
+      <c r="E366" s="12"/>
       <c r="F366" s="11"/>
       <c r="G366" s="11"/>
     </row>
@@ -6764,7 +7351,7 @@
       <c r="B367" s="11"/>
       <c r="C367" s="11"/>
       <c r="D367" s="11"/>
-      <c r="E367" s="11"/>
+      <c r="E367" s="12"/>
       <c r="F367" s="11"/>
       <c r="G367" s="11"/>
     </row>
@@ -6773,7 +7360,7 @@
       <c r="B368" s="11"/>
       <c r="C368" s="11"/>
       <c r="D368" s="11"/>
-      <c r="E368" s="11"/>
+      <c r="E368" s="12"/>
       <c r="F368" s="11"/>
       <c r="G368" s="11"/>
     </row>
@@ -6791,16 +7378,16 @@
       <c r="B370" s="11"/>
       <c r="C370" s="11"/>
       <c r="D370" s="11"/>
-      <c r="E370" s="12"/>
-      <c r="F370" s="11"/>
-      <c r="G370" s="11"/>
+      <c r="E370" s="11"/>
+      <c r="F370" s="34"/>
+      <c r="G370" s="34"/>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A371" s="11"/>
       <c r="B371" s="11"/>
       <c r="C371" s="11"/>
       <c r="D371" s="11"/>
-      <c r="E371" s="12"/>
+      <c r="E371" s="11"/>
       <c r="F371" s="11"/>
       <c r="G371" s="11"/>
     </row>
@@ -6809,16 +7396,16 @@
       <c r="B372" s="11"/>
       <c r="C372" s="11"/>
       <c r="D372" s="11"/>
-      <c r="E372" s="12"/>
+      <c r="E372" s="11"/>
       <c r="F372" s="11"/>
       <c r="G372" s="11"/>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A373" s="11"/>
-      <c r="B373" s="11"/>
-      <c r="C373" s="11"/>
-      <c r="D373" s="11"/>
-      <c r="E373" s="12"/>
+      <c r="A373" s="34"/>
+      <c r="B373" s="34"/>
+      <c r="C373" s="34"/>
+      <c r="D373" s="34"/>
+      <c r="E373" s="34"/>
       <c r="F373" s="11"/>
       <c r="G373" s="11"/>
     </row>
@@ -6828,8 +7415,8 @@
       <c r="C374" s="11"/>
       <c r="D374" s="11"/>
       <c r="E374" s="11"/>
-      <c r="F374" s="34"/>
-      <c r="G374" s="34"/>
+      <c r="F374" s="11"/>
+      <c r="G374" s="11"/>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A375" s="11"/>
@@ -6850,11 +7437,11 @@
       <c r="G376" s="11"/>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A377" s="34"/>
-      <c r="B377" s="34"/>
-      <c r="C377" s="34"/>
-      <c r="D377" s="34"/>
-      <c r="E377" s="34"/>
+      <c r="A377" s="11"/>
+      <c r="B377" s="11"/>
+      <c r="C377" s="11"/>
+      <c r="D377" s="11"/>
+      <c r="E377" s="11"/>
       <c r="F377" s="11"/>
       <c r="G377" s="11"/>
     </row>
@@ -6922,11 +7509,11 @@
       <c r="G384" s="11"/>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A385" s="11"/>
-      <c r="B385" s="11"/>
-      <c r="C385" s="11"/>
-      <c r="D385" s="11"/>
-      <c r="E385" s="11"/>
+      <c r="A385" s="34"/>
+      <c r="B385" s="34"/>
+      <c r="C385" s="34"/>
+      <c r="D385" s="34"/>
+      <c r="E385" s="34"/>
       <c r="F385" s="11"/>
       <c r="G385" s="11"/>
     </row>
@@ -6958,11 +7545,11 @@
       <c r="G388" s="11"/>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A389" s="34"/>
-      <c r="B389" s="34"/>
-      <c r="C389" s="34"/>
-      <c r="D389" s="34"/>
-      <c r="E389" s="34"/>
+      <c r="A389" s="11"/>
+      <c r="B389" s="11"/>
+      <c r="C389" s="11"/>
+      <c r="D389" s="11"/>
+      <c r="E389" s="11"/>
       <c r="F389" s="11"/>
       <c r="G389" s="11"/>
     </row>
@@ -6981,8 +7568,8 @@
       <c r="C391" s="11"/>
       <c r="D391" s="11"/>
       <c r="E391" s="11"/>
-      <c r="F391" s="11"/>
-      <c r="G391" s="11"/>
+      <c r="F391" s="34"/>
+      <c r="G391" s="34"/>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A392" s="11"/>
@@ -7017,8 +7604,8 @@
       <c r="C395" s="11"/>
       <c r="D395" s="11"/>
       <c r="E395" s="11"/>
-      <c r="F395" s="34"/>
-      <c r="G395" s="34"/>
+      <c r="F395" s="11"/>
+      <c r="G395" s="11"/>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A396" s="11"/>
@@ -7111,11 +7698,11 @@
       <c r="G405" s="11"/>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A406" s="11"/>
-      <c r="B406" s="11"/>
-      <c r="C406" s="11"/>
-      <c r="D406" s="11"/>
-      <c r="E406" s="11"/>
+      <c r="A406" s="34"/>
+      <c r="B406" s="34"/>
+      <c r="C406" s="34"/>
+      <c r="D406" s="34"/>
+      <c r="E406" s="34"/>
       <c r="F406" s="11"/>
       <c r="G406" s="11"/>
     </row>
@@ -7147,11 +7734,11 @@
       <c r="G409" s="11"/>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A410" s="34"/>
-      <c r="B410" s="34"/>
-      <c r="C410" s="34"/>
-      <c r="D410" s="34"/>
-      <c r="E410" s="34"/>
+      <c r="A410" s="11"/>
+      <c r="B410" s="11"/>
+      <c r="C410" s="11"/>
+      <c r="D410" s="11"/>
+      <c r="E410" s="11"/>
       <c r="F410" s="11"/>
       <c r="G410" s="11"/>
     </row>
@@ -7233,8 +7820,8 @@
       <c r="C419" s="11"/>
       <c r="D419" s="11"/>
       <c r="E419" s="11"/>
-      <c r="F419" s="11"/>
-      <c r="G419" s="11"/>
+      <c r="F419" s="34"/>
+      <c r="G419" s="34"/>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A420" s="11"/>
@@ -7269,8 +7856,8 @@
       <c r="C423" s="11"/>
       <c r="D423" s="11"/>
       <c r="E423" s="11"/>
-      <c r="F423" s="34"/>
-      <c r="G423" s="34"/>
+      <c r="F423" s="11"/>
+      <c r="G423" s="11"/>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A424" s="11"/>
@@ -7286,7 +7873,7 @@
       <c r="B425" s="11"/>
       <c r="C425" s="11"/>
       <c r="D425" s="11"/>
-      <c r="E425" s="11"/>
+      <c r="E425" s="12"/>
       <c r="F425" s="11"/>
       <c r="G425" s="11"/>
     </row>
@@ -7295,7 +7882,7 @@
       <c r="B426" s="11"/>
       <c r="C426" s="11"/>
       <c r="D426" s="11"/>
-      <c r="E426" s="11"/>
+      <c r="E426" s="12"/>
       <c r="F426" s="11"/>
       <c r="G426" s="11"/>
     </row>
@@ -7322,7 +7909,7 @@
       <c r="B429" s="11"/>
       <c r="C429" s="11"/>
       <c r="D429" s="11"/>
-      <c r="E429" s="12"/>
+      <c r="E429" s="11"/>
       <c r="F429" s="11"/>
       <c r="G429" s="11"/>
     </row>
@@ -7331,7 +7918,7 @@
       <c r="B430" s="11"/>
       <c r="C430" s="11"/>
       <c r="D430" s="11"/>
-      <c r="E430" s="12"/>
+      <c r="E430" s="11"/>
       <c r="F430" s="11"/>
       <c r="G430" s="11"/>
     </row>
@@ -7363,11 +7950,11 @@
       <c r="G433" s="11"/>
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A434" s="11"/>
-      <c r="B434" s="11"/>
-      <c r="C434" s="11"/>
-      <c r="D434" s="11"/>
-      <c r="E434" s="11"/>
+      <c r="A434" s="34"/>
+      <c r="B434" s="34"/>
+      <c r="C434" s="34"/>
+      <c r="D434" s="34"/>
+      <c r="E434" s="34"/>
       <c r="F434" s="11"/>
       <c r="G434" s="11"/>
     </row>
@@ -7399,11 +7986,11 @@
       <c r="G437" s="11"/>
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A438" s="34"/>
-      <c r="B438" s="34"/>
-      <c r="C438" s="34"/>
-      <c r="D438" s="34"/>
-      <c r="E438" s="34"/>
+      <c r="A438" s="11"/>
+      <c r="B438" s="11"/>
+      <c r="C438" s="11"/>
+      <c r="D438" s="11"/>
+      <c r="E438" s="11"/>
       <c r="F438" s="11"/>
       <c r="G438" s="11"/>
     </row>
@@ -7476,7 +8063,7 @@
       <c r="C446" s="11"/>
       <c r="D446" s="11"/>
       <c r="E446" s="11"/>
-      <c r="F446" s="11"/>
+      <c r="F446" s="12"/>
       <c r="G446" s="11"/>
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.35">
@@ -7485,7 +8072,7 @@
       <c r="C447" s="11"/>
       <c r="D447" s="11"/>
       <c r="E447" s="11"/>
-      <c r="F447" s="11"/>
+      <c r="F447" s="12"/>
       <c r="G447" s="11"/>
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.35">
@@ -7494,7 +8081,7 @@
       <c r="C448" s="11"/>
       <c r="D448" s="11"/>
       <c r="E448" s="11"/>
-      <c r="F448" s="11"/>
+      <c r="F448" s="12"/>
       <c r="G448" s="11"/>
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.35">
@@ -7503,7 +8090,7 @@
       <c r="C449" s="11"/>
       <c r="D449" s="11"/>
       <c r="E449" s="11"/>
-      <c r="F449" s="11"/>
+      <c r="F449" s="12"/>
       <c r="G449" s="11"/>
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.35">
@@ -7530,8 +8117,8 @@
       <c r="C452" s="11"/>
       <c r="D452" s="11"/>
       <c r="E452" s="11"/>
-      <c r="F452" s="12"/>
-      <c r="G452" s="11"/>
+      <c r="F452" s="34"/>
+      <c r="G452" s="34"/>
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A453" s="11"/>
@@ -7539,7 +8126,7 @@
       <c r="C453" s="11"/>
       <c r="D453" s="11"/>
       <c r="E453" s="11"/>
-      <c r="F453" s="12"/>
+      <c r="F453" s="11"/>
       <c r="G453" s="11"/>
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.35">
@@ -7548,7 +8135,7 @@
       <c r="C454" s="11"/>
       <c r="D454" s="11"/>
       <c r="E454" s="11"/>
-      <c r="F454" s="12"/>
+      <c r="F454" s="11"/>
       <c r="G454" s="11"/>
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.35">
@@ -7557,7 +8144,7 @@
       <c r="C455" s="11"/>
       <c r="D455" s="11"/>
       <c r="E455" s="11"/>
-      <c r="F455" s="12"/>
+      <c r="F455" s="11"/>
       <c r="G455" s="11"/>
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.35">
@@ -7566,8 +8153,8 @@
       <c r="C456" s="11"/>
       <c r="D456" s="11"/>
       <c r="E456" s="11"/>
-      <c r="F456" s="34"/>
-      <c r="G456" s="34"/>
+      <c r="F456" s="11"/>
+      <c r="G456" s="11"/>
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A457" s="11"/>
@@ -7660,11 +8247,11 @@
       <c r="G466" s="11"/>
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A467" s="11"/>
-      <c r="B467" s="11"/>
-      <c r="C467" s="11"/>
-      <c r="D467" s="11"/>
-      <c r="E467" s="11"/>
+      <c r="A467" s="34"/>
+      <c r="B467" s="34"/>
+      <c r="C467" s="34"/>
+      <c r="D467" s="34"/>
+      <c r="E467" s="34"/>
       <c r="F467" s="11"/>
       <c r="G467" s="11"/>
     </row>
@@ -7696,11 +8283,11 @@
       <c r="G470" s="11"/>
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A471" s="34"/>
-      <c r="B471" s="34"/>
-      <c r="C471" s="34"/>
-      <c r="D471" s="34"/>
-      <c r="E471" s="34"/>
+      <c r="A471" s="11"/>
+      <c r="B471" s="11"/>
+      <c r="C471" s="11"/>
+      <c r="D471" s="11"/>
+      <c r="E471" s="11"/>
       <c r="F471" s="11"/>
       <c r="G471" s="11"/>
     </row>
@@ -7872,8 +8459,8 @@
       <c r="C490" s="11"/>
       <c r="D490" s="11"/>
       <c r="E490" s="11"/>
-      <c r="F490" s="11"/>
-      <c r="G490" s="11"/>
+      <c r="F490" s="34"/>
+      <c r="G490" s="34"/>
     </row>
     <row r="491" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A491" s="11"/>
@@ -7908,8 +8495,8 @@
       <c r="C494" s="11"/>
       <c r="D494" s="11"/>
       <c r="E494" s="11"/>
-      <c r="F494" s="34"/>
-      <c r="G494" s="34"/>
+      <c r="F494" s="11"/>
+      <c r="G494" s="11"/>
     </row>
     <row r="495" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A495" s="11"/>
@@ -8002,11 +8589,11 @@
       <c r="G504" s="11"/>
     </row>
     <row r="505" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A505" s="11"/>
-      <c r="B505" s="11"/>
-      <c r="C505" s="11"/>
-      <c r="D505" s="11"/>
-      <c r="E505" s="11"/>
+      <c r="A505" s="34"/>
+      <c r="B505" s="34"/>
+      <c r="C505" s="34"/>
+      <c r="D505" s="34"/>
+      <c r="E505" s="34"/>
       <c r="F505" s="11"/>
       <c r="G505" s="11"/>
     </row>
@@ -8038,11 +8625,11 @@
       <c r="G508" s="11"/>
     </row>
     <row r="509" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A509" s="34"/>
-      <c r="B509" s="34"/>
-      <c r="C509" s="34"/>
-      <c r="D509" s="34"/>
-      <c r="E509" s="34"/>
+      <c r="A509" s="11"/>
+      <c r="B509" s="11"/>
+      <c r="C509" s="11"/>
+      <c r="D509" s="11"/>
+      <c r="E509" s="11"/>
       <c r="F509" s="11"/>
       <c r="G509" s="11"/>
     </row>
@@ -8196,8 +8783,8 @@
       <c r="C526" s="11"/>
       <c r="D526" s="11"/>
       <c r="E526" s="11"/>
-      <c r="F526" s="11"/>
-      <c r="G526" s="11"/>
+      <c r="F526" s="34"/>
+      <c r="G526" s="34"/>
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A527" s="11"/>
@@ -8232,8 +8819,8 @@
       <c r="C530" s="11"/>
       <c r="D530" s="11"/>
       <c r="E530" s="11"/>
-      <c r="F530" s="34"/>
-      <c r="G530" s="34"/>
+      <c r="F530" s="11"/>
+      <c r="G530" s="11"/>
     </row>
     <row r="531" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A531" s="11"/>
@@ -8326,11 +8913,11 @@
       <c r="G540" s="11"/>
     </row>
     <row r="541" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A541" s="11"/>
-      <c r="B541" s="11"/>
-      <c r="C541" s="11"/>
-      <c r="D541" s="11"/>
-      <c r="E541" s="11"/>
+      <c r="A541" s="34"/>
+      <c r="B541" s="34"/>
+      <c r="C541" s="34"/>
+      <c r="D541" s="34"/>
+      <c r="E541" s="34"/>
       <c r="F541" s="11"/>
       <c r="G541" s="11"/>
     </row>
@@ -8362,11 +8949,11 @@
       <c r="G544" s="11"/>
     </row>
     <row r="545" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A545" s="34"/>
-      <c r="B545" s="34"/>
-      <c r="C545" s="34"/>
-      <c r="D545" s="34"/>
-      <c r="E545" s="34"/>
+      <c r="A545" s="11"/>
+      <c r="B545" s="11"/>
+      <c r="C545" s="11"/>
+      <c r="D545" s="11"/>
+      <c r="E545" s="11"/>
       <c r="F545" s="11"/>
       <c r="G545" s="11"/>
     </row>
@@ -8457,8 +9044,8 @@
       <c r="C555" s="11"/>
       <c r="D555" s="11"/>
       <c r="E555" s="11"/>
-      <c r="F555" s="11"/>
-      <c r="G555" s="11"/>
+      <c r="F555" s="34"/>
+      <c r="G555" s="34"/>
     </row>
     <row r="556" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A556" s="11"/>
@@ -8493,8 +9080,8 @@
       <c r="C559" s="11"/>
       <c r="D559" s="11"/>
       <c r="E559" s="11"/>
-      <c r="F559" s="34"/>
-      <c r="G559" s="34"/>
+      <c r="F559" s="11"/>
+      <c r="G559" s="11"/>
     </row>
     <row r="560" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A560" s="11"/>
@@ -8587,11 +9174,11 @@
       <c r="G569" s="11"/>
     </row>
     <row r="570" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A570" s="11"/>
-      <c r="B570" s="11"/>
-      <c r="C570" s="11"/>
-      <c r="D570" s="11"/>
-      <c r="E570" s="11"/>
+      <c r="A570" s="34"/>
+      <c r="B570" s="34"/>
+      <c r="C570" s="34"/>
+      <c r="D570" s="34"/>
+      <c r="E570" s="34"/>
       <c r="F570" s="11"/>
       <c r="G570" s="11"/>
     </row>
@@ -8623,11 +9210,11 @@
       <c r="G573" s="11"/>
     </row>
     <row r="574" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A574" s="34"/>
-      <c r="B574" s="34"/>
-      <c r="C574" s="34"/>
-      <c r="D574" s="34"/>
-      <c r="E574" s="34"/>
+      <c r="A574" s="11"/>
+      <c r="B574" s="11"/>
+      <c r="C574" s="11"/>
+      <c r="D574" s="11"/>
+      <c r="E574" s="11"/>
       <c r="F574" s="11"/>
       <c r="G574" s="11"/>
     </row>
@@ -8637,8 +9224,8 @@
       <c r="C575" s="11"/>
       <c r="D575" s="11"/>
       <c r="E575" s="11"/>
-      <c r="F575" s="11"/>
-      <c r="G575" s="11"/>
+      <c r="F575" s="34"/>
+      <c r="G575" s="34"/>
     </row>
     <row r="576" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A576" s="11"/>
@@ -8673,8 +9260,8 @@
       <c r="C579" s="11"/>
       <c r="D579" s="11"/>
       <c r="E579" s="11"/>
-      <c r="F579" s="34"/>
-      <c r="G579" s="34"/>
+      <c r="F579" s="11"/>
+      <c r="G579" s="11"/>
     </row>
     <row r="580" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A580" s="11"/>
@@ -8690,7 +9277,7 @@
       <c r="B581" s="11"/>
       <c r="C581" s="11"/>
       <c r="D581" s="11"/>
-      <c r="E581" s="11"/>
+      <c r="E581" s="12"/>
       <c r="F581" s="11"/>
       <c r="G581" s="11"/>
     </row>
@@ -8699,7 +9286,7 @@
       <c r="B582" s="11"/>
       <c r="C582" s="11"/>
       <c r="D582" s="11"/>
-      <c r="E582" s="11"/>
+      <c r="E582" s="12"/>
       <c r="F582" s="11"/>
       <c r="G582" s="11"/>
     </row>
@@ -8708,7 +9295,7 @@
       <c r="B583" s="11"/>
       <c r="C583" s="11"/>
       <c r="D583" s="11"/>
-      <c r="E583" s="11"/>
+      <c r="E583" s="12"/>
       <c r="F583" s="11"/>
       <c r="G583" s="11"/>
     </row>
@@ -8717,7 +9304,7 @@
       <c r="B584" s="11"/>
       <c r="C584" s="11"/>
       <c r="D584" s="11"/>
-      <c r="E584" s="11"/>
+      <c r="E584" s="12"/>
       <c r="F584" s="11"/>
       <c r="G584" s="11"/>
     </row>
@@ -8726,7 +9313,7 @@
       <c r="B585" s="11"/>
       <c r="C585" s="11"/>
       <c r="D585" s="11"/>
-      <c r="E585" s="12"/>
+      <c r="E585" s="11"/>
       <c r="F585" s="11"/>
       <c r="G585" s="11"/>
     </row>
@@ -8735,7 +9322,7 @@
       <c r="B586" s="11"/>
       <c r="C586" s="11"/>
       <c r="D586" s="11"/>
-      <c r="E586" s="12"/>
+      <c r="E586" s="11"/>
       <c r="F586" s="11"/>
       <c r="G586" s="11"/>
     </row>
@@ -8744,7 +9331,7 @@
       <c r="B587" s="11"/>
       <c r="C587" s="11"/>
       <c r="D587" s="11"/>
-      <c r="E587" s="12"/>
+      <c r="E587" s="11"/>
       <c r="F587" s="11"/>
       <c r="G587" s="11"/>
     </row>
@@ -8753,7 +9340,7 @@
       <c r="B588" s="11"/>
       <c r="C588" s="11"/>
       <c r="D588" s="11"/>
-      <c r="E588" s="12"/>
+      <c r="E588" s="11"/>
       <c r="F588" s="11"/>
       <c r="G588" s="11"/>
     </row>
@@ -8767,11 +9354,11 @@
       <c r="G589" s="11"/>
     </row>
     <row r="590" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A590" s="11"/>
-      <c r="B590" s="11"/>
-      <c r="C590" s="11"/>
-      <c r="D590" s="11"/>
-      <c r="E590" s="11"/>
+      <c r="A590" s="34"/>
+      <c r="B590" s="34"/>
+      <c r="C590" s="34"/>
+      <c r="D590" s="34"/>
+      <c r="E590" s="34"/>
       <c r="F590" s="11"/>
       <c r="G590" s="11"/>
     </row>
@@ -8803,11 +9390,11 @@
       <c r="G593" s="11"/>
     </row>
     <row r="594" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A594" s="34"/>
-      <c r="B594" s="34"/>
-      <c r="C594" s="34"/>
-      <c r="D594" s="34"/>
-      <c r="E594" s="34"/>
+      <c r="A594" s="11"/>
+      <c r="B594" s="11"/>
+      <c r="C594" s="11"/>
+      <c r="D594" s="11"/>
+      <c r="E594" s="11"/>
       <c r="F594" s="11"/>
       <c r="G594" s="11"/>
     </row>
@@ -8844,8 +9431,8 @@
       <c r="C598" s="11"/>
       <c r="D598" s="11"/>
       <c r="E598" s="11"/>
-      <c r="F598" s="11"/>
-      <c r="G598" s="11"/>
+      <c r="F598" s="34"/>
+      <c r="G598" s="34"/>
     </row>
     <row r="599" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A599" s="11"/>
@@ -8853,8 +9440,8 @@
       <c r="C599" s="11"/>
       <c r="D599" s="11"/>
       <c r="E599" s="11"/>
-      <c r="F599" s="11"/>
-      <c r="G599" s="11"/>
+      <c r="F599" s="34"/>
+      <c r="G599" s="34"/>
     </row>
     <row r="600" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A600" s="11"/>
@@ -8880,8 +9467,8 @@
       <c r="C602" s="11"/>
       <c r="D602" s="11"/>
       <c r="E602" s="11"/>
-      <c r="F602" s="34"/>
-      <c r="G602" s="34"/>
+      <c r="F602" s="11"/>
+      <c r="G602" s="11"/>
     </row>
     <row r="603" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A603" s="11"/>
@@ -8889,8 +9476,8 @@
       <c r="C603" s="11"/>
       <c r="D603" s="11"/>
       <c r="E603" s="11"/>
-      <c r="F603" s="34"/>
-      <c r="G603" s="34"/>
+      <c r="F603" s="11"/>
+      <c r="G603" s="11"/>
     </row>
     <row r="604" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A604" s="11"/>
@@ -8919,7 +9506,7 @@
       <c r="F606" s="11"/>
       <c r="G606" s="11"/>
     </row>
-    <row r="607" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A607" s="11"/>
       <c r="B607" s="11"/>
       <c r="C607" s="11"/>
@@ -8934,8 +9521,8 @@
       <c r="C608" s="11"/>
       <c r="D608" s="11"/>
       <c r="E608" s="11"/>
-      <c r="F608" s="11"/>
-      <c r="G608" s="11"/>
+      <c r="F608" s="34"/>
+      <c r="G608" s="34"/>
     </row>
     <row r="609" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A609" s="11"/>
@@ -8955,7 +9542,7 @@
       <c r="F610" s="11"/>
       <c r="G610" s="11"/>
     </row>
-    <row r="611" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A611" s="11"/>
       <c r="B611" s="11"/>
       <c r="C611" s="11"/>
@@ -8970,24 +9557,24 @@
       <c r="C612" s="11"/>
       <c r="D612" s="11"/>
       <c r="E612" s="11"/>
-      <c r="F612" s="34"/>
-      <c r="G612" s="34"/>
+      <c r="F612" s="11"/>
+      <c r="G612" s="11"/>
     </row>
     <row r="613" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A613" s="11"/>
-      <c r="B613" s="11"/>
-      <c r="C613" s="11"/>
-      <c r="D613" s="11"/>
-      <c r="E613" s="11"/>
+      <c r="A613" s="34"/>
+      <c r="B613" s="34"/>
+      <c r="C613" s="34"/>
+      <c r="D613" s="34"/>
+      <c r="E613" s="34"/>
       <c r="F613" s="11"/>
       <c r="G613" s="11"/>
     </row>
     <row r="614" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A614" s="11"/>
-      <c r="B614" s="11"/>
-      <c r="C614" s="11"/>
-      <c r="D614" s="11"/>
-      <c r="E614" s="11"/>
+      <c r="A614" s="34"/>
+      <c r="B614" s="34"/>
+      <c r="C614" s="34"/>
+      <c r="D614" s="34"/>
+      <c r="E614" s="34"/>
       <c r="F614" s="11"/>
       <c r="G614" s="11"/>
     </row>
@@ -9010,20 +9597,20 @@
       <c r="G616" s="11"/>
     </row>
     <row r="617" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A617" s="34"/>
-      <c r="B617" s="34"/>
-      <c r="C617" s="34"/>
-      <c r="D617" s="34"/>
-      <c r="E617" s="34"/>
-      <c r="F617" s="11"/>
-      <c r="G617" s="11"/>
+      <c r="A617" s="11"/>
+      <c r="B617" s="11"/>
+      <c r="C617" s="11"/>
+      <c r="D617" s="11"/>
+      <c r="E617" s="11"/>
+      <c r="F617" s="34"/>
+      <c r="G617" s="34"/>
     </row>
     <row r="618" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A618" s="34"/>
-      <c r="B618" s="34"/>
-      <c r="C618" s="34"/>
-      <c r="D618" s="34"/>
-      <c r="E618" s="34"/>
+      <c r="A618" s="11"/>
+      <c r="B618" s="11"/>
+      <c r="C618" s="11"/>
+      <c r="D618" s="11"/>
+      <c r="E618" s="11"/>
       <c r="F618" s="11"/>
       <c r="G618" s="11"/>
     </row>
@@ -9051,8 +9638,8 @@
       <c r="C621" s="11"/>
       <c r="D621" s="11"/>
       <c r="E621" s="11"/>
-      <c r="F621" s="34"/>
-      <c r="G621" s="34"/>
+      <c r="F621" s="11"/>
+      <c r="G621" s="11"/>
     </row>
     <row r="622" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A622" s="11"/>
@@ -9064,11 +9651,11 @@
       <c r="G622" s="11"/>
     </row>
     <row r="623" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A623" s="11"/>
-      <c r="B623" s="11"/>
-      <c r="C623" s="11"/>
-      <c r="D623" s="11"/>
-      <c r="E623" s="11"/>
+      <c r="A623" s="34"/>
+      <c r="B623" s="34"/>
+      <c r="C623" s="34"/>
+      <c r="D623" s="34"/>
+      <c r="E623" s="34"/>
       <c r="F623" s="11"/>
       <c r="G623" s="11"/>
     </row>
@@ -9100,11 +9687,11 @@
       <c r="G626" s="11"/>
     </row>
     <row r="627" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A627" s="34"/>
-      <c r="B627" s="34"/>
-      <c r="C627" s="34"/>
-      <c r="D627" s="34"/>
-      <c r="E627" s="34"/>
+      <c r="A627" s="11"/>
+      <c r="B627" s="11"/>
+      <c r="C627" s="11"/>
+      <c r="D627" s="11"/>
+      <c r="E627" s="11"/>
       <c r="F627" s="11"/>
       <c r="G627" s="11"/>
     </row>
@@ -9145,11 +9732,11 @@
       <c r="G631" s="11"/>
     </row>
     <row r="632" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A632" s="11"/>
-      <c r="B632" s="11"/>
-      <c r="C632" s="11"/>
-      <c r="D632" s="11"/>
-      <c r="E632" s="11"/>
+      <c r="A632" s="34"/>
+      <c r="B632" s="34"/>
+      <c r="C632" s="34"/>
+      <c r="D632" s="34"/>
+      <c r="E632" s="34"/>
       <c r="F632" s="11"/>
       <c r="G632" s="11"/>
     </row>
@@ -9181,11 +9768,11 @@
       <c r="G635" s="11"/>
     </row>
     <row r="636" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A636" s="34"/>
-      <c r="B636" s="34"/>
-      <c r="C636" s="34"/>
-      <c r="D636" s="34"/>
-      <c r="E636" s="34"/>
+      <c r="A636" s="11"/>
+      <c r="B636" s="11"/>
+      <c r="C636" s="11"/>
+      <c r="D636" s="11"/>
+      <c r="E636" s="11"/>
       <c r="F636" s="11"/>
       <c r="G636" s="11"/>
     </row>
@@ -9195,8 +9782,8 @@
       <c r="C637" s="11"/>
       <c r="D637" s="11"/>
       <c r="E637" s="11"/>
-      <c r="F637" s="11"/>
-      <c r="G637" s="11"/>
+      <c r="F637" s="34"/>
+      <c r="G637" s="34"/>
     </row>
     <row r="638" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A638" s="11"/>
@@ -9231,8 +9818,8 @@
       <c r="C641" s="11"/>
       <c r="D641" s="11"/>
       <c r="E641" s="11"/>
-      <c r="F641" s="34"/>
-      <c r="G641" s="34"/>
+      <c r="F641" s="11"/>
+      <c r="G641" s="11"/>
     </row>
     <row r="642" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A642" s="11"/>
@@ -9325,11 +9912,11 @@
       <c r="G651" s="11"/>
     </row>
     <row r="652" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A652" s="11"/>
-      <c r="B652" s="11"/>
-      <c r="C652" s="11"/>
-      <c r="D652" s="11"/>
-      <c r="E652" s="11"/>
+      <c r="A652" s="34"/>
+      <c r="B652" s="34"/>
+      <c r="C652" s="34"/>
+      <c r="D652" s="34"/>
+      <c r="E652" s="34"/>
       <c r="F652" s="11"/>
       <c r="G652" s="11"/>
     </row>
@@ -9361,11 +9948,11 @@
       <c r="G655" s="11"/>
     </row>
     <row r="656" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A656" s="34"/>
-      <c r="B656" s="34"/>
-      <c r="C656" s="34"/>
-      <c r="D656" s="34"/>
-      <c r="E656" s="34"/>
+      <c r="A656" s="11"/>
+      <c r="B656" s="11"/>
+      <c r="C656" s="11"/>
+      <c r="D656" s="11"/>
+      <c r="E656" s="11"/>
       <c r="F656" s="11"/>
       <c r="G656" s="11"/>
     </row>
@@ -9438,8 +10025,6 @@
       <c r="C664" s="11"/>
       <c r="D664" s="11"/>
       <c r="E664" s="11"/>
-      <c r="F664" s="11"/>
-      <c r="G664" s="11"/>
     </row>
     <row r="665" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A665" s="11"/>
@@ -9447,8 +10032,6 @@
       <c r="C665" s="11"/>
       <c r="D665" s="11"/>
       <c r="E665" s="11"/>
-      <c r="F665" s="11"/>
-      <c r="G665" s="11"/>
     </row>
     <row r="666" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A666" s="11"/>
@@ -9456,8 +10039,6 @@
       <c r="C666" s="11"/>
       <c r="D666" s="11"/>
       <c r="E666" s="11"/>
-      <c r="F666" s="11"/>
-      <c r="G666" s="11"/>
     </row>
     <row r="667" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A667" s="11"/>
@@ -9465,8 +10046,6 @@
       <c r="C667" s="11"/>
       <c r="D667" s="11"/>
       <c r="E667" s="11"/>
-      <c r="F667" s="11"/>
-      <c r="G667" s="11"/>
     </row>
     <row r="668" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A668" s="11"/>
@@ -9544,34 +10123,6 @@
       <c r="C678" s="11"/>
       <c r="D678" s="11"/>
       <c r="E678" s="11"/>
-    </row>
-    <row r="679" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A679" s="11"/>
-      <c r="B679" s="11"/>
-      <c r="C679" s="11"/>
-      <c r="D679" s="11"/>
-      <c r="E679" s="11"/>
-    </row>
-    <row r="680" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A680" s="11"/>
-      <c r="B680" s="11"/>
-      <c r="C680" s="11"/>
-      <c r="D680" s="11"/>
-      <c r="E680" s="11"/>
-    </row>
-    <row r="681" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A681" s="11"/>
-      <c r="B681" s="11"/>
-      <c r="C681" s="11"/>
-      <c r="D681" s="11"/>
-      <c r="E681" s="11"/>
-    </row>
-    <row r="682" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A682" s="11"/>
-      <c r="B682" s="11"/>
-      <c r="C682" s="11"/>
-      <c r="D682" s="11"/>
-      <c r="E682" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1"/>
@@ -9585,7 +10136,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9614,7 +10165,7 @@
         <v>66</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -9655,7 +10206,7 @@
         <v>66</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -9666,7 +10217,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/com/born/xls/ProductListPage.xlsx
+++ b/src/test/java/com/born/xls/ProductListPage.xlsx
@@ -1870,7 +1870,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2120,7 +2120,7 @@
         <v>250</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -2131,7 +2131,7 @@
         <v>249</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -2142,7 +2142,7 @@
         <v>248</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -2153,7 +2153,7 @@
         <v>246</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -2164,7 +2164,7 @@
         <v>245</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -2175,7 +2175,7 @@
         <v>247</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2190,8 +2190,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K678"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/test/java/com/born/xls/ProductListPage.xlsx
+++ b/src/test/java/com/born/xls/ProductListPage.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="257">
   <si>
     <t>TCID</t>
   </si>
@@ -1277,6 +1277,24 @@
   </si>
   <si>
     <t>To verify whether user can able to navigate to the particular Kitchen product page using Site Directions</t>
+  </si>
+  <si>
+    <t>SharePage</t>
+  </si>
+  <si>
+    <t>This feature is to verify whether user can share the page or not</t>
+  </si>
+  <si>
+    <t>Click on the Share this Page link</t>
+  </si>
+  <si>
+    <t>SharePage_Link</t>
+  </si>
+  <si>
+    <t>Check whether link of the page has displayed or not</t>
+  </si>
+  <si>
+    <t>Link_Pgae</t>
   </si>
 </sst>
 </file>
@@ -1867,10 +1885,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2178,6 +2196,17 @@
         <v>66</v>
       </c>
     </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2188,10 +2217,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:K678"/>
+  <dimension ref="A1:H679"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2203,9 +2232,8 @@
     <col min="5" max="5" width="34.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="29.7265625" style="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="17" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9.1796875" style="1" collapsed="1"/>
-    <col min="9" max="11" width="9.1796875" style="1"/>
-    <col min="12" max="16384" width="9.1796875" style="1" collapsed="1"/>
+    <col min="8" max="8" width="9.1796875" style="1"/>
+    <col min="9" max="16384" width="9.1796875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -5952,92 +5980,172 @@
       <c r="G211" s="7"/>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A212" s="11"/>
-      <c r="B212" s="11"/>
-      <c r="C212" s="11"/>
-      <c r="D212" s="11"/>
-      <c r="E212" s="11"/>
-      <c r="F212" s="11"/>
-      <c r="G212" s="11"/>
+      <c r="A212" s="28"/>
+      <c r="B212" s="28"/>
+      <c r="C212" s="28"/>
+      <c r="D212" s="28"/>
+      <c r="E212" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="F212" s="28"/>
+      <c r="G212" s="28"/>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A213" s="11"/>
-      <c r="B213" s="11"/>
-      <c r="C213" s="11"/>
-      <c r="D213" s="11"/>
-      <c r="E213" s="12"/>
-      <c r="F213" s="11"/>
-      <c r="G213" s="11"/>
+      <c r="A213" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="B213" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C213" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D213" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E213" s="27"/>
+      <c r="F213" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G213" s="7"/>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A214" s="11"/>
-      <c r="B214" s="11"/>
-      <c r="C214" s="11"/>
-      <c r="D214" s="11"/>
-      <c r="E214" s="11"/>
-      <c r="F214" s="11"/>
-      <c r="G214" s="11"/>
+      <c r="A214" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="B214" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C214" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D214" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E214" s="27"/>
+      <c r="F214" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G214" s="7"/>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A215" s="11"/>
-      <c r="B215" s="11"/>
-      <c r="C215" s="11"/>
-      <c r="D215" s="11"/>
-      <c r="E215" s="12"/>
-      <c r="F215" s="11"/>
-      <c r="G215" s="11"/>
+      <c r="A215" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="B215" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C215" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D215" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E215" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F215" s="7"/>
+      <c r="G215" s="7"/>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A216" s="11"/>
-      <c r="B216" s="11"/>
-      <c r="C216" s="11"/>
-      <c r="D216" s="11"/>
-      <c r="E216" s="11"/>
-      <c r="F216" s="34"/>
-      <c r="G216" s="34"/>
+      <c r="A216" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="B216" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C216" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D216" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E216" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F216" s="7"/>
+      <c r="G216" s="7"/>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A217" s="11"/>
-      <c r="B217" s="11"/>
-      <c r="C217" s="11"/>
-      <c r="D217" s="11"/>
-      <c r="E217" s="12"/>
-      <c r="F217" s="11"/>
-      <c r="G217" s="11"/>
+      <c r="A217" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="B217" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C217" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D217" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E217" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F217" s="7"/>
+      <c r="G217" s="7"/>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A218" s="11"/>
-      <c r="B218" s="11"/>
-      <c r="C218" s="11"/>
-      <c r="D218" s="11"/>
-      <c r="E218" s="11"/>
-      <c r="F218" s="11"/>
-      <c r="G218" s="11"/>
+      <c r="A218" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="B218" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C218" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="D218" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E218" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="F218" s="7"/>
+      <c r="G218" s="7"/>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A219" s="11"/>
-      <c r="B219" s="11"/>
-      <c r="C219" s="11"/>
-      <c r="D219" s="11"/>
-      <c r="E219" s="11"/>
-      <c r="F219" s="11"/>
-      <c r="G219" s="11"/>
+      <c r="A219" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="B219" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C219" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="D219" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="E219" s="29" t="s">
+        <v>256</v>
+      </c>
+      <c r="F219" s="7"/>
+      <c r="G219" s="7"/>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A220" s="11"/>
-      <c r="B220" s="11"/>
-      <c r="C220" s="11"/>
-      <c r="D220" s="11"/>
-      <c r="E220" s="11"/>
-      <c r="F220" s="11"/>
-      <c r="G220" s="11"/>
+      <c r="A220" s="26" t="s">
+        <v>251</v>
+      </c>
+      <c r="B220" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C220" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D220" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E220" s="27"/>
+      <c r="F220" s="7"/>
+      <c r="G220" s="7"/>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A221" s="11"/>
       <c r="B221" s="11"/>
       <c r="C221" s="11"/>
       <c r="D221" s="11"/>
-      <c r="E221" s="12"/>
+      <c r="E221" s="11"/>
       <c r="F221" s="11"/>
       <c r="G221" s="11"/>
     </row>
@@ -6118,27 +6226,27 @@
       <c r="B230" s="11"/>
       <c r="C230" s="11"/>
       <c r="D230" s="11"/>
-      <c r="E230" s="11"/>
+      <c r="E230" s="12"/>
       <c r="F230" s="11"/>
       <c r="G230" s="11"/>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A231" s="34"/>
-      <c r="B231" s="34"/>
-      <c r="C231" s="34"/>
-      <c r="D231" s="34"/>
-      <c r="E231" s="34"/>
+      <c r="A231" s="11"/>
+      <c r="B231" s="11"/>
+      <c r="C231" s="11"/>
+      <c r="D231" s="11"/>
+      <c r="E231" s="11"/>
       <c r="F231" s="11"/>
       <c r="G231" s="11"/>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A232" s="11"/>
-      <c r="B232" s="11"/>
-      <c r="C232" s="11"/>
-      <c r="D232" s="11"/>
-      <c r="E232" s="11"/>
-      <c r="F232" s="34"/>
-      <c r="G232" s="34"/>
+      <c r="A232" s="34"/>
+      <c r="B232" s="34"/>
+      <c r="C232" s="34"/>
+      <c r="D232" s="34"/>
+      <c r="E232" s="34"/>
+      <c r="F232" s="11"/>
+      <c r="G232" s="11"/>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A233" s="11"/>
@@ -6146,8 +6254,8 @@
       <c r="C233" s="11"/>
       <c r="D233" s="11"/>
       <c r="E233" s="11"/>
-      <c r="F233" s="11"/>
-      <c r="G233" s="11"/>
+      <c r="F233" s="34"/>
+      <c r="G233" s="34"/>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A234" s="11"/>
@@ -6217,7 +6325,7 @@
       <c r="B241" s="11"/>
       <c r="C241" s="11"/>
       <c r="D241" s="11"/>
-      <c r="E241" s="12"/>
+      <c r="E241" s="11"/>
       <c r="F241" s="11"/>
       <c r="G241" s="11"/>
     </row>
@@ -6262,25 +6370,25 @@
       <c r="B246" s="11"/>
       <c r="C246" s="11"/>
       <c r="D246" s="11"/>
-      <c r="E246" s="11"/>
+      <c r="E246" s="12"/>
       <c r="F246" s="11"/>
       <c r="G246" s="11"/>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A247" s="34"/>
-      <c r="B247" s="34"/>
-      <c r="C247" s="34"/>
-      <c r="D247" s="34"/>
-      <c r="E247" s="34"/>
+      <c r="A247" s="11"/>
+      <c r="B247" s="11"/>
+      <c r="C247" s="11"/>
+      <c r="D247" s="11"/>
+      <c r="E247" s="11"/>
       <c r="F247" s="11"/>
       <c r="G247" s="11"/>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A248" s="11"/>
-      <c r="B248" s="11"/>
-      <c r="C248" s="11"/>
-      <c r="D248" s="11"/>
-      <c r="E248" s="11"/>
+      <c r="A248" s="34"/>
+      <c r="B248" s="34"/>
+      <c r="C248" s="34"/>
+      <c r="D248" s="34"/>
+      <c r="E248" s="34"/>
       <c r="F248" s="11"/>
       <c r="G248" s="11"/>
     </row>
@@ -6290,8 +6398,8 @@
       <c r="C249" s="11"/>
       <c r="D249" s="11"/>
       <c r="E249" s="11"/>
-      <c r="F249" s="34"/>
-      <c r="G249" s="34"/>
+      <c r="F249" s="11"/>
+      <c r="G249" s="11"/>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A250" s="11"/>
@@ -6299,8 +6407,8 @@
       <c r="C250" s="11"/>
       <c r="D250" s="11"/>
       <c r="E250" s="11"/>
-      <c r="F250" s="11"/>
-      <c r="G250" s="11"/>
+      <c r="F250" s="34"/>
+      <c r="G250" s="34"/>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A251" s="11"/>
@@ -6370,7 +6478,7 @@
       <c r="B258" s="11"/>
       <c r="C258" s="11"/>
       <c r="D258" s="11"/>
-      <c r="E258" s="12"/>
+      <c r="E258" s="11"/>
       <c r="F258" s="11"/>
       <c r="G258" s="11"/>
     </row>
@@ -6415,25 +6523,25 @@
       <c r="B263" s="11"/>
       <c r="C263" s="11"/>
       <c r="D263" s="11"/>
-      <c r="E263" s="11"/>
+      <c r="E263" s="12"/>
       <c r="F263" s="11"/>
       <c r="G263" s="11"/>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A264" s="34"/>
-      <c r="B264" s="34"/>
-      <c r="C264" s="34"/>
-      <c r="D264" s="34"/>
-      <c r="E264" s="34"/>
+      <c r="A264" s="11"/>
+      <c r="B264" s="11"/>
+      <c r="C264" s="11"/>
+      <c r="D264" s="11"/>
+      <c r="E264" s="11"/>
       <c r="F264" s="11"/>
       <c r="G264" s="11"/>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A265" s="11"/>
-      <c r="B265" s="11"/>
-      <c r="C265" s="11"/>
-      <c r="D265" s="11"/>
-      <c r="E265" s="11"/>
+      <c r="A265" s="34"/>
+      <c r="B265" s="34"/>
+      <c r="C265" s="34"/>
+      <c r="D265" s="34"/>
+      <c r="E265" s="34"/>
       <c r="F265" s="11"/>
       <c r="G265" s="11"/>
     </row>
@@ -6479,8 +6587,8 @@
       <c r="C270" s="11"/>
       <c r="D270" s="11"/>
       <c r="E270" s="11"/>
-      <c r="F270" s="34"/>
-      <c r="G270" s="34"/>
+      <c r="F270" s="11"/>
+      <c r="G270" s="11"/>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A271" s="11"/>
@@ -6488,8 +6596,8 @@
       <c r="C271" s="11"/>
       <c r="D271" s="11"/>
       <c r="E271" s="11"/>
-      <c r="F271" s="11"/>
-      <c r="G271" s="11"/>
+      <c r="F271" s="34"/>
+      <c r="G271" s="34"/>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A272" s="11"/>
@@ -6593,36 +6701,36 @@
     <row r="283" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A283" s="11"/>
       <c r="B283" s="11"/>
-      <c r="C283" s="13"/>
+      <c r="C283" s="11"/>
       <c r="D283" s="11"/>
       <c r="E283" s="11"/>
-      <c r="F283" s="34"/>
-      <c r="G283" s="34"/>
+      <c r="F283" s="11"/>
+      <c r="G283" s="11"/>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A284" s="11"/>
       <c r="B284" s="11"/>
-      <c r="C284" s="11"/>
+      <c r="C284" s="13"/>
       <c r="D284" s="11"/>
       <c r="E284" s="11"/>
-      <c r="F284" s="11"/>
-      <c r="G284" s="11"/>
+      <c r="F284" s="34"/>
+      <c r="G284" s="34"/>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A285" s="34"/>
-      <c r="B285" s="34"/>
-      <c r="C285" s="34"/>
-      <c r="D285" s="34"/>
-      <c r="E285" s="34"/>
+      <c r="A285" s="11"/>
+      <c r="B285" s="11"/>
+      <c r="C285" s="11"/>
+      <c r="D285" s="11"/>
+      <c r="E285" s="11"/>
       <c r="F285" s="11"/>
       <c r="G285" s="11"/>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A286" s="11"/>
-      <c r="B286" s="11"/>
-      <c r="C286" s="11"/>
-      <c r="D286" s="11"/>
-      <c r="E286" s="11"/>
+      <c r="A286" s="34"/>
+      <c r="B286" s="34"/>
+      <c r="C286" s="34"/>
+      <c r="D286" s="34"/>
+      <c r="E286" s="34"/>
       <c r="F286" s="11"/>
       <c r="G286" s="11"/>
     </row>
@@ -6726,20 +6834,20 @@
       <c r="G297" s="11"/>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A298" s="34"/>
-      <c r="B298" s="34"/>
-      <c r="C298" s="34"/>
-      <c r="D298" s="34"/>
-      <c r="E298" s="34"/>
+      <c r="A298" s="11"/>
+      <c r="B298" s="11"/>
+      <c r="C298" s="11"/>
+      <c r="D298" s="11"/>
+      <c r="E298" s="11"/>
       <c r="F298" s="11"/>
       <c r="G298" s="11"/>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A299" s="11"/>
-      <c r="B299" s="11"/>
-      <c r="C299" s="11"/>
-      <c r="D299" s="11"/>
-      <c r="E299" s="11"/>
+      <c r="A299" s="34"/>
+      <c r="B299" s="34"/>
+      <c r="C299" s="34"/>
+      <c r="D299" s="34"/>
+      <c r="E299" s="34"/>
       <c r="F299" s="11"/>
       <c r="G299" s="11"/>
     </row>
@@ -6776,8 +6884,8 @@
       <c r="C303" s="11"/>
       <c r="D303" s="11"/>
       <c r="E303" s="11"/>
-      <c r="F303" s="34"/>
-      <c r="G303" s="34"/>
+      <c r="F303" s="11"/>
+      <c r="G303" s="11"/>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A304" s="11"/>
@@ -6785,8 +6893,8 @@
       <c r="C304" s="11"/>
       <c r="D304" s="11"/>
       <c r="E304" s="11"/>
-      <c r="F304" s="11"/>
-      <c r="G304" s="11"/>
+      <c r="F304" s="34"/>
+      <c r="G304" s="34"/>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A305" s="11"/>
@@ -6906,20 +7014,20 @@
       <c r="G317" s="11"/>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A318" s="34"/>
-      <c r="B318" s="34"/>
-      <c r="C318" s="34"/>
-      <c r="D318" s="34"/>
-      <c r="E318" s="34"/>
+      <c r="A318" s="11"/>
+      <c r="B318" s="11"/>
+      <c r="C318" s="11"/>
+      <c r="D318" s="11"/>
+      <c r="E318" s="11"/>
       <c r="F318" s="11"/>
       <c r="G318" s="11"/>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A319" s="11"/>
-      <c r="B319" s="11"/>
-      <c r="C319" s="11"/>
-      <c r="D319" s="11"/>
-      <c r="E319" s="11"/>
+      <c r="A319" s="34"/>
+      <c r="B319" s="34"/>
+      <c r="C319" s="34"/>
+      <c r="D319" s="34"/>
+      <c r="E319" s="34"/>
       <c r="F319" s="11"/>
       <c r="G319" s="11"/>
     </row>
@@ -7027,7 +7135,7 @@
       <c r="B331" s="11"/>
       <c r="C331" s="11"/>
       <c r="D331" s="11"/>
-      <c r="E331" s="12"/>
+      <c r="E331" s="11"/>
       <c r="F331" s="11"/>
       <c r="G331" s="11"/>
     </row>
@@ -7081,7 +7189,7 @@
       <c r="B337" s="11"/>
       <c r="C337" s="11"/>
       <c r="D337" s="11"/>
-      <c r="E337" s="11"/>
+      <c r="E337" s="12"/>
       <c r="F337" s="11"/>
       <c r="G337" s="11"/>
     </row>
@@ -7091,8 +7199,8 @@
       <c r="C338" s="11"/>
       <c r="D338" s="11"/>
       <c r="E338" s="11"/>
-      <c r="F338" s="34"/>
-      <c r="G338" s="34"/>
+      <c r="F338" s="11"/>
+      <c r="G338" s="11"/>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A339" s="11"/>
@@ -7100,8 +7208,8 @@
       <c r="C339" s="11"/>
       <c r="D339" s="11"/>
       <c r="E339" s="11"/>
-      <c r="F339" s="11"/>
-      <c r="G339" s="11"/>
+      <c r="F339" s="34"/>
+      <c r="G339" s="34"/>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A340" s="11"/>
@@ -7189,7 +7297,7 @@
       <c r="B349" s="11"/>
       <c r="C349" s="11"/>
       <c r="D349" s="11"/>
-      <c r="E349" s="12"/>
+      <c r="E349" s="11"/>
       <c r="F349" s="11"/>
       <c r="G349" s="11"/>
     </row>
@@ -7198,7 +7306,7 @@
       <c r="B350" s="11"/>
       <c r="C350" s="11"/>
       <c r="D350" s="11"/>
-      <c r="E350" s="11"/>
+      <c r="E350" s="12"/>
       <c r="F350" s="11"/>
       <c r="G350" s="11"/>
     </row>
@@ -7221,20 +7329,20 @@
       <c r="G352" s="11"/>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A353" s="34"/>
-      <c r="B353" s="34"/>
-      <c r="C353" s="34"/>
-      <c r="D353" s="34"/>
-      <c r="E353" s="34"/>
+      <c r="A353" s="11"/>
+      <c r="B353" s="11"/>
+      <c r="C353" s="11"/>
+      <c r="D353" s="11"/>
+      <c r="E353" s="11"/>
       <c r="F353" s="11"/>
       <c r="G353" s="11"/>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A354" s="11"/>
-      <c r="B354" s="11"/>
-      <c r="C354" s="11"/>
-      <c r="D354" s="11"/>
-      <c r="E354" s="11"/>
+      <c r="A354" s="34"/>
+      <c r="B354" s="34"/>
+      <c r="C354" s="34"/>
+      <c r="D354" s="34"/>
+      <c r="E354" s="34"/>
       <c r="F354" s="11"/>
       <c r="G354" s="11"/>
     </row>
@@ -7271,8 +7379,8 @@
       <c r="C358" s="11"/>
       <c r="D358" s="11"/>
       <c r="E358" s="11"/>
-      <c r="F358" s="34"/>
-      <c r="G358" s="34"/>
+      <c r="F358" s="11"/>
+      <c r="G358" s="11"/>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A359" s="11"/>
@@ -7280,8 +7388,8 @@
       <c r="C359" s="11"/>
       <c r="D359" s="11"/>
       <c r="E359" s="11"/>
-      <c r="F359" s="11"/>
-      <c r="G359" s="11"/>
+      <c r="F359" s="34"/>
+      <c r="G359" s="34"/>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A360" s="11"/>
@@ -7333,7 +7441,7 @@
       <c r="B365" s="11"/>
       <c r="C365" s="11"/>
       <c r="D365" s="11"/>
-      <c r="E365" s="12"/>
+      <c r="E365" s="11"/>
       <c r="F365" s="11"/>
       <c r="G365" s="11"/>
     </row>
@@ -7378,9 +7486,9 @@
       <c r="B370" s="11"/>
       <c r="C370" s="11"/>
       <c r="D370" s="11"/>
-      <c r="E370" s="11"/>
-      <c r="F370" s="34"/>
-      <c r="G370" s="34"/>
+      <c r="E370" s="12"/>
+      <c r="F370" s="11"/>
+      <c r="G370" s="11"/>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A371" s="11"/>
@@ -7388,8 +7496,8 @@
       <c r="C371" s="11"/>
       <c r="D371" s="11"/>
       <c r="E371" s="11"/>
-      <c r="F371" s="11"/>
-      <c r="G371" s="11"/>
+      <c r="F371" s="34"/>
+      <c r="G371" s="34"/>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A372" s="11"/>
@@ -7401,20 +7509,20 @@
       <c r="G372" s="11"/>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A373" s="34"/>
-      <c r="B373" s="34"/>
-      <c r="C373" s="34"/>
-      <c r="D373" s="34"/>
-      <c r="E373" s="34"/>
+      <c r="A373" s="11"/>
+      <c r="B373" s="11"/>
+      <c r="C373" s="11"/>
+      <c r="D373" s="11"/>
+      <c r="E373" s="11"/>
       <c r="F373" s="11"/>
       <c r="G373" s="11"/>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A374" s="11"/>
-      <c r="B374" s="11"/>
-      <c r="C374" s="11"/>
-      <c r="D374" s="11"/>
-      <c r="E374" s="11"/>
+      <c r="A374" s="34"/>
+      <c r="B374" s="34"/>
+      <c r="C374" s="34"/>
+      <c r="D374" s="34"/>
+      <c r="E374" s="34"/>
       <c r="F374" s="11"/>
       <c r="G374" s="11"/>
     </row>
@@ -7509,20 +7617,20 @@
       <c r="G384" s="11"/>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A385" s="34"/>
-      <c r="B385" s="34"/>
-      <c r="C385" s="34"/>
-      <c r="D385" s="34"/>
-      <c r="E385" s="34"/>
+      <c r="A385" s="11"/>
+      <c r="B385" s="11"/>
+      <c r="C385" s="11"/>
+      <c r="D385" s="11"/>
+      <c r="E385" s="11"/>
       <c r="F385" s="11"/>
       <c r="G385" s="11"/>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A386" s="11"/>
-      <c r="B386" s="11"/>
-      <c r="C386" s="11"/>
-      <c r="D386" s="11"/>
-      <c r="E386" s="11"/>
+      <c r="A386" s="34"/>
+      <c r="B386" s="34"/>
+      <c r="C386" s="34"/>
+      <c r="D386" s="34"/>
+      <c r="E386" s="34"/>
       <c r="F386" s="11"/>
       <c r="G386" s="11"/>
     </row>
@@ -7568,8 +7676,8 @@
       <c r="C391" s="11"/>
       <c r="D391" s="11"/>
       <c r="E391" s="11"/>
-      <c r="F391" s="34"/>
-      <c r="G391" s="34"/>
+      <c r="F391" s="11"/>
+      <c r="G391" s="11"/>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A392" s="11"/>
@@ -7577,8 +7685,8 @@
       <c r="C392" s="11"/>
       <c r="D392" s="11"/>
       <c r="E392" s="11"/>
-      <c r="F392" s="11"/>
-      <c r="G392" s="11"/>
+      <c r="F392" s="34"/>
+      <c r="G392" s="34"/>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A393" s="11"/>
@@ -7698,20 +7806,20 @@
       <c r="G405" s="11"/>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A406" s="34"/>
-      <c r="B406" s="34"/>
-      <c r="C406" s="34"/>
-      <c r="D406" s="34"/>
-      <c r="E406" s="34"/>
+      <c r="A406" s="11"/>
+      <c r="B406" s="11"/>
+      <c r="C406" s="11"/>
+      <c r="D406" s="11"/>
+      <c r="E406" s="11"/>
       <c r="F406" s="11"/>
       <c r="G406" s="11"/>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A407" s="11"/>
-      <c r="B407" s="11"/>
-      <c r="C407" s="11"/>
-      <c r="D407" s="11"/>
-      <c r="E407" s="11"/>
+      <c r="A407" s="34"/>
+      <c r="B407" s="34"/>
+      <c r="C407" s="34"/>
+      <c r="D407" s="34"/>
+      <c r="E407" s="34"/>
       <c r="F407" s="11"/>
       <c r="G407" s="11"/>
     </row>
@@ -7820,8 +7928,8 @@
       <c r="C419" s="11"/>
       <c r="D419" s="11"/>
       <c r="E419" s="11"/>
-      <c r="F419" s="34"/>
-      <c r="G419" s="34"/>
+      <c r="F419" s="11"/>
+      <c r="G419" s="11"/>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A420" s="11"/>
@@ -7829,8 +7937,8 @@
       <c r="C420" s="11"/>
       <c r="D420" s="11"/>
       <c r="E420" s="11"/>
-      <c r="F420" s="11"/>
-      <c r="G420" s="11"/>
+      <c r="F420" s="34"/>
+      <c r="G420" s="34"/>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A421" s="11"/>
@@ -7873,7 +7981,7 @@
       <c r="B425" s="11"/>
       <c r="C425" s="11"/>
       <c r="D425" s="11"/>
-      <c r="E425" s="12"/>
+      <c r="E425" s="11"/>
       <c r="F425" s="11"/>
       <c r="G425" s="11"/>
     </row>
@@ -7891,7 +7999,7 @@
       <c r="B427" s="11"/>
       <c r="C427" s="11"/>
       <c r="D427" s="11"/>
-      <c r="E427" s="11"/>
+      <c r="E427" s="12"/>
       <c r="F427" s="11"/>
       <c r="G427" s="11"/>
     </row>
@@ -7950,20 +8058,20 @@
       <c r="G433" s="11"/>
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A434" s="34"/>
-      <c r="B434" s="34"/>
-      <c r="C434" s="34"/>
-      <c r="D434" s="34"/>
-      <c r="E434" s="34"/>
+      <c r="A434" s="11"/>
+      <c r="B434" s="11"/>
+      <c r="C434" s="11"/>
+      <c r="D434" s="11"/>
+      <c r="E434" s="11"/>
       <c r="F434" s="11"/>
       <c r="G434" s="11"/>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A435" s="11"/>
-      <c r="B435" s="11"/>
-      <c r="C435" s="11"/>
-      <c r="D435" s="11"/>
-      <c r="E435" s="11"/>
+      <c r="A435" s="34"/>
+      <c r="B435" s="34"/>
+      <c r="C435" s="34"/>
+      <c r="D435" s="34"/>
+      <c r="E435" s="34"/>
       <c r="F435" s="11"/>
       <c r="G435" s="11"/>
     </row>
@@ -8063,7 +8171,7 @@
       <c r="C446" s="11"/>
       <c r="D446" s="11"/>
       <c r="E446" s="11"/>
-      <c r="F446" s="12"/>
+      <c r="F446" s="11"/>
       <c r="G446" s="11"/>
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.35">
@@ -8117,8 +8225,8 @@
       <c r="C452" s="11"/>
       <c r="D452" s="11"/>
       <c r="E452" s="11"/>
-      <c r="F452" s="34"/>
-      <c r="G452" s="34"/>
+      <c r="F452" s="12"/>
+      <c r="G452" s="11"/>
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A453" s="11"/>
@@ -8126,8 +8234,8 @@
       <c r="C453" s="11"/>
       <c r="D453" s="11"/>
       <c r="E453" s="11"/>
-      <c r="F453" s="11"/>
-      <c r="G453" s="11"/>
+      <c r="F453" s="34"/>
+      <c r="G453" s="34"/>
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A454" s="11"/>
@@ -8247,20 +8355,20 @@
       <c r="G466" s="11"/>
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A467" s="34"/>
-      <c r="B467" s="34"/>
-      <c r="C467" s="34"/>
-      <c r="D467" s="34"/>
-      <c r="E467" s="34"/>
+      <c r="A467" s="11"/>
+      <c r="B467" s="11"/>
+      <c r="C467" s="11"/>
+      <c r="D467" s="11"/>
+      <c r="E467" s="11"/>
       <c r="F467" s="11"/>
       <c r="G467" s="11"/>
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A468" s="11"/>
-      <c r="B468" s="11"/>
-      <c r="C468" s="11"/>
-      <c r="D468" s="11"/>
-      <c r="E468" s="11"/>
+      <c r="A468" s="34"/>
+      <c r="B468" s="34"/>
+      <c r="C468" s="34"/>
+      <c r="D468" s="34"/>
+      <c r="E468" s="34"/>
       <c r="F468" s="11"/>
       <c r="G468" s="11"/>
     </row>
@@ -8459,8 +8567,8 @@
       <c r="C490" s="11"/>
       <c r="D490" s="11"/>
       <c r="E490" s="11"/>
-      <c r="F490" s="34"/>
-      <c r="G490" s="34"/>
+      <c r="F490" s="11"/>
+      <c r="G490" s="11"/>
     </row>
     <row r="491" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A491" s="11"/>
@@ -8468,8 +8576,8 @@
       <c r="C491" s="11"/>
       <c r="D491" s="11"/>
       <c r="E491" s="11"/>
-      <c r="F491" s="11"/>
-      <c r="G491" s="11"/>
+      <c r="F491" s="34"/>
+      <c r="G491" s="34"/>
     </row>
     <row r="492" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A492" s="11"/>
@@ -8589,20 +8697,20 @@
       <c r="G504" s="11"/>
     </row>
     <row r="505" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A505" s="34"/>
-      <c r="B505" s="34"/>
-      <c r="C505" s="34"/>
-      <c r="D505" s="34"/>
-      <c r="E505" s="34"/>
+      <c r="A505" s="11"/>
+      <c r="B505" s="11"/>
+      <c r="C505" s="11"/>
+      <c r="D505" s="11"/>
+      <c r="E505" s="11"/>
       <c r="F505" s="11"/>
       <c r="G505" s="11"/>
     </row>
     <row r="506" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A506" s="11"/>
-      <c r="B506" s="11"/>
-      <c r="C506" s="11"/>
-      <c r="D506" s="11"/>
-      <c r="E506" s="11"/>
+      <c r="A506" s="34"/>
+      <c r="B506" s="34"/>
+      <c r="C506" s="34"/>
+      <c r="D506" s="34"/>
+      <c r="E506" s="34"/>
       <c r="F506" s="11"/>
       <c r="G506" s="11"/>
     </row>
@@ -8783,8 +8891,8 @@
       <c r="C526" s="11"/>
       <c r="D526" s="11"/>
       <c r="E526" s="11"/>
-      <c r="F526" s="34"/>
-      <c r="G526" s="34"/>
+      <c r="F526" s="11"/>
+      <c r="G526" s="11"/>
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A527" s="11"/>
@@ -8792,8 +8900,8 @@
       <c r="C527" s="11"/>
       <c r="D527" s="11"/>
       <c r="E527" s="11"/>
-      <c r="F527" s="11"/>
-      <c r="G527" s="11"/>
+      <c r="F527" s="34"/>
+      <c r="G527" s="34"/>
     </row>
     <row r="528" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A528" s="11"/>
@@ -8913,20 +9021,20 @@
       <c r="G540" s="11"/>
     </row>
     <row r="541" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A541" s="34"/>
-      <c r="B541" s="34"/>
-      <c r="C541" s="34"/>
-      <c r="D541" s="34"/>
-      <c r="E541" s="34"/>
+      <c r="A541" s="11"/>
+      <c r="B541" s="11"/>
+      <c r="C541" s="11"/>
+      <c r="D541" s="11"/>
+      <c r="E541" s="11"/>
       <c r="F541" s="11"/>
       <c r="G541" s="11"/>
     </row>
     <row r="542" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A542" s="11"/>
-      <c r="B542" s="11"/>
-      <c r="C542" s="11"/>
-      <c r="D542" s="11"/>
-      <c r="E542" s="11"/>
+      <c r="A542" s="34"/>
+      <c r="B542" s="34"/>
+      <c r="C542" s="34"/>
+      <c r="D542" s="34"/>
+      <c r="E542" s="34"/>
       <c r="F542" s="11"/>
       <c r="G542" s="11"/>
     </row>
@@ -9044,8 +9152,8 @@
       <c r="C555" s="11"/>
       <c r="D555" s="11"/>
       <c r="E555" s="11"/>
-      <c r="F555" s="34"/>
-      <c r="G555" s="34"/>
+      <c r="F555" s="11"/>
+      <c r="G555" s="11"/>
     </row>
     <row r="556" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A556" s="11"/>
@@ -9053,8 +9161,8 @@
       <c r="C556" s="11"/>
       <c r="D556" s="11"/>
       <c r="E556" s="11"/>
-      <c r="F556" s="11"/>
-      <c r="G556" s="11"/>
+      <c r="F556" s="34"/>
+      <c r="G556" s="34"/>
     </row>
     <row r="557" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A557" s="11"/>
@@ -9174,20 +9282,20 @@
       <c r="G569" s="11"/>
     </row>
     <row r="570" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A570" s="34"/>
-      <c r="B570" s="34"/>
-      <c r="C570" s="34"/>
-      <c r="D570" s="34"/>
-      <c r="E570" s="34"/>
+      <c r="A570" s="11"/>
+      <c r="B570" s="11"/>
+      <c r="C570" s="11"/>
+      <c r="D570" s="11"/>
+      <c r="E570" s="11"/>
       <c r="F570" s="11"/>
       <c r="G570" s="11"/>
     </row>
     <row r="571" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A571" s="11"/>
-      <c r="B571" s="11"/>
-      <c r="C571" s="11"/>
-      <c r="D571" s="11"/>
-      <c r="E571" s="11"/>
+      <c r="A571" s="34"/>
+      <c r="B571" s="34"/>
+      <c r="C571" s="34"/>
+      <c r="D571" s="34"/>
+      <c r="E571" s="34"/>
       <c r="F571" s="11"/>
       <c r="G571" s="11"/>
     </row>
@@ -9224,8 +9332,8 @@
       <c r="C575" s="11"/>
       <c r="D575" s="11"/>
       <c r="E575" s="11"/>
-      <c r="F575" s="34"/>
-      <c r="G575" s="34"/>
+      <c r="F575" s="11"/>
+      <c r="G575" s="11"/>
     </row>
     <row r="576" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A576" s="11"/>
@@ -9233,8 +9341,8 @@
       <c r="C576" s="11"/>
       <c r="D576" s="11"/>
       <c r="E576" s="11"/>
-      <c r="F576" s="11"/>
-      <c r="G576" s="11"/>
+      <c r="F576" s="34"/>
+      <c r="G576" s="34"/>
     </row>
     <row r="577" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A577" s="11"/>
@@ -9277,7 +9385,7 @@
       <c r="B581" s="11"/>
       <c r="C581" s="11"/>
       <c r="D581" s="11"/>
-      <c r="E581" s="12"/>
+      <c r="E581" s="11"/>
       <c r="F581" s="11"/>
       <c r="G581" s="11"/>
     </row>
@@ -9313,7 +9421,7 @@
       <c r="B585" s="11"/>
       <c r="C585" s="11"/>
       <c r="D585" s="11"/>
-      <c r="E585" s="11"/>
+      <c r="E585" s="12"/>
       <c r="F585" s="11"/>
       <c r="G585" s="11"/>
     </row>
@@ -9354,20 +9462,20 @@
       <c r="G589" s="11"/>
     </row>
     <row r="590" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A590" s="34"/>
-      <c r="B590" s="34"/>
-      <c r="C590" s="34"/>
-      <c r="D590" s="34"/>
-      <c r="E590" s="34"/>
+      <c r="A590" s="11"/>
+      <c r="B590" s="11"/>
+      <c r="C590" s="11"/>
+      <c r="D590" s="11"/>
+      <c r="E590" s="11"/>
       <c r="F590" s="11"/>
       <c r="G590" s="11"/>
     </row>
     <row r="591" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A591" s="11"/>
-      <c r="B591" s="11"/>
-      <c r="C591" s="11"/>
-      <c r="D591" s="11"/>
-      <c r="E591" s="11"/>
+      <c r="A591" s="34"/>
+      <c r="B591" s="34"/>
+      <c r="C591" s="34"/>
+      <c r="D591" s="34"/>
+      <c r="E591" s="34"/>
       <c r="F591" s="11"/>
       <c r="G591" s="11"/>
     </row>
@@ -9431,8 +9539,8 @@
       <c r="C598" s="11"/>
       <c r="D598" s="11"/>
       <c r="E598" s="11"/>
-      <c r="F598" s="34"/>
-      <c r="G598" s="34"/>
+      <c r="F598" s="11"/>
+      <c r="G598" s="11"/>
     </row>
     <row r="599" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A599" s="11"/>
@@ -9449,8 +9557,8 @@
       <c r="C600" s="11"/>
       <c r="D600" s="11"/>
       <c r="E600" s="11"/>
-      <c r="F600" s="11"/>
-      <c r="G600" s="11"/>
+      <c r="F600" s="34"/>
+      <c r="G600" s="34"/>
     </row>
     <row r="601" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A601" s="11"/>
@@ -9506,7 +9614,7 @@
       <c r="F606" s="11"/>
       <c r="G606" s="11"/>
     </row>
-    <row r="607" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A607" s="11"/>
       <c r="B607" s="11"/>
       <c r="C607" s="11"/>
@@ -9515,14 +9623,14 @@
       <c r="F607" s="11"/>
       <c r="G607" s="11"/>
     </row>
-    <row r="608" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A608" s="11"/>
       <c r="B608" s="11"/>
       <c r="C608" s="11"/>
       <c r="D608" s="11"/>
       <c r="E608" s="11"/>
-      <c r="F608" s="34"/>
-      <c r="G608" s="34"/>
+      <c r="F608" s="11"/>
+      <c r="G608" s="11"/>
     </row>
     <row r="609" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A609" s="11"/>
@@ -9530,8 +9638,8 @@
       <c r="C609" s="11"/>
       <c r="D609" s="11"/>
       <c r="E609" s="11"/>
-      <c r="F609" s="11"/>
-      <c r="G609" s="11"/>
+      <c r="F609" s="34"/>
+      <c r="G609" s="34"/>
     </row>
     <row r="610" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A610" s="11"/>
@@ -9561,11 +9669,11 @@
       <c r="G612" s="11"/>
     </row>
     <row r="613" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A613" s="34"/>
-      <c r="B613" s="34"/>
-      <c r="C613" s="34"/>
-      <c r="D613" s="34"/>
-      <c r="E613" s="34"/>
+      <c r="A613" s="11"/>
+      <c r="B613" s="11"/>
+      <c r="C613" s="11"/>
+      <c r="D613" s="11"/>
+      <c r="E613" s="11"/>
       <c r="F613" s="11"/>
       <c r="G613" s="11"/>
     </row>
@@ -9579,11 +9687,11 @@
       <c r="G614" s="11"/>
     </row>
     <row r="615" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A615" s="11"/>
-      <c r="B615" s="11"/>
-      <c r="C615" s="11"/>
-      <c r="D615" s="11"/>
-      <c r="E615" s="11"/>
+      <c r="A615" s="34"/>
+      <c r="B615" s="34"/>
+      <c r="C615" s="34"/>
+      <c r="D615" s="34"/>
+      <c r="E615" s="34"/>
       <c r="F615" s="11"/>
       <c r="G615" s="11"/>
     </row>
@@ -9602,8 +9710,8 @@
       <c r="C617" s="11"/>
       <c r="D617" s="11"/>
       <c r="E617" s="11"/>
-      <c r="F617" s="34"/>
-      <c r="G617" s="34"/>
+      <c r="F617" s="11"/>
+      <c r="G617" s="11"/>
     </row>
     <row r="618" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A618" s="11"/>
@@ -9611,8 +9719,8 @@
       <c r="C618" s="11"/>
       <c r="D618" s="11"/>
       <c r="E618" s="11"/>
-      <c r="F618" s="11"/>
-      <c r="G618" s="11"/>
+      <c r="F618" s="34"/>
+      <c r="G618" s="34"/>
     </row>
     <row r="619" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A619" s="11"/>
@@ -9651,20 +9759,20 @@
       <c r="G622" s="11"/>
     </row>
     <row r="623" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A623" s="34"/>
-      <c r="B623" s="34"/>
-      <c r="C623" s="34"/>
-      <c r="D623" s="34"/>
-      <c r="E623" s="34"/>
+      <c r="A623" s="11"/>
+      <c r="B623" s="11"/>
+      <c r="C623" s="11"/>
+      <c r="D623" s="11"/>
+      <c r="E623" s="11"/>
       <c r="F623" s="11"/>
       <c r="G623" s="11"/>
     </row>
     <row r="624" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A624" s="11"/>
-      <c r="B624" s="11"/>
-      <c r="C624" s="11"/>
-      <c r="D624" s="11"/>
-      <c r="E624" s="11"/>
+      <c r="A624" s="34"/>
+      <c r="B624" s="34"/>
+      <c r="C624" s="34"/>
+      <c r="D624" s="34"/>
+      <c r="E624" s="34"/>
       <c r="F624" s="11"/>
       <c r="G624" s="11"/>
     </row>
@@ -9732,20 +9840,20 @@
       <c r="G631" s="11"/>
     </row>
     <row r="632" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A632" s="34"/>
-      <c r="B632" s="34"/>
-      <c r="C632" s="34"/>
-      <c r="D632" s="34"/>
-      <c r="E632" s="34"/>
+      <c r="A632" s="11"/>
+      <c r="B632" s="11"/>
+      <c r="C632" s="11"/>
+      <c r="D632" s="11"/>
+      <c r="E632" s="11"/>
       <c r="F632" s="11"/>
       <c r="G632" s="11"/>
     </row>
     <row r="633" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A633" s="11"/>
-      <c r="B633" s="11"/>
-      <c r="C633" s="11"/>
-      <c r="D633" s="11"/>
-      <c r="E633" s="11"/>
+      <c r="A633" s="34"/>
+      <c r="B633" s="34"/>
+      <c r="C633" s="34"/>
+      <c r="D633" s="34"/>
+      <c r="E633" s="34"/>
       <c r="F633" s="11"/>
       <c r="G633" s="11"/>
     </row>
@@ -9782,8 +9890,8 @@
       <c r="C637" s="11"/>
       <c r="D637" s="11"/>
       <c r="E637" s="11"/>
-      <c r="F637" s="34"/>
-      <c r="G637" s="34"/>
+      <c r="F637" s="11"/>
+      <c r="G637" s="11"/>
     </row>
     <row r="638" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A638" s="11"/>
@@ -9791,8 +9899,8 @@
       <c r="C638" s="11"/>
       <c r="D638" s="11"/>
       <c r="E638" s="11"/>
-      <c r="F638" s="11"/>
-      <c r="G638" s="11"/>
+      <c r="F638" s="34"/>
+      <c r="G638" s="34"/>
     </row>
     <row r="639" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A639" s="11"/>
@@ -9912,20 +10020,20 @@
       <c r="G651" s="11"/>
     </row>
     <row r="652" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A652" s="34"/>
-      <c r="B652" s="34"/>
-      <c r="C652" s="34"/>
-      <c r="D652" s="34"/>
-      <c r="E652" s="34"/>
+      <c r="A652" s="11"/>
+      <c r="B652" s="11"/>
+      <c r="C652" s="11"/>
+      <c r="D652" s="11"/>
+      <c r="E652" s="11"/>
       <c r="F652" s="11"/>
       <c r="G652" s="11"/>
     </row>
     <row r="653" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A653" s="11"/>
-      <c r="B653" s="11"/>
-      <c r="C653" s="11"/>
-      <c r="D653" s="11"/>
-      <c r="E653" s="11"/>
+      <c r="A653" s="34"/>
+      <c r="B653" s="34"/>
+      <c r="C653" s="34"/>
+      <c r="D653" s="34"/>
+      <c r="E653" s="34"/>
       <c r="F653" s="11"/>
       <c r="G653" s="11"/>
     </row>
@@ -10025,6 +10133,8 @@
       <c r="C664" s="11"/>
       <c r="D664" s="11"/>
       <c r="E664" s="11"/>
+      <c r="F664" s="11"/>
+      <c r="G664" s="11"/>
     </row>
     <row r="665" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A665" s="11"/>
@@ -10123,6 +10233,13 @@
       <c r="C678" s="11"/>
       <c r="D678" s="11"/>
       <c r="E678" s="11"/>
+    </row>
+    <row r="679" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A679" s="11"/>
+      <c r="B679" s="11"/>
+      <c r="C679" s="11"/>
+      <c r="D679" s="11"/>
+      <c r="E679" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G1"/>

--- a/src/test/java/com/born/xls/ProductListPage.xlsx
+++ b/src/test/java/com/born/xls/ProductListPage.xlsx
@@ -1888,7 +1888,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C28"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2217,10 +2217,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H679"/>
+  <dimension ref="A1:K679"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2232,8 +2232,9 @@
     <col min="5" max="5" width="34.1796875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="29.7265625" style="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="17" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9.1796875" style="1"/>
-    <col min="9" max="16384" width="9.1796875" style="1" collapsed="1"/>
+    <col min="8" max="8" width="9.1796875" style="1" collapsed="1"/>
+    <col min="9" max="11" width="9.1796875" style="1"/>
+    <col min="12" max="16384" width="9.1796875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">

--- a/src/test/java/com/born/xls/ProductListPage.xlsx
+++ b/src/test/java/com/born/xls/ProductListPage.xlsx
@@ -1888,7 +1888,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2219,8 +2219,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K679"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView topLeftCell="A211" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10254,14 +10254,14 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.1796875" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="10.26953125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="6.6328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="255" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
